--- a/data/source/weekly/cs-en-us-116pct.xlsx
+++ b/data/source/weekly/cs-en-us-116pct.xlsx
@@ -69,7 +69,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">8</t>
+      <t xml:space="preserve">9</t>
     </r>
   </si>
   <si>
@@ -95,7 +95,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">2/17/2025</t>
+      <t xml:space="preserve">2/24/2025</t>
     </r>
     <r>
       <rPr>
@@ -113,7 +113,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">2/23/2025</t>
+      <t xml:space="preserve">3/2/2025</t>
     </r>
   </si>
   <si>
@@ -913,35 +913,35 @@
       <c r="A15" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>21</v>
+      <c r="C15" s="14">
+        <v>1</v>
+      </c>
+      <c r="D15" s="14">
+        <v>1</v>
+      </c>
+      <c r="E15" s="15">
+        <v>0</v>
       </c>
       <c r="F15" s="14">
-        <v>3</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>21</v>
+        <v>2</v>
+      </c>
+      <c r="G15" s="14">
+        <v>1</v>
+      </c>
+      <c r="H15" s="15">
+        <v>100</v>
       </c>
       <c r="I15" s="14">
-        <v>6</v>
-      </c>
-      <c r="J15" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="K15" s="13" t="s">
-        <v>21</v>
+        <v>7</v>
+      </c>
+      <c r="J15" s="14">
+        <v>1</v>
+      </c>
+      <c r="K15" s="15">
+        <v>600</v>
       </c>
       <c r="L15" s="15">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M15" s="13" t="s">
         <v>21</v>
@@ -957,32 +957,32 @@
       <c r="C16" s="14">
         <v>1</v>
       </c>
-      <c r="D16" s="14">
-        <v>2</v>
-      </c>
-      <c r="E16" s="15">
-        <v>-50</v>
+      <c r="D16" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="F16" s="14">
         <v>3</v>
       </c>
       <c r="G16" s="14">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="H16" s="15">
-        <v>-76.923076923076</v>
+        <v>-57.142857142857</v>
       </c>
       <c r="I16" s="14">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J16" s="14">
         <v>20</v>
       </c>
       <c r="K16" s="15">
-        <v>-70</v>
+        <v>-65</v>
       </c>
       <c r="L16" s="15">
-        <v>-45.454545454545</v>
+        <v>-36.363636363636</v>
       </c>
       <c r="M16" s="13" t="s">
         <v>21</v>
@@ -999,31 +999,31 @@
         <v>4</v>
       </c>
       <c r="D17" s="14">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E17" s="15">
-        <v>-20</v>
+        <v>100</v>
       </c>
       <c r="F17" s="14">
         <v>18</v>
       </c>
       <c r="G17" s="14">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H17" s="15">
-        <v>-10</v>
+        <v>20</v>
       </c>
       <c r="I17" s="14">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="J17" s="14">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K17" s="15">
-        <v>12.121212121212</v>
+        <v>17.142857142857</v>
       </c>
       <c r="L17" s="15">
-        <v>12.121212121212</v>
+        <v>2.5</v>
       </c>
       <c r="M17" s="13" t="s">
         <v>21</v>
@@ -1036,35 +1036,35 @@
       <c r="A18" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="13" t="s">
-        <v>20</v>
+      <c r="C18" s="14">
+        <v>1</v>
       </c>
       <c r="D18" s="14">
         <v>1</v>
       </c>
       <c r="E18" s="15">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F18" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G18" s="14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H18" s="15">
-        <v>-60</v>
+        <v>-50</v>
       </c>
       <c r="I18" s="14">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J18" s="14">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K18" s="15">
-        <v>-11.111111111111</v>
+        <v>-10</v>
       </c>
       <c r="L18" s="15">
-        <v>-20</v>
+        <v>-35.714285714285</v>
       </c>
       <c r="M18" s="13" t="s">
         <v>21</v>
@@ -1078,34 +1078,34 @@
         <v>26</v>
       </c>
       <c r="C19" s="14">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D19" s="14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E19" s="15">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="F19" s="14">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G19" s="14">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H19" s="15">
-        <v>-35</v>
+        <v>-5.882352941176</v>
       </c>
       <c r="I19" s="14">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="J19" s="14">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K19" s="15">
-        <v>-46</v>
+        <v>-38.888888888888</v>
       </c>
       <c r="L19" s="15">
-        <v>-30.769230769230</v>
+        <v>-25</v>
       </c>
       <c r="M19" s="13" t="s">
         <v>21</v>
@@ -1119,34 +1119,34 @@
         <v>27</v>
       </c>
       <c r="C20" s="14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D20" s="14">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E20" s="15">
-        <v>-60</v>
+        <v>300</v>
       </c>
       <c r="F20" s="14">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G20" s="14">
         <v>16</v>
       </c>
       <c r="H20" s="15">
-        <v>0</v>
+        <v>-31.25</v>
       </c>
       <c r="I20" s="14">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J20" s="14">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K20" s="15">
-        <v>-3.333333333333</v>
+        <v>6.451612903225</v>
       </c>
       <c r="L20" s="15">
-        <v>38.095238095238</v>
+        <v>22.222222222222</v>
       </c>
       <c r="M20" s="13" t="s">
         <v>21</v>
@@ -1160,34 +1160,34 @@
         <v>28</v>
       </c>
       <c r="C21" s="17">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D21" s="17">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E21" s="18">
-        <v>-18.75</v>
+        <v>77.777777777777</v>
       </c>
       <c r="F21" s="17">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G21" s="17">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="H21" s="18">
-        <v>-25.675675675675</v>
+        <v>-14.516129032258</v>
       </c>
       <c r="I21" s="17">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="J21" s="17">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="K21" s="18">
-        <v>-20.979020979021</v>
+        <v>-14.473684210526</v>
       </c>
       <c r="L21" s="18">
-        <v>-1.739130434782</v>
+        <v>-5.109489051094</v>
       </c>
       <c r="M21" s="19" t="s">
         <v>21</v>
@@ -1283,34 +1283,34 @@
         <v>31</v>
       </c>
       <c r="C24" s="14">
+        <v>5</v>
+      </c>
+      <c r="D24" s="14">
         <v>10</v>
       </c>
-      <c r="D24" s="14">
-        <v>12</v>
-      </c>
       <c r="E24" s="15">
-        <v>-16.666666666666</v>
+        <v>-50</v>
       </c>
       <c r="F24" s="14">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G24" s="14">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="H24" s="15">
-        <v>-30.357142857142</v>
+        <v>-27.450980392156</v>
       </c>
       <c r="I24" s="14">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="J24" s="14">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="K24" s="15">
-        <v>-5.882352941176</v>
+        <v>-9.473684210526</v>
       </c>
       <c r="L24" s="15">
-        <v>3.896103896103</v>
+        <v>0</v>
       </c>
       <c r="M24" s="13" t="s">
         <v>21</v>
@@ -1323,35 +1323,35 @@
       <c r="A25" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="14">
-        <v>3</v>
+      <c r="C25" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="D25" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E25" s="15">
-        <v>50</v>
+        <v>-100</v>
       </c>
       <c r="F25" s="14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G25" s="14">
         <v>5</v>
       </c>
       <c r="H25" s="15">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="I25" s="14">
         <v>23</v>
       </c>
       <c r="J25" s="14">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K25" s="15">
-        <v>109.090909090909</v>
+        <v>91.666666666666</v>
       </c>
       <c r="L25" s="15">
-        <v>43.75</v>
+        <v>27.777777777777</v>
       </c>
       <c r="M25" s="13" t="s">
         <v>21</v>
@@ -1365,34 +1365,34 @@
         <v>33</v>
       </c>
       <c r="C26" s="14">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D26" s="14">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E26" s="15">
-        <v>-50</v>
+        <v>-9.090909090909</v>
       </c>
       <c r="F26" s="14">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G26" s="14">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H26" s="15">
-        <v>-13.157894736842</v>
+        <v>-12.820512820512</v>
       </c>
       <c r="I26" s="14">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="J26" s="14">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="K26" s="15">
-        <v>3.773584905660</v>
+        <v>1.5625</v>
       </c>
       <c r="L26" s="15">
-        <v>30.952380952381</v>
+        <v>38.297872340425</v>
       </c>
       <c r="M26" s="13" t="s">
         <v>21</v>
@@ -1405,35 +1405,35 @@
       <c r="A27" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>21</v>
+      <c r="C27" s="14">
+        <v>1</v>
+      </c>
+      <c r="D27" s="14">
+        <v>1</v>
+      </c>
+      <c r="E27" s="15">
+        <v>0</v>
       </c>
       <c r="F27" s="14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G27" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H27" s="15">
+        <v>50</v>
+      </c>
+      <c r="I27" s="14">
+        <v>8</v>
+      </c>
+      <c r="J27" s="14">
+        <v>2</v>
+      </c>
+      <c r="K27" s="15">
         <v>300</v>
       </c>
-      <c r="I27" s="14">
-        <v>7</v>
-      </c>
-      <c r="J27" s="14">
-        <v>1</v>
-      </c>
-      <c r="K27" s="15">
-        <v>600</v>
-      </c>
       <c r="L27" s="15">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="M27" s="13" t="s">
         <v>21</v>
@@ -1490,29 +1490,29 @@
       <c r="C29" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>21</v>
+      <c r="D29" s="14">
+        <v>1</v>
+      </c>
+      <c r="E29" s="15">
+        <v>-100</v>
       </c>
       <c r="F29" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G29" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H29" s="13" t="s">
-        <v>21</v>
+      <c r="G29" s="14">
+        <v>1</v>
+      </c>
+      <c r="H29" s="15">
+        <v>-100</v>
       </c>
       <c r="I29" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="J29" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="K29" s="13" t="s">
-        <v>21</v>
+      <c r="J29" s="14">
+        <v>1</v>
+      </c>
+      <c r="K29" s="15">
+        <v>-100</v>
       </c>
       <c r="L29" s="13" t="s">
         <v>21</v>
@@ -1531,29 +1531,29 @@
       <c r="C30" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E30" s="13" t="s">
-        <v>21</v>
+      <c r="D30" s="14">
+        <v>1</v>
+      </c>
+      <c r="E30" s="15">
+        <v>-100</v>
       </c>
       <c r="F30" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G30" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H30" s="13" t="s">
-        <v>21</v>
+      <c r="G30" s="14">
+        <v>1</v>
+      </c>
+      <c r="H30" s="15">
+        <v>-100</v>
       </c>
       <c r="I30" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="J30" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="K30" s="13" t="s">
-        <v>21</v>
+      <c r="J30" s="14">
+        <v>1</v>
+      </c>
+      <c r="K30" s="15">
+        <v>-100</v>
       </c>
       <c r="L30" s="13" t="s">
         <v>21</v>

--- a/data/source/weekly/cs-en-us-116pct.xlsx
+++ b/data/source/weekly/cs-en-us-116pct.xlsx
@@ -69,7 +69,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">9</t>
+      <t xml:space="preserve">10</t>
     </r>
   </si>
   <si>
@@ -95,7 +95,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">2/24/2025</t>
+      <t xml:space="preserve">3/3/2025</t>
     </r>
     <r>
       <rPr>
@@ -113,7 +113,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">3/2/2025</t>
+      <t xml:space="preserve">3/9/2025</t>
     </r>
   </si>
   <si>
@@ -913,23 +913,23 @@
       <c r="A15" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="14">
         <v>1</v>
-      </c>
-      <c r="D15" s="14">
-        <v>1</v>
-      </c>
-      <c r="E15" s="15">
-        <v>0</v>
-      </c>
-      <c r="F15" s="14">
-        <v>2</v>
       </c>
       <c r="G15" s="14">
         <v>1</v>
       </c>
       <c r="H15" s="15">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I15" s="14">
         <v>7</v>
@@ -954,8 +954,8 @@
       <c r="A16" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="14">
-        <v>1</v>
+      <c r="C16" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="D16" s="13" t="s">
         <v>20</v>
@@ -967,10 +967,10 @@
         <v>3</v>
       </c>
       <c r="G16" s="14">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H16" s="15">
-        <v>-57.142857142857</v>
+        <v>0</v>
       </c>
       <c r="I16" s="14">
         <v>7</v>
@@ -982,7 +982,7 @@
         <v>-65</v>
       </c>
       <c r="L16" s="15">
-        <v>-36.363636363636</v>
+        <v>-50</v>
       </c>
       <c r="M16" s="13" t="s">
         <v>21</v>
@@ -996,34 +996,34 @@
         <v>24</v>
       </c>
       <c r="C17" s="14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D17" s="14">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E17" s="15">
-        <v>100</v>
+        <v>-66.666666666666</v>
       </c>
       <c r="F17" s="14">
+        <v>14</v>
+      </c>
+      <c r="G17" s="14">
         <v>18</v>
       </c>
-      <c r="G17" s="14">
-        <v>15</v>
-      </c>
       <c r="H17" s="15">
-        <v>20</v>
+        <v>-22.222222222222</v>
       </c>
       <c r="I17" s="14">
+        <v>44</v>
+      </c>
+      <c r="J17" s="14">
         <v>41</v>
       </c>
-      <c r="J17" s="14">
-        <v>35</v>
-      </c>
       <c r="K17" s="15">
-        <v>17.142857142857</v>
+        <v>7.317073170731</v>
       </c>
       <c r="L17" s="15">
-        <v>2.5</v>
+        <v>2.325581395348</v>
       </c>
       <c r="M17" s="13" t="s">
         <v>21</v>
@@ -1036,14 +1036,14 @@
       <c r="A18" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="14">
-        <v>1</v>
+      <c r="C18" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="D18" s="14">
         <v>1</v>
       </c>
       <c r="E18" s="15">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F18" s="14">
         <v>3</v>
@@ -1058,13 +1058,13 @@
         <v>9</v>
       </c>
       <c r="J18" s="14">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K18" s="15">
-        <v>-10</v>
+        <v>-18.181818181818</v>
       </c>
       <c r="L18" s="15">
-        <v>-35.714285714285</v>
+        <v>-50</v>
       </c>
       <c r="M18" s="13" t="s">
         <v>21</v>
@@ -1078,34 +1078,34 @@
         <v>26</v>
       </c>
       <c r="C19" s="14">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D19" s="14">
         <v>4</v>
       </c>
       <c r="E19" s="15">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="F19" s="14">
+        <v>19</v>
+      </c>
+      <c r="G19" s="14">
         <v>16</v>
       </c>
-      <c r="G19" s="14">
-        <v>17</v>
-      </c>
       <c r="H19" s="15">
-        <v>-5.882352941176</v>
+        <v>18.75</v>
       </c>
       <c r="I19" s="14">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="J19" s="14">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="K19" s="15">
-        <v>-38.888888888888</v>
+        <v>-31.034482758620</v>
       </c>
       <c r="L19" s="15">
-        <v>-25</v>
+        <v>-14.893617021276</v>
       </c>
       <c r="M19" s="13" t="s">
         <v>21</v>
@@ -1119,34 +1119,34 @@
         <v>27</v>
       </c>
       <c r="C20" s="14">
-        <v>4</v>
-      </c>
-      <c r="D20" s="14">
-        <v>1</v>
-      </c>
-      <c r="E20" s="15">
-        <v>300</v>
+        <v>2</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="F20" s="14">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G20" s="14">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H20" s="15">
-        <v>-31.25</v>
+        <v>-25</v>
       </c>
       <c r="I20" s="14">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J20" s="14">
         <v>31</v>
       </c>
       <c r="K20" s="15">
-        <v>6.451612903225</v>
+        <v>12.903225806451</v>
       </c>
       <c r="L20" s="15">
-        <v>22.222222222222</v>
+        <v>12.903225806451</v>
       </c>
       <c r="M20" s="13" t="s">
         <v>21</v>
@@ -1160,34 +1160,34 @@
         <v>28</v>
       </c>
       <c r="C21" s="17">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D21" s="17">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E21" s="18">
-        <v>77.777777777777</v>
+        <v>0</v>
       </c>
       <c r="F21" s="17">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G21" s="17">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="H21" s="18">
-        <v>-14.516129032258</v>
+        <v>-12.5</v>
       </c>
       <c r="I21" s="17">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="J21" s="17">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="K21" s="18">
-        <v>-14.473684210526</v>
+        <v>-12.883435582822</v>
       </c>
       <c r="L21" s="18">
-        <v>-5.109489051094</v>
+        <v>-7.792207792207</v>
       </c>
       <c r="M21" s="19" t="s">
         <v>21</v>
@@ -1283,34 +1283,34 @@
         <v>31</v>
       </c>
       <c r="C24" s="14">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D24" s="14">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E24" s="15">
-        <v>-50</v>
+        <v>-43.75</v>
       </c>
       <c r="F24" s="14">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G24" s="14">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H24" s="15">
-        <v>-27.450980392156</v>
+        <v>-35.849056603773</v>
       </c>
       <c r="I24" s="14">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="J24" s="14">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="K24" s="15">
-        <v>-9.473684210526</v>
+        <v>-15.315315315315</v>
       </c>
       <c r="L24" s="15">
-        <v>0</v>
+        <v>-13.761467889908</v>
       </c>
       <c r="M24" s="13" t="s">
         <v>21</v>
@@ -1323,35 +1323,35 @@
       <c r="A25" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="13" t="s">
-        <v>20</v>
+      <c r="C25" s="14">
+        <v>2</v>
       </c>
       <c r="D25" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E25" s="15">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F25" s="14">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G25" s="14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H25" s="15">
-        <v>140</v>
+        <v>66.666666666666</v>
       </c>
       <c r="I25" s="14">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J25" s="14">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K25" s="15">
-        <v>91.666666666666</v>
+        <v>78.571428571428</v>
       </c>
       <c r="L25" s="15">
-        <v>27.777777777777</v>
+        <v>19.047619047619</v>
       </c>
       <c r="M25" s="13" t="s">
         <v>21</v>
@@ -1365,34 +1365,34 @@
         <v>33</v>
       </c>
       <c r="C26" s="14">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D26" s="14">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E26" s="15">
-        <v>-9.090909090909</v>
+        <v>-73.913043478260</v>
       </c>
       <c r="F26" s="14">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G26" s="14">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="H26" s="15">
-        <v>-12.820512820512</v>
+        <v>-31.372549019607</v>
       </c>
       <c r="I26" s="14">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="J26" s="14">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="K26" s="15">
-        <v>1.5625</v>
+        <v>-18.390804597701</v>
       </c>
       <c r="L26" s="15">
-        <v>38.297872340425</v>
+        <v>39.215686274509</v>
       </c>
       <c r="M26" s="13" t="s">
         <v>21</v>
@@ -1408,11 +1408,11 @@
       <c r="C27" s="14">
         <v>1</v>
       </c>
-      <c r="D27" s="14">
-        <v>1</v>
-      </c>
-      <c r="E27" s="15">
-        <v>0</v>
+      <c r="D27" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="F27" s="14">
         <v>3</v>
@@ -1424,16 +1424,16 @@
         <v>50</v>
       </c>
       <c r="I27" s="14">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J27" s="14">
         <v>2</v>
       </c>
       <c r="K27" s="15">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="L27" s="15">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="M27" s="13" t="s">
         <v>21</v>
@@ -1449,29 +1449,29 @@
       <c r="C28" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F28" s="14">
+      <c r="D28" s="14">
         <v>1</v>
       </c>
-      <c r="G28" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H28" s="13" t="s">
-        <v>21</v>
+      <c r="E28" s="15">
+        <v>-100</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28" s="14">
+        <v>1</v>
+      </c>
+      <c r="H28" s="15">
+        <v>-100</v>
       </c>
       <c r="I28" s="14">
         <v>2</v>
       </c>
       <c r="J28" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K28" s="15">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L28" s="15">
         <v>-50</v>
@@ -1490,11 +1490,11 @@
       <c r="C29" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="14">
-        <v>1</v>
-      </c>
-      <c r="E29" s="15">
-        <v>-100</v>
+      <c r="D29" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="F29" s="13" t="s">
         <v>20</v>
@@ -1531,11 +1531,11 @@
       <c r="C30" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="14">
-        <v>1</v>
-      </c>
-      <c r="E30" s="15">
-        <v>-100</v>
+      <c r="D30" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="F30" s="13" t="s">
         <v>20</v>
@@ -1638,7 +1638,7 @@
         <v>21</v>
       </c>
       <c r="F33" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G33" s="13" t="s">
         <v>20</v>

--- a/data/source/weekly/cs-en-us-116pct.xlsx
+++ b/data/source/weekly/cs-en-us-116pct.xlsx
@@ -69,7 +69,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">10</t>
+      <t xml:space="preserve">11</t>
     </r>
   </si>
   <si>
@@ -95,7 +95,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">3/3/2025</t>
+      <t xml:space="preserve">3/10/2025</t>
     </r>
     <r>
       <rPr>
@@ -113,7 +113,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">3/9/2025</t>
+      <t xml:space="preserve">3/16/2025</t>
     </r>
   </si>
   <si>
@@ -964,10 +964,10 @@
         <v>21</v>
       </c>
       <c r="F16" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G16" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H16" s="15">
         <v>0</v>
@@ -982,7 +982,7 @@
         <v>-65</v>
       </c>
       <c r="L16" s="15">
-        <v>-50</v>
+        <v>-58.823529411764</v>
       </c>
       <c r="M16" s="13" t="s">
         <v>21</v>
@@ -996,34 +996,34 @@
         <v>24</v>
       </c>
       <c r="C17" s="14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17" s="14">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E17" s="15">
-        <v>-66.666666666666</v>
+        <v>-42.857142857142</v>
       </c>
       <c r="F17" s="14">
         <v>14</v>
       </c>
       <c r="G17" s="14">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H17" s="15">
-        <v>-22.222222222222</v>
+        <v>-30</v>
       </c>
       <c r="I17" s="14">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="J17" s="14">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="K17" s="15">
-        <v>7.317073170731</v>
+        <v>0</v>
       </c>
       <c r="L17" s="15">
-        <v>2.325581395348</v>
+        <v>2.127659574468</v>
       </c>
       <c r="M17" s="13" t="s">
         <v>21</v>
@@ -1036,35 +1036,35 @@
       <c r="A18" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="13" t="s">
-        <v>20</v>
+      <c r="C18" s="14">
+        <v>1</v>
       </c>
       <c r="D18" s="14">
         <v>1</v>
       </c>
       <c r="E18" s="15">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F18" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G18" s="14">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H18" s="15">
         <v>-50</v>
       </c>
       <c r="I18" s="14">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J18" s="14">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K18" s="15">
-        <v>-18.181818181818</v>
+        <v>-16.666666666666</v>
       </c>
       <c r="L18" s="15">
-        <v>-50</v>
+        <v>-47.368421052631</v>
       </c>
       <c r="M18" s="13" t="s">
         <v>21</v>
@@ -1078,34 +1078,34 @@
         <v>26</v>
       </c>
       <c r="C19" s="14">
+        <v>1</v>
+      </c>
+      <c r="D19" s="14">
         <v>7</v>
       </c>
-      <c r="D19" s="14">
-        <v>4</v>
-      </c>
       <c r="E19" s="15">
-        <v>75</v>
+        <v>-85.714285714285</v>
       </c>
       <c r="F19" s="14">
         <v>19</v>
       </c>
       <c r="G19" s="14">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H19" s="15">
-        <v>18.75</v>
+        <v>5.555555555555</v>
       </c>
       <c r="I19" s="14">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J19" s="14">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="K19" s="15">
-        <v>-31.034482758620</v>
+        <v>-36.923076923076</v>
       </c>
       <c r="L19" s="15">
-        <v>-14.893617021276</v>
+        <v>-25.454545454545</v>
       </c>
       <c r="M19" s="13" t="s">
         <v>21</v>
@@ -1119,34 +1119,34 @@
         <v>27</v>
       </c>
       <c r="C20" s="14">
-        <v>2</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>21</v>
+        <v>4</v>
+      </c>
+      <c r="D20" s="14">
+        <v>1</v>
+      </c>
+      <c r="E20" s="15">
+        <v>300</v>
       </c>
       <c r="F20" s="14">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G20" s="14">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H20" s="15">
-        <v>-25</v>
+        <v>71.428571428571</v>
       </c>
       <c r="I20" s="14">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J20" s="14">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K20" s="15">
-        <v>12.903225806451</v>
+        <v>21.875</v>
       </c>
       <c r="L20" s="15">
-        <v>12.903225806451</v>
+        <v>18.181818181818</v>
       </c>
       <c r="M20" s="13" t="s">
         <v>21</v>
@@ -1160,34 +1160,34 @@
         <v>28</v>
       </c>
       <c r="C21" s="17">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D21" s="17">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E21" s="18">
-        <v>0</v>
+        <v>-37.5</v>
       </c>
       <c r="F21" s="17">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G21" s="17">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H21" s="18">
-        <v>-12.5</v>
+        <v>-3.846153846153</v>
       </c>
       <c r="I21" s="17">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="J21" s="17">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="K21" s="18">
-        <v>-12.883435582822</v>
+        <v>-15.083798882681</v>
       </c>
       <c r="L21" s="18">
-        <v>-7.792207792207</v>
+        <v>-11.627906976744</v>
       </c>
       <c r="M21" s="19" t="s">
         <v>21</v>
@@ -1283,34 +1283,34 @@
         <v>31</v>
       </c>
       <c r="C24" s="14">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" s="14">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E24" s="15">
-        <v>-43.75</v>
+        <v>-9.090909090909</v>
       </c>
       <c r="F24" s="14">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G24" s="14">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H24" s="15">
-        <v>-35.849056603773</v>
+        <v>-32.653061224489</v>
       </c>
       <c r="I24" s="14">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="J24" s="14">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="K24" s="15">
-        <v>-15.315315315315</v>
+        <v>-14.754098360655</v>
       </c>
       <c r="L24" s="15">
-        <v>-13.761467889908</v>
+        <v>-17.460317460317</v>
       </c>
       <c r="M24" s="13" t="s">
         <v>21</v>
@@ -1323,35 +1323,35 @@
       <c r="A25" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="14">
-        <v>2</v>
+      <c r="C25" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="D25" s="14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E25" s="15">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F25" s="14">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G25" s="14">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H25" s="15">
-        <v>66.666666666666</v>
+        <v>-44.444444444444</v>
       </c>
       <c r="I25" s="14">
         <v>25</v>
       </c>
       <c r="J25" s="14">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="K25" s="15">
-        <v>78.571428571428</v>
+        <v>38.888888888888</v>
       </c>
       <c r="L25" s="15">
-        <v>19.047619047619</v>
+        <v>8.695652173913</v>
       </c>
       <c r="M25" s="13" t="s">
         <v>21</v>
@@ -1365,34 +1365,34 @@
         <v>33</v>
       </c>
       <c r="C26" s="14">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D26" s="14">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E26" s="15">
-        <v>-73.913043478260</v>
+        <v>-30</v>
       </c>
       <c r="F26" s="14">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="G26" s="14">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H26" s="15">
-        <v>-31.372549019607</v>
+        <v>-48</v>
       </c>
       <c r="I26" s="14">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="J26" s="14">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="K26" s="15">
-        <v>-18.390804597701</v>
+        <v>-20.618556701030</v>
       </c>
       <c r="L26" s="15">
-        <v>39.215686274509</v>
+        <v>40</v>
       </c>
       <c r="M26" s="13" t="s">
         <v>21</v>
@@ -1405,23 +1405,23 @@
       <c r="A27" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="14">
+      <c r="C27" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" s="14">
+        <v>2</v>
+      </c>
+      <c r="G27" s="14">
         <v>1</v>
       </c>
-      <c r="D27" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F27" s="14">
-        <v>3</v>
-      </c>
-      <c r="G27" s="14">
-        <v>2</v>
-      </c>
       <c r="H27" s="15">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I27" s="14">
         <v>9</v>
@@ -1433,7 +1433,7 @@
         <v>350</v>
       </c>
       <c r="L27" s="15">
-        <v>125</v>
+        <v>80</v>
       </c>
       <c r="M27" s="13" t="s">
         <v>21</v>
@@ -1449,11 +1449,11 @@
       <c r="C28" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="14">
-        <v>1</v>
-      </c>
-      <c r="E28" s="15">
-        <v>-100</v>
+      <c r="D28" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="F28" s="13" t="s">
         <v>20</v>
@@ -1474,7 +1474,7 @@
         <v>0</v>
       </c>
       <c r="L28" s="15">
-        <v>-50</v>
+        <v>-60</v>
       </c>
       <c r="M28" s="13" t="s">
         <v>21</v>
@@ -1637,8 +1637,8 @@
       <c r="E33" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F33" s="14">
-        <v>1</v>
+      <c r="F33" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="G33" s="13" t="s">
         <v>20</v>

--- a/data/source/weekly/cs-en-us-116pct.xlsx
+++ b/data/source/weekly/cs-en-us-116pct.xlsx
@@ -69,7 +69,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">11</t>
+      <t xml:space="preserve">12</t>
     </r>
   </si>
   <si>
@@ -95,7 +95,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">3/10/2025</t>
+      <t xml:space="preserve">3/17/2025</t>
     </r>
     <r>
       <rPr>
@@ -113,7 +113,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">3/16/2025</t>
+      <t xml:space="preserve">3/23/2025</t>
     </r>
   </si>
   <si>
@@ -875,26 +875,26 @@
       <c r="C14" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>21</v>
+      <c r="D14" s="14">
+        <v>1</v>
+      </c>
+      <c r="E14" s="15">
+        <v>-100</v>
       </c>
       <c r="F14" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>21</v>
+      <c r="G14" s="14">
+        <v>1</v>
+      </c>
+      <c r="H14" s="15">
+        <v>-100</v>
       </c>
       <c r="I14" s="13" t="s">
         <v>20</v>
       </c>
       <c r="J14" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K14" s="15">
         <v>-100</v>
@@ -923,25 +923,25 @@
         <v>21</v>
       </c>
       <c r="F15" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G15" s="14">
         <v>1</v>
       </c>
       <c r="H15" s="15">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I15" s="14">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J15" s="14">
         <v>1</v>
       </c>
       <c r="K15" s="15">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L15" s="15">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M15" s="13" t="s">
         <v>21</v>
@@ -954,35 +954,35 @@
       <c r="A16" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>21</v>
+      <c r="C16" s="14">
+        <v>2</v>
+      </c>
+      <c r="D16" s="14">
+        <v>1</v>
+      </c>
+      <c r="E16" s="15">
+        <v>100</v>
       </c>
       <c r="F16" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G16" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H16" s="15">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I16" s="14">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J16" s="14">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K16" s="15">
-        <v>-65</v>
+        <v>-57.142857142857</v>
       </c>
       <c r="L16" s="15">
-        <v>-58.823529411764</v>
+        <v>-50</v>
       </c>
       <c r="M16" s="13" t="s">
         <v>21</v>
@@ -996,34 +996,34 @@
         <v>24</v>
       </c>
       <c r="C17" s="14">
+        <v>7</v>
+      </c>
+      <c r="D17" s="14">
         <v>4</v>
       </c>
-      <c r="D17" s="14">
-        <v>7</v>
-      </c>
       <c r="E17" s="15">
-        <v>-42.857142857142</v>
+        <v>75</v>
       </c>
       <c r="F17" s="14">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G17" s="14">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H17" s="15">
-        <v>-30</v>
+        <v>-5.263157894736</v>
       </c>
       <c r="I17" s="14">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J17" s="14">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="K17" s="15">
-        <v>0</v>
+        <v>7.692307692307</v>
       </c>
       <c r="L17" s="15">
-        <v>2.127659574468</v>
+        <v>5.660377358490</v>
       </c>
       <c r="M17" s="13" t="s">
         <v>21</v>
@@ -1037,34 +1037,34 @@
         <v>25</v>
       </c>
       <c r="C18" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D18" s="14">
         <v>1</v>
       </c>
       <c r="E18" s="15">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F18" s="14">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G18" s="14">
         <v>4</v>
       </c>
       <c r="H18" s="15">
-        <v>-50</v>
+        <v>25</v>
       </c>
       <c r="I18" s="14">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J18" s="14">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K18" s="15">
-        <v>-16.666666666666</v>
+        <v>0</v>
       </c>
       <c r="L18" s="15">
-        <v>-47.368421052631</v>
+        <v>-31.578947368421</v>
       </c>
       <c r="M18" s="13" t="s">
         <v>21</v>
@@ -1078,34 +1078,34 @@
         <v>26</v>
       </c>
       <c r="C19" s="14">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D19" s="14">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E19" s="15">
-        <v>-85.714285714285</v>
+        <v>200</v>
       </c>
       <c r="F19" s="14">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G19" s="14">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H19" s="15">
-        <v>5.555555555555</v>
+        <v>17.647058823529</v>
       </c>
       <c r="I19" s="14">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="J19" s="14">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K19" s="15">
-        <v>-36.923076923076</v>
+        <v>-28.358208955223</v>
       </c>
       <c r="L19" s="15">
-        <v>-25.454545454545</v>
+        <v>-20</v>
       </c>
       <c r="M19" s="13" t="s">
         <v>21</v>
@@ -1119,34 +1119,34 @@
         <v>27</v>
       </c>
       <c r="C20" s="14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E20" s="15">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="F20" s="14">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G20" s="14">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H20" s="15">
-        <v>71.428571428571</v>
+        <v>160</v>
       </c>
       <c r="I20" s="14">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J20" s="14">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K20" s="15">
-        <v>21.875</v>
+        <v>20</v>
       </c>
       <c r="L20" s="15">
-        <v>18.181818181818</v>
+        <v>16.666666666666</v>
       </c>
       <c r="M20" s="13" t="s">
         <v>21</v>
@@ -1160,34 +1160,34 @@
         <v>28</v>
       </c>
       <c r="C21" s="17">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D21" s="17">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E21" s="18">
-        <v>-37.5</v>
+        <v>75</v>
       </c>
       <c r="F21" s="17">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="G21" s="17">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H21" s="18">
-        <v>-3.846153846153</v>
+        <v>27.083333333333</v>
       </c>
       <c r="I21" s="17">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="J21" s="17">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="K21" s="18">
-        <v>-15.083798882681</v>
+        <v>-7.853403141361</v>
       </c>
       <c r="L21" s="18">
-        <v>-11.627906976744</v>
+        <v>-5.882352941176</v>
       </c>
       <c r="M21" s="19" t="s">
         <v>21</v>
@@ -1283,34 +1283,34 @@
         <v>31</v>
       </c>
       <c r="C24" s="14">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D24" s="14">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E24" s="15">
-        <v>-9.090909090909</v>
+        <v>-68.421052631578</v>
       </c>
       <c r="F24" s="14">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G24" s="14">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="H24" s="15">
-        <v>-32.653061224489</v>
+        <v>-48.214285714285</v>
       </c>
       <c r="I24" s="14">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="J24" s="14">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="K24" s="15">
-        <v>-14.754098360655</v>
+        <v>-21.985815602836</v>
       </c>
       <c r="L24" s="15">
-        <v>-17.460317460317</v>
+        <v>-19.117647058823</v>
       </c>
       <c r="M24" s="13" t="s">
         <v>21</v>
@@ -1323,35 +1323,35 @@
       <c r="A25" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="13" t="s">
-        <v>20</v>
+      <c r="C25" s="14">
+        <v>2</v>
       </c>
       <c r="D25" s="14">
+        <v>6</v>
+      </c>
+      <c r="E25" s="15">
+        <v>-66.666666666666</v>
+      </c>
+      <c r="F25" s="14">
         <v>4</v>
       </c>
-      <c r="E25" s="15">
-        <v>-100</v>
-      </c>
-      <c r="F25" s="14">
-        <v>5</v>
-      </c>
       <c r="G25" s="14">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H25" s="15">
-        <v>-44.444444444444</v>
+        <v>-69.230769230769</v>
       </c>
       <c r="I25" s="14">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J25" s="14">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="K25" s="15">
-        <v>38.888888888888</v>
+        <v>12.5</v>
       </c>
       <c r="L25" s="15">
-        <v>8.695652173913</v>
+        <v>8</v>
       </c>
       <c r="M25" s="13" t="s">
         <v>21</v>
@@ -1368,31 +1368,31 @@
         <v>7</v>
       </c>
       <c r="D26" s="14">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E26" s="15">
-        <v>-30</v>
+        <v>40</v>
       </c>
       <c r="F26" s="14">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G26" s="14">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H26" s="15">
-        <v>-48</v>
+        <v>-42.857142857142</v>
       </c>
       <c r="I26" s="14">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="J26" s="14">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="K26" s="15">
-        <v>-20.618556701030</v>
+        <v>-20.588235294117</v>
       </c>
       <c r="L26" s="15">
-        <v>40</v>
+        <v>24.615384615384</v>
       </c>
       <c r="M26" s="13" t="s">
         <v>21</v>
@@ -1408,32 +1408,32 @@
       <c r="C27" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D27" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>21</v>
+      <c r="D27" s="14">
+        <v>1</v>
+      </c>
+      <c r="E27" s="15">
+        <v>-100</v>
       </c>
       <c r="F27" s="14">
+        <v>3</v>
+      </c>
+      <c r="G27" s="14">
         <v>2</v>
       </c>
-      <c r="G27" s="14">
-        <v>1</v>
-      </c>
       <c r="H27" s="15">
+        <v>50</v>
+      </c>
+      <c r="I27" s="14">
+        <v>10</v>
+      </c>
+      <c r="J27" s="14">
+        <v>3</v>
+      </c>
+      <c r="K27" s="15">
+        <v>233.333333333333</v>
+      </c>
+      <c r="L27" s="15">
         <v>100</v>
-      </c>
-      <c r="I27" s="14">
-        <v>9</v>
-      </c>
-      <c r="J27" s="14">
-        <v>2</v>
-      </c>
-      <c r="K27" s="15">
-        <v>350</v>
-      </c>
-      <c r="L27" s="15">
-        <v>80</v>
       </c>
       <c r="M27" s="13" t="s">
         <v>21</v>

--- a/data/source/weekly/cs-en-us-116pct.xlsx
+++ b/data/source/weekly/cs-en-us-116pct.xlsx
@@ -69,7 +69,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">12</t>
+      <t xml:space="preserve">13</t>
     </r>
   </si>
   <si>
@@ -95,7 +95,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">3/17/2025</t>
+      <t xml:space="preserve">3/24/2025</t>
     </r>
     <r>
       <rPr>
@@ -113,7 +113,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">3/23/2025</t>
+      <t xml:space="preserve">3/30/2025</t>
     </r>
   </si>
   <si>
@@ -875,11 +875,11 @@
       <c r="C14" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="14">
-        <v>1</v>
-      </c>
-      <c r="E14" s="15">
-        <v>-100</v>
+      <c r="D14" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="F14" s="13" t="s">
         <v>20</v>
@@ -913,8 +913,8 @@
       <c r="A15" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="13" t="s">
-        <v>20</v>
+      <c r="C15" s="14">
+        <v>1</v>
       </c>
       <c r="D15" s="13" t="s">
         <v>20</v>
@@ -925,23 +925,23 @@
       <c r="F15" s="14">
         <v>2</v>
       </c>
-      <c r="G15" s="14">
-        <v>1</v>
-      </c>
-      <c r="H15" s="15">
-        <v>100</v>
+      <c r="G15" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="I15" s="14">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J15" s="14">
         <v>1</v>
       </c>
       <c r="K15" s="15">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L15" s="15">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="M15" s="13" t="s">
         <v>21</v>
@@ -954,35 +954,35 @@
       <c r="A16" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="14">
-        <v>2</v>
+      <c r="C16" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="D16" s="14">
         <v>1</v>
       </c>
       <c r="E16" s="15">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="F16" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G16" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H16" s="15">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I16" s="14">
         <v>9</v>
       </c>
       <c r="J16" s="14">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K16" s="15">
-        <v>-57.142857142857</v>
+        <v>-59.090909090909</v>
       </c>
       <c r="L16" s="15">
-        <v>-50</v>
+        <v>-55</v>
       </c>
       <c r="M16" s="13" t="s">
         <v>21</v>
@@ -996,34 +996,34 @@
         <v>24</v>
       </c>
       <c r="C17" s="14">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D17" s="14">
         <v>4</v>
       </c>
       <c r="E17" s="15">
-        <v>75</v>
+        <v>-25</v>
       </c>
       <c r="F17" s="14">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G17" s="14">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H17" s="15">
-        <v>-5.263157894736</v>
+        <v>-19.047619047619</v>
       </c>
       <c r="I17" s="14">
+        <v>59</v>
+      </c>
+      <c r="J17" s="14">
         <v>56</v>
       </c>
-      <c r="J17" s="14">
-        <v>52</v>
-      </c>
       <c r="K17" s="15">
-        <v>7.692307692307</v>
+        <v>5.357142857142</v>
       </c>
       <c r="L17" s="15">
-        <v>5.660377358490</v>
+        <v>7.272727272727</v>
       </c>
       <c r="M17" s="13" t="s">
         <v>21</v>
@@ -1036,32 +1036,32 @@
       <c r="A18" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="14">
-        <v>3</v>
+      <c r="C18" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="D18" s="14">
         <v>1</v>
       </c>
       <c r="E18" s="15">
-        <v>200</v>
+        <v>-100</v>
       </c>
       <c r="F18" s="14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G18" s="14">
         <v>4</v>
       </c>
       <c r="H18" s="15">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="I18" s="14">
         <v>13</v>
       </c>
       <c r="J18" s="14">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K18" s="15">
-        <v>0</v>
+        <v>-7.142857142857</v>
       </c>
       <c r="L18" s="15">
         <v>-31.578947368421</v>
@@ -1078,34 +1078,34 @@
         <v>26</v>
       </c>
       <c r="C19" s="14">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D19" s="14">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E19" s="15">
-        <v>200</v>
+        <v>-42.857142857142</v>
       </c>
       <c r="F19" s="14">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G19" s="14">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H19" s="15">
-        <v>17.647058823529</v>
+        <v>-5</v>
       </c>
       <c r="I19" s="14">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J19" s="14">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="K19" s="15">
-        <v>-28.358208955223</v>
+        <v>-29.729729729729</v>
       </c>
       <c r="L19" s="15">
-        <v>-20</v>
+        <v>-24.637681159420</v>
       </c>
       <c r="M19" s="13" t="s">
         <v>21</v>
@@ -1119,34 +1119,34 @@
         <v>27</v>
       </c>
       <c r="C20" s="14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E20" s="15">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F20" s="14">
         <v>13</v>
       </c>
       <c r="G20" s="14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H20" s="15">
-        <v>160</v>
+        <v>116.666666666667</v>
       </c>
       <c r="I20" s="14">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J20" s="14">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K20" s="15">
-        <v>20</v>
+        <v>24.324324324324</v>
       </c>
       <c r="L20" s="15">
-        <v>16.666666666666</v>
+        <v>15</v>
       </c>
       <c r="M20" s="13" t="s">
         <v>21</v>
@@ -1160,34 +1160,34 @@
         <v>28</v>
       </c>
       <c r="C21" s="17">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D21" s="17">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E21" s="18">
-        <v>75</v>
+        <v>-20</v>
       </c>
       <c r="F21" s="17">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G21" s="17">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="H21" s="18">
-        <v>27.083333333333</v>
+        <v>5.555555555555</v>
       </c>
       <c r="I21" s="17">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="J21" s="17">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="K21" s="18">
-        <v>-7.853403141361</v>
+        <v>-8.737864077669</v>
       </c>
       <c r="L21" s="18">
-        <v>-5.882352941176</v>
+        <v>-8.292682926829</v>
       </c>
       <c r="M21" s="19" t="s">
         <v>21</v>
@@ -1283,34 +1283,34 @@
         <v>31</v>
       </c>
       <c r="C24" s="14">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D24" s="14">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E24" s="15">
-        <v>-68.421052631578</v>
+        <v>87.5</v>
       </c>
       <c r="F24" s="14">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G24" s="14">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H24" s="15">
-        <v>-48.214285714285</v>
+        <v>-25.925925925925</v>
       </c>
       <c r="I24" s="14">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="J24" s="14">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="K24" s="15">
-        <v>-21.985815602836</v>
+        <v>-16.107382550335</v>
       </c>
       <c r="L24" s="15">
-        <v>-19.117647058823</v>
+        <v>-13.793103448275</v>
       </c>
       <c r="M24" s="13" t="s">
         <v>21</v>
@@ -1327,31 +1327,31 @@
         <v>2</v>
       </c>
       <c r="D25" s="14">
+        <v>1</v>
+      </c>
+      <c r="E25" s="15">
+        <v>100</v>
+      </c>
+      <c r="F25" s="14">
         <v>6</v>
-      </c>
-      <c r="E25" s="15">
-        <v>-66.666666666666</v>
-      </c>
-      <c r="F25" s="14">
-        <v>4</v>
       </c>
       <c r="G25" s="14">
         <v>13</v>
       </c>
       <c r="H25" s="15">
-        <v>-69.230769230769</v>
+        <v>-53.846153846153</v>
       </c>
       <c r="I25" s="14">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J25" s="14">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K25" s="15">
-        <v>12.5</v>
+        <v>16</v>
       </c>
       <c r="L25" s="15">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="M25" s="13" t="s">
         <v>21</v>
@@ -1365,34 +1365,34 @@
         <v>33</v>
       </c>
       <c r="C26" s="14">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D26" s="14">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E26" s="15">
-        <v>40</v>
+        <v>450</v>
       </c>
       <c r="F26" s="14">
         <v>28</v>
       </c>
       <c r="G26" s="14">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="H26" s="15">
-        <v>-42.857142857142</v>
+        <v>-30</v>
       </c>
       <c r="I26" s="14">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="J26" s="14">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K26" s="15">
-        <v>-20.588235294117</v>
+        <v>-12.5</v>
       </c>
       <c r="L26" s="15">
-        <v>24.615384615384</v>
+        <v>30</v>
       </c>
       <c r="M26" s="13" t="s">
         <v>21</v>
@@ -1405,14 +1405,14 @@
       <c r="A27" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="13" t="s">
-        <v>20</v>
+      <c r="C27" s="14">
+        <v>1</v>
       </c>
       <c r="D27" s="14">
         <v>1</v>
       </c>
       <c r="E27" s="15">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F27" s="14">
         <v>3</v>
@@ -1424,16 +1424,16 @@
         <v>50</v>
       </c>
       <c r="I27" s="14">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J27" s="14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K27" s="15">
-        <v>233.333333333333</v>
+        <v>175</v>
       </c>
       <c r="L27" s="15">
-        <v>100</v>
+        <v>57.142857142857</v>
       </c>
       <c r="M27" s="13" t="s">
         <v>21</v>
@@ -1446,8 +1446,8 @@
       <c r="A28" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="13" t="s">
-        <v>20</v>
+      <c r="C28" s="14">
+        <v>1</v>
       </c>
       <c r="D28" s="13" t="s">
         <v>20</v>
@@ -1455,26 +1455,26 @@
       <c r="E28" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F28" s="13" t="s">
-        <v>20</v>
+      <c r="F28" s="14">
+        <v>1</v>
       </c>
       <c r="G28" s="14">
         <v>1</v>
       </c>
       <c r="H28" s="15">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I28" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J28" s="14">
         <v>2</v>
       </c>
       <c r="K28" s="15">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L28" s="15">
-        <v>-60</v>
+        <v>-40</v>
       </c>
       <c r="M28" s="13" t="s">
         <v>21</v>
@@ -1499,11 +1499,11 @@
       <c r="F29" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G29" s="14">
-        <v>1</v>
-      </c>
-      <c r="H29" s="15">
-        <v>-100</v>
+      <c r="G29" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H29" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="I29" s="13" t="s">
         <v>20</v>
@@ -1514,8 +1514,8 @@
       <c r="K29" s="15">
         <v>-100</v>
       </c>
-      <c r="L29" s="13" t="s">
-        <v>21</v>
+      <c r="L29" s="15">
+        <v>-100</v>
       </c>
       <c r="M29" s="13" t="s">
         <v>21</v>
@@ -1540,11 +1540,11 @@
       <c r="F30" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G30" s="14">
-        <v>1</v>
-      </c>
-      <c r="H30" s="15">
-        <v>-100</v>
+      <c r="G30" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H30" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="I30" s="13" t="s">
         <v>20</v>
@@ -1555,8 +1555,8 @@
       <c r="K30" s="15">
         <v>-100</v>
       </c>
-      <c r="L30" s="13" t="s">
-        <v>21</v>
+      <c r="L30" s="15">
+        <v>-100</v>
       </c>
       <c r="M30" s="13" t="s">
         <v>21</v>

--- a/data/source/weekly/cs-en-us-116pct.xlsx
+++ b/data/source/weekly/cs-en-us-116pct.xlsx
@@ -69,7 +69,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">13</t>
+      <t xml:space="preserve">14</t>
     </r>
   </si>
   <si>
@@ -95,7 +95,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">3/24/2025</t>
+      <t xml:space="preserve">3/31/2025</t>
     </r>
     <r>
       <rPr>
@@ -113,7 +113,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">3/30/2025</t>
+      <t xml:space="preserve">4/6/2025</t>
     </r>
   </si>
   <si>
@@ -913,8 +913,8 @@
       <c r="A15" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="14">
-        <v>1</v>
+      <c r="C15" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="D15" s="13" t="s">
         <v>20</v>
@@ -941,7 +941,7 @@
         <v>800</v>
       </c>
       <c r="L15" s="15">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="M15" s="13" t="s">
         <v>21</v>
@@ -954,35 +954,35 @@
       <c r="A16" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="13" t="s">
-        <v>20</v>
+      <c r="C16" s="14">
+        <v>2</v>
       </c>
       <c r="D16" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E16" s="15">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F16" s="14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G16" s="14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H16" s="15">
         <v>0</v>
       </c>
       <c r="I16" s="14">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J16" s="14">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K16" s="15">
-        <v>-59.090909090909</v>
+        <v>-50</v>
       </c>
       <c r="L16" s="15">
-        <v>-55</v>
+        <v>-45.454545454545</v>
       </c>
       <c r="M16" s="13" t="s">
         <v>21</v>
@@ -999,31 +999,31 @@
         <v>3</v>
       </c>
       <c r="D17" s="14">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E17" s="15">
-        <v>-25</v>
+        <v>200</v>
       </c>
       <c r="F17" s="14">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G17" s="14">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H17" s="15">
-        <v>-19.047619047619</v>
+        <v>12.5</v>
       </c>
       <c r="I17" s="14">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="J17" s="14">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K17" s="15">
-        <v>5.357142857142</v>
+        <v>8.771929824561</v>
       </c>
       <c r="L17" s="15">
-        <v>7.272727272727</v>
+        <v>5.084745762711</v>
       </c>
       <c r="M17" s="13" t="s">
         <v>21</v>
@@ -1040,7 +1040,7 @@
         <v>20</v>
       </c>
       <c r="D18" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E18" s="15">
         <v>-100</v>
@@ -1049,19 +1049,19 @@
         <v>4</v>
       </c>
       <c r="G18" s="14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H18" s="15">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="I18" s="14">
         <v>13</v>
       </c>
       <c r="J18" s="14">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K18" s="15">
-        <v>-7.142857142857</v>
+        <v>-18.75</v>
       </c>
       <c r="L18" s="15">
         <v>-31.578947368421</v>
@@ -1078,34 +1078,34 @@
         <v>26</v>
       </c>
       <c r="C19" s="14">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D19" s="14">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E19" s="15">
-        <v>-42.857142857142</v>
+        <v>233.333333333333</v>
       </c>
       <c r="F19" s="14">
+        <v>22</v>
+      </c>
+      <c r="G19" s="14">
         <v>19</v>
       </c>
-      <c r="G19" s="14">
-        <v>20</v>
-      </c>
       <c r="H19" s="15">
-        <v>-5</v>
+        <v>15.789473684210</v>
       </c>
       <c r="I19" s="14">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="J19" s="14">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="K19" s="15">
-        <v>-29.729729729729</v>
+        <v>-19.480519480519</v>
       </c>
       <c r="L19" s="15">
-        <v>-24.637681159420</v>
+        <v>-19.480519480519</v>
       </c>
       <c r="M19" s="13" t="s">
         <v>21</v>
@@ -1119,34 +1119,34 @@
         <v>27</v>
       </c>
       <c r="C20" s="14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D20" s="14">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E20" s="15">
-        <v>100</v>
+        <v>-16.666666666666</v>
       </c>
       <c r="F20" s="14">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G20" s="14">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H20" s="15">
-        <v>116.666666666667</v>
+        <v>33.333333333333</v>
       </c>
       <c r="I20" s="14">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="J20" s="14">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="K20" s="15">
-        <v>24.324324324324</v>
+        <v>18.604651162790</v>
       </c>
       <c r="L20" s="15">
-        <v>15</v>
+        <v>15.909090909090</v>
       </c>
       <c r="M20" s="13" t="s">
         <v>21</v>
@@ -1160,34 +1160,34 @@
         <v>28</v>
       </c>
       <c r="C21" s="17">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D21" s="17">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E21" s="18">
-        <v>-20</v>
+        <v>42.857142857142</v>
       </c>
       <c r="F21" s="17">
+        <v>66</v>
+      </c>
+      <c r="G21" s="17">
         <v>57</v>
       </c>
-      <c r="G21" s="17">
-        <v>54</v>
-      </c>
       <c r="H21" s="18">
-        <v>5.555555555555</v>
+        <v>15.789473684210</v>
       </c>
       <c r="I21" s="17">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="J21" s="17">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="K21" s="18">
-        <v>-8.737864077669</v>
+        <v>-5</v>
       </c>
       <c r="L21" s="18">
-        <v>-8.292682926829</v>
+        <v>-6.696428571428</v>
       </c>
       <c r="M21" s="19" t="s">
         <v>21</v>
@@ -1286,31 +1286,31 @@
         <v>15</v>
       </c>
       <c r="D24" s="14">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E24" s="15">
-        <v>87.5</v>
+        <v>0</v>
       </c>
       <c r="F24" s="14">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G24" s="14">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H24" s="15">
-        <v>-25.925925925925</v>
+        <v>-11.320754716981</v>
       </c>
       <c r="I24" s="14">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="J24" s="14">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="K24" s="15">
-        <v>-16.107382550335</v>
+        <v>-14.024390243902</v>
       </c>
       <c r="L24" s="15">
-        <v>-13.793103448275</v>
+        <v>-7.236842105263</v>
       </c>
       <c r="M24" s="13" t="s">
         <v>21</v>
@@ -1324,34 +1324,34 @@
         <v>32</v>
       </c>
       <c r="C25" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D25" s="14">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E25" s="15">
-        <v>100</v>
+        <v>-85.714285714285</v>
       </c>
       <c r="F25" s="14">
         <v>6</v>
       </c>
       <c r="G25" s="14">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H25" s="15">
-        <v>-53.846153846153</v>
+        <v>-66.666666666666</v>
       </c>
       <c r="I25" s="14">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J25" s="14">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="K25" s="15">
-        <v>16</v>
+        <v>-3.125</v>
       </c>
       <c r="L25" s="15">
-        <v>16</v>
+        <v>6.896551724137</v>
       </c>
       <c r="M25" s="13" t="s">
         <v>21</v>
@@ -1365,34 +1365,34 @@
         <v>33</v>
       </c>
       <c r="C26" s="14">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D26" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E26" s="15">
-        <v>450</v>
+        <v>100</v>
       </c>
       <c r="F26" s="14">
         <v>28</v>
       </c>
       <c r="G26" s="14">
+        <v>20</v>
+      </c>
+      <c r="H26" s="15">
         <v>40</v>
       </c>
-      <c r="H26" s="15">
-        <v>-30</v>
-      </c>
       <c r="I26" s="14">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="J26" s="14">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="K26" s="15">
-        <v>-12.5</v>
+        <v>-9.345794392523</v>
       </c>
       <c r="L26" s="15">
-        <v>30</v>
+        <v>25.974025974026</v>
       </c>
       <c r="M26" s="13" t="s">
         <v>21</v>
@@ -1405,23 +1405,23 @@
       <c r="A27" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="14">
-        <v>1</v>
-      </c>
-      <c r="D27" s="14">
-        <v>1</v>
-      </c>
-      <c r="E27" s="15">
-        <v>0</v>
+      <c r="C27" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="F27" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G27" s="14">
         <v>2</v>
       </c>
       <c r="H27" s="15">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I27" s="14">
         <v>11</v>
@@ -1433,7 +1433,7 @@
         <v>175</v>
       </c>
       <c r="L27" s="15">
-        <v>57.142857142857</v>
+        <v>37.5</v>
       </c>
       <c r="M27" s="13" t="s">
         <v>21</v>
@@ -1458,11 +1458,11 @@
       <c r="F28" s="14">
         <v>1</v>
       </c>
-      <c r="G28" s="14">
-        <v>1</v>
-      </c>
-      <c r="H28" s="15">
-        <v>0</v>
+      <c r="G28" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H28" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="I28" s="14">
         <v>3</v>
@@ -1474,7 +1474,7 @@
         <v>50</v>
       </c>
       <c r="L28" s="15">
-        <v>-40</v>
+        <v>-50</v>
       </c>
       <c r="M28" s="13" t="s">
         <v>21</v>
@@ -1490,26 +1490,26 @@
       <c r="C29" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>21</v>
+      <c r="D29" s="14">
+        <v>1</v>
+      </c>
+      <c r="E29" s="15">
+        <v>-100</v>
       </c>
       <c r="F29" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G29" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H29" s="13" t="s">
-        <v>21</v>
+      <c r="G29" s="14">
+        <v>1</v>
+      </c>
+      <c r="H29" s="15">
+        <v>-100</v>
       </c>
       <c r="I29" s="13" t="s">
         <v>20</v>
       </c>
       <c r="J29" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K29" s="15">
         <v>-100</v>
@@ -1531,26 +1531,26 @@
       <c r="C30" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E30" s="13" t="s">
-        <v>21</v>
+      <c r="D30" s="14">
+        <v>1</v>
+      </c>
+      <c r="E30" s="15">
+        <v>-100</v>
       </c>
       <c r="F30" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G30" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H30" s="13" t="s">
-        <v>21</v>
+      <c r="G30" s="14">
+        <v>1</v>
+      </c>
+      <c r="H30" s="15">
+        <v>-100</v>
       </c>
       <c r="I30" s="13" t="s">
         <v>20</v>
       </c>
       <c r="J30" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K30" s="15">
         <v>-100</v>

--- a/data/source/weekly/cs-en-us-116pct.xlsx
+++ b/data/source/weekly/cs-en-us-116pct.xlsx
@@ -69,7 +69,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">14</t>
+      <t xml:space="preserve">15</t>
     </r>
   </si>
   <si>
@@ -95,7 +95,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">3/31/2025</t>
+      <t xml:space="preserve">4/7/2025</t>
     </r>
     <r>
       <rPr>
@@ -113,7 +113,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">4/6/2025</t>
+      <t xml:space="preserve">4/13/2025</t>
     </r>
   </si>
   <si>
@@ -913,35 +913,35 @@
       <c r="A15" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>21</v>
+      <c r="C15" s="14">
+        <v>1</v>
+      </c>
+      <c r="D15" s="14">
+        <v>2</v>
+      </c>
+      <c r="E15" s="15">
+        <v>-50</v>
       </c>
       <c r="F15" s="14">
         <v>2</v>
       </c>
-      <c r="G15" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>21</v>
+      <c r="G15" s="14">
+        <v>2</v>
+      </c>
+      <c r="H15" s="15">
+        <v>0</v>
       </c>
       <c r="I15" s="14">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J15" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K15" s="15">
-        <v>800</v>
+        <v>233.333333333333</v>
       </c>
       <c r="L15" s="15">
-        <v>200</v>
+        <v>233.333333333333</v>
       </c>
       <c r="M15" s="13" t="s">
         <v>21</v>
@@ -955,34 +955,34 @@
         <v>23</v>
       </c>
       <c r="C16" s="14">
-        <v>2</v>
-      </c>
-      <c r="D16" s="14">
-        <v>2</v>
-      </c>
-      <c r="E16" s="15">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="F16" s="14">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G16" s="14">
         <v>4</v>
       </c>
       <c r="H16" s="15">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="I16" s="14">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J16" s="14">
         <v>24</v>
       </c>
       <c r="K16" s="15">
-        <v>-50</v>
+        <v>-37.5</v>
       </c>
       <c r="L16" s="15">
-        <v>-45.454545454545</v>
+        <v>-34.782608695652</v>
       </c>
       <c r="M16" s="13" t="s">
         <v>21</v>
@@ -996,34 +996,34 @@
         <v>24</v>
       </c>
       <c r="C17" s="14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" s="14">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E17" s="15">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F17" s="14">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G17" s="14">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H17" s="15">
-        <v>12.5</v>
+        <v>30.769230769230</v>
       </c>
       <c r="I17" s="14">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="J17" s="14">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="K17" s="15">
-        <v>8.771929824561</v>
+        <v>8.196721311475</v>
       </c>
       <c r="L17" s="15">
-        <v>5.084745762711</v>
+        <v>8.196721311475</v>
       </c>
       <c r="M17" s="13" t="s">
         <v>21</v>
@@ -1040,28 +1040,28 @@
         <v>20</v>
       </c>
       <c r="D18" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E18" s="15">
         <v>-100</v>
       </c>
       <c r="F18" s="14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G18" s="14">
         <v>5</v>
       </c>
       <c r="H18" s="15">
-        <v>-20</v>
+        <v>-40</v>
       </c>
       <c r="I18" s="14">
         <v>13</v>
       </c>
       <c r="J18" s="14">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K18" s="15">
-        <v>-18.75</v>
+        <v>-23.529411764705</v>
       </c>
       <c r="L18" s="15">
         <v>-31.578947368421</v>
@@ -1078,34 +1078,34 @@
         <v>26</v>
       </c>
       <c r="C19" s="14">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D19" s="14">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E19" s="15">
-        <v>233.333333333333</v>
+        <v>-66.666666666666</v>
       </c>
       <c r="F19" s="14">
         <v>22</v>
       </c>
       <c r="G19" s="14">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H19" s="15">
-        <v>15.789473684210</v>
+        <v>22.222222222222</v>
       </c>
       <c r="I19" s="14">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="J19" s="14">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="K19" s="15">
-        <v>-19.480519480519</v>
+        <v>-20.481927710843</v>
       </c>
       <c r="L19" s="15">
-        <v>-19.480519480519</v>
+        <v>-17.5</v>
       </c>
       <c r="M19" s="13" t="s">
         <v>21</v>
@@ -1122,31 +1122,31 @@
         <v>5</v>
       </c>
       <c r="D20" s="14">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E20" s="15">
-        <v>-16.666666666666</v>
+        <v>150</v>
       </c>
       <c r="F20" s="14">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G20" s="14">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H20" s="15">
-        <v>33.333333333333</v>
+        <v>30.769230769230</v>
       </c>
       <c r="I20" s="14">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="J20" s="14">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K20" s="15">
-        <v>18.604651162790</v>
+        <v>26.666666666666</v>
       </c>
       <c r="L20" s="15">
-        <v>15.909090909090</v>
+        <v>23.913043478260</v>
       </c>
       <c r="M20" s="13" t="s">
         <v>21</v>
@@ -1160,34 +1160,34 @@
         <v>28</v>
       </c>
       <c r="C21" s="17">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D21" s="17">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E21" s="18">
-        <v>42.857142857142</v>
+        <v>0</v>
       </c>
       <c r="F21" s="17">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G21" s="17">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H21" s="18">
-        <v>15.789473684210</v>
+        <v>21.428571428571</v>
       </c>
       <c r="I21" s="17">
-        <v>209</v>
+        <v>227</v>
       </c>
       <c r="J21" s="17">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="K21" s="18">
-        <v>-5</v>
+        <v>-3.404255319148</v>
       </c>
       <c r="L21" s="18">
-        <v>-6.696428571428</v>
+        <v>-2.155172413793</v>
       </c>
       <c r="M21" s="19" t="s">
         <v>21</v>
@@ -1283,34 +1283,34 @@
         <v>31</v>
       </c>
       <c r="C24" s="14">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D24" s="14">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E24" s="15">
-        <v>0</v>
+        <v>-14.285714285714</v>
       </c>
       <c r="F24" s="14">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G24" s="14">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H24" s="15">
-        <v>-11.320754716981</v>
+        <v>-12.244897959183</v>
       </c>
       <c r="I24" s="14">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="J24" s="14">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="K24" s="15">
-        <v>-14.024390243902</v>
+        <v>-14.619883040935</v>
       </c>
       <c r="L24" s="15">
-        <v>-7.236842105263</v>
+        <v>-8.75</v>
       </c>
       <c r="M24" s="13" t="s">
         <v>21</v>
@@ -1324,34 +1324,34 @@
         <v>32</v>
       </c>
       <c r="C25" s="14">
-        <v>1</v>
-      </c>
-      <c r="D25" s="14">
-        <v>7</v>
-      </c>
-      <c r="E25" s="15">
-        <v>-85.714285714285</v>
+        <v>2</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="F25" s="14">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G25" s="14">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H25" s="15">
-        <v>-66.666666666666</v>
+        <v>-42.857142857142</v>
       </c>
       <c r="I25" s="14">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J25" s="14">
         <v>32</v>
       </c>
       <c r="K25" s="15">
-        <v>-3.125</v>
+        <v>3.125</v>
       </c>
       <c r="L25" s="15">
-        <v>6.896551724137</v>
+        <v>13.793103448275</v>
       </c>
       <c r="M25" s="13" t="s">
         <v>21</v>
@@ -1365,34 +1365,34 @@
         <v>33</v>
       </c>
       <c r="C26" s="14">
+        <v>5</v>
+      </c>
+      <c r="D26" s="14">
         <v>6</v>
       </c>
-      <c r="D26" s="14">
-        <v>3</v>
-      </c>
       <c r="E26" s="15">
-        <v>100</v>
+        <v>-16.666666666666</v>
       </c>
       <c r="F26" s="14">
         <v>28</v>
       </c>
       <c r="G26" s="14">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H26" s="15">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="I26" s="14">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="J26" s="14">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="K26" s="15">
-        <v>-9.345794392523</v>
+        <v>-9.734513274336</v>
       </c>
       <c r="L26" s="15">
-        <v>25.974025974026</v>
+        <v>27.5</v>
       </c>
       <c r="M26" s="13" t="s">
         <v>21</v>
@@ -1405,35 +1405,35 @@
       <c r="A27" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>21</v>
+      <c r="C27" s="14">
+        <v>1</v>
+      </c>
+      <c r="D27" s="14">
+        <v>2</v>
+      </c>
+      <c r="E27" s="15">
+        <v>-50</v>
       </c>
       <c r="F27" s="14">
         <v>2</v>
       </c>
       <c r="G27" s="14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H27" s="15">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="I27" s="14">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J27" s="14">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K27" s="15">
-        <v>175</v>
+        <v>100</v>
       </c>
       <c r="L27" s="15">
-        <v>37.5</v>
+        <v>33.333333333333</v>
       </c>
       <c r="M27" s="13" t="s">
         <v>21</v>
@@ -1446,8 +1446,8 @@
       <c r="A28" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="14">
-        <v>1</v>
+      <c r="C28" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="D28" s="13" t="s">
         <v>20</v>
@@ -1474,7 +1474,7 @@
         <v>50</v>
       </c>
       <c r="L28" s="15">
-        <v>-50</v>
+        <v>-57.142857142857</v>
       </c>
       <c r="M28" s="13" t="s">
         <v>21</v>
@@ -1490,11 +1490,11 @@
       <c r="C29" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="14">
-        <v>1</v>
-      </c>
-      <c r="E29" s="15">
-        <v>-100</v>
+      <c r="D29" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="F29" s="13" t="s">
         <v>20</v>
@@ -1531,11 +1531,11 @@
       <c r="C30" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="14">
-        <v>1</v>
-      </c>
-      <c r="E30" s="15">
-        <v>-100</v>
+      <c r="D30" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="F30" s="13" t="s">
         <v>20</v>

--- a/data/source/weekly/cs-en-us-116pct.xlsx
+++ b/data/source/weekly/cs-en-us-116pct.xlsx
@@ -69,7 +69,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">15</t>
+      <t xml:space="preserve">16</t>
     </r>
   </si>
   <si>
@@ -95,7 +95,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">4/7/2025</t>
+      <t xml:space="preserve">4/14/2025</t>
     </r>
     <r>
       <rPr>
@@ -113,7 +113,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">4/13/2025</t>
+      <t xml:space="preserve">4/20/2025</t>
     </r>
   </si>
   <si>
@@ -884,11 +884,11 @@
       <c r="F14" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="14">
-        <v>1</v>
-      </c>
-      <c r="H14" s="15">
-        <v>-100</v>
+      <c r="G14" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="I14" s="13" t="s">
         <v>20</v>
@@ -913,14 +913,14 @@
       <c r="A15" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="14">
-        <v>1</v>
-      </c>
-      <c r="D15" s="14">
-        <v>2</v>
-      </c>
-      <c r="E15" s="15">
-        <v>-50</v>
+      <c r="C15" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="F15" s="14">
         <v>2</v>
@@ -941,7 +941,7 @@
         <v>233.333333333333</v>
       </c>
       <c r="L15" s="15">
-        <v>233.333333333333</v>
+        <v>150</v>
       </c>
       <c r="M15" s="13" t="s">
         <v>21</v>
@@ -955,34 +955,34 @@
         <v>23</v>
       </c>
       <c r="C16" s="14">
-        <v>3</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>21</v>
+        <v>2</v>
+      </c>
+      <c r="D16" s="14">
+        <v>1</v>
+      </c>
+      <c r="E16" s="15">
+        <v>100</v>
       </c>
       <c r="F16" s="14">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G16" s="14">
         <v>4</v>
       </c>
       <c r="H16" s="15">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="I16" s="14">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J16" s="14">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K16" s="15">
-        <v>-37.5</v>
+        <v>-28</v>
       </c>
       <c r="L16" s="15">
-        <v>-34.782608695652</v>
+        <v>-30.769230769230</v>
       </c>
       <c r="M16" s="13" t="s">
         <v>21</v>
@@ -996,34 +996,34 @@
         <v>24</v>
       </c>
       <c r="C17" s="14">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D17" s="14">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E17" s="15">
-        <v>0</v>
+        <v>-88.888888888888</v>
       </c>
       <c r="F17" s="14">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G17" s="14">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H17" s="15">
-        <v>30.769230769230</v>
+        <v>-38.888888888888</v>
       </c>
       <c r="I17" s="14">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J17" s="14">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="K17" s="15">
-        <v>8.196721311475</v>
+        <v>-4.285714285714</v>
       </c>
       <c r="L17" s="15">
-        <v>8.196721311475</v>
+        <v>3.076923076923</v>
       </c>
       <c r="M17" s="13" t="s">
         <v>21</v>
@@ -1045,23 +1045,23 @@
       <c r="E18" s="15">
         <v>-100</v>
       </c>
-      <c r="F18" s="14">
-        <v>3</v>
+      <c r="F18" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="G18" s="14">
         <v>5</v>
       </c>
       <c r="H18" s="15">
-        <v>-40</v>
+        <v>-100</v>
       </c>
       <c r="I18" s="14">
         <v>13</v>
       </c>
       <c r="J18" s="14">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K18" s="15">
-        <v>-23.529411764705</v>
+        <v>-27.777777777777</v>
       </c>
       <c r="L18" s="15">
         <v>-31.578947368421</v>
@@ -1078,34 +1078,34 @@
         <v>26</v>
       </c>
       <c r="C19" s="14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D19" s="14">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E19" s="15">
-        <v>-66.666666666666</v>
+        <v>-20</v>
       </c>
       <c r="F19" s="14">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G19" s="14">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H19" s="15">
-        <v>22.222222222222</v>
+        <v>-4.761904761904</v>
       </c>
       <c r="I19" s="14">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="J19" s="14">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="K19" s="15">
-        <v>-20.481927710843</v>
+        <v>-20.454545454545</v>
       </c>
       <c r="L19" s="15">
-        <v>-17.5</v>
+        <v>-15.662650602409</v>
       </c>
       <c r="M19" s="13" t="s">
         <v>21</v>
@@ -1119,34 +1119,34 @@
         <v>27</v>
       </c>
       <c r="C20" s="14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D20" s="14">
         <v>2</v>
       </c>
       <c r="E20" s="15">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="F20" s="14">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G20" s="14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H20" s="15">
-        <v>30.769230769230</v>
+        <v>66.666666666666</v>
       </c>
       <c r="I20" s="14">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="J20" s="14">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K20" s="15">
-        <v>26.666666666666</v>
+        <v>34.042553191489</v>
       </c>
       <c r="L20" s="15">
-        <v>23.913043478260</v>
+        <v>12.5</v>
       </c>
       <c r="M20" s="13" t="s">
         <v>21</v>
@@ -1160,34 +1160,34 @@
         <v>28</v>
       </c>
       <c r="C21" s="17">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D21" s="17">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E21" s="18">
-        <v>0</v>
+        <v>-27.777777777777</v>
       </c>
       <c r="F21" s="17">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="G21" s="17">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="H21" s="18">
-        <v>21.428571428571</v>
+        <v>-1.612903225806</v>
       </c>
       <c r="I21" s="17">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="J21" s="17">
-        <v>235</v>
+        <v>253</v>
       </c>
       <c r="K21" s="18">
-        <v>-3.404255319148</v>
+        <v>-4.743083003952</v>
       </c>
       <c r="L21" s="18">
-        <v>-2.155172413793</v>
+        <v>-4.743083003952</v>
       </c>
       <c r="M21" s="19" t="s">
         <v>21</v>
@@ -1283,34 +1283,34 @@
         <v>31</v>
       </c>
       <c r="C24" s="14">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D24" s="14">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E24" s="15">
-        <v>-14.285714285714</v>
+        <v>-68.75</v>
       </c>
       <c r="F24" s="14">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G24" s="14">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H24" s="15">
-        <v>-12.244897959183</v>
+        <v>-10.869565217391</v>
       </c>
       <c r="I24" s="14">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="J24" s="14">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="K24" s="15">
-        <v>-14.619883040935</v>
+        <v>-19.251336898395</v>
       </c>
       <c r="L24" s="15">
-        <v>-8.75</v>
+        <v>-12.209302325581</v>
       </c>
       <c r="M24" s="13" t="s">
         <v>21</v>
@@ -1326,32 +1326,32 @@
       <c r="C25" s="14">
         <v>2</v>
       </c>
-      <c r="D25" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>21</v>
+      <c r="D25" s="14">
+        <v>4</v>
+      </c>
+      <c r="E25" s="15">
+        <v>-50</v>
       </c>
       <c r="F25" s="14">
         <v>8</v>
       </c>
       <c r="G25" s="14">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H25" s="15">
-        <v>-42.857142857142</v>
+        <v>-33.333333333333</v>
       </c>
       <c r="I25" s="14">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J25" s="14">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="K25" s="15">
-        <v>3.125</v>
+        <v>-2.777777777777</v>
       </c>
       <c r="L25" s="15">
-        <v>13.793103448275</v>
+        <v>16.666666666666</v>
       </c>
       <c r="M25" s="13" t="s">
         <v>21</v>
@@ -1365,34 +1365,34 @@
         <v>33</v>
       </c>
       <c r="C26" s="14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D26" s="14">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E26" s="15">
-        <v>-16.666666666666</v>
+        <v>-62.5</v>
       </c>
       <c r="F26" s="14">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G26" s="14">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H26" s="15">
-        <v>75</v>
+        <v>26.315789473684</v>
       </c>
       <c r="I26" s="14">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J26" s="14">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="K26" s="15">
-        <v>-9.734513274336</v>
+        <v>-14.049586776859</v>
       </c>
       <c r="L26" s="15">
-        <v>27.5</v>
+        <v>23.809523809523</v>
       </c>
       <c r="M26" s="13" t="s">
         <v>21</v>
@@ -1408,32 +1408,32 @@
       <c r="C27" s="14">
         <v>1</v>
       </c>
-      <c r="D27" s="14">
-        <v>2</v>
-      </c>
-      <c r="E27" s="15">
-        <v>-50</v>
+      <c r="D27" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="F27" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G27" s="14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H27" s="15">
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="I27" s="14">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J27" s="14">
         <v>6</v>
       </c>
       <c r="K27" s="15">
-        <v>100</v>
+        <v>116.666666666667</v>
       </c>
       <c r="L27" s="15">
-        <v>33.333333333333</v>
+        <v>30</v>
       </c>
       <c r="M27" s="13" t="s">
         <v>21</v>
@@ -1449,29 +1449,29 @@
       <c r="C28" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>21</v>
+      <c r="D28" s="14">
+        <v>2</v>
+      </c>
+      <c r="E28" s="15">
+        <v>-100</v>
       </c>
       <c r="F28" s="14">
         <v>1</v>
       </c>
-      <c r="G28" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H28" s="13" t="s">
-        <v>21</v>
+      <c r="G28" s="14">
+        <v>2</v>
+      </c>
+      <c r="H28" s="15">
+        <v>-50</v>
       </c>
       <c r="I28" s="14">
         <v>3</v>
       </c>
       <c r="J28" s="14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K28" s="15">
-        <v>50</v>
+        <v>-25</v>
       </c>
       <c r="L28" s="15">
         <v>-57.142857142857</v>

--- a/data/source/weekly/cs-en-us-116pct.xlsx
+++ b/data/source/weekly/cs-en-us-116pct.xlsx
@@ -69,7 +69,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">16</t>
+      <t xml:space="preserve">17</t>
     </r>
   </si>
   <si>
@@ -95,7 +95,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">4/14/2025</t>
+      <t xml:space="preserve">4/21/2025</t>
     </r>
     <r>
       <rPr>
@@ -113,7 +113,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">4/20/2025</t>
+      <t xml:space="preserve">4/27/2025</t>
     </r>
   </si>
   <si>
@@ -923,13 +923,13 @@
         <v>21</v>
       </c>
       <c r="F15" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G15" s="14">
         <v>2</v>
       </c>
       <c r="H15" s="15">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="I15" s="14">
         <v>10</v>
@@ -941,7 +941,7 @@
         <v>233.333333333333</v>
       </c>
       <c r="L15" s="15">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="M15" s="13" t="s">
         <v>21</v>
@@ -954,14 +954,14 @@
       <c r="A16" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="14">
-        <v>2</v>
+      <c r="C16" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="D16" s="14">
         <v>1</v>
       </c>
       <c r="E16" s="15">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="F16" s="14">
         <v>8</v>
@@ -976,13 +976,13 @@
         <v>18</v>
       </c>
       <c r="J16" s="14">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K16" s="15">
-        <v>-28</v>
+        <v>-30.769230769230</v>
       </c>
       <c r="L16" s="15">
-        <v>-30.769230769230</v>
+        <v>-33.333333333333</v>
       </c>
       <c r="M16" s="13" t="s">
         <v>21</v>
@@ -996,34 +996,34 @@
         <v>24</v>
       </c>
       <c r="C17" s="14">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D17" s="14">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E17" s="15">
-        <v>-88.888888888888</v>
+        <v>100</v>
       </c>
       <c r="F17" s="14">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G17" s="14">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H17" s="15">
-        <v>-38.888888888888</v>
+        <v>-17.647058823529</v>
       </c>
       <c r="I17" s="14">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="J17" s="14">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="K17" s="15">
-        <v>-4.285714285714</v>
+        <v>0</v>
       </c>
       <c r="L17" s="15">
-        <v>3.076923076923</v>
+        <v>5.797101449275</v>
       </c>
       <c r="M17" s="13" t="s">
         <v>21</v>
@@ -1036,35 +1036,35 @@
       <c r="A18" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="13" t="s">
-        <v>20</v>
+      <c r="C18" s="14">
+        <v>1</v>
       </c>
       <c r="D18" s="14">
+        <v>2</v>
+      </c>
+      <c r="E18" s="15">
+        <v>-50</v>
+      </c>
+      <c r="F18" s="14">
         <v>1</v>
       </c>
-      <c r="E18" s="15">
-        <v>-100</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>20</v>
-      </c>
       <c r="G18" s="14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H18" s="15">
-        <v>-100</v>
+        <v>-83.333333333333</v>
       </c>
       <c r="I18" s="14">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J18" s="14">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K18" s="15">
-        <v>-27.777777777777</v>
+        <v>-30</v>
       </c>
       <c r="L18" s="15">
-        <v>-31.578947368421</v>
+        <v>-41.666666666666</v>
       </c>
       <c r="M18" s="13" t="s">
         <v>21</v>
@@ -1078,34 +1078,34 @@
         <v>26</v>
       </c>
       <c r="C19" s="14">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D19" s="14">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E19" s="15">
-        <v>-20</v>
+        <v>250</v>
       </c>
       <c r="F19" s="14">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G19" s="14">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H19" s="15">
-        <v>-4.761904761904</v>
+        <v>37.5</v>
       </c>
       <c r="I19" s="14">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="J19" s="14">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K19" s="15">
-        <v>-20.454545454545</v>
+        <v>-15.555555555555</v>
       </c>
       <c r="L19" s="15">
-        <v>-15.662650602409</v>
+        <v>-13.636363636363</v>
       </c>
       <c r="M19" s="13" t="s">
         <v>21</v>
@@ -1118,23 +1118,23 @@
       <c r="A20" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="14">
-        <v>6</v>
-      </c>
-      <c r="D20" s="14">
-        <v>2</v>
-      </c>
-      <c r="E20" s="15">
-        <v>200</v>
+      <c r="C20" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="F20" s="14">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G20" s="14">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H20" s="15">
-        <v>66.666666666666</v>
+        <v>60</v>
       </c>
       <c r="I20" s="14">
         <v>63</v>
@@ -1146,7 +1146,7 @@
         <v>34.042553191489</v>
       </c>
       <c r="L20" s="15">
-        <v>12.5</v>
+        <v>10.526315789473</v>
       </c>
       <c r="M20" s="13" t="s">
         <v>21</v>
@@ -1160,34 +1160,34 @@
         <v>28</v>
       </c>
       <c r="C21" s="17">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D21" s="17">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E21" s="18">
-        <v>-27.777777777777</v>
+        <v>75</v>
       </c>
       <c r="F21" s="17">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G21" s="17">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="H21" s="18">
-        <v>-1.612903225806</v>
+        <v>12.727272727272</v>
       </c>
       <c r="I21" s="17">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="J21" s="17">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="K21" s="18">
-        <v>-4.743083003952</v>
+        <v>-2.681992337164</v>
       </c>
       <c r="L21" s="18">
-        <v>-4.743083003952</v>
+        <v>-5.925925925925</v>
       </c>
       <c r="M21" s="19" t="s">
         <v>21</v>
@@ -1283,34 +1283,34 @@
         <v>31</v>
       </c>
       <c r="C24" s="14">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D24" s="14">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E24" s="15">
-        <v>-68.75</v>
+        <v>44.444444444444</v>
       </c>
       <c r="F24" s="14">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G24" s="14">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" s="15">
-        <v>-10.869565217391</v>
+        <v>-19.148936170212</v>
       </c>
       <c r="I24" s="14">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="J24" s="14">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="K24" s="15">
-        <v>-19.251336898395</v>
+        <v>-16.836734693877</v>
       </c>
       <c r="L24" s="15">
-        <v>-12.209302325581</v>
+        <v>-8.938547486033</v>
       </c>
       <c r="M24" s="13" t="s">
         <v>21</v>
@@ -1327,31 +1327,31 @@
         <v>2</v>
       </c>
       <c r="D25" s="14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E25" s="15">
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="F25" s="14">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G25" s="14">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H25" s="15">
-        <v>-33.333333333333</v>
+        <v>-46.153846153846</v>
       </c>
       <c r="I25" s="14">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J25" s="14">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K25" s="15">
-        <v>-2.777777777777</v>
+        <v>-2.631578947368</v>
       </c>
       <c r="L25" s="15">
-        <v>16.666666666666</v>
+        <v>12.121212121212</v>
       </c>
       <c r="M25" s="13" t="s">
         <v>21</v>
@@ -1365,34 +1365,34 @@
         <v>33</v>
       </c>
       <c r="C26" s="14">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D26" s="14">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E26" s="15">
-        <v>-62.5</v>
+        <v>140</v>
       </c>
       <c r="F26" s="14">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G26" s="14">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H26" s="15">
-        <v>26.315789473684</v>
+        <v>13.636363636363</v>
       </c>
       <c r="I26" s="14">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="J26" s="14">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="K26" s="15">
-        <v>-14.049586776859</v>
+        <v>-7.936507936507</v>
       </c>
       <c r="L26" s="15">
-        <v>23.809523809523</v>
+        <v>28.888888888888</v>
       </c>
       <c r="M26" s="13" t="s">
         <v>21</v>
@@ -1405,8 +1405,8 @@
       <c r="A27" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="14">
-        <v>1</v>
+      <c r="C27" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="D27" s="13" t="s">
         <v>20</v>
@@ -1415,10 +1415,10 @@
         <v>21</v>
       </c>
       <c r="F27" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G27" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H27" s="15">
         <v>0</v>
@@ -1433,7 +1433,7 @@
         <v>116.666666666667</v>
       </c>
       <c r="L27" s="15">
-        <v>30</v>
+        <v>18.181818181818</v>
       </c>
       <c r="M27" s="13" t="s">
         <v>21</v>
@@ -1459,22 +1459,22 @@
         <v>1</v>
       </c>
       <c r="G28" s="14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H28" s="15">
-        <v>-50</v>
+        <v>-75</v>
       </c>
       <c r="I28" s="14">
         <v>3</v>
       </c>
       <c r="J28" s="14">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K28" s="15">
-        <v>-25</v>
+        <v>-50</v>
       </c>
       <c r="L28" s="15">
-        <v>-57.142857142857</v>
+        <v>-66.666666666666</v>
       </c>
       <c r="M28" s="13" t="s">
         <v>21</v>

--- a/data/source/weekly/cs-en-us-116pct.xlsx
+++ b/data/source/weekly/cs-en-us-116pct.xlsx
@@ -69,7 +69,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">17</t>
+      <t xml:space="preserve">18</t>
     </r>
   </si>
   <si>
@@ -95,7 +95,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">4/21/2025</t>
+      <t xml:space="preserve">4/28/2025</t>
     </r>
     <r>
       <rPr>
@@ -113,7 +113,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">4/27/2025</t>
+      <t xml:space="preserve">5/4/2025</t>
     </r>
   </si>
   <si>
@@ -913,35 +913,35 @@
       <c r="A15" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>21</v>
+      <c r="C15" s="14">
+        <v>1</v>
+      </c>
+      <c r="D15" s="14">
+        <v>1</v>
+      </c>
+      <c r="E15" s="15">
+        <v>0</v>
       </c>
       <c r="F15" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G15" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H15" s="15">
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="I15" s="14">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J15" s="14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K15" s="15">
-        <v>233.333333333333</v>
+        <v>200</v>
       </c>
       <c r="L15" s="15">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="M15" s="13" t="s">
         <v>21</v>
@@ -954,35 +954,35 @@
       <c r="A16" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="13" t="s">
-        <v>20</v>
+      <c r="C16" s="14">
+        <v>1</v>
       </c>
       <c r="D16" s="14">
         <v>1</v>
       </c>
       <c r="E16" s="15">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F16" s="14">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G16" s="14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H16" s="15">
-        <v>100</v>
+        <v>133.333333333333</v>
       </c>
       <c r="I16" s="14">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J16" s="14">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K16" s="15">
-        <v>-30.769230769230</v>
+        <v>-25.925925925925</v>
       </c>
       <c r="L16" s="15">
-        <v>-33.333333333333</v>
+        <v>-28.571428571428</v>
       </c>
       <c r="M16" s="13" t="s">
         <v>21</v>
@@ -996,34 +996,34 @@
         <v>24</v>
       </c>
       <c r="C17" s="14">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D17" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E17" s="15">
-        <v>100</v>
+        <v>450</v>
       </c>
       <c r="F17" s="14">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="G17" s="14">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H17" s="15">
-        <v>-17.647058823529</v>
+        <v>33.333333333333</v>
       </c>
       <c r="I17" s="14">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="J17" s="14">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K17" s="15">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="L17" s="15">
-        <v>5.797101449275</v>
+        <v>12.987012987013</v>
       </c>
       <c r="M17" s="13" t="s">
         <v>21</v>
@@ -1036,35 +1036,35 @@
       <c r="A18" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="14">
-        <v>1</v>
+      <c r="C18" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="D18" s="14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E18" s="15">
-        <v>-50</v>
+        <v>-100</v>
       </c>
       <c r="F18" s="14">
         <v>1</v>
       </c>
       <c r="G18" s="14">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H18" s="15">
-        <v>-83.333333333333</v>
+        <v>-87.5</v>
       </c>
       <c r="I18" s="14">
         <v>14</v>
       </c>
       <c r="J18" s="14">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="K18" s="15">
-        <v>-30</v>
+        <v>-41.666666666666</v>
       </c>
       <c r="L18" s="15">
-        <v>-41.666666666666</v>
+        <v>-44</v>
       </c>
       <c r="M18" s="13" t="s">
         <v>21</v>
@@ -1078,34 +1078,34 @@
         <v>26</v>
       </c>
       <c r="C19" s="14">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D19" s="14">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E19" s="15">
-        <v>250</v>
+        <v>-60</v>
       </c>
       <c r="F19" s="14">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="G19" s="14">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H19" s="15">
-        <v>37.5</v>
+        <v>-22.222222222222</v>
       </c>
       <c r="I19" s="14">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="J19" s="14">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="K19" s="15">
-        <v>-15.555555555555</v>
+        <v>-16.842105263157</v>
       </c>
       <c r="L19" s="15">
-        <v>-13.636363636363</v>
+        <v>-15.053763440860</v>
       </c>
       <c r="M19" s="13" t="s">
         <v>21</v>
@@ -1118,35 +1118,35 @@
       <c r="A20" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>21</v>
+      <c r="C20" s="14">
+        <v>8</v>
+      </c>
+      <c r="D20" s="14">
+        <v>3</v>
+      </c>
+      <c r="E20" s="15">
+        <v>166.666666666667</v>
       </c>
       <c r="F20" s="14">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G20" s="14">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H20" s="15">
-        <v>60</v>
+        <v>171.428571428571</v>
       </c>
       <c r="I20" s="14">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="J20" s="14">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K20" s="15">
-        <v>34.042553191489</v>
+        <v>42</v>
       </c>
       <c r="L20" s="15">
-        <v>10.526315789473</v>
+        <v>22.413793103448</v>
       </c>
       <c r="M20" s="13" t="s">
         <v>21</v>
@@ -1160,34 +1160,34 @@
         <v>28</v>
       </c>
       <c r="C21" s="17">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D21" s="17">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E21" s="18">
-        <v>75</v>
+        <v>43.75</v>
       </c>
       <c r="F21" s="17">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="G21" s="17">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H21" s="18">
-        <v>12.727272727272</v>
+        <v>19.298245614035</v>
       </c>
       <c r="I21" s="17">
-        <v>254</v>
+        <v>283</v>
       </c>
       <c r="J21" s="17">
-        <v>261</v>
+        <v>277</v>
       </c>
       <c r="K21" s="18">
-        <v>-2.681992337164</v>
+        <v>2.166064981949</v>
       </c>
       <c r="L21" s="18">
-        <v>-5.925925925925</v>
+        <v>-1.048951048951</v>
       </c>
       <c r="M21" s="19" t="s">
         <v>21</v>
@@ -1286,31 +1286,31 @@
         <v>13</v>
       </c>
       <c r="D24" s="14">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" s="15">
-        <v>44.444444444444</v>
+        <v>30</v>
       </c>
       <c r="F24" s="14">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G24" s="14">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H24" s="15">
-        <v>-19.148936170212</v>
+        <v>-14.285714285714</v>
       </c>
       <c r="I24" s="14">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="J24" s="14">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="K24" s="15">
-        <v>-16.836734693877</v>
+        <v>-14.563106796116</v>
       </c>
       <c r="L24" s="15">
-        <v>-8.938547486033</v>
+        <v>-5.376344086021</v>
       </c>
       <c r="M24" s="13" t="s">
         <v>21</v>
@@ -1333,25 +1333,25 @@
         <v>0</v>
       </c>
       <c r="F25" s="14">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G25" s="14">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="H25" s="15">
-        <v>-46.153846153846</v>
+        <v>0</v>
       </c>
       <c r="I25" s="14">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J25" s="14">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K25" s="15">
-        <v>-2.631578947368</v>
+        <v>-2.5</v>
       </c>
       <c r="L25" s="15">
-        <v>12.121212121212</v>
+        <v>18.181818181818</v>
       </c>
       <c r="M25" s="13" t="s">
         <v>21</v>
@@ -1365,34 +1365,34 @@
         <v>33</v>
       </c>
       <c r="C26" s="14">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D26" s="14">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E26" s="15">
-        <v>140</v>
+        <v>44.444444444444</v>
       </c>
       <c r="F26" s="14">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="G26" s="14">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="H26" s="15">
-        <v>13.636363636363</v>
+        <v>14.285714285714</v>
       </c>
       <c r="I26" s="14">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="J26" s="14">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="K26" s="15">
-        <v>-7.936507936507</v>
+        <v>-5.185185185185</v>
       </c>
       <c r="L26" s="15">
-        <v>28.888888888888</v>
+        <v>31.958762886597</v>
       </c>
       <c r="M26" s="13" t="s">
         <v>21</v>
@@ -1405,35 +1405,35 @@
       <c r="A27" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>21</v>
+      <c r="C27" s="14">
+        <v>1</v>
+      </c>
+      <c r="D27" s="14">
+        <v>1</v>
+      </c>
+      <c r="E27" s="15">
+        <v>0</v>
       </c>
       <c r="F27" s="14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G27" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H27" s="15">
-        <v>0</v>
+        <v>33.333333333333</v>
       </c>
       <c r="I27" s="14">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J27" s="14">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K27" s="15">
-        <v>116.666666666667</v>
+        <v>114.285714285714</v>
       </c>
       <c r="L27" s="15">
-        <v>18.181818181818</v>
+        <v>36.363636363636</v>
       </c>
       <c r="M27" s="13" t="s">
         <v>21</v>
@@ -1449,20 +1449,20 @@
       <c r="C28" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="14">
-        <v>2</v>
-      </c>
-      <c r="E28" s="15">
-        <v>-100</v>
-      </c>
-      <c r="F28" s="14">
-        <v>1</v>
+      <c r="D28" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="G28" s="14">
         <v>4</v>
       </c>
       <c r="H28" s="15">
-        <v>-75</v>
+        <v>-100</v>
       </c>
       <c r="I28" s="14">
         <v>3</v>
@@ -1474,7 +1474,7 @@
         <v>-50</v>
       </c>
       <c r="L28" s="15">
-        <v>-66.666666666666</v>
+        <v>-72.727272727272</v>
       </c>
       <c r="M28" s="13" t="s">
         <v>21</v>
@@ -1487,8 +1487,8 @@
       <c r="A29" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="13" t="s">
-        <v>20</v>
+      <c r="C29" s="14">
+        <v>1</v>
       </c>
       <c r="D29" s="13" t="s">
         <v>20</v>
@@ -1496,26 +1496,26 @@
       <c r="E29" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F29" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G29" s="14">
+      <c r="F29" s="14">
         <v>1</v>
       </c>
-      <c r="H29" s="15">
-        <v>-100</v>
-      </c>
-      <c r="I29" s="13" t="s">
-        <v>20</v>
+      <c r="G29" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H29" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I29" s="14">
+        <v>1</v>
       </c>
       <c r="J29" s="14">
         <v>2</v>
       </c>
       <c r="K29" s="15">
-        <v>-100</v>
+        <v>-50</v>
       </c>
       <c r="L29" s="15">
-        <v>-100</v>
+        <v>-50</v>
       </c>
       <c r="M29" s="13" t="s">
         <v>21</v>
@@ -1528,8 +1528,8 @@
       <c r="A30" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="13" t="s">
-        <v>20</v>
+      <c r="C30" s="14">
+        <v>1</v>
       </c>
       <c r="D30" s="13" t="s">
         <v>20</v>
@@ -1537,26 +1537,26 @@
       <c r="E30" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F30" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G30" s="14">
+      <c r="F30" s="14">
         <v>1</v>
       </c>
-      <c r="H30" s="15">
-        <v>-100</v>
-      </c>
-      <c r="I30" s="13" t="s">
-        <v>20</v>
+      <c r="G30" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H30" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I30" s="14">
+        <v>1</v>
       </c>
       <c r="J30" s="14">
         <v>2</v>
       </c>
       <c r="K30" s="15">
-        <v>-100</v>
+        <v>-50</v>
       </c>
       <c r="L30" s="15">
-        <v>-100</v>
+        <v>-50</v>
       </c>
       <c r="M30" s="13" t="s">
         <v>21</v>

--- a/data/source/weekly/cs-en-us-116pct.xlsx
+++ b/data/source/weekly/cs-en-us-116pct.xlsx
@@ -69,7 +69,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">18</t>
+      <t xml:space="preserve">19</t>
     </r>
   </si>
   <si>
@@ -95,7 +95,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">4/28/2025</t>
+      <t xml:space="preserve">5/5/2025</t>
     </r>
     <r>
       <rPr>
@@ -113,7 +113,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">5/4/2025</t>
+      <t xml:space="preserve">5/11/2025</t>
     </r>
   </si>
   <si>
@@ -916,32 +916,32 @@
       <c r="C15" s="14">
         <v>1</v>
       </c>
-      <c r="D15" s="14">
-        <v>1</v>
-      </c>
-      <c r="E15" s="15">
-        <v>0</v>
+      <c r="D15" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="F15" s="14">
         <v>3</v>
       </c>
       <c r="G15" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H15" s="15">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I15" s="14">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J15" s="14">
         <v>4</v>
       </c>
       <c r="K15" s="15">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="L15" s="15">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="M15" s="13" t="s">
         <v>21</v>
@@ -954,35 +954,35 @@
       <c r="A16" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="14">
-        <v>1</v>
+      <c r="C16" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="D16" s="14">
         <v>1</v>
       </c>
       <c r="E16" s="15">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F16" s="14">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G16" s="14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H16" s="15">
-        <v>133.333333333333</v>
+        <v>-25</v>
       </c>
       <c r="I16" s="14">
         <v>20</v>
       </c>
       <c r="J16" s="14">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K16" s="15">
-        <v>-25.925925925925</v>
+        <v>-28.571428571428</v>
       </c>
       <c r="L16" s="15">
-        <v>-28.571428571428</v>
+        <v>-31.034482758620</v>
       </c>
       <c r="M16" s="13" t="s">
         <v>21</v>
@@ -996,34 +996,34 @@
         <v>24</v>
       </c>
       <c r="C17" s="14">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D17" s="14">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E17" s="15">
-        <v>450</v>
+        <v>-62.5</v>
       </c>
       <c r="F17" s="14">
         <v>24</v>
       </c>
       <c r="G17" s="14">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H17" s="15">
-        <v>33.333333333333</v>
+        <v>9.090909090909</v>
       </c>
       <c r="I17" s="14">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="J17" s="14">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="K17" s="15">
-        <v>16</v>
+        <v>9.638554216867</v>
       </c>
       <c r="L17" s="15">
-        <v>12.987012987013</v>
+        <v>4.597701149425</v>
       </c>
       <c r="M17" s="13" t="s">
         <v>21</v>
@@ -1036,35 +1036,35 @@
       <c r="A18" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="13" t="s">
-        <v>20</v>
+      <c r="C18" s="14">
+        <v>1</v>
       </c>
       <c r="D18" s="14">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E18" s="15">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F18" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G18" s="14">
         <v>8</v>
       </c>
       <c r="H18" s="15">
-        <v>-87.5</v>
+        <v>-75</v>
       </c>
       <c r="I18" s="14">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J18" s="14">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K18" s="15">
-        <v>-41.666666666666</v>
+        <v>-40</v>
       </c>
       <c r="L18" s="15">
-        <v>-44</v>
+        <v>-44.444444444444</v>
       </c>
       <c r="M18" s="13" t="s">
         <v>21</v>
@@ -1081,10 +1081,10 @@
         <v>2</v>
       </c>
       <c r="D19" s="14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E19" s="15">
-        <v>-60</v>
+        <v>-66.666666666666</v>
       </c>
       <c r="F19" s="14">
         <v>14</v>
@@ -1096,16 +1096,16 @@
         <v>-22.222222222222</v>
       </c>
       <c r="I19" s="14">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J19" s="14">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="K19" s="15">
-        <v>-16.842105263157</v>
+        <v>-19.801980198019</v>
       </c>
       <c r="L19" s="15">
-        <v>-15.053763440860</v>
+        <v>-16.494845360824</v>
       </c>
       <c r="M19" s="13" t="s">
         <v>21</v>
@@ -1119,34 +1119,34 @@
         <v>27</v>
       </c>
       <c r="C20" s="14">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D20" s="14">
         <v>3</v>
       </c>
       <c r="E20" s="15">
-        <v>166.666666666667</v>
+        <v>-66.666666666666</v>
       </c>
       <c r="F20" s="14">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G20" s="14">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H20" s="15">
-        <v>171.428571428571</v>
+        <v>87.5</v>
       </c>
       <c r="I20" s="14">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J20" s="14">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K20" s="15">
-        <v>42</v>
+        <v>35.849056603773</v>
       </c>
       <c r="L20" s="15">
-        <v>22.413793103448</v>
+        <v>10.769230769230</v>
       </c>
       <c r="M20" s="13" t="s">
         <v>21</v>
@@ -1160,34 +1160,34 @@
         <v>28</v>
       </c>
       <c r="C21" s="17">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D21" s="17">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E21" s="18">
-        <v>43.75</v>
+        <v>-57.894736842105</v>
       </c>
       <c r="F21" s="17">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="G21" s="17">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="H21" s="18">
-        <v>19.298245614035</v>
+        <v>0</v>
       </c>
       <c r="I21" s="17">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="J21" s="17">
-        <v>277</v>
+        <v>296</v>
       </c>
       <c r="K21" s="18">
-        <v>2.166064981949</v>
+        <v>-1.351351351351</v>
       </c>
       <c r="L21" s="18">
-        <v>-1.048951048951</v>
+        <v>-5.806451612903</v>
       </c>
       <c r="M21" s="19" t="s">
         <v>21</v>
@@ -1283,34 +1283,34 @@
         <v>31</v>
       </c>
       <c r="C24" s="14">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D24" s="14">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E24" s="15">
-        <v>30</v>
+        <v>-37.5</v>
       </c>
       <c r="F24" s="14">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G24" s="14">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H24" s="15">
-        <v>-14.285714285714</v>
+        <v>-18.604651162790</v>
       </c>
       <c r="I24" s="14">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="J24" s="14">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="K24" s="15">
-        <v>-14.563106796116</v>
+        <v>-15.420560747663</v>
       </c>
       <c r="L24" s="15">
-        <v>-5.376344086021</v>
+        <v>-3.723404255319</v>
       </c>
       <c r="M24" s="13" t="s">
         <v>21</v>
@@ -1324,34 +1324,34 @@
         <v>32</v>
       </c>
       <c r="C25" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D25" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E25" s="15">
         <v>0</v>
       </c>
       <c r="F25" s="14">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G25" s="14">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H25" s="15">
-        <v>0</v>
+        <v>-22.222222222222</v>
       </c>
       <c r="I25" s="14">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J25" s="14">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K25" s="15">
-        <v>-2.5</v>
+        <v>-2.439024390243</v>
       </c>
       <c r="L25" s="15">
-        <v>18.181818181818</v>
+        <v>21.212121212121</v>
       </c>
       <c r="M25" s="13" t="s">
         <v>21</v>
@@ -1365,34 +1365,34 @@
         <v>33</v>
       </c>
       <c r="C26" s="14">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D26" s="14">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E26" s="15">
-        <v>44.444444444444</v>
+        <v>72.727272727272</v>
       </c>
       <c r="F26" s="14">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G26" s="14">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="H26" s="15">
-        <v>14.285714285714</v>
+        <v>39.393939393939</v>
       </c>
       <c r="I26" s="14">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="J26" s="14">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="K26" s="15">
-        <v>-5.185185185185</v>
+        <v>0</v>
       </c>
       <c r="L26" s="15">
-        <v>31.958762886597</v>
+        <v>43.137254901960</v>
       </c>
       <c r="M26" s="13" t="s">
         <v>21</v>
@@ -1408,32 +1408,32 @@
       <c r="C27" s="14">
         <v>1</v>
       </c>
-      <c r="D27" s="14">
-        <v>1</v>
-      </c>
-      <c r="E27" s="15">
-        <v>0</v>
+      <c r="D27" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="F27" s="14">
         <v>4</v>
       </c>
       <c r="G27" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H27" s="15">
-        <v>33.333333333333</v>
+        <v>300</v>
       </c>
       <c r="I27" s="14">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J27" s="14">
         <v>7</v>
       </c>
       <c r="K27" s="15">
-        <v>114.285714285714</v>
+        <v>128.571428571429</v>
       </c>
       <c r="L27" s="15">
-        <v>36.363636363636</v>
+        <v>45.454545454545</v>
       </c>
       <c r="M27" s="13" t="s">
         <v>21</v>
@@ -1455,26 +1455,26 @@
       <c r="E28" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F28" s="13" t="s">
-        <v>20</v>
+      <c r="F28" s="14">
+        <v>1</v>
       </c>
       <c r="G28" s="14">
         <v>4</v>
       </c>
       <c r="H28" s="15">
-        <v>-100</v>
+        <v>-75</v>
       </c>
       <c r="I28" s="14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J28" s="14">
         <v>6</v>
       </c>
       <c r="K28" s="15">
-        <v>-50</v>
+        <v>-33.333333333333</v>
       </c>
       <c r="L28" s="15">
-        <v>-72.727272727272</v>
+        <v>-63.636363636363</v>
       </c>
       <c r="M28" s="13" t="s">
         <v>21</v>
@@ -1487,35 +1487,35 @@
       <c r="A29" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="14">
-        <v>1</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F29" s="14">
-        <v>1</v>
-      </c>
-      <c r="G29" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H29" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="I29" s="14">
-        <v>1</v>
+      <c r="C29" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="14">
+        <v>2</v>
+      </c>
+      <c r="E29" s="15">
+        <v>-100</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G29" s="14">
+        <v>2</v>
+      </c>
+      <c r="H29" s="15">
+        <v>-100</v>
+      </c>
+      <c r="I29" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="J29" s="14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K29" s="15">
-        <v>-50</v>
+        <v>-100</v>
       </c>
       <c r="L29" s="15">
-        <v>-50</v>
+        <v>-100</v>
       </c>
       <c r="M29" s="13" t="s">
         <v>21</v>
@@ -1528,35 +1528,35 @@
       <c r="A30" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="14">
+      <c r="C30" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="14">
         <v>1</v>
       </c>
-      <c r="D30" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E30" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F30" s="14">
+      <c r="E30" s="15">
+        <v>-100</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G30" s="14">
         <v>1</v>
       </c>
-      <c r="G30" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H30" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="I30" s="14">
-        <v>1</v>
+      <c r="H30" s="15">
+        <v>-100</v>
+      </c>
+      <c r="I30" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="J30" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K30" s="15">
-        <v>-50</v>
+        <v>-100</v>
       </c>
       <c r="L30" s="15">
-        <v>-50</v>
+        <v>-100</v>
       </c>
       <c r="M30" s="13" t="s">
         <v>21</v>

--- a/data/source/weekly/cs-en-us-116pct.xlsx
+++ b/data/source/weekly/cs-en-us-116pct.xlsx
@@ -69,7 +69,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">19</t>
+      <t xml:space="preserve">20</t>
     </r>
   </si>
   <si>
@@ -95,7 +95,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">5/5/2025</t>
+      <t xml:space="preserve">5/12/2025</t>
     </r>
     <r>
       <rPr>
@@ -113,7 +113,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">5/11/2025</t>
+      <t xml:space="preserve">5/18/2025</t>
     </r>
   </si>
   <si>
@@ -913,8 +913,8 @@
       <c r="A15" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="14">
-        <v>1</v>
+      <c r="C15" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="D15" s="13" t="s">
         <v>20</v>
@@ -932,16 +932,16 @@
         <v>200</v>
       </c>
       <c r="I15" s="14">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J15" s="14">
         <v>4</v>
       </c>
       <c r="K15" s="15">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="L15" s="15">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="M15" s="13" t="s">
         <v>21</v>
@@ -954,35 +954,35 @@
       <c r="A16" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="13" t="s">
-        <v>20</v>
+      <c r="C16" s="14">
+        <v>1</v>
       </c>
       <c r="D16" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E16" s="15">
-        <v>-100</v>
+        <v>-50</v>
       </c>
       <c r="F16" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G16" s="14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H16" s="15">
-        <v>-25</v>
+        <v>-60</v>
       </c>
       <c r="I16" s="14">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J16" s="14">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K16" s="15">
-        <v>-28.571428571428</v>
+        <v>-30</v>
       </c>
       <c r="L16" s="15">
-        <v>-31.034482758620</v>
+        <v>-27.586206896551</v>
       </c>
       <c r="M16" s="13" t="s">
         <v>21</v>
@@ -996,34 +996,34 @@
         <v>24</v>
       </c>
       <c r="C17" s="14">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D17" s="14">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E17" s="15">
-        <v>-62.5</v>
+        <v>25</v>
       </c>
       <c r="F17" s="14">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G17" s="14">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H17" s="15">
-        <v>9.090909090909</v>
+        <v>64.705882352941</v>
       </c>
       <c r="I17" s="14">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="J17" s="14">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="K17" s="15">
-        <v>9.638554216867</v>
+        <v>11.494252873563</v>
       </c>
       <c r="L17" s="15">
-        <v>4.597701149425</v>
+        <v>6.593406593406</v>
       </c>
       <c r="M17" s="13" t="s">
         <v>21</v>
@@ -1037,34 +1037,34 @@
         <v>25</v>
       </c>
       <c r="C18" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E18" s="15">
         <v>0</v>
       </c>
       <c r="F18" s="14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G18" s="14">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H18" s="15">
-        <v>-75</v>
+        <v>-55.555555555555</v>
       </c>
       <c r="I18" s="14">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J18" s="14">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K18" s="15">
-        <v>-40</v>
+        <v>-37.037037037037</v>
       </c>
       <c r="L18" s="15">
-        <v>-44.444444444444</v>
+        <v>-37.037037037037</v>
       </c>
       <c r="M18" s="13" t="s">
         <v>21</v>
@@ -1081,31 +1081,31 @@
         <v>2</v>
       </c>
       <c r="D19" s="14">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E19" s="15">
-        <v>-66.666666666666</v>
+        <v>-77.777777777777</v>
       </c>
       <c r="F19" s="14">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G19" s="14">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H19" s="15">
-        <v>-22.222222222222</v>
+        <v>-40.909090909090</v>
       </c>
       <c r="I19" s="14">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="J19" s="14">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="K19" s="15">
-        <v>-19.801980198019</v>
+        <v>-23.636363636363</v>
       </c>
       <c r="L19" s="15">
-        <v>-16.494845360824</v>
+        <v>-17.647058823529</v>
       </c>
       <c r="M19" s="13" t="s">
         <v>21</v>
@@ -1119,34 +1119,34 @@
         <v>27</v>
       </c>
       <c r="C20" s="14">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D20" s="14">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E20" s="15">
-        <v>-66.666666666666</v>
+        <v>-50</v>
       </c>
       <c r="F20" s="14">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G20" s="14">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H20" s="15">
-        <v>87.5</v>
+        <v>-7.142857142857</v>
       </c>
       <c r="I20" s="14">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="J20" s="14">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="K20" s="15">
-        <v>35.849056603773</v>
+        <v>24.590163934426</v>
       </c>
       <c r="L20" s="15">
-        <v>10.769230769230</v>
+        <v>8.571428571428</v>
       </c>
       <c r="M20" s="13" t="s">
         <v>21</v>
@@ -1160,34 +1160,34 @@
         <v>28</v>
       </c>
       <c r="C21" s="17">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D21" s="17">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E21" s="18">
-        <v>-57.894736842105</v>
+        <v>-44</v>
       </c>
       <c r="F21" s="17">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G21" s="17">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="H21" s="18">
-        <v>0</v>
+        <v>-7.352941176470</v>
       </c>
       <c r="I21" s="17">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="J21" s="17">
-        <v>296</v>
+        <v>321</v>
       </c>
       <c r="K21" s="18">
-        <v>-1.351351351351</v>
+        <v>-3.738317757009</v>
       </c>
       <c r="L21" s="18">
-        <v>-5.806451612903</v>
+        <v>-4.629629629629</v>
       </c>
       <c r="M21" s="19" t="s">
         <v>21</v>
@@ -1286,31 +1286,31 @@
         <v>5</v>
       </c>
       <c r="D24" s="14">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E24" s="15">
-        <v>-37.5</v>
+        <v>-73.684210526315</v>
       </c>
       <c r="F24" s="14">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G24" s="14">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H24" s="15">
-        <v>-18.604651162790</v>
+        <v>-21.739130434782</v>
       </c>
       <c r="I24" s="14">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="J24" s="14">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="K24" s="15">
-        <v>-15.420560747663</v>
+        <v>-20.171673819742</v>
       </c>
       <c r="L24" s="15">
-        <v>-3.723404255319</v>
+        <v>-3.626943005181</v>
       </c>
       <c r="M24" s="13" t="s">
         <v>21</v>
@@ -1327,31 +1327,31 @@
         <v>1</v>
       </c>
       <c r="D25" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E25" s="15">
-        <v>0</v>
+        <v>-66.666666666666</v>
       </c>
       <c r="F25" s="14">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G25" s="14">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H25" s="15">
-        <v>-22.222222222222</v>
+        <v>-25</v>
       </c>
       <c r="I25" s="14">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J25" s="14">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="K25" s="15">
-        <v>-2.439024390243</v>
+        <v>-6.818181818181</v>
       </c>
       <c r="L25" s="15">
-        <v>21.212121212121</v>
+        <v>20.588235294117</v>
       </c>
       <c r="M25" s="13" t="s">
         <v>21</v>
@@ -1365,34 +1365,34 @@
         <v>33</v>
       </c>
       <c r="C26" s="14">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D26" s="14">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E26" s="15">
-        <v>72.727272727272</v>
+        <v>0</v>
       </c>
       <c r="F26" s="14">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G26" s="14">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H26" s="15">
-        <v>39.393939393939</v>
+        <v>50</v>
       </c>
       <c r="I26" s="14">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="J26" s="14">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="K26" s="15">
-        <v>0</v>
+        <v>-0.645161290322</v>
       </c>
       <c r="L26" s="15">
-        <v>43.137254901960</v>
+        <v>40</v>
       </c>
       <c r="M26" s="13" t="s">
         <v>21</v>
@@ -1405,8 +1405,8 @@
       <c r="A27" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="14">
-        <v>1</v>
+      <c r="C27" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="D27" s="13" t="s">
         <v>20</v>
@@ -1415,25 +1415,25 @@
         <v>21</v>
       </c>
       <c r="F27" s="14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G27" s="14">
         <v>1</v>
       </c>
       <c r="H27" s="15">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I27" s="14">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J27" s="14">
         <v>7</v>
       </c>
       <c r="K27" s="15">
-        <v>128.571428571429</v>
+        <v>142.857142857143</v>
       </c>
       <c r="L27" s="15">
-        <v>45.454545454545</v>
+        <v>54.545454545454</v>
       </c>
       <c r="M27" s="13" t="s">
         <v>21</v>
@@ -1446,8 +1446,8 @@
       <c r="A28" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="13" t="s">
-        <v>20</v>
+      <c r="C28" s="14">
+        <v>2</v>
       </c>
       <c r="D28" s="13" t="s">
         <v>20</v>
@@ -1456,25 +1456,25 @@
         <v>21</v>
       </c>
       <c r="F28" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G28" s="14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H28" s="15">
-        <v>-75</v>
+        <v>50</v>
       </c>
       <c r="I28" s="14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J28" s="14">
         <v>6</v>
       </c>
       <c r="K28" s="15">
-        <v>-33.333333333333</v>
+        <v>-16.666666666666</v>
       </c>
       <c r="L28" s="15">
-        <v>-63.636363636363</v>
+        <v>-61.538461538461</v>
       </c>
       <c r="M28" s="13" t="s">
         <v>21</v>
@@ -1490,11 +1490,11 @@
       <c r="C29" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="14">
-        <v>2</v>
-      </c>
-      <c r="E29" s="15">
-        <v>-100</v>
+      <c r="D29" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="F29" s="13" t="s">
         <v>20</v>
@@ -1531,11 +1531,11 @@
       <c r="C30" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="14">
-        <v>1</v>
-      </c>
-      <c r="E30" s="15">
-        <v>-100</v>
+      <c r="D30" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="F30" s="13" t="s">
         <v>20</v>
@@ -1572,29 +1572,29 @@
       <c r="C31" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D31" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E31" s="13" t="s">
-        <v>21</v>
+      <c r="D31" s="14">
+        <v>1</v>
+      </c>
+      <c r="E31" s="15">
+        <v>-100</v>
       </c>
       <c r="F31" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G31" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H31" s="13" t="s">
-        <v>21</v>
+      <c r="G31" s="14">
+        <v>1</v>
+      </c>
+      <c r="H31" s="15">
+        <v>-100</v>
       </c>
       <c r="I31" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="J31" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="K31" s="13" t="s">
-        <v>21</v>
+      <c r="J31" s="14">
+        <v>1</v>
+      </c>
+      <c r="K31" s="15">
+        <v>-100</v>
       </c>
       <c r="L31" s="13" t="s">
         <v>21</v>

--- a/data/source/weekly/cs-en-us-116pct.xlsx
+++ b/data/source/weekly/cs-en-us-116pct.xlsx
@@ -69,7 +69,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">20</t>
+      <t xml:space="preserve">21</t>
     </r>
   </si>
   <si>
@@ -95,7 +95,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">5/12/2025</t>
+      <t xml:space="preserve">5/19/2025</t>
     </r>
     <r>
       <rPr>
@@ -113,7 +113,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">5/18/2025</t>
+      <t xml:space="preserve">5/25/2025</t>
     </r>
   </si>
   <si>
@@ -913,8 +913,8 @@
       <c r="A15" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="13" t="s">
-        <v>20</v>
+      <c r="C15" s="14">
+        <v>2</v>
       </c>
       <c r="D15" s="13" t="s">
         <v>20</v>
@@ -923,25 +923,25 @@
         <v>21</v>
       </c>
       <c r="F15" s="14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G15" s="14">
         <v>1</v>
       </c>
       <c r="H15" s="15">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I15" s="14">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J15" s="14">
         <v>4</v>
       </c>
       <c r="K15" s="15">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="L15" s="15">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="M15" s="13" t="s">
         <v>21</v>
@@ -955,34 +955,34 @@
         <v>23</v>
       </c>
       <c r="C16" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D16" s="14">
         <v>2</v>
       </c>
       <c r="E16" s="15">
-        <v>-50</v>
+        <v>50</v>
       </c>
       <c r="F16" s="14">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G16" s="14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H16" s="15">
-        <v>-60</v>
+        <v>-16.666666666666</v>
       </c>
       <c r="I16" s="14">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J16" s="14">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K16" s="15">
-        <v>-30</v>
+        <v>-25</v>
       </c>
       <c r="L16" s="15">
-        <v>-27.586206896551</v>
+        <v>-22.580645161290</v>
       </c>
       <c r="M16" s="13" t="s">
         <v>21</v>
@@ -996,34 +996,34 @@
         <v>24</v>
       </c>
       <c r="C17" s="14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" s="14">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E17" s="15">
-        <v>25</v>
+        <v>-33.333333333333</v>
       </c>
       <c r="F17" s="14">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G17" s="14">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H17" s="15">
-        <v>64.705882352941</v>
+        <v>20</v>
       </c>
       <c r="I17" s="14">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="J17" s="14">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="K17" s="15">
-        <v>11.494252873563</v>
+        <v>7.526881720430</v>
       </c>
       <c r="L17" s="15">
-        <v>6.593406593406</v>
+        <v>5.263157894736</v>
       </c>
       <c r="M17" s="13" t="s">
         <v>21</v>
@@ -1037,13 +1037,13 @@
         <v>25</v>
       </c>
       <c r="C18" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18" s="14">
         <v>2</v>
       </c>
       <c r="E18" s="15">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="F18" s="14">
         <v>4</v>
@@ -1055,16 +1055,16 @@
         <v>-55.555555555555</v>
       </c>
       <c r="I18" s="14">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J18" s="14">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K18" s="15">
-        <v>-37.037037037037</v>
+        <v>-37.931034482758</v>
       </c>
       <c r="L18" s="15">
-        <v>-37.037037037037</v>
+        <v>-37.931034482758</v>
       </c>
       <c r="M18" s="13" t="s">
         <v>21</v>
@@ -1078,34 +1078,34 @@
         <v>26</v>
       </c>
       <c r="C19" s="14">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D19" s="14">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E19" s="15">
-        <v>-77.777777777777</v>
+        <v>66.666666666666</v>
       </c>
       <c r="F19" s="14">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G19" s="14">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H19" s="15">
-        <v>-40.909090909090</v>
+        <v>-56.521739130434</v>
       </c>
       <c r="I19" s="14">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J19" s="14">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="K19" s="15">
-        <v>-23.636363636363</v>
+        <v>-21.238938053097</v>
       </c>
       <c r="L19" s="15">
-        <v>-17.647058823529</v>
+        <v>-19.090909090909</v>
       </c>
       <c r="M19" s="13" t="s">
         <v>21</v>
@@ -1119,34 +1119,34 @@
         <v>27</v>
       </c>
       <c r="C20" s="14">
+        <v>2</v>
+      </c>
+      <c r="D20" s="14">
+        <v>1</v>
+      </c>
+      <c r="E20" s="15">
+        <v>100</v>
+      </c>
+      <c r="F20" s="14">
+        <v>15</v>
+      </c>
+      <c r="G20" s="14">
+        <v>15</v>
+      </c>
+      <c r="H20" s="15">
+        <v>0</v>
+      </c>
+      <c r="I20" s="14">
+        <v>78</v>
+      </c>
+      <c r="J20" s="14">
+        <v>62</v>
+      </c>
+      <c r="K20" s="15">
+        <v>25.806451612903</v>
+      </c>
+      <c r="L20" s="15">
         <v>4</v>
-      </c>
-      <c r="D20" s="14">
-        <v>8</v>
-      </c>
-      <c r="E20" s="15">
-        <v>-50</v>
-      </c>
-      <c r="F20" s="14">
-        <v>13</v>
-      </c>
-      <c r="G20" s="14">
-        <v>14</v>
-      </c>
-      <c r="H20" s="15">
-        <v>-7.142857142857</v>
-      </c>
-      <c r="I20" s="14">
-        <v>76</v>
-      </c>
-      <c r="J20" s="14">
-        <v>61</v>
-      </c>
-      <c r="K20" s="15">
-        <v>24.590163934426</v>
-      </c>
-      <c r="L20" s="15">
-        <v>8.571428571428</v>
       </c>
       <c r="M20" s="13" t="s">
         <v>21</v>
@@ -1160,34 +1160,34 @@
         <v>28</v>
       </c>
       <c r="C21" s="17">
+        <v>17</v>
+      </c>
+      <c r="D21" s="17">
         <v>14</v>
       </c>
-      <c r="D21" s="17">
-        <v>25</v>
-      </c>
       <c r="E21" s="18">
-        <v>-44</v>
+        <v>21.428571428571</v>
       </c>
       <c r="F21" s="17">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G21" s="17">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="H21" s="18">
-        <v>-7.352941176470</v>
+        <v>-16.216216216216</v>
       </c>
       <c r="I21" s="17">
-        <v>309</v>
+        <v>325</v>
       </c>
       <c r="J21" s="17">
-        <v>321</v>
+        <v>335</v>
       </c>
       <c r="K21" s="18">
-        <v>-3.738317757009</v>
+        <v>-2.985074626865</v>
       </c>
       <c r="L21" s="18">
-        <v>-4.629629629629</v>
+        <v>-5.797101449275</v>
       </c>
       <c r="M21" s="19" t="s">
         <v>21</v>
@@ -1283,34 +1283,34 @@
         <v>31</v>
       </c>
       <c r="C24" s="14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24" s="14">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E24" s="15">
-        <v>-73.684210526315</v>
+        <v>-55.555555555555</v>
       </c>
       <c r="F24" s="14">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G24" s="14">
         <v>46</v>
       </c>
       <c r="H24" s="15">
-        <v>-21.739130434782</v>
+        <v>-36.956521739130</v>
       </c>
       <c r="I24" s="14">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="J24" s="14">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="K24" s="15">
-        <v>-20.171673819742</v>
+        <v>-21.074380165289</v>
       </c>
       <c r="L24" s="15">
-        <v>-3.626943005181</v>
+        <v>-4.975124378109</v>
       </c>
       <c r="M24" s="13" t="s">
         <v>21</v>
@@ -1324,34 +1324,34 @@
         <v>32</v>
       </c>
       <c r="C25" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D25" s="14">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E25" s="15">
-        <v>-66.666666666666</v>
+        <v>-50</v>
       </c>
       <c r="F25" s="14">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G25" s="14">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H25" s="15">
-        <v>-25</v>
+        <v>-41.666666666666</v>
       </c>
       <c r="I25" s="14">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J25" s="14">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="K25" s="15">
-        <v>-6.818181818181</v>
+        <v>-12</v>
       </c>
       <c r="L25" s="15">
-        <v>20.588235294117</v>
+        <v>22.222222222222</v>
       </c>
       <c r="M25" s="13" t="s">
         <v>21</v>
@@ -1365,34 +1365,34 @@
         <v>33</v>
       </c>
       <c r="C26" s="14">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" s="14">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E26" s="15">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F26" s="14">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G26" s="14">
         <v>34</v>
       </c>
       <c r="H26" s="15">
-        <v>50</v>
+        <v>47.058823529411</v>
       </c>
       <c r="I26" s="14">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="J26" s="14">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="K26" s="15">
-        <v>-0.645161290322</v>
+        <v>3.125</v>
       </c>
       <c r="L26" s="15">
-        <v>40</v>
+        <v>35.245901639344</v>
       </c>
       <c r="M26" s="13" t="s">
         <v>21</v>
@@ -1405,8 +1405,8 @@
       <c r="A27" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="13" t="s">
-        <v>20</v>
+      <c r="C27" s="14">
+        <v>2</v>
       </c>
       <c r="D27" s="13" t="s">
         <v>20</v>
@@ -1415,25 +1415,25 @@
         <v>21</v>
       </c>
       <c r="F27" s="14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G27" s="14">
         <v>1</v>
       </c>
       <c r="H27" s="15">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I27" s="14">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J27" s="14">
         <v>7</v>
       </c>
       <c r="K27" s="15">
-        <v>142.857142857143</v>
+        <v>171.428571428571</v>
       </c>
       <c r="L27" s="15">
-        <v>54.545454545454</v>
+        <v>72.727272727272</v>
       </c>
       <c r="M27" s="13" t="s">
         <v>21</v>
@@ -1446,35 +1446,35 @@
       <c r="A28" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="14">
-        <v>2</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>21</v>
+      <c r="C28" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="14">
+        <v>1</v>
+      </c>
+      <c r="E28" s="15">
+        <v>-100</v>
       </c>
       <c r="F28" s="14">
         <v>3</v>
       </c>
       <c r="G28" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H28" s="15">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="I28" s="14">
         <v>5</v>
       </c>
       <c r="J28" s="14">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K28" s="15">
-        <v>-16.666666666666</v>
+        <v>-28.571428571428</v>
       </c>
       <c r="L28" s="15">
-        <v>-61.538461538461</v>
+        <v>-64.285714285714</v>
       </c>
       <c r="M28" s="13" t="s">
         <v>21</v>
@@ -1572,11 +1572,11 @@
       <c r="C31" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D31" s="14">
-        <v>1</v>
-      </c>
-      <c r="E31" s="15">
-        <v>-100</v>
+      <c r="D31" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="F31" s="13" t="s">
         <v>20</v>

--- a/data/source/weekly/cs-en-us-116pct.xlsx
+++ b/data/source/weekly/cs-en-us-116pct.xlsx
@@ -69,7 +69,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">21</t>
+      <t xml:space="preserve">22</t>
     </r>
   </si>
   <si>
@@ -95,7 +95,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">5/19/2025</t>
+      <t xml:space="preserve">5/26/2025</t>
     </r>
     <r>
       <rPr>
@@ -113,7 +113,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">5/25/2025</t>
+      <t xml:space="preserve">6/1/2025</t>
     </r>
   </si>
   <si>
@@ -713,7 +713,7 @@
     <col min="2" max="2" width="12.495057" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.168446" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.168446" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.433768" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.168446" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.168446" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.168446" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.433768" bestFit="1" customWidth="1"/>
@@ -899,8 +899,8 @@
       <c r="K14" s="15">
         <v>-100</v>
       </c>
-      <c r="L14" s="13" t="s">
-        <v>21</v>
+      <c r="L14" s="15">
+        <v>-100</v>
       </c>
       <c r="M14" s="13" t="s">
         <v>21</v>
@@ -913,8 +913,8 @@
       <c r="A15" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="14">
-        <v>2</v>
+      <c r="C15" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="D15" s="13" t="s">
         <v>20</v>
@@ -923,13 +923,13 @@
         <v>21</v>
       </c>
       <c r="F15" s="14">
-        <v>4</v>
-      </c>
-      <c r="G15" s="14">
-        <v>1</v>
-      </c>
-      <c r="H15" s="15">
-        <v>300</v>
+        <v>3</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="I15" s="14">
         <v>16</v>
@@ -955,34 +955,34 @@
         <v>23</v>
       </c>
       <c r="C16" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16" s="15">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F16" s="14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G16" s="14">
         <v>6</v>
       </c>
       <c r="H16" s="15">
-        <v>-16.666666666666</v>
+        <v>0</v>
       </c>
       <c r="I16" s="14">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J16" s="14">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K16" s="15">
-        <v>-25</v>
+        <v>-21.212121212121</v>
       </c>
       <c r="L16" s="15">
-        <v>-22.580645161290</v>
+        <v>-21.212121212121</v>
       </c>
       <c r="M16" s="13" t="s">
         <v>21</v>
@@ -996,34 +996,34 @@
         <v>24</v>
       </c>
       <c r="C17" s="14">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D17" s="14">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E17" s="15">
-        <v>-33.333333333333</v>
+        <v>133.333333333333</v>
       </c>
       <c r="F17" s="14">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G17" s="14">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H17" s="15">
-        <v>20</v>
+        <v>-9.523809523809</v>
       </c>
       <c r="I17" s="14">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="J17" s="14">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="K17" s="15">
-        <v>7.526881720430</v>
+        <v>11.458333333333</v>
       </c>
       <c r="L17" s="15">
-        <v>5.263157894736</v>
+        <v>9.183673469387</v>
       </c>
       <c r="M17" s="13" t="s">
         <v>21</v>
@@ -1037,34 +1037,34 @@
         <v>25</v>
       </c>
       <c r="C18" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E18" s="15">
-        <v>-50</v>
+        <v>-33.333333333333</v>
       </c>
       <c r="F18" s="14">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G18" s="14">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H18" s="15">
-        <v>-55.555555555555</v>
+        <v>-25</v>
       </c>
       <c r="I18" s="14">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J18" s="14">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K18" s="15">
-        <v>-37.931034482758</v>
+        <v>-34.375</v>
       </c>
       <c r="L18" s="15">
-        <v>-37.931034482758</v>
+        <v>-32.258064516129</v>
       </c>
       <c r="M18" s="13" t="s">
         <v>21</v>
@@ -1078,34 +1078,34 @@
         <v>26</v>
       </c>
       <c r="C19" s="14">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D19" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E19" s="15">
-        <v>66.666666666666</v>
+        <v>-50</v>
       </c>
       <c r="F19" s="14">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G19" s="14">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H19" s="15">
-        <v>-56.521739130434</v>
+        <v>-60</v>
       </c>
       <c r="I19" s="14">
         <v>89</v>
       </c>
       <c r="J19" s="14">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K19" s="15">
-        <v>-21.238938053097</v>
+        <v>-22.608695652173</v>
       </c>
       <c r="L19" s="15">
-        <v>-19.090909090909</v>
+        <v>-23.931623931623</v>
       </c>
       <c r="M19" s="13" t="s">
         <v>21</v>
@@ -1119,34 +1119,34 @@
         <v>27</v>
       </c>
       <c r="C20" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20" s="14">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E20" s="15">
-        <v>100</v>
+        <v>-75</v>
       </c>
       <c r="F20" s="14">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G20" s="14">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H20" s="15">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="I20" s="14">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J20" s="14">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="K20" s="15">
-        <v>25.806451612903</v>
+        <v>19.696969696969</v>
       </c>
       <c r="L20" s="15">
-        <v>4</v>
+        <v>-2.469135802469</v>
       </c>
       <c r="M20" s="13" t="s">
         <v>21</v>
@@ -1160,34 +1160,34 @@
         <v>28</v>
       </c>
       <c r="C21" s="17">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D21" s="17">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E21" s="18">
-        <v>21.428571428571</v>
+        <v>0</v>
       </c>
       <c r="F21" s="17">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="G21" s="17">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H21" s="18">
-        <v>-16.216216216216</v>
+        <v>-29.577464788732</v>
       </c>
       <c r="I21" s="17">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="J21" s="17">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="K21" s="18">
-        <v>-2.985074626865</v>
+        <v>-2.873563218390</v>
       </c>
       <c r="L21" s="18">
-        <v>-5.797101449275</v>
+        <v>-7.650273224043</v>
       </c>
       <c r="M21" s="19" t="s">
         <v>21</v>
@@ -1283,34 +1283,34 @@
         <v>31</v>
       </c>
       <c r="C24" s="14">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D24" s="14">
         <v>9</v>
       </c>
       <c r="E24" s="15">
-        <v>-55.555555555555</v>
+        <v>22.222222222222</v>
       </c>
       <c r="F24" s="14">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G24" s="14">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H24" s="15">
-        <v>-36.956521739130</v>
+        <v>-42.222222222222</v>
       </c>
       <c r="I24" s="14">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="J24" s="14">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="K24" s="15">
-        <v>-21.074380165289</v>
+        <v>-19.123505976095</v>
       </c>
       <c r="L24" s="15">
-        <v>-4.975124378109</v>
+        <v>-0.490196078431</v>
       </c>
       <c r="M24" s="13" t="s">
         <v>21</v>
@@ -1324,34 +1324,34 @@
         <v>32</v>
       </c>
       <c r="C25" s="14">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D25" s="14">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E25" s="15">
-        <v>-50</v>
+        <v>40</v>
       </c>
       <c r="F25" s="14">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G25" s="14">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H25" s="15">
-        <v>-41.666666666666</v>
+        <v>-20</v>
       </c>
       <c r="I25" s="14">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="J25" s="14">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="K25" s="15">
-        <v>-12</v>
+        <v>-7.272727272727</v>
       </c>
       <c r="L25" s="15">
-        <v>22.222222222222</v>
+        <v>37.837837837837</v>
       </c>
       <c r="M25" s="13" t="s">
         <v>21</v>
@@ -1365,34 +1365,34 @@
         <v>33</v>
       </c>
       <c r="C26" s="14">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D26" s="14">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E26" s="15">
-        <v>100</v>
+        <v>-7.692307692307</v>
       </c>
       <c r="F26" s="14">
         <v>50</v>
       </c>
       <c r="G26" s="14">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H26" s="15">
-        <v>47.058823529411</v>
+        <v>31.578947368421</v>
       </c>
       <c r="I26" s="14">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="J26" s="14">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="K26" s="15">
-        <v>3.125</v>
+        <v>2.312138728323</v>
       </c>
       <c r="L26" s="15">
-        <v>35.245901639344</v>
+        <v>29.197080291970</v>
       </c>
       <c r="M26" s="13" t="s">
         <v>21</v>
@@ -1406,7 +1406,7 @@
         <v>34</v>
       </c>
       <c r="C27" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27" s="13" t="s">
         <v>20</v>
@@ -1417,23 +1417,23 @@
       <c r="F27" s="14">
         <v>4</v>
       </c>
-      <c r="G27" s="14">
-        <v>1</v>
-      </c>
-      <c r="H27" s="15">
-        <v>300</v>
+      <c r="G27" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H27" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="I27" s="14">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J27" s="14">
         <v>7</v>
       </c>
       <c r="K27" s="15">
-        <v>171.428571428571</v>
+        <v>185.714285714286</v>
       </c>
       <c r="L27" s="15">
-        <v>72.727272727272</v>
+        <v>81.818181818181</v>
       </c>
       <c r="M27" s="13" t="s">
         <v>21</v>
@@ -1446,14 +1446,14 @@
       <c r="A28" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D28" s="14">
+      <c r="C28" s="14">
         <v>1</v>
       </c>
-      <c r="E28" s="15">
-        <v>-100</v>
+      <c r="D28" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="F28" s="14">
         <v>3</v>
@@ -1465,16 +1465,16 @@
         <v>200</v>
       </c>
       <c r="I28" s="14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J28" s="14">
         <v>7</v>
       </c>
       <c r="K28" s="15">
-        <v>-28.571428571428</v>
+        <v>-14.285714285714</v>
       </c>
       <c r="L28" s="15">
-        <v>-64.285714285714</v>
+        <v>-57.142857142857</v>
       </c>
       <c r="M28" s="13" t="s">
         <v>21</v>

--- a/data/source/weekly/cs-en-us-116pct.xlsx
+++ b/data/source/weekly/cs-en-us-116pct.xlsx
@@ -69,7 +69,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">22</t>
+      <t xml:space="preserve">23</t>
     </r>
   </si>
   <si>
@@ -95,7 +95,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">5/26/2025</t>
+      <t xml:space="preserve">6/2/2025</t>
     </r>
     <r>
       <rPr>
@@ -113,7 +113,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">6/1/2025</t>
+      <t xml:space="preserve">6/8/2025</t>
     </r>
   </si>
   <si>
@@ -713,7 +713,7 @@
     <col min="2" max="2" width="12.495057" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.168446" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.168446" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.168446" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.433768" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.168446" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.168446" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.433768" bestFit="1" customWidth="1"/>
@@ -923,7 +923,7 @@
         <v>21</v>
       </c>
       <c r="F15" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G15" s="13" t="s">
         <v>20</v>
@@ -955,34 +955,34 @@
         <v>23</v>
       </c>
       <c r="C16" s="14">
+        <v>1</v>
+      </c>
+      <c r="D16" s="14">
         <v>2</v>
       </c>
-      <c r="D16" s="14">
-        <v>1</v>
-      </c>
       <c r="E16" s="15">
-        <v>100</v>
+        <v>-50</v>
       </c>
       <c r="F16" s="14">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G16" s="14">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H16" s="15">
         <v>0</v>
       </c>
       <c r="I16" s="14">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J16" s="14">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K16" s="15">
-        <v>-21.212121212121</v>
+        <v>-22.857142857142</v>
       </c>
       <c r="L16" s="15">
-        <v>-21.212121212121</v>
+        <v>-18.181818181818</v>
       </c>
       <c r="M16" s="13" t="s">
         <v>21</v>
@@ -996,34 +996,34 @@
         <v>24</v>
       </c>
       <c r="C17" s="14">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D17" s="14">
         <v>3</v>
       </c>
       <c r="E17" s="15">
-        <v>133.333333333333</v>
+        <v>0</v>
       </c>
       <c r="F17" s="14">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G17" s="14">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H17" s="15">
-        <v>-9.523809523809</v>
+        <v>12.5</v>
       </c>
       <c r="I17" s="14">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="J17" s="14">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="K17" s="15">
-        <v>11.458333333333</v>
+        <v>11.111111111111</v>
       </c>
       <c r="L17" s="15">
-        <v>9.183673469387</v>
+        <v>1.851851851851</v>
       </c>
       <c r="M17" s="13" t="s">
         <v>21</v>
@@ -1036,35 +1036,35 @@
       <c r="A18" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C18" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="14">
         <v>2</v>
       </c>
-      <c r="D18" s="14">
-        <v>3</v>
-      </c>
       <c r="E18" s="15">
-        <v>-33.333333333333</v>
+        <v>-100</v>
       </c>
       <c r="F18" s="14">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G18" s="14">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H18" s="15">
-        <v>-25</v>
+        <v>-44.444444444444</v>
       </c>
       <c r="I18" s="14">
         <v>21</v>
       </c>
       <c r="J18" s="14">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K18" s="15">
+        <v>-38.235294117647</v>
+      </c>
+      <c r="L18" s="15">
         <v>-34.375</v>
-      </c>
-      <c r="L18" s="15">
-        <v>-32.258064516129</v>
       </c>
       <c r="M18" s="13" t="s">
         <v>21</v>
@@ -1081,31 +1081,31 @@
         <v>1</v>
       </c>
       <c r="D19" s="14">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E19" s="15">
-        <v>-50</v>
+        <v>-80</v>
       </c>
       <c r="F19" s="14">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G19" s="14">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H19" s="15">
-        <v>-60</v>
+        <v>-63.157894736842</v>
       </c>
       <c r="I19" s="14">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J19" s="14">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="K19" s="15">
-        <v>-22.608695652173</v>
+        <v>-25</v>
       </c>
       <c r="L19" s="15">
-        <v>-23.931623931623</v>
+        <v>-25</v>
       </c>
       <c r="M19" s="13" t="s">
         <v>21</v>
@@ -1119,34 +1119,34 @@
         <v>27</v>
       </c>
       <c r="C20" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D20" s="14">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E20" s="15">
-        <v>-75</v>
+        <v>-50</v>
       </c>
       <c r="F20" s="14">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G20" s="14">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H20" s="15">
-        <v>-50</v>
+        <v>-47.368421052631</v>
       </c>
       <c r="I20" s="14">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="J20" s="14">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="K20" s="15">
-        <v>19.696969696969</v>
+        <v>13.888888888888</v>
       </c>
       <c r="L20" s="15">
-        <v>-2.469135802469</v>
+        <v>-3.529411764705</v>
       </c>
       <c r="M20" s="13" t="s">
         <v>21</v>
@@ -1160,34 +1160,34 @@
         <v>28</v>
       </c>
       <c r="C21" s="17">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D21" s="17">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E21" s="18">
-        <v>0</v>
+        <v>-55.555555555555</v>
       </c>
       <c r="F21" s="17">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G21" s="17">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H21" s="18">
-        <v>-29.577464788732</v>
+        <v>-30</v>
       </c>
       <c r="I21" s="17">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="J21" s="17">
-        <v>348</v>
+        <v>366</v>
       </c>
       <c r="K21" s="18">
-        <v>-2.873563218390</v>
+        <v>-5.464480874316</v>
       </c>
       <c r="L21" s="18">
-        <v>-7.650273224043</v>
+        <v>-10.129870129870</v>
       </c>
       <c r="M21" s="19" t="s">
         <v>21</v>
@@ -1283,13 +1283,13 @@
         <v>31</v>
       </c>
       <c r="C24" s="14">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D24" s="14">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E24" s="15">
-        <v>22.222222222222</v>
+        <v>-37.5</v>
       </c>
       <c r="F24" s="14">
         <v>26</v>
@@ -1301,16 +1301,16 @@
         <v>-42.222222222222</v>
       </c>
       <c r="I24" s="14">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="J24" s="14">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="K24" s="15">
-        <v>-19.123505976095</v>
+        <v>-19.691119691119</v>
       </c>
       <c r="L24" s="15">
-        <v>-0.490196078431</v>
+        <v>-5.454545454545</v>
       </c>
       <c r="M24" s="13" t="s">
         <v>21</v>
@@ -1323,35 +1323,35 @@
       <c r="A25" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="14">
-        <v>7</v>
+      <c r="C25" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="D25" s="14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E25" s="15">
-        <v>40</v>
+        <v>-100</v>
       </c>
       <c r="F25" s="14">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G25" s="14">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H25" s="15">
-        <v>-20</v>
+        <v>-45</v>
       </c>
       <c r="I25" s="14">
         <v>51</v>
       </c>
       <c r="J25" s="14">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="K25" s="15">
-        <v>-7.272727272727</v>
+        <v>-16.393442622950</v>
       </c>
       <c r="L25" s="15">
-        <v>37.837837837837</v>
+        <v>21.428571428571</v>
       </c>
       <c r="M25" s="13" t="s">
         <v>21</v>
@@ -1365,34 +1365,34 @@
         <v>33</v>
       </c>
       <c r="C26" s="14">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D26" s="14">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="E26" s="15">
-        <v>-7.692307692307</v>
+        <v>175</v>
       </c>
       <c r="F26" s="14">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G26" s="14">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H26" s="15">
-        <v>31.578947368421</v>
+        <v>38.709677419354</v>
       </c>
       <c r="I26" s="14">
+        <v>188</v>
+      </c>
+      <c r="J26" s="14">
         <v>177</v>
       </c>
-      <c r="J26" s="14">
-        <v>173</v>
-      </c>
       <c r="K26" s="15">
-        <v>2.312138728323</v>
+        <v>6.214689265536</v>
       </c>
       <c r="L26" s="15">
-        <v>29.197080291970</v>
+        <v>27.891156462585</v>
       </c>
       <c r="M26" s="13" t="s">
         <v>21</v>
@@ -1405,32 +1405,32 @@
       <c r="A27" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="14">
+      <c r="C27" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="14">
         <v>1</v>
       </c>
-      <c r="D27" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>21</v>
+      <c r="E27" s="15">
+        <v>-100</v>
       </c>
       <c r="F27" s="14">
-        <v>4</v>
-      </c>
-      <c r="G27" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H27" s="13" t="s">
-        <v>21</v>
+        <v>3</v>
+      </c>
+      <c r="G27" s="14">
+        <v>1</v>
+      </c>
+      <c r="H27" s="15">
+        <v>200</v>
       </c>
       <c r="I27" s="14">
         <v>20</v>
       </c>
       <c r="J27" s="14">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K27" s="15">
-        <v>185.714285714286</v>
+        <v>150</v>
       </c>
       <c r="L27" s="15">
         <v>81.818181818181</v>
@@ -1446,32 +1446,32 @@
       <c r="A28" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="14">
+      <c r="C28" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="14">
         <v>1</v>
       </c>
-      <c r="D28" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>21</v>
+      <c r="E28" s="15">
+        <v>-100</v>
       </c>
       <c r="F28" s="14">
         <v>3</v>
       </c>
       <c r="G28" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H28" s="15">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="I28" s="14">
         <v>6</v>
       </c>
       <c r="J28" s="14">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K28" s="15">
-        <v>-14.285714285714</v>
+        <v>-25</v>
       </c>
       <c r="L28" s="15">
         <v>-57.142857142857</v>
@@ -1499,11 +1499,11 @@
       <c r="F29" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G29" s="14">
-        <v>2</v>
-      </c>
-      <c r="H29" s="15">
-        <v>-100</v>
+      <c r="G29" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H29" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="I29" s="13" t="s">
         <v>20</v>
@@ -1540,11 +1540,11 @@
       <c r="F30" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G30" s="14">
-        <v>1</v>
-      </c>
-      <c r="H30" s="15">
-        <v>-100</v>
+      <c r="G30" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H30" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="I30" s="13" t="s">
         <v>20</v>

--- a/data/source/weekly/cs-en-us-116pct.xlsx
+++ b/data/source/weekly/cs-en-us-116pct.xlsx
@@ -69,7 +69,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">23</t>
+      <t xml:space="preserve">24</t>
     </r>
   </si>
   <si>
@@ -95,7 +95,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">6/2/2025</t>
+      <t xml:space="preserve">6/9/2025</t>
     </r>
     <r>
       <rPr>
@@ -113,7 +113,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">6/8/2025</t>
+      <t xml:space="preserve">6/15/2025</t>
     </r>
   </si>
   <si>
@@ -954,20 +954,20 @@
       <c r="A16" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="14">
         <v>1</v>
       </c>
-      <c r="D16" s="14">
-        <v>2</v>
-      </c>
       <c r="E16" s="15">
-        <v>-50</v>
+        <v>-100</v>
       </c>
       <c r="F16" s="14">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G16" s="14">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H16" s="15">
         <v>0</v>
@@ -976,13 +976,13 @@
         <v>27</v>
       </c>
       <c r="J16" s="14">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K16" s="15">
-        <v>-22.857142857142</v>
+        <v>-25</v>
       </c>
       <c r="L16" s="15">
-        <v>-18.181818181818</v>
+        <v>-27.027027027027</v>
       </c>
       <c r="M16" s="13" t="s">
         <v>21</v>
@@ -996,34 +996,34 @@
         <v>24</v>
       </c>
       <c r="C17" s="14">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D17" s="14">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E17" s="15">
+        <v>-25</v>
+      </c>
+      <c r="F17" s="14">
+        <v>20</v>
+      </c>
+      <c r="G17" s="14">
+        <v>20</v>
+      </c>
+      <c r="H17" s="15">
         <v>0</v>
       </c>
-      <c r="F17" s="14">
-        <v>18</v>
-      </c>
-      <c r="G17" s="14">
-        <v>16</v>
-      </c>
-      <c r="H17" s="15">
-        <v>12.5</v>
-      </c>
       <c r="I17" s="14">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="J17" s="14">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="K17" s="15">
-        <v>11.111111111111</v>
+        <v>8.411214953271</v>
       </c>
       <c r="L17" s="15">
-        <v>1.851851851851</v>
+        <v>1.754385964912</v>
       </c>
       <c r="M17" s="13" t="s">
         <v>21</v>
@@ -1046,25 +1046,25 @@
         <v>-100</v>
       </c>
       <c r="F18" s="14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G18" s="14">
         <v>9</v>
       </c>
       <c r="H18" s="15">
-        <v>-44.444444444444</v>
+        <v>-66.666666666666</v>
       </c>
       <c r="I18" s="14">
         <v>21</v>
       </c>
       <c r="J18" s="14">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K18" s="15">
+        <v>-41.666666666666</v>
+      </c>
+      <c r="L18" s="15">
         <v>-38.235294117647</v>
-      </c>
-      <c r="L18" s="15">
-        <v>-34.375</v>
       </c>
       <c r="M18" s="13" t="s">
         <v>21</v>
@@ -1078,34 +1078,34 @@
         <v>26</v>
       </c>
       <c r="C19" s="14">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D19" s="14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E19" s="15">
-        <v>-80</v>
+        <v>100</v>
       </c>
       <c r="F19" s="14">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G19" s="14">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H19" s="15">
-        <v>-63.157894736842</v>
+        <v>-7.692307692307</v>
       </c>
       <c r="I19" s="14">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="J19" s="14">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="K19" s="15">
-        <v>-25</v>
+        <v>-21.951219512195</v>
       </c>
       <c r="L19" s="15">
-        <v>-25</v>
+        <v>-22.580645161290</v>
       </c>
       <c r="M19" s="13" t="s">
         <v>21</v>
@@ -1119,34 +1119,34 @@
         <v>27</v>
       </c>
       <c r="C20" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" s="14">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E20" s="15">
-        <v>-50</v>
+        <v>100</v>
       </c>
       <c r="F20" s="14">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G20" s="14">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H20" s="15">
-        <v>-47.368421052631</v>
+        <v>-33.333333333333</v>
       </c>
       <c r="I20" s="14">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J20" s="14">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K20" s="15">
-        <v>13.888888888888</v>
+        <v>15.068493150684</v>
       </c>
       <c r="L20" s="15">
-        <v>-3.529411764705</v>
+        <v>-2.325581395348</v>
       </c>
       <c r="M20" s="13" t="s">
         <v>21</v>
@@ -1160,34 +1160,34 @@
         <v>28</v>
       </c>
       <c r="C21" s="17">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D21" s="17">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E21" s="18">
-        <v>-55.555555555555</v>
+        <v>-6.666666666666</v>
       </c>
       <c r="F21" s="17">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G21" s="17">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="H21" s="18">
-        <v>-30</v>
+        <v>-15</v>
       </c>
       <c r="I21" s="17">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="J21" s="17">
-        <v>366</v>
+        <v>381</v>
       </c>
       <c r="K21" s="18">
-        <v>-5.464480874316</v>
+        <v>-5.511811023622</v>
       </c>
       <c r="L21" s="18">
-        <v>-10.129870129870</v>
+        <v>-10.447761194029</v>
       </c>
       <c r="M21" s="19" t="s">
         <v>21</v>
@@ -1283,34 +1283,34 @@
         <v>31</v>
       </c>
       <c r="C24" s="14">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D24" s="14">
         <v>8</v>
       </c>
       <c r="E24" s="15">
-        <v>-37.5</v>
+        <v>25</v>
       </c>
       <c r="F24" s="14">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G24" s="14">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="H24" s="15">
-        <v>-42.222222222222</v>
+        <v>-8.823529411764</v>
       </c>
       <c r="I24" s="14">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="J24" s="14">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="K24" s="15">
-        <v>-19.691119691119</v>
+        <v>-17.602996254681</v>
       </c>
       <c r="L24" s="15">
-        <v>-5.454545454545</v>
+        <v>-6.382978723404</v>
       </c>
       <c r="M24" s="13" t="s">
         <v>21</v>
@@ -1323,35 +1323,35 @@
       <c r="A25" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="13" t="s">
-        <v>20</v>
+      <c r="C25" s="14">
+        <v>2</v>
       </c>
       <c r="D25" s="14">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E25" s="15">
-        <v>-100</v>
+        <v>-50</v>
       </c>
       <c r="F25" s="14">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G25" s="14">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H25" s="15">
-        <v>-45</v>
+        <v>-42.857142857142</v>
       </c>
       <c r="I25" s="14">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J25" s="14">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="K25" s="15">
-        <v>-16.393442622950</v>
+        <v>-18.461538461538</v>
       </c>
       <c r="L25" s="15">
-        <v>21.428571428571</v>
+        <v>15.217391304347</v>
       </c>
       <c r="M25" s="13" t="s">
         <v>21</v>
@@ -1365,34 +1365,34 @@
         <v>33</v>
       </c>
       <c r="C26" s="14">
+        <v>7</v>
+      </c>
+      <c r="D26" s="14">
         <v>11</v>
       </c>
-      <c r="D26" s="14">
-        <v>4</v>
-      </c>
       <c r="E26" s="15">
-        <v>175</v>
+        <v>-36.363636363636</v>
       </c>
       <c r="F26" s="14">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G26" s="14">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H26" s="15">
-        <v>38.709677419354</v>
+        <v>18.181818181818</v>
       </c>
       <c r="I26" s="14">
+        <v>194</v>
+      </c>
+      <c r="J26" s="14">
         <v>188</v>
       </c>
-      <c r="J26" s="14">
-        <v>177</v>
-      </c>
       <c r="K26" s="15">
-        <v>6.214689265536</v>
+        <v>3.191489361702</v>
       </c>
       <c r="L26" s="15">
-        <v>27.891156462585</v>
+        <v>28.476821192053</v>
       </c>
       <c r="M26" s="13" t="s">
         <v>21</v>
@@ -1405,35 +1405,35 @@
       <c r="A27" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="13" t="s">
-        <v>20</v>
+      <c r="C27" s="14">
+        <v>1</v>
       </c>
       <c r="D27" s="14">
         <v>1</v>
       </c>
       <c r="E27" s="15">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F27" s="14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G27" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H27" s="15">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I27" s="14">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J27" s="14">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K27" s="15">
-        <v>150</v>
+        <v>133.333333333333</v>
       </c>
       <c r="L27" s="15">
-        <v>81.818181818181</v>
+        <v>90.909090909090</v>
       </c>
       <c r="M27" s="13" t="s">
         <v>21</v>
@@ -1446,35 +1446,35 @@
       <c r="A28" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="13" t="s">
-        <v>20</v>
+      <c r="C28" s="14">
+        <v>1</v>
       </c>
       <c r="D28" s="14">
         <v>1</v>
       </c>
       <c r="E28" s="15">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F28" s="14">
+        <v>2</v>
+      </c>
+      <c r="G28" s="14">
         <v>3</v>
       </c>
-      <c r="G28" s="14">
-        <v>2</v>
-      </c>
       <c r="H28" s="15">
-        <v>50</v>
+        <v>-33.333333333333</v>
       </c>
       <c r="I28" s="14">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J28" s="14">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K28" s="15">
-        <v>-25</v>
+        <v>-22.222222222222</v>
       </c>
       <c r="L28" s="15">
-        <v>-57.142857142857</v>
+        <v>-50</v>
       </c>
       <c r="M28" s="13" t="s">
         <v>21</v>
@@ -1490,26 +1490,26 @@
       <c r="C29" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>21</v>
+      <c r="D29" s="14">
+        <v>2</v>
+      </c>
+      <c r="E29" s="15">
+        <v>-100</v>
       </c>
       <c r="F29" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G29" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H29" s="13" t="s">
-        <v>21</v>
+      <c r="G29" s="14">
+        <v>2</v>
+      </c>
+      <c r="H29" s="15">
+        <v>-100</v>
       </c>
       <c r="I29" s="13" t="s">
         <v>20</v>
       </c>
       <c r="J29" s="14">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K29" s="15">
         <v>-100</v>
@@ -1531,26 +1531,26 @@
       <c r="C30" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E30" s="13" t="s">
-        <v>21</v>
+      <c r="D30" s="14">
+        <v>1</v>
+      </c>
+      <c r="E30" s="15">
+        <v>-100</v>
       </c>
       <c r="F30" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G30" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H30" s="13" t="s">
-        <v>21</v>
+      <c r="G30" s="14">
+        <v>1</v>
+      </c>
+      <c r="H30" s="15">
+        <v>-100</v>
       </c>
       <c r="I30" s="13" t="s">
         <v>20</v>
       </c>
       <c r="J30" s="14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K30" s="15">
         <v>-100</v>
@@ -1581,11 +1581,11 @@
       <c r="F31" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G31" s="14">
-        <v>1</v>
-      </c>
-      <c r="H31" s="15">
-        <v>-100</v>
+      <c r="G31" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H31" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="I31" s="13" t="s">
         <v>20</v>

--- a/data/source/weekly/cs-en-us-116pct.xlsx
+++ b/data/source/weekly/cs-en-us-116pct.xlsx
@@ -69,7 +69,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">24</t>
+      <t xml:space="preserve">25</t>
     </r>
   </si>
   <si>
@@ -95,7 +95,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">6/9/2025</t>
+      <t xml:space="preserve">6/16/2025</t>
     </r>
     <r>
       <rPr>
@@ -113,7 +113,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">6/15/2025</t>
+      <t xml:space="preserve">6/22/2025</t>
     </r>
   </si>
   <si>
@@ -913,8 +913,8 @@
       <c r="A15" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="13" t="s">
-        <v>20</v>
+      <c r="C15" s="14">
+        <v>2</v>
       </c>
       <c r="D15" s="13" t="s">
         <v>20</v>
@@ -932,16 +932,16 @@
         <v>21</v>
       </c>
       <c r="I15" s="14">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J15" s="14">
         <v>4</v>
       </c>
       <c r="K15" s="15">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="L15" s="15">
-        <v>220</v>
+        <v>260</v>
       </c>
       <c r="M15" s="13" t="s">
         <v>21</v>
@@ -958,31 +958,31 @@
         <v>20</v>
       </c>
       <c r="D16" s="14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E16" s="15">
         <v>-100</v>
       </c>
       <c r="F16" s="14">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G16" s="14">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H16" s="15">
-        <v>0</v>
+        <v>-66.666666666666</v>
       </c>
       <c r="I16" s="14">
         <v>27</v>
       </c>
       <c r="J16" s="14">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="K16" s="15">
-        <v>-25</v>
+        <v>-34.146341463414</v>
       </c>
       <c r="L16" s="15">
-        <v>-27.027027027027</v>
+        <v>-32.5</v>
       </c>
       <c r="M16" s="13" t="s">
         <v>21</v>
@@ -996,34 +996,34 @@
         <v>24</v>
       </c>
       <c r="C17" s="14">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D17" s="14">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E17" s="15">
-        <v>-25</v>
+        <v>33.333333333333</v>
       </c>
       <c r="F17" s="14">
         <v>20</v>
       </c>
       <c r="G17" s="14">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H17" s="15">
-        <v>0</v>
+        <v>17.647058823529</v>
       </c>
       <c r="I17" s="14">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="J17" s="14">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="K17" s="15">
-        <v>8.411214953271</v>
+        <v>9.090909090909</v>
       </c>
       <c r="L17" s="15">
-        <v>1.754385964912</v>
+        <v>0.840336134453</v>
       </c>
       <c r="M17" s="13" t="s">
         <v>21</v>
@@ -1036,35 +1036,35 @@
       <c r="A18" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="13" t="s">
-        <v>20</v>
+      <c r="C18" s="14">
+        <v>1</v>
       </c>
       <c r="D18" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E18" s="15">
-        <v>-100</v>
+        <v>-66.666666666666</v>
       </c>
       <c r="F18" s="14">
         <v>3</v>
       </c>
       <c r="G18" s="14">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H18" s="15">
-        <v>-66.666666666666</v>
+        <v>-70</v>
       </c>
       <c r="I18" s="14">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J18" s="14">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K18" s="15">
-        <v>-41.666666666666</v>
+        <v>-43.589743589743</v>
       </c>
       <c r="L18" s="15">
-        <v>-38.235294117647</v>
+        <v>-37.142857142857</v>
       </c>
       <c r="M18" s="13" t="s">
         <v>21</v>
@@ -1078,34 +1078,34 @@
         <v>26</v>
       </c>
       <c r="C19" s="14">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D19" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E19" s="15">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="F19" s="14">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G19" s="14">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H19" s="15">
-        <v>-7.692307692307</v>
+        <v>18.181818181818</v>
       </c>
       <c r="I19" s="14">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="J19" s="14">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K19" s="15">
-        <v>-21.951219512195</v>
+        <v>-18.548387096774</v>
       </c>
       <c r="L19" s="15">
-        <v>-22.580645161290</v>
+        <v>-22.307692307692</v>
       </c>
       <c r="M19" s="13" t="s">
         <v>21</v>
@@ -1119,34 +1119,34 @@
         <v>27</v>
       </c>
       <c r="C20" s="14">
-        <v>2</v>
-      </c>
-      <c r="D20" s="14">
-        <v>1</v>
-      </c>
-      <c r="E20" s="15">
-        <v>100</v>
+        <v>3</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="F20" s="14">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G20" s="14">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H20" s="15">
-        <v>-33.333333333333</v>
+        <v>-18.181818181818</v>
       </c>
       <c r="I20" s="14">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="J20" s="14">
         <v>73</v>
       </c>
       <c r="K20" s="15">
-        <v>15.068493150684</v>
+        <v>19.178082191780</v>
       </c>
       <c r="L20" s="15">
-        <v>-2.325581395348</v>
+        <v>-3.333333333333</v>
       </c>
       <c r="M20" s="13" t="s">
         <v>21</v>
@@ -1160,34 +1160,34 @@
         <v>28</v>
       </c>
       <c r="C21" s="17">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D21" s="17">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E21" s="18">
-        <v>-6.666666666666</v>
+        <v>25</v>
       </c>
       <c r="F21" s="17">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G21" s="17">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H21" s="18">
-        <v>-15</v>
+        <v>-13.793103448275</v>
       </c>
       <c r="I21" s="17">
-        <v>360</v>
+        <v>375</v>
       </c>
       <c r="J21" s="17">
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="K21" s="18">
-        <v>-5.511811023622</v>
+        <v>-4.580152671755</v>
       </c>
       <c r="L21" s="18">
-        <v>-10.447761194029</v>
+        <v>-10.926365795724</v>
       </c>
       <c r="M21" s="19" t="s">
         <v>21</v>
@@ -1283,34 +1283,34 @@
         <v>31</v>
       </c>
       <c r="C24" s="14">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D24" s="14">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E24" s="15">
-        <v>25</v>
+        <v>-60</v>
       </c>
       <c r="F24" s="14">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G24" s="14">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H24" s="15">
-        <v>-8.823529411764</v>
+        <v>-17.5</v>
       </c>
       <c r="I24" s="14">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="J24" s="14">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="K24" s="15">
-        <v>-17.602996254681</v>
+        <v>-19.858156028368</v>
       </c>
       <c r="L24" s="15">
-        <v>-6.382978723404</v>
+        <v>-7.755102040816</v>
       </c>
       <c r="M24" s="13" t="s">
         <v>21</v>
@@ -1333,25 +1333,25 @@
         <v>-50</v>
       </c>
       <c r="F25" s="14">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G25" s="14">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H25" s="15">
-        <v>-42.857142857142</v>
+        <v>-42.105263157894</v>
       </c>
       <c r="I25" s="14">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J25" s="14">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="K25" s="15">
-        <v>-18.461538461538</v>
+        <v>-20.289855072463</v>
       </c>
       <c r="L25" s="15">
-        <v>15.217391304347</v>
+        <v>10</v>
       </c>
       <c r="M25" s="13" t="s">
         <v>21</v>
@@ -1365,34 +1365,34 @@
         <v>33</v>
       </c>
       <c r="C26" s="14">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D26" s="14">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E26" s="15">
-        <v>-36.363636363636</v>
+        <v>-31.25</v>
       </c>
       <c r="F26" s="14">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G26" s="14">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H26" s="15">
-        <v>18.181818181818</v>
+        <v>-9.090909090909</v>
       </c>
       <c r="I26" s="14">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="J26" s="14">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="K26" s="15">
-        <v>3.191489361702</v>
+        <v>0.490196078431</v>
       </c>
       <c r="L26" s="15">
-        <v>28.476821192053</v>
+        <v>28.125</v>
       </c>
       <c r="M26" s="13" t="s">
         <v>21</v>
@@ -1406,13 +1406,13 @@
         <v>34</v>
       </c>
       <c r="C27" s="14">
-        <v>1</v>
-      </c>
-      <c r="D27" s="14">
-        <v>1</v>
-      </c>
-      <c r="E27" s="15">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="F27" s="14">
         <v>4</v>
@@ -1424,16 +1424,16 @@
         <v>100</v>
       </c>
       <c r="I27" s="14">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J27" s="14">
         <v>9</v>
       </c>
       <c r="K27" s="15">
-        <v>133.333333333333</v>
+        <v>155.555555555556</v>
       </c>
       <c r="L27" s="15">
-        <v>90.909090909090</v>
+        <v>109.090909090909</v>
       </c>
       <c r="M27" s="13" t="s">
         <v>21</v>
@@ -1449,32 +1449,32 @@
       <c r="C28" s="14">
         <v>1</v>
       </c>
-      <c r="D28" s="14">
-        <v>1</v>
-      </c>
-      <c r="E28" s="15">
-        <v>0</v>
+      <c r="D28" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="F28" s="14">
+        <v>3</v>
+      </c>
+      <c r="G28" s="14">
         <v>2</v>
       </c>
-      <c r="G28" s="14">
-        <v>3</v>
-      </c>
       <c r="H28" s="15">
-        <v>-33.333333333333</v>
+        <v>50</v>
       </c>
       <c r="I28" s="14">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J28" s="14">
         <v>9</v>
       </c>
       <c r="K28" s="15">
-        <v>-22.222222222222</v>
+        <v>-11.111111111111</v>
       </c>
       <c r="L28" s="15">
-        <v>-50</v>
+        <v>-46.666666666666</v>
       </c>
       <c r="M28" s="13" t="s">
         <v>21</v>
@@ -1487,35 +1487,35 @@
       <c r="A29" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D29" s="14">
-        <v>2</v>
-      </c>
-      <c r="E29" s="15">
-        <v>-100</v>
-      </c>
-      <c r="F29" s="13" t="s">
-        <v>20</v>
+      <c r="C29" s="14">
+        <v>1</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F29" s="14">
+        <v>1</v>
       </c>
       <c r="G29" s="14">
         <v>2</v>
       </c>
       <c r="H29" s="15">
-        <v>-100</v>
-      </c>
-      <c r="I29" s="13" t="s">
-        <v>20</v>
+        <v>-50</v>
+      </c>
+      <c r="I29" s="14">
+        <v>1</v>
       </c>
       <c r="J29" s="14">
         <v>6</v>
       </c>
       <c r="K29" s="15">
-        <v>-100</v>
+        <v>-83.333333333333</v>
       </c>
       <c r="L29" s="15">
-        <v>-100</v>
+        <v>-75</v>
       </c>
       <c r="M29" s="13" t="s">
         <v>21</v>
@@ -1528,35 +1528,35 @@
       <c r="A30" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D30" s="14">
+      <c r="C30" s="14">
         <v>1</v>
       </c>
-      <c r="E30" s="15">
-        <v>-100</v>
-      </c>
-      <c r="F30" s="13" t="s">
-        <v>20</v>
+      <c r="D30" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F30" s="14">
+        <v>1</v>
       </c>
       <c r="G30" s="14">
         <v>1</v>
       </c>
       <c r="H30" s="15">
-        <v>-100</v>
-      </c>
-      <c r="I30" s="13" t="s">
-        <v>20</v>
+        <v>0</v>
+      </c>
+      <c r="I30" s="14">
+        <v>1</v>
       </c>
       <c r="J30" s="14">
         <v>4</v>
       </c>
       <c r="K30" s="15">
-        <v>-100</v>
+        <v>-75</v>
       </c>
       <c r="L30" s="15">
-        <v>-100</v>
+        <v>-66.666666666666</v>
       </c>
       <c r="M30" s="13" t="s">
         <v>21</v>

--- a/data/source/weekly/cs-en-us-116pct.xlsx
+++ b/data/source/weekly/cs-en-us-116pct.xlsx
@@ -69,7 +69,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">25</t>
+      <t xml:space="preserve">26</t>
     </r>
   </si>
   <si>
@@ -95,7 +95,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">6/16/2025</t>
+      <t xml:space="preserve">6/23/2025</t>
     </r>
     <r>
       <rPr>
@@ -113,7 +113,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">6/22/2025</t>
+      <t xml:space="preserve">6/29/2025</t>
     </r>
   </si>
   <si>
@@ -913,8 +913,8 @@
       <c r="A15" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="14">
-        <v>2</v>
+      <c r="C15" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="D15" s="13" t="s">
         <v>20</v>
@@ -958,28 +958,28 @@
         <v>20</v>
       </c>
       <c r="D16" s="14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E16" s="15">
         <v>-100</v>
       </c>
       <c r="F16" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G16" s="14">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H16" s="15">
-        <v>-66.666666666666</v>
+        <v>-90.909090909090</v>
       </c>
       <c r="I16" s="14">
         <v>27</v>
       </c>
       <c r="J16" s="14">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="K16" s="15">
-        <v>-34.146341463414</v>
+        <v>-38.636363636363</v>
       </c>
       <c r="L16" s="15">
         <v>-32.5</v>
@@ -996,34 +996,34 @@
         <v>24</v>
       </c>
       <c r="C17" s="14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" s="14">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E17" s="15">
-        <v>33.333333333333</v>
+        <v>-40</v>
       </c>
       <c r="F17" s="14">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G17" s="14">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H17" s="15">
-        <v>17.647058823529</v>
+        <v>-10.526315789473</v>
       </c>
       <c r="I17" s="14">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="J17" s="14">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="K17" s="15">
-        <v>9.090909090909</v>
+        <v>7.826086956521</v>
       </c>
       <c r="L17" s="15">
-        <v>0.840336134453</v>
+        <v>-2.362204724409</v>
       </c>
       <c r="M17" s="13" t="s">
         <v>21</v>
@@ -1040,31 +1040,31 @@
         <v>1</v>
       </c>
       <c r="D18" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E18" s="15">
-        <v>-66.666666666666</v>
+        <v>0</v>
       </c>
       <c r="F18" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G18" s="14">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H18" s="15">
-        <v>-70</v>
+        <v>-75</v>
       </c>
       <c r="I18" s="14">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J18" s="14">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K18" s="15">
-        <v>-43.589743589743</v>
+        <v>-42.5</v>
       </c>
       <c r="L18" s="15">
-        <v>-37.142857142857</v>
+        <v>-34.285714285714</v>
       </c>
       <c r="M18" s="13" t="s">
         <v>21</v>
@@ -1078,34 +1078,34 @@
         <v>26</v>
       </c>
       <c r="C19" s="14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D19" s="14">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E19" s="15">
-        <v>400</v>
+        <v>-14.285714285714</v>
       </c>
       <c r="F19" s="14">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G19" s="14">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H19" s="15">
-        <v>18.181818181818</v>
+        <v>12.5</v>
       </c>
       <c r="I19" s="14">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="J19" s="14">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="K19" s="15">
-        <v>-18.548387096774</v>
+        <v>-16.793893129771</v>
       </c>
       <c r="L19" s="15">
-        <v>-22.307692307692</v>
+        <v>-18.656716417910</v>
       </c>
       <c r="M19" s="13" t="s">
         <v>21</v>
@@ -1119,34 +1119,34 @@
         <v>27</v>
       </c>
       <c r="C20" s="14">
-        <v>3</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>21</v>
+        <v>7</v>
+      </c>
+      <c r="D20" s="14">
+        <v>6</v>
+      </c>
+      <c r="E20" s="15">
+        <v>16.666666666666</v>
       </c>
       <c r="F20" s="14">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G20" s="14">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H20" s="15">
-        <v>-18.181818181818</v>
+        <v>15.384615384615</v>
       </c>
       <c r="I20" s="14">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="J20" s="14">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="K20" s="15">
-        <v>19.178082191780</v>
+        <v>18.987341772151</v>
       </c>
       <c r="L20" s="15">
-        <v>-3.333333333333</v>
+        <v>1.075268817204</v>
       </c>
       <c r="M20" s="13" t="s">
         <v>21</v>
@@ -1160,34 +1160,34 @@
         <v>28</v>
       </c>
       <c r="C21" s="17">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D21" s="17">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E21" s="18">
-        <v>25</v>
+        <v>-22.727272727272</v>
       </c>
       <c r="F21" s="17">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="G21" s="17">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="H21" s="18">
-        <v>-13.793103448275</v>
+        <v>-17.910447761194</v>
       </c>
       <c r="I21" s="17">
-        <v>375</v>
+        <v>395</v>
       </c>
       <c r="J21" s="17">
-        <v>393</v>
+        <v>415</v>
       </c>
       <c r="K21" s="18">
-        <v>-4.580152671755</v>
+        <v>-4.819277108433</v>
       </c>
       <c r="L21" s="18">
-        <v>-10.926365795724</v>
+        <v>-9.403669724770</v>
       </c>
       <c r="M21" s="19" t="s">
         <v>21</v>
@@ -1283,34 +1283,34 @@
         <v>31</v>
       </c>
       <c r="C24" s="14">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D24" s="14">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E24" s="15">
-        <v>-60</v>
+        <v>10</v>
       </c>
       <c r="F24" s="14">
         <v>33</v>
       </c>
       <c r="G24" s="14">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H24" s="15">
-        <v>-17.5</v>
+        <v>-19.512195121951</v>
       </c>
       <c r="I24" s="14">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="J24" s="14">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="K24" s="15">
-        <v>-19.858156028368</v>
+        <v>-19.178082191780</v>
       </c>
       <c r="L24" s="15">
-        <v>-7.755102040816</v>
+        <v>-9.578544061302</v>
       </c>
       <c r="M24" s="13" t="s">
         <v>21</v>
@@ -1324,34 +1324,34 @@
         <v>32</v>
       </c>
       <c r="C25" s="14">
+        <v>1</v>
+      </c>
+      <c r="D25" s="14">
         <v>2</v>
-      </c>
-      <c r="D25" s="14">
-        <v>4</v>
       </c>
       <c r="E25" s="15">
         <v>-50</v>
       </c>
       <c r="F25" s="14">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G25" s="14">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H25" s="15">
-        <v>-42.105263157894</v>
+        <v>-68.75</v>
       </c>
       <c r="I25" s="14">
         <v>55</v>
       </c>
       <c r="J25" s="14">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K25" s="15">
-        <v>-20.289855072463</v>
+        <v>-22.535211267605</v>
       </c>
       <c r="L25" s="15">
-        <v>10</v>
+        <v>1.851851851851</v>
       </c>
       <c r="M25" s="13" t="s">
         <v>21</v>
@@ -1365,34 +1365,34 @@
         <v>33</v>
       </c>
       <c r="C26" s="14">
+        <v>13</v>
+      </c>
+      <c r="D26" s="14">
         <v>11</v>
       </c>
-      <c r="D26" s="14">
-        <v>16</v>
-      </c>
       <c r="E26" s="15">
-        <v>-31.25</v>
+        <v>18.181818181818</v>
       </c>
       <c r="F26" s="14">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G26" s="14">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H26" s="15">
-        <v>-9.090909090909</v>
+        <v>-2.380952380952</v>
       </c>
       <c r="I26" s="14">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="J26" s="14">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="K26" s="15">
-        <v>0.490196078431</v>
+        <v>0.930232558139</v>
       </c>
       <c r="L26" s="15">
-        <v>28.125</v>
+        <v>33.128834355828</v>
       </c>
       <c r="M26" s="13" t="s">
         <v>21</v>
@@ -1405,8 +1405,8 @@
       <c r="A27" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="14">
-        <v>2</v>
+      <c r="C27" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="D27" s="13" t="s">
         <v>20</v>
@@ -1415,13 +1415,13 @@
         <v>21</v>
       </c>
       <c r="F27" s="14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G27" s="14">
         <v>2</v>
       </c>
       <c r="H27" s="15">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="I27" s="14">
         <v>23</v>
@@ -1433,7 +1433,7 @@
         <v>155.555555555556</v>
       </c>
       <c r="L27" s="15">
-        <v>109.090909090909</v>
+        <v>91.666666666666</v>
       </c>
       <c r="M27" s="13" t="s">
         <v>21</v>
@@ -1446,8 +1446,8 @@
       <c r="A28" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="14">
-        <v>1</v>
+      <c r="C28" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="D28" s="13" t="s">
         <v>20</v>
@@ -1456,13 +1456,13 @@
         <v>21</v>
       </c>
       <c r="F28" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G28" s="14">
         <v>2</v>
       </c>
       <c r="H28" s="15">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I28" s="14">
         <v>8</v>
@@ -1487,8 +1487,8 @@
       <c r="A29" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="14">
-        <v>1</v>
+      <c r="C29" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="D29" s="13" t="s">
         <v>20</v>
@@ -1528,8 +1528,8 @@
       <c r="A30" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="14">
-        <v>1</v>
+      <c r="C30" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="D30" s="13" t="s">
         <v>20</v>

--- a/data/source/weekly/cs-en-us-116pct.xlsx
+++ b/data/source/weekly/cs-en-us-116pct.xlsx
@@ -69,7 +69,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">26</t>
+      <t xml:space="preserve">27</t>
     </r>
   </si>
   <si>
@@ -95,7 +95,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">6/23/2025</t>
+      <t xml:space="preserve">6/30/2025</t>
     </r>
     <r>
       <rPr>
@@ -113,7 +113,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">6/29/2025</t>
+      <t xml:space="preserve">7/6/2025</t>
     </r>
   </si>
   <si>
@@ -716,7 +716,7 @@
     <col min="5" max="5" width="7.433768" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.168446" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.168446" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.433768" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.168446" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.168446" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6.168446" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.964413" bestFit="1" customWidth="1"/>
@@ -913,8 +913,8 @@
       <c r="A15" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="13" t="s">
-        <v>20</v>
+      <c r="C15" s="14">
+        <v>1</v>
       </c>
       <c r="D15" s="13" t="s">
         <v>20</v>
@@ -923,7 +923,7 @@
         <v>21</v>
       </c>
       <c r="F15" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G15" s="13" t="s">
         <v>20</v>
@@ -932,16 +932,16 @@
         <v>21</v>
       </c>
       <c r="I15" s="14">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J15" s="14">
         <v>4</v>
       </c>
       <c r="K15" s="15">
-        <v>350</v>
+        <v>375</v>
       </c>
       <c r="L15" s="15">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="M15" s="13" t="s">
         <v>21</v>
@@ -954,14 +954,14 @@
       <c r="A16" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="13" t="s">
-        <v>20</v>
+      <c r="C16" s="14">
+        <v>1</v>
       </c>
       <c r="D16" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E16" s="15">
-        <v>-100</v>
+        <v>-50</v>
       </c>
       <c r="F16" s="14">
         <v>1</v>
@@ -973,16 +973,16 @@
         <v>-90.909090909090</v>
       </c>
       <c r="I16" s="14">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J16" s="14">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K16" s="15">
-        <v>-38.636363636363</v>
+        <v>-39.130434782608</v>
       </c>
       <c r="L16" s="15">
-        <v>-32.5</v>
+        <v>-34.883720930232</v>
       </c>
       <c r="M16" s="13" t="s">
         <v>21</v>
@@ -996,34 +996,34 @@
         <v>24</v>
       </c>
       <c r="C17" s="14">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D17" s="14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E17" s="15">
-        <v>-40</v>
+        <v>50</v>
       </c>
       <c r="F17" s="14">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G17" s="14">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H17" s="15">
-        <v>-10.526315789473</v>
+        <v>0</v>
       </c>
       <c r="I17" s="14">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="J17" s="14">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="K17" s="15">
-        <v>7.826086956521</v>
+        <v>9.243697478991</v>
       </c>
       <c r="L17" s="15">
-        <v>-2.362204724409</v>
+        <v>0</v>
       </c>
       <c r="M17" s="13" t="s">
         <v>21</v>
@@ -1036,35 +1036,35 @@
       <c r="A18" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="14">
-        <v>1</v>
+      <c r="C18" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="D18" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E18" s="15">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F18" s="14">
         <v>2</v>
       </c>
       <c r="G18" s="14">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H18" s="15">
-        <v>-75</v>
+        <v>-77.777777777777</v>
       </c>
       <c r="I18" s="14">
         <v>23</v>
       </c>
       <c r="J18" s="14">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K18" s="15">
-        <v>-42.5</v>
+        <v>-46.511627906976</v>
       </c>
       <c r="L18" s="15">
-        <v>-34.285714285714</v>
+        <v>-39.473684210526</v>
       </c>
       <c r="M18" s="13" t="s">
         <v>21</v>
@@ -1078,34 +1078,34 @@
         <v>26</v>
       </c>
       <c r="C19" s="14">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D19" s="14">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E19" s="15">
-        <v>-14.285714285714</v>
+        <v>166.666666666667</v>
       </c>
       <c r="F19" s="14">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G19" s="14">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H19" s="15">
-        <v>12.5</v>
+        <v>78.571428571428</v>
       </c>
       <c r="I19" s="14">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="J19" s="14">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K19" s="15">
-        <v>-16.793893129771</v>
+        <v>-12.686567164179</v>
       </c>
       <c r="L19" s="15">
-        <v>-18.656716417910</v>
+        <v>-17.021276595744</v>
       </c>
       <c r="M19" s="13" t="s">
         <v>21</v>
@@ -1119,34 +1119,34 @@
         <v>27</v>
       </c>
       <c r="C20" s="14">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D20" s="14">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E20" s="15">
-        <v>16.666666666666</v>
+        <v>-50</v>
       </c>
       <c r="F20" s="14">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G20" s="14">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H20" s="15">
-        <v>15.384615384615</v>
+        <v>27.272727272727</v>
       </c>
       <c r="I20" s="14">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="J20" s="14">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="K20" s="15">
-        <v>18.987341772151</v>
+        <v>15.662650602409</v>
       </c>
       <c r="L20" s="15">
-        <v>1.075268817204</v>
+        <v>0</v>
       </c>
       <c r="M20" s="13" t="s">
         <v>21</v>
@@ -1160,34 +1160,34 @@
         <v>28</v>
       </c>
       <c r="C21" s="17">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D21" s="17">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E21" s="18">
-        <v>-22.727272727272</v>
+        <v>12.5</v>
       </c>
       <c r="F21" s="17">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="G21" s="17">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H21" s="18">
-        <v>-17.910447761194</v>
+        <v>0</v>
       </c>
       <c r="I21" s="17">
-        <v>395</v>
+        <v>413</v>
       </c>
       <c r="J21" s="17">
-        <v>415</v>
+        <v>431</v>
       </c>
       <c r="K21" s="18">
-        <v>-4.819277108433</v>
+        <v>-4.176334106728</v>
       </c>
       <c r="L21" s="18">
-        <v>-9.403669724770</v>
+        <v>-9.230769230769</v>
       </c>
       <c r="M21" s="19" t="s">
         <v>21</v>
@@ -1286,31 +1286,31 @@
         <v>11</v>
       </c>
       <c r="D24" s="14">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E24" s="15">
-        <v>10</v>
+        <v>22.222222222222</v>
       </c>
       <c r="F24" s="14">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G24" s="14">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H24" s="15">
-        <v>-19.512195121951</v>
+        <v>-7.142857142857</v>
       </c>
       <c r="I24" s="14">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="J24" s="14">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="K24" s="15">
-        <v>-19.178082191780</v>
+        <v>-17.607973421926</v>
       </c>
       <c r="L24" s="15">
-        <v>-9.578544061302</v>
+        <v>-9.818181818181</v>
       </c>
       <c r="M24" s="13" t="s">
         <v>21</v>
@@ -1327,31 +1327,31 @@
         <v>1</v>
       </c>
       <c r="D25" s="14">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E25" s="15">
-        <v>-50</v>
+        <v>-85.714285714285</v>
       </c>
       <c r="F25" s="14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G25" s="14">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H25" s="15">
-        <v>-68.75</v>
+        <v>-64.705882352941</v>
       </c>
       <c r="I25" s="14">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J25" s="14">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="K25" s="15">
-        <v>-22.535211267605</v>
+        <v>-28.205128205128</v>
       </c>
       <c r="L25" s="15">
-        <v>1.851851851851</v>
+        <v>1.818181818181</v>
       </c>
       <c r="M25" s="13" t="s">
         <v>21</v>
@@ -1365,34 +1365,34 @@
         <v>33</v>
       </c>
       <c r="C26" s="14">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D26" s="14">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E26" s="15">
-        <v>18.181818181818</v>
+        <v>60</v>
       </c>
       <c r="F26" s="14">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G26" s="14">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H26" s="15">
-        <v>-2.380952380952</v>
+        <v>-2.083333333333</v>
       </c>
       <c r="I26" s="14">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="J26" s="14">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="K26" s="15">
-        <v>0.930232558139</v>
+        <v>3.555555555555</v>
       </c>
       <c r="L26" s="15">
-        <v>33.128834355828</v>
+        <v>37.869822485207</v>
       </c>
       <c r="M26" s="13" t="s">
         <v>21</v>
@@ -1405,8 +1405,8 @@
       <c r="A27" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="13" t="s">
-        <v>20</v>
+      <c r="C27" s="14">
+        <v>1</v>
       </c>
       <c r="D27" s="13" t="s">
         <v>20</v>
@@ -1415,25 +1415,25 @@
         <v>21</v>
       </c>
       <c r="F27" s="14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G27" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H27" s="15">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="I27" s="14">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J27" s="14">
         <v>9</v>
       </c>
       <c r="K27" s="15">
-        <v>155.555555555556</v>
+        <v>166.666666666667</v>
       </c>
       <c r="L27" s="15">
-        <v>91.666666666666</v>
+        <v>100</v>
       </c>
       <c r="M27" s="13" t="s">
         <v>21</v>
@@ -1459,10 +1459,10 @@
         <v>2</v>
       </c>
       <c r="G28" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H28" s="15">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I28" s="14">
         <v>8</v>
@@ -1474,7 +1474,7 @@
         <v>-11.111111111111</v>
       </c>
       <c r="L28" s="15">
-        <v>-46.666666666666</v>
+        <v>-50</v>
       </c>
       <c r="M28" s="13" t="s">
         <v>21</v>

--- a/data/source/weekly/cs-en-us-116pct.xlsx
+++ b/data/source/weekly/cs-en-us-116pct.xlsx
@@ -69,7 +69,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">27</t>
+      <t xml:space="preserve">28</t>
     </r>
   </si>
   <si>
@@ -95,7 +95,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">6/30/2025</t>
+      <t xml:space="preserve">7/7/2025</t>
     </r>
     <r>
       <rPr>
@@ -113,7 +113,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">7/6/2025</t>
+      <t xml:space="preserve">7/13/2025</t>
     </r>
   </si>
   <si>
@@ -923,7 +923,7 @@
         <v>21</v>
       </c>
       <c r="F15" s="14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G15" s="13" t="s">
         <v>20</v>
@@ -932,16 +932,16 @@
         <v>21</v>
       </c>
       <c r="I15" s="14">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J15" s="14">
         <v>4</v>
       </c>
       <c r="K15" s="15">
-        <v>375</v>
+        <v>400</v>
       </c>
       <c r="L15" s="15">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="M15" s="13" t="s">
         <v>21</v>
@@ -958,31 +958,31 @@
         <v>1</v>
       </c>
       <c r="D16" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16" s="15">
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="F16" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G16" s="14">
         <v>11</v>
       </c>
       <c r="H16" s="15">
-        <v>-90.909090909090</v>
+        <v>-72.727272727272</v>
       </c>
       <c r="I16" s="14">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J16" s="14">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K16" s="15">
-        <v>-39.130434782608</v>
+        <v>-36.170212765957</v>
       </c>
       <c r="L16" s="15">
-        <v>-34.883720930232</v>
+        <v>-30.232558139534</v>
       </c>
       <c r="M16" s="13" t="s">
         <v>21</v>
@@ -999,28 +999,28 @@
         <v>6</v>
       </c>
       <c r="D17" s="14">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E17" s="15">
-        <v>50</v>
+        <v>-33.333333333333</v>
       </c>
       <c r="F17" s="14">
         <v>20</v>
       </c>
       <c r="G17" s="14">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H17" s="15">
-        <v>0</v>
+        <v>-4.761904761904</v>
       </c>
       <c r="I17" s="14">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="J17" s="14">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="K17" s="15">
-        <v>9.243697478991</v>
+        <v>6.25</v>
       </c>
       <c r="L17" s="15">
         <v>0</v>
@@ -1036,35 +1036,35 @@
       <c r="A18" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="13" t="s">
-        <v>20</v>
+      <c r="C18" s="14">
+        <v>2</v>
       </c>
       <c r="D18" s="14">
         <v>3</v>
       </c>
       <c r="E18" s="15">
-        <v>-100</v>
+        <v>-33.333333333333</v>
       </c>
       <c r="F18" s="14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G18" s="14">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H18" s="15">
-        <v>-77.777777777777</v>
+        <v>-60</v>
       </c>
       <c r="I18" s="14">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J18" s="14">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K18" s="15">
-        <v>-46.511627906976</v>
+        <v>-45.652173913043</v>
       </c>
       <c r="L18" s="15">
-        <v>-39.473684210526</v>
+        <v>-40.476190476190</v>
       </c>
       <c r="M18" s="13" t="s">
         <v>21</v>
@@ -1078,34 +1078,34 @@
         <v>26</v>
       </c>
       <c r="C19" s="14">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D19" s="14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E19" s="15">
-        <v>166.666666666667</v>
+        <v>-50</v>
       </c>
       <c r="F19" s="14">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G19" s="14">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H19" s="15">
-        <v>78.571428571428</v>
+        <v>46.666666666666</v>
       </c>
       <c r="I19" s="14">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="J19" s="14">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="K19" s="15">
-        <v>-12.686567164179</v>
+        <v>-13.043478260869</v>
       </c>
       <c r="L19" s="15">
-        <v>-17.021276595744</v>
+        <v>-18.367346938775</v>
       </c>
       <c r="M19" s="13" t="s">
         <v>21</v>
@@ -1119,34 +1119,34 @@
         <v>27</v>
       </c>
       <c r="C20" s="14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D20" s="14">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E20" s="15">
         <v>-50</v>
       </c>
       <c r="F20" s="14">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G20" s="14">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H20" s="15">
-        <v>27.272727272727</v>
+        <v>-11.111111111111</v>
       </c>
       <c r="I20" s="14">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="J20" s="14">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="K20" s="15">
-        <v>15.662650602409</v>
+        <v>9.890109890109</v>
       </c>
       <c r="L20" s="15">
-        <v>0</v>
+        <v>1.010101010101</v>
       </c>
       <c r="M20" s="13" t="s">
         <v>21</v>
@@ -1160,34 +1160,34 @@
         <v>28</v>
       </c>
       <c r="C21" s="17">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D21" s="17">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E21" s="18">
-        <v>12.5</v>
+        <v>-36</v>
       </c>
       <c r="F21" s="17">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G21" s="17">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="H21" s="18">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="I21" s="17">
-        <v>413</v>
+        <v>431</v>
       </c>
       <c r="J21" s="17">
-        <v>431</v>
+        <v>456</v>
       </c>
       <c r="K21" s="18">
-        <v>-4.176334106728</v>
+        <v>-5.482456140350</v>
       </c>
       <c r="L21" s="18">
-        <v>-9.230769230769</v>
+        <v>-9.071729957805</v>
       </c>
       <c r="M21" s="19" t="s">
         <v>21</v>
@@ -1283,34 +1283,34 @@
         <v>31</v>
       </c>
       <c r="C24" s="14">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D24" s="14">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E24" s="15">
-        <v>22.222222222222</v>
+        <v>-46.153846153846</v>
       </c>
       <c r="F24" s="14">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G24" s="14">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H24" s="15">
-        <v>-7.142857142857</v>
+        <v>-19.148936170212</v>
       </c>
       <c r="I24" s="14">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="J24" s="14">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c r="K24" s="15">
-        <v>-17.607973421926</v>
+        <v>-18.152866242038</v>
       </c>
       <c r="L24" s="15">
-        <v>-9.818181818181</v>
+        <v>-10.139860139860</v>
       </c>
       <c r="M24" s="13" t="s">
         <v>21</v>
@@ -1327,31 +1327,31 @@
         <v>1</v>
       </c>
       <c r="D25" s="14">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E25" s="15">
-        <v>-85.714285714285</v>
+        <v>-75</v>
       </c>
       <c r="F25" s="14">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G25" s="14">
         <v>17</v>
       </c>
       <c r="H25" s="15">
-        <v>-64.705882352941</v>
+        <v>-70.588235294117</v>
       </c>
       <c r="I25" s="14">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J25" s="14">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K25" s="15">
-        <v>-28.205128205128</v>
+        <v>-30.487804878048</v>
       </c>
       <c r="L25" s="15">
-        <v>1.818181818181</v>
+        <v>-1.724137931034</v>
       </c>
       <c r="M25" s="13" t="s">
         <v>21</v>
@@ -1365,34 +1365,34 @@
         <v>33</v>
       </c>
       <c r="C26" s="14">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D26" s="14">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E26" s="15">
-        <v>60</v>
+        <v>-50</v>
       </c>
       <c r="F26" s="14">
         <v>47</v>
       </c>
       <c r="G26" s="14">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H26" s="15">
-        <v>-2.083333333333</v>
+        <v>-7.843137254901</v>
       </c>
       <c r="I26" s="14">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="J26" s="14">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="K26" s="15">
-        <v>3.555555555555</v>
+        <v>0.418410041841</v>
       </c>
       <c r="L26" s="15">
-        <v>37.869822485207</v>
+        <v>30.434782608695</v>
       </c>
       <c r="M26" s="13" t="s">
         <v>21</v>
@@ -1417,23 +1417,23 @@
       <c r="F27" s="14">
         <v>4</v>
       </c>
-      <c r="G27" s="14">
-        <v>1</v>
-      </c>
-      <c r="H27" s="15">
-        <v>300</v>
+      <c r="G27" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H27" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="I27" s="14">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J27" s="14">
         <v>9</v>
       </c>
       <c r="K27" s="15">
-        <v>166.666666666667</v>
+        <v>177.777777777778</v>
       </c>
       <c r="L27" s="15">
-        <v>100</v>
+        <v>108.333333333333</v>
       </c>
       <c r="M27" s="13" t="s">
         <v>21</v>
@@ -1446,8 +1446,8 @@
       <c r="A28" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="13" t="s">
-        <v>20</v>
+      <c r="C28" s="14">
+        <v>1</v>
       </c>
       <c r="D28" s="13" t="s">
         <v>20</v>
@@ -1458,23 +1458,23 @@
       <c r="F28" s="14">
         <v>2</v>
       </c>
-      <c r="G28" s="14">
-        <v>1</v>
-      </c>
-      <c r="H28" s="15">
-        <v>100</v>
+      <c r="G28" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H28" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="I28" s="14">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J28" s="14">
         <v>9</v>
       </c>
       <c r="K28" s="15">
-        <v>-11.111111111111</v>
+        <v>0</v>
       </c>
       <c r="L28" s="15">
-        <v>-50</v>
+        <v>-47.058823529411</v>
       </c>
       <c r="M28" s="13" t="s">
         <v>21</v>
@@ -1499,11 +1499,11 @@
       <c r="F29" s="14">
         <v>1</v>
       </c>
-      <c r="G29" s="14">
-        <v>2</v>
-      </c>
-      <c r="H29" s="15">
-        <v>-50</v>
+      <c r="G29" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H29" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="I29" s="14">
         <v>1</v>
@@ -1540,11 +1540,11 @@
       <c r="F30" s="14">
         <v>1</v>
       </c>
-      <c r="G30" s="14">
-        <v>1</v>
-      </c>
-      <c r="H30" s="15">
-        <v>0</v>
+      <c r="G30" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H30" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="I30" s="14">
         <v>1</v>

--- a/data/source/weekly/cs-en-us-116pct.xlsx
+++ b/data/source/weekly/cs-en-us-116pct.xlsx
@@ -69,7 +69,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">28</t>
+      <t xml:space="preserve">29</t>
     </r>
   </si>
   <si>
@@ -95,7 +95,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">7/7/2025</t>
+      <t xml:space="preserve">7/14/2025</t>
     </r>
     <r>
       <rPr>
@@ -113,7 +113,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">7/13/2025</t>
+      <t xml:space="preserve">7/20/2025</t>
     </r>
   </si>
   <si>
@@ -716,7 +716,7 @@
     <col min="5" max="5" width="7.433768" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.168446" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.168446" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.168446" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.433768" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.168446" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6.168446" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.964413" bestFit="1" customWidth="1"/>
@@ -913,32 +913,32 @@
       <c r="A15" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="14">
         <v>1</v>
       </c>
-      <c r="D15" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>21</v>
+      <c r="E15" s="15">
+        <v>-100</v>
       </c>
       <c r="F15" s="14">
-        <v>4</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>21</v>
+        <v>2</v>
+      </c>
+      <c r="G15" s="14">
+        <v>1</v>
+      </c>
+      <c r="H15" s="15">
+        <v>100</v>
       </c>
       <c r="I15" s="14">
         <v>20</v>
       </c>
       <c r="J15" s="14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K15" s="15">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L15" s="15">
         <v>300</v>
@@ -964,25 +964,25 @@
         <v>0</v>
       </c>
       <c r="F16" s="14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G16" s="14">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H16" s="15">
-        <v>-72.727272727272</v>
+        <v>-42.857142857142</v>
       </c>
       <c r="I16" s="14">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J16" s="14">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K16" s="15">
-        <v>-36.170212765957</v>
+        <v>-35.416666666666</v>
       </c>
       <c r="L16" s="15">
-        <v>-30.232558139534</v>
+        <v>-31.111111111111</v>
       </c>
       <c r="M16" s="13" t="s">
         <v>21</v>
@@ -996,34 +996,34 @@
         <v>24</v>
       </c>
       <c r="C17" s="14">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D17" s="14">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E17" s="15">
-        <v>-33.333333333333</v>
+        <v>50</v>
       </c>
       <c r="F17" s="14">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G17" s="14">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H17" s="15">
-        <v>-4.761904761904</v>
+        <v>-10</v>
       </c>
       <c r="I17" s="14">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="J17" s="14">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K17" s="15">
-        <v>6.25</v>
+        <v>6.923076923076</v>
       </c>
       <c r="L17" s="15">
-        <v>0</v>
+        <v>0.724637681159</v>
       </c>
       <c r="M17" s="13" t="s">
         <v>21</v>
@@ -1037,34 +1037,34 @@
         <v>25</v>
       </c>
       <c r="C18" s="14">
-        <v>2</v>
-      </c>
-      <c r="D18" s="14">
-        <v>3</v>
-      </c>
-      <c r="E18" s="15">
-        <v>-33.333333333333</v>
+        <v>1</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="F18" s="14">
         <v>4</v>
       </c>
       <c r="G18" s="14">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H18" s="15">
-        <v>-60</v>
+        <v>-42.857142857142</v>
       </c>
       <c r="I18" s="14">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J18" s="14">
         <v>46</v>
       </c>
       <c r="K18" s="15">
-        <v>-45.652173913043</v>
+        <v>-43.478260869565</v>
       </c>
       <c r="L18" s="15">
-        <v>-40.476190476190</v>
+        <v>-38.095238095238</v>
       </c>
       <c r="M18" s="13" t="s">
         <v>21</v>
@@ -1078,34 +1078,34 @@
         <v>26</v>
       </c>
       <c r="C19" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19" s="14">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E19" s="15">
-        <v>-50</v>
+        <v>-83.333333333333</v>
       </c>
       <c r="F19" s="14">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G19" s="14">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H19" s="15">
-        <v>46.666666666666</v>
+        <v>-10</v>
       </c>
       <c r="I19" s="14">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="J19" s="14">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="K19" s="15">
-        <v>-13.043478260869</v>
+        <v>-15.277777777777</v>
       </c>
       <c r="L19" s="15">
-        <v>-18.367346938775</v>
+        <v>-19.736842105263</v>
       </c>
       <c r="M19" s="13" t="s">
         <v>21</v>
@@ -1119,34 +1119,34 @@
         <v>27</v>
       </c>
       <c r="C20" s="14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D20" s="14">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E20" s="15">
-        <v>-50</v>
+        <v>-33.333333333333</v>
       </c>
       <c r="F20" s="14">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G20" s="14">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H20" s="15">
-        <v>-11.111111111111</v>
+        <v>-33.333333333333</v>
       </c>
       <c r="I20" s="14">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J20" s="14">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="K20" s="15">
-        <v>9.890109890109</v>
+        <v>7.446808510638</v>
       </c>
       <c r="L20" s="15">
-        <v>1.010101010101</v>
+        <v>1</v>
       </c>
       <c r="M20" s="13" t="s">
         <v>21</v>
@@ -1160,34 +1160,34 @@
         <v>28</v>
       </c>
       <c r="C21" s="17">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D21" s="17">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E21" s="18">
-        <v>-36</v>
+        <v>-38.461538461538</v>
       </c>
       <c r="F21" s="17">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="G21" s="17">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H21" s="18">
-        <v>-8</v>
+        <v>-21.052631578947</v>
       </c>
       <c r="I21" s="17">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="J21" s="17">
-        <v>456</v>
+        <v>469</v>
       </c>
       <c r="K21" s="18">
-        <v>-5.482456140350</v>
+        <v>-6.396588486140</v>
       </c>
       <c r="L21" s="18">
-        <v>-9.071729957805</v>
+        <v>-9.297520661157</v>
       </c>
       <c r="M21" s="19" t="s">
         <v>21</v>
@@ -1283,34 +1283,34 @@
         <v>31</v>
       </c>
       <c r="C24" s="14">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="D24" s="14">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E24" s="15">
-        <v>-46.153846153846</v>
+        <v>218.181818181818</v>
       </c>
       <c r="F24" s="14">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="G24" s="14">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H24" s="15">
-        <v>-19.148936170212</v>
+        <v>55.813953488372</v>
       </c>
       <c r="I24" s="14">
-        <v>257</v>
+        <v>292</v>
       </c>
       <c r="J24" s="14">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="K24" s="15">
-        <v>-18.152866242038</v>
+        <v>-10.153846153846</v>
       </c>
       <c r="L24" s="15">
-        <v>-10.139860139860</v>
+        <v>-4.885993485342</v>
       </c>
       <c r="M24" s="13" t="s">
         <v>21</v>
@@ -1324,34 +1324,34 @@
         <v>32</v>
       </c>
       <c r="C25" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D25" s="14">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E25" s="15">
-        <v>-75</v>
+        <v>-66.666666666666</v>
       </c>
       <c r="F25" s="14">
         <v>5</v>
       </c>
       <c r="G25" s="14">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H25" s="15">
-        <v>-70.588235294117</v>
+        <v>-73.684210526315</v>
       </c>
       <c r="I25" s="14">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J25" s="14">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="K25" s="15">
-        <v>-30.487804878048</v>
+        <v>-32.954545454545</v>
       </c>
       <c r="L25" s="15">
-        <v>-1.724137931034</v>
+        <v>-9.230769230769</v>
       </c>
       <c r="M25" s="13" t="s">
         <v>21</v>
@@ -1365,34 +1365,34 @@
         <v>33</v>
       </c>
       <c r="C26" s="14">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D26" s="14">
         <v>14</v>
       </c>
       <c r="E26" s="15">
-        <v>-50</v>
+        <v>14.285714285714</v>
       </c>
       <c r="F26" s="14">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G26" s="14">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H26" s="15">
-        <v>-7.843137254901</v>
+        <v>6.122448979591</v>
       </c>
       <c r="I26" s="14">
-        <v>240</v>
+        <v>256</v>
       </c>
       <c r="J26" s="14">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="K26" s="15">
-        <v>0.418410041841</v>
+        <v>1.185770750988</v>
       </c>
       <c r="L26" s="15">
-        <v>30.434782608695</v>
+        <v>29.292929292929</v>
       </c>
       <c r="M26" s="13" t="s">
         <v>21</v>
@@ -1405,32 +1405,32 @@
       <c r="A27" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="14">
+      <c r="C27" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="14">
         <v>1</v>
       </c>
-      <c r="D27" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>21</v>
+      <c r="E27" s="15">
+        <v>-100</v>
       </c>
       <c r="F27" s="14">
-        <v>4</v>
-      </c>
-      <c r="G27" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H27" s="13" t="s">
-        <v>21</v>
+        <v>2</v>
+      </c>
+      <c r="G27" s="14">
+        <v>1</v>
+      </c>
+      <c r="H27" s="15">
+        <v>100</v>
       </c>
       <c r="I27" s="14">
         <v>25</v>
       </c>
       <c r="J27" s="14">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K27" s="15">
-        <v>177.777777777778</v>
+        <v>150</v>
       </c>
       <c r="L27" s="15">
         <v>108.333333333333</v>
@@ -1465,16 +1465,16 @@
         <v>21</v>
       </c>
       <c r="I28" s="14">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J28" s="14">
         <v>9</v>
       </c>
       <c r="K28" s="15">
-        <v>0</v>
+        <v>11.111111111111</v>
       </c>
       <c r="L28" s="15">
-        <v>-47.058823529411</v>
+        <v>-41.176470588235</v>
       </c>
       <c r="M28" s="13" t="s">
         <v>21</v>
@@ -1490,29 +1490,29 @@
       <c r="C29" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F29" s="14">
+      <c r="D29" s="14">
         <v>1</v>
       </c>
-      <c r="G29" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H29" s="13" t="s">
-        <v>21</v>
+      <c r="E29" s="15">
+        <v>-100</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G29" s="14">
+        <v>1</v>
+      </c>
+      <c r="H29" s="15">
+        <v>-100</v>
       </c>
       <c r="I29" s="14">
         <v>1</v>
       </c>
       <c r="J29" s="14">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K29" s="15">
-        <v>-83.333333333333</v>
+        <v>-85.714285714285</v>
       </c>
       <c r="L29" s="15">
         <v>-75</v>
@@ -1531,29 +1531,29 @@
       <c r="C30" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E30" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F30" s="14">
+      <c r="D30" s="14">
         <v>1</v>
       </c>
-      <c r="G30" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H30" s="13" t="s">
-        <v>21</v>
+      <c r="E30" s="15">
+        <v>-100</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G30" s="14">
+        <v>1</v>
+      </c>
+      <c r="H30" s="15">
+        <v>-100</v>
       </c>
       <c r="I30" s="14">
         <v>1</v>
       </c>
       <c r="J30" s="14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K30" s="15">
-        <v>-75</v>
+        <v>-80</v>
       </c>
       <c r="L30" s="15">
         <v>-66.666666666666</v>

--- a/data/source/weekly/cs-en-us-116pct.xlsx
+++ b/data/source/weekly/cs-en-us-116pct.xlsx
@@ -69,7 +69,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">29</t>
+      <t xml:space="preserve">30</t>
     </r>
   </si>
   <si>
@@ -95,7 +95,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">7/14/2025</t>
+      <t xml:space="preserve">7/21/2025</t>
     </r>
     <r>
       <rPr>
@@ -113,7 +113,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">7/20/2025</t>
+      <t xml:space="preserve">7/27/2025</t>
     </r>
   </si>
   <si>
@@ -916,11 +916,11 @@
       <c r="C15" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="14">
-        <v>1</v>
-      </c>
-      <c r="E15" s="15">
-        <v>-100</v>
+      <c r="D15" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="F15" s="14">
         <v>2</v>
@@ -955,34 +955,34 @@
         <v>23</v>
       </c>
       <c r="C16" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D16" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E16" s="15">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F16" s="14">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G16" s="14">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H16" s="15">
-        <v>-42.857142857142</v>
+        <v>16.666666666666</v>
       </c>
       <c r="I16" s="14">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="J16" s="14">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K16" s="15">
-        <v>-35.416666666666</v>
+        <v>-32</v>
       </c>
       <c r="L16" s="15">
-        <v>-31.111111111111</v>
+        <v>-27.659574468085</v>
       </c>
       <c r="M16" s="13" t="s">
         <v>21</v>
@@ -996,34 +996,34 @@
         <v>24</v>
       </c>
       <c r="C17" s="14">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D17" s="14">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E17" s="15">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F17" s="14">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G17" s="14">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H17" s="15">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="I17" s="14">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="J17" s="14">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="K17" s="15">
-        <v>6.923076923076</v>
+        <v>6.617647058823</v>
       </c>
       <c r="L17" s="15">
-        <v>0.724637681159</v>
+        <v>2.836879432624</v>
       </c>
       <c r="M17" s="13" t="s">
         <v>21</v>
@@ -1049,22 +1049,22 @@
         <v>4</v>
       </c>
       <c r="G18" s="14">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H18" s="15">
-        <v>-42.857142857142</v>
+        <v>-33.333333333333</v>
       </c>
       <c r="I18" s="14">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J18" s="14">
         <v>46</v>
       </c>
       <c r="K18" s="15">
-        <v>-43.478260869565</v>
+        <v>-41.304347826087</v>
       </c>
       <c r="L18" s="15">
-        <v>-38.095238095238</v>
+        <v>-37.209302325581</v>
       </c>
       <c r="M18" s="13" t="s">
         <v>21</v>
@@ -1077,35 +1077,35 @@
       <c r="A19" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="14">
-        <v>1</v>
+      <c r="C19" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="D19" s="14">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E19" s="15">
-        <v>-83.333333333333</v>
+        <v>-100</v>
       </c>
       <c r="F19" s="14">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G19" s="14">
         <v>20</v>
       </c>
       <c r="H19" s="15">
-        <v>-10</v>
+        <v>-40</v>
       </c>
       <c r="I19" s="14">
         <v>122</v>
       </c>
       <c r="J19" s="14">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="K19" s="15">
-        <v>-15.277777777777</v>
+        <v>-19.205298013245</v>
       </c>
       <c r="L19" s="15">
-        <v>-19.736842105263</v>
+        <v>-22.292993630573</v>
       </c>
       <c r="M19" s="13" t="s">
         <v>21</v>
@@ -1128,25 +1128,25 @@
         <v>-33.333333333333</v>
       </c>
       <c r="F20" s="14">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G20" s="14">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H20" s="15">
-        <v>-33.333333333333</v>
+        <v>-50</v>
       </c>
       <c r="I20" s="14">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="J20" s="14">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="K20" s="15">
-        <v>7.446808510638</v>
+        <v>6.185567010309</v>
       </c>
       <c r="L20" s="15">
-        <v>1</v>
+        <v>-0.961538461538</v>
       </c>
       <c r="M20" s="13" t="s">
         <v>21</v>
@@ -1160,34 +1160,34 @@
         <v>28</v>
       </c>
       <c r="C21" s="17">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D21" s="17">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E21" s="18">
-        <v>-38.461538461538</v>
+        <v>-33.333333333333</v>
       </c>
       <c r="F21" s="17">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G21" s="17">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H21" s="18">
-        <v>-21.052631578947</v>
+        <v>-23.611111111111</v>
       </c>
       <c r="I21" s="17">
-        <v>439</v>
+        <v>451</v>
       </c>
       <c r="J21" s="17">
-        <v>469</v>
+        <v>487</v>
       </c>
       <c r="K21" s="18">
-        <v>-6.396588486140</v>
+        <v>-7.392197125256</v>
       </c>
       <c r="L21" s="18">
-        <v>-9.297520661157</v>
+        <v>-9.619238476953</v>
       </c>
       <c r="M21" s="19" t="s">
         <v>21</v>
@@ -1283,34 +1283,34 @@
         <v>31</v>
       </c>
       <c r="C24" s="14">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="D24" s="14">
         <v>11</v>
       </c>
       <c r="E24" s="15">
-        <v>218.181818181818</v>
+        <v>-9.090909090909</v>
       </c>
       <c r="F24" s="14">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G24" s="14">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H24" s="15">
-        <v>55.813953488372</v>
+        <v>45.454545454545</v>
       </c>
       <c r="I24" s="14">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="J24" s="14">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="K24" s="15">
-        <v>-10.153846153846</v>
+        <v>-10.416666666666</v>
       </c>
       <c r="L24" s="15">
-        <v>-4.885993485342</v>
+        <v>-7.384615384615</v>
       </c>
       <c r="M24" s="13" t="s">
         <v>21</v>
@@ -1324,10 +1324,10 @@
         <v>32</v>
       </c>
       <c r="C25" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D25" s="14">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E25" s="15">
         <v>-66.666666666666</v>
@@ -1336,22 +1336,22 @@
         <v>5</v>
       </c>
       <c r="G25" s="14">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H25" s="15">
-        <v>-73.684210526315</v>
+        <v>-75</v>
       </c>
       <c r="I25" s="14">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J25" s="14">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K25" s="15">
-        <v>-32.954545454545</v>
+        <v>-34.065934065934</v>
       </c>
       <c r="L25" s="15">
-        <v>-9.230769230769</v>
+        <v>-7.692307692307</v>
       </c>
       <c r="M25" s="13" t="s">
         <v>21</v>
@@ -1365,34 +1365,34 @@
         <v>33</v>
       </c>
       <c r="C26" s="14">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D26" s="14">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E26" s="15">
-        <v>14.285714285714</v>
+        <v>50</v>
       </c>
       <c r="F26" s="14">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G26" s="14">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H26" s="15">
-        <v>6.122448979591</v>
+        <v>12.5</v>
       </c>
       <c r="I26" s="14">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="J26" s="14">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="K26" s="15">
-        <v>1.185770750988</v>
+        <v>3.041825095057</v>
       </c>
       <c r="L26" s="15">
-        <v>29.292929292929</v>
+        <v>29.665071770334</v>
       </c>
       <c r="M26" s="13" t="s">
         <v>21</v>
@@ -1408,11 +1408,11 @@
       <c r="C27" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D27" s="14">
-        <v>1</v>
-      </c>
-      <c r="E27" s="15">
-        <v>-100</v>
+      <c r="D27" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="F27" s="14">
         <v>2</v>
@@ -1447,7 +1447,7 @@
         <v>35</v>
       </c>
       <c r="C28" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D28" s="13" t="s">
         <v>20</v>
@@ -1456,7 +1456,7 @@
         <v>21</v>
       </c>
       <c r="F28" s="14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G28" s="13" t="s">
         <v>20</v>
@@ -1465,16 +1465,16 @@
         <v>21</v>
       </c>
       <c r="I28" s="14">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J28" s="14">
         <v>9</v>
       </c>
       <c r="K28" s="15">
-        <v>11.111111111111</v>
+        <v>33.333333333333</v>
       </c>
       <c r="L28" s="15">
-        <v>-41.176470588235</v>
+        <v>-33.333333333333</v>
       </c>
       <c r="M28" s="13" t="s">
         <v>21</v>
@@ -1500,7 +1500,7 @@
         <v>20</v>
       </c>
       <c r="G29" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H29" s="15">
         <v>-100</v>
@@ -1509,10 +1509,10 @@
         <v>1</v>
       </c>
       <c r="J29" s="14">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K29" s="15">
-        <v>-85.714285714285</v>
+        <v>-87.5</v>
       </c>
       <c r="L29" s="15">
         <v>-75</v>
@@ -1541,7 +1541,7 @@
         <v>20</v>
       </c>
       <c r="G30" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H30" s="15">
         <v>-100</v>
@@ -1550,10 +1550,10 @@
         <v>1</v>
       </c>
       <c r="J30" s="14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K30" s="15">
-        <v>-80</v>
+        <v>-83.333333333333</v>
       </c>
       <c r="L30" s="15">
         <v>-66.666666666666</v>

--- a/data/source/weekly/cs-en-us-116pct.xlsx
+++ b/data/source/weekly/cs-en-us-116pct.xlsx
@@ -69,7 +69,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">30</t>
+      <t xml:space="preserve">31</t>
     </r>
   </si>
   <si>
@@ -95,7 +95,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">7/21/2025</t>
+      <t xml:space="preserve">7/28/2025</t>
     </r>
     <r>
       <rPr>
@@ -113,7 +113,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">7/27/2025</t>
+      <t xml:space="preserve">8/3/2025</t>
     </r>
   </si>
   <si>
@@ -913,8 +913,8 @@
       <c r="A15" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="13" t="s">
-        <v>20</v>
+      <c r="C15" s="14">
+        <v>1</v>
       </c>
       <c r="D15" s="13" t="s">
         <v>20</v>
@@ -932,16 +932,16 @@
         <v>100</v>
       </c>
       <c r="I15" s="14">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J15" s="14">
         <v>5</v>
       </c>
       <c r="K15" s="15">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="L15" s="15">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="M15" s="13" t="s">
         <v>21</v>
@@ -955,34 +955,34 @@
         <v>23</v>
       </c>
       <c r="C16" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D16" s="14">
         <v>2</v>
       </c>
       <c r="E16" s="15">
-        <v>50</v>
+        <v>-50</v>
       </c>
       <c r="F16" s="14">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G16" s="14">
         <v>6</v>
       </c>
       <c r="H16" s="15">
-        <v>16.666666666666</v>
+        <v>0</v>
       </c>
       <c r="I16" s="14">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J16" s="14">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K16" s="15">
-        <v>-32</v>
+        <v>-30.769230769230</v>
       </c>
       <c r="L16" s="15">
-        <v>-27.659574468085</v>
+        <v>-29.411764705882</v>
       </c>
       <c r="M16" s="13" t="s">
         <v>21</v>
@@ -996,34 +996,34 @@
         <v>24</v>
       </c>
       <c r="C17" s="14">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D17" s="14">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E17" s="15">
         <v>0</v>
       </c>
       <c r="F17" s="14">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G17" s="14">
         <v>21</v>
       </c>
       <c r="H17" s="15">
-        <v>0</v>
+        <v>-9.523809523809</v>
       </c>
       <c r="I17" s="14">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="J17" s="14">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="K17" s="15">
-        <v>6.617647058823</v>
+        <v>7.857142857142</v>
       </c>
       <c r="L17" s="15">
-        <v>2.836879432624</v>
+        <v>5.594405594405</v>
       </c>
       <c r="M17" s="13" t="s">
         <v>21</v>
@@ -1039,32 +1039,32 @@
       <c r="C18" s="14">
         <v>1</v>
       </c>
-      <c r="D18" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>21</v>
+      <c r="D18" s="14">
+        <v>2</v>
+      </c>
+      <c r="E18" s="15">
+        <v>-50</v>
       </c>
       <c r="F18" s="14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G18" s="14">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H18" s="15">
-        <v>-33.333333333333</v>
+        <v>0</v>
       </c>
       <c r="I18" s="14">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J18" s="14">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K18" s="15">
-        <v>-41.304347826087</v>
+        <v>-39.583333333333</v>
       </c>
       <c r="L18" s="15">
-        <v>-37.209302325581</v>
+        <v>-35.555555555555</v>
       </c>
       <c r="M18" s="13" t="s">
         <v>21</v>
@@ -1077,35 +1077,35 @@
       <c r="A19" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="13" t="s">
-        <v>20</v>
+      <c r="C19" s="14">
+        <v>6</v>
       </c>
       <c r="D19" s="14">
         <v>7</v>
       </c>
       <c r="E19" s="15">
-        <v>-100</v>
+        <v>-14.285714285714</v>
       </c>
       <c r="F19" s="14">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G19" s="14">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H19" s="15">
-        <v>-40</v>
+        <v>-62.5</v>
       </c>
       <c r="I19" s="14">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="J19" s="14">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="K19" s="15">
-        <v>-19.205298013245</v>
+        <v>-18.354430379746</v>
       </c>
       <c r="L19" s="15">
-        <v>-22.292993630573</v>
+        <v>-22.754491017964</v>
       </c>
       <c r="M19" s="13" t="s">
         <v>21</v>
@@ -1122,31 +1122,31 @@
         <v>2</v>
       </c>
       <c r="D20" s="14">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E20" s="15">
-        <v>-33.333333333333</v>
+        <v>-60</v>
       </c>
       <c r="F20" s="14">
         <v>9</v>
       </c>
       <c r="G20" s="14">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H20" s="15">
-        <v>-50</v>
+        <v>-52.631578947368</v>
       </c>
       <c r="I20" s="14">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J20" s="14">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="K20" s="15">
-        <v>6.185567010309</v>
+        <v>2.941176470588</v>
       </c>
       <c r="L20" s="15">
-        <v>-0.961538461538</v>
+        <v>-2.777777777777</v>
       </c>
       <c r="M20" s="13" t="s">
         <v>21</v>
@@ -1160,34 +1160,34 @@
         <v>28</v>
       </c>
       <c r="C21" s="17">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D21" s="17">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E21" s="18">
-        <v>-33.333333333333</v>
+        <v>-25</v>
       </c>
       <c r="F21" s="17">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G21" s="17">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H21" s="18">
-        <v>-23.611111111111</v>
+        <v>-34.210526315789</v>
       </c>
       <c r="I21" s="17">
-        <v>451</v>
+        <v>471</v>
       </c>
       <c r="J21" s="17">
-        <v>487</v>
+        <v>507</v>
       </c>
       <c r="K21" s="18">
-        <v>-7.392197125256</v>
+        <v>-7.100591715976</v>
       </c>
       <c r="L21" s="18">
-        <v>-9.619238476953</v>
+        <v>-9.770114942528</v>
       </c>
       <c r="M21" s="19" t="s">
         <v>21</v>
@@ -1286,31 +1286,31 @@
         <v>10</v>
       </c>
       <c r="D24" s="14">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E24" s="15">
-        <v>-9.090909090909</v>
+        <v>0</v>
       </c>
       <c r="F24" s="14">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G24" s="14">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H24" s="15">
-        <v>45.454545454545</v>
+        <v>35.555555555555</v>
       </c>
       <c r="I24" s="14">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="J24" s="14">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="K24" s="15">
-        <v>-10.416666666666</v>
+        <v>-10.115606936416</v>
       </c>
       <c r="L24" s="15">
-        <v>-7.384615384615</v>
+        <v>-9.064327485380</v>
       </c>
       <c r="M24" s="13" t="s">
         <v>21</v>
@@ -1327,31 +1327,31 @@
         <v>1</v>
       </c>
       <c r="D25" s="14">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E25" s="15">
-        <v>-66.666666666666</v>
+        <v>-80</v>
       </c>
       <c r="F25" s="14">
         <v>5</v>
       </c>
       <c r="G25" s="14">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H25" s="15">
-        <v>-75</v>
+        <v>-72.222222222222</v>
       </c>
       <c r="I25" s="14">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J25" s="14">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="K25" s="15">
-        <v>-34.065934065934</v>
+        <v>-36.458333333333</v>
       </c>
       <c r="L25" s="15">
-        <v>-7.692307692307</v>
+        <v>-14.084507042253</v>
       </c>
       <c r="M25" s="13" t="s">
         <v>21</v>
@@ -1365,34 +1365,34 @@
         <v>33</v>
       </c>
       <c r="C26" s="14">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D26" s="14">
         <v>10</v>
       </c>
       <c r="E26" s="15">
-        <v>50</v>
+        <v>-10</v>
       </c>
       <c r="F26" s="14">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="G26" s="14">
         <v>48</v>
       </c>
       <c r="H26" s="15">
-        <v>12.5</v>
+        <v>-2.083333333333</v>
       </c>
       <c r="I26" s="14">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="J26" s="14">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="K26" s="15">
-        <v>3.041825095057</v>
+        <v>1.465201465201</v>
       </c>
       <c r="L26" s="15">
-        <v>29.665071770334</v>
+        <v>28.240740740740</v>
       </c>
       <c r="M26" s="13" t="s">
         <v>21</v>
@@ -1405,35 +1405,35 @@
       <c r="A27" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>21</v>
+      <c r="C27" s="14">
+        <v>1</v>
+      </c>
+      <c r="D27" s="14">
+        <v>1</v>
+      </c>
+      <c r="E27" s="15">
+        <v>0</v>
       </c>
       <c r="F27" s="14">
         <v>2</v>
       </c>
       <c r="G27" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H27" s="15">
+        <v>0</v>
+      </c>
+      <c r="I27" s="14">
+        <v>26</v>
+      </c>
+      <c r="J27" s="14">
+        <v>11</v>
+      </c>
+      <c r="K27" s="15">
+        <v>136.363636363636</v>
+      </c>
+      <c r="L27" s="15">
         <v>100</v>
-      </c>
-      <c r="I27" s="14">
-        <v>25</v>
-      </c>
-      <c r="J27" s="14">
-        <v>10</v>
-      </c>
-      <c r="K27" s="15">
-        <v>150</v>
-      </c>
-      <c r="L27" s="15">
-        <v>108.333333333333</v>
       </c>
       <c r="M27" s="13" t="s">
         <v>21</v>
@@ -1446,8 +1446,8 @@
       <c r="A28" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="14">
-        <v>2</v>
+      <c r="C28" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="D28" s="13" t="s">
         <v>20</v>
@@ -1474,7 +1474,7 @@
         <v>33.333333333333</v>
       </c>
       <c r="L28" s="15">
-        <v>-33.333333333333</v>
+        <v>-40</v>
       </c>
       <c r="M28" s="13" t="s">
         <v>21</v>
@@ -1490,11 +1490,11 @@
       <c r="C29" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="14">
-        <v>1</v>
-      </c>
-      <c r="E29" s="15">
-        <v>-100</v>
+      <c r="D29" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="F29" s="13" t="s">
         <v>20</v>
@@ -1531,11 +1531,11 @@
       <c r="C30" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="14">
-        <v>1</v>
-      </c>
-      <c r="E30" s="15">
-        <v>-100</v>
+      <c r="D30" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="F30" s="13" t="s">
         <v>20</v>

--- a/data/source/weekly/cs-en-us-116pct.xlsx
+++ b/data/source/weekly/cs-en-us-116pct.xlsx
@@ -69,7 +69,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">31</t>
+      <t xml:space="preserve">32</t>
     </r>
   </si>
   <si>
@@ -95,7 +95,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">7/28/2025</t>
+      <t xml:space="preserve">8/4/2025</t>
     </r>
     <r>
       <rPr>
@@ -113,7 +113,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">8/3/2025</t>
+      <t xml:space="preserve">8/10/2025</t>
     </r>
   </si>
   <si>
@@ -916,32 +916,32 @@
       <c r="C15" s="14">
         <v>1</v>
       </c>
-      <c r="D15" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>21</v>
+      <c r="D15" s="14">
+        <v>1</v>
+      </c>
+      <c r="E15" s="15">
+        <v>0</v>
       </c>
       <c r="F15" s="14">
         <v>2</v>
       </c>
       <c r="G15" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H15" s="15">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I15" s="14">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J15" s="14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K15" s="15">
-        <v>320</v>
+        <v>266.666666666667</v>
       </c>
       <c r="L15" s="15">
-        <v>250</v>
+        <v>266.666666666667</v>
       </c>
       <c r="M15" s="13" t="s">
         <v>21</v>
@@ -955,34 +955,34 @@
         <v>23</v>
       </c>
       <c r="C16" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16" s="14">
         <v>2</v>
       </c>
       <c r="E16" s="15">
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="F16" s="14">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G16" s="14">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H16" s="15">
         <v>0</v>
       </c>
       <c r="I16" s="14">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J16" s="14">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K16" s="15">
-        <v>-30.769230769230</v>
+        <v>-29.629629629629</v>
       </c>
       <c r="L16" s="15">
-        <v>-29.411764705882</v>
+        <v>-26.923076923076</v>
       </c>
       <c r="M16" s="13" t="s">
         <v>21</v>
@@ -996,34 +996,34 @@
         <v>24</v>
       </c>
       <c r="C17" s="14">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D17" s="14">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E17" s="15">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="F17" s="14">
         <v>19</v>
       </c>
       <c r="G17" s="14">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H17" s="15">
-        <v>-9.523809523809</v>
+        <v>46.153846153846</v>
       </c>
       <c r="I17" s="14">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="J17" s="14">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K17" s="15">
-        <v>7.857142857142</v>
+        <v>11.347517730496</v>
       </c>
       <c r="L17" s="15">
-        <v>5.594405594405</v>
+        <v>4.666666666666</v>
       </c>
       <c r="M17" s="13" t="s">
         <v>21</v>
@@ -1036,20 +1036,20 @@
       <c r="A18" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C18" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="14">
         <v>1</v>
       </c>
-      <c r="D18" s="14">
-        <v>2</v>
-      </c>
       <c r="E18" s="15">
-        <v>-50</v>
+        <v>-100</v>
       </c>
       <c r="F18" s="14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G18" s="14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H18" s="15">
         <v>0</v>
@@ -1058,13 +1058,13 @@
         <v>29</v>
       </c>
       <c r="J18" s="14">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K18" s="15">
+        <v>-40.816326530612</v>
+      </c>
+      <c r="L18" s="15">
         <v>-39.583333333333</v>
-      </c>
-      <c r="L18" s="15">
-        <v>-35.555555555555</v>
       </c>
       <c r="M18" s="13" t="s">
         <v>21</v>
@@ -1078,34 +1078,34 @@
         <v>26</v>
       </c>
       <c r="C19" s="14">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D19" s="14">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E19" s="15">
-        <v>-14.285714285714</v>
+        <v>-55.555555555555</v>
       </c>
       <c r="F19" s="14">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G19" s="14">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="H19" s="15">
-        <v>-62.5</v>
+        <v>-62.068965517241</v>
       </c>
       <c r="I19" s="14">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="J19" s="14">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="K19" s="15">
-        <v>-18.354430379746</v>
+        <v>-20.359281437125</v>
       </c>
       <c r="L19" s="15">
-        <v>-22.754491017964</v>
+        <v>-27.717391304347</v>
       </c>
       <c r="M19" s="13" t="s">
         <v>21</v>
@@ -1119,34 +1119,34 @@
         <v>27</v>
       </c>
       <c r="C20" s="14">
+        <v>3</v>
+      </c>
+      <c r="D20" s="14">
         <v>2</v>
       </c>
-      <c r="D20" s="14">
-        <v>5</v>
-      </c>
       <c r="E20" s="15">
-        <v>-60</v>
+        <v>50</v>
       </c>
       <c r="F20" s="14">
         <v>9</v>
       </c>
       <c r="G20" s="14">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H20" s="15">
-        <v>-52.631578947368</v>
+        <v>-30.769230769230</v>
       </c>
       <c r="I20" s="14">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="J20" s="14">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K20" s="15">
-        <v>2.941176470588</v>
+        <v>3.846153846153</v>
       </c>
       <c r="L20" s="15">
-        <v>-2.777777777777</v>
+        <v>-2.702702702702</v>
       </c>
       <c r="M20" s="13" t="s">
         <v>21</v>
@@ -1160,34 +1160,34 @@
         <v>28</v>
       </c>
       <c r="C21" s="17">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D21" s="17">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E21" s="18">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="F21" s="17">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G21" s="17">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="H21" s="18">
-        <v>-34.210526315789</v>
+        <v>-23.880597014925</v>
       </c>
       <c r="I21" s="17">
-        <v>471</v>
+        <v>487</v>
       </c>
       <c r="J21" s="17">
-        <v>507</v>
+        <v>523</v>
       </c>
       <c r="K21" s="18">
-        <v>-7.100591715976</v>
+        <v>-6.883365200764</v>
       </c>
       <c r="L21" s="18">
-        <v>-9.770114942528</v>
+        <v>-11.934900542495</v>
       </c>
       <c r="M21" s="19" t="s">
         <v>21</v>
@@ -1283,34 +1283,34 @@
         <v>31</v>
       </c>
       <c r="C24" s="14">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D24" s="14">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E24" s="15">
-        <v>0</v>
+        <v>88.888888888888</v>
       </c>
       <c r="F24" s="14">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="G24" s="14">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H24" s="15">
-        <v>35.555555555555</v>
+        <v>73.170731707317</v>
       </c>
       <c r="I24" s="14">
-        <v>311</v>
+        <v>328</v>
       </c>
       <c r="J24" s="14">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="K24" s="15">
-        <v>-10.115606936416</v>
+        <v>-7.605633802816</v>
       </c>
       <c r="L24" s="15">
-        <v>-9.064327485380</v>
+        <v>-7.082152974504</v>
       </c>
       <c r="M24" s="13" t="s">
         <v>21</v>
@@ -1324,34 +1324,34 @@
         <v>32</v>
       </c>
       <c r="C25" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D25" s="14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E25" s="15">
-        <v>-80</v>
+        <v>-50</v>
       </c>
       <c r="F25" s="14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G25" s="14">
         <v>18</v>
       </c>
       <c r="H25" s="15">
-        <v>-72.222222222222</v>
+        <v>-66.666666666666</v>
       </c>
       <c r="I25" s="14">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J25" s="14">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="K25" s="15">
-        <v>-36.458333333333</v>
+        <v>-37</v>
       </c>
       <c r="L25" s="15">
-        <v>-14.084507042253</v>
+        <v>-16</v>
       </c>
       <c r="M25" s="13" t="s">
         <v>21</v>
@@ -1365,34 +1365,34 @@
         <v>33</v>
       </c>
       <c r="C26" s="14">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D26" s="14">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E26" s="15">
-        <v>-10</v>
+        <v>366.666666666667</v>
       </c>
       <c r="F26" s="14">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="G26" s="14">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="H26" s="15">
-        <v>-2.083333333333</v>
+        <v>45.945945945945</v>
       </c>
       <c r="I26" s="14">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="J26" s="14">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="K26" s="15">
-        <v>1.465201465201</v>
+        <v>5.072463768115</v>
       </c>
       <c r="L26" s="15">
-        <v>28.240740740740</v>
+        <v>28.318584070796</v>
       </c>
       <c r="M26" s="13" t="s">
         <v>21</v>
@@ -1409,31 +1409,31 @@
         <v>1</v>
       </c>
       <c r="D27" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E27" s="15">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="F27" s="14">
         <v>2</v>
       </c>
       <c r="G27" s="14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H27" s="15">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="I27" s="14">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J27" s="14">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K27" s="15">
-        <v>136.363636363636</v>
+        <v>107.692307692308</v>
       </c>
       <c r="L27" s="15">
-        <v>100</v>
+        <v>107.692307692308</v>
       </c>
       <c r="M27" s="13" t="s">
         <v>21</v>
@@ -1449,29 +1449,29 @@
       <c r="C28" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>21</v>
+      <c r="D28" s="14">
+        <v>2</v>
+      </c>
+      <c r="E28" s="15">
+        <v>-100</v>
       </c>
       <c r="F28" s="14">
-        <v>4</v>
-      </c>
-      <c r="G28" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H28" s="13" t="s">
-        <v>21</v>
+        <v>3</v>
+      </c>
+      <c r="G28" s="14">
+        <v>2</v>
+      </c>
+      <c r="H28" s="15">
+        <v>50</v>
       </c>
       <c r="I28" s="14">
         <v>12</v>
       </c>
       <c r="J28" s="14">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K28" s="15">
-        <v>33.333333333333</v>
+        <v>9.090909090909</v>
       </c>
       <c r="L28" s="15">
         <v>-40</v>

--- a/data/source/weekly/cs-en-us-116pct.xlsx
+++ b/data/source/weekly/cs-en-us-116pct.xlsx
@@ -69,7 +69,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">32</t>
+      <t xml:space="preserve">34</t>
     </r>
   </si>
   <si>
@@ -95,7 +95,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">8/4/2025</t>
+      <t xml:space="preserve">8/18/2025</t>
     </r>
     <r>
       <rPr>
@@ -113,7 +113,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">8/10/2025</t>
+      <t xml:space="preserve">8/24/2025</t>
     </r>
   </si>
   <si>
@@ -913,32 +913,32 @@
       <c r="A15" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="14">
-        <v>1</v>
+      <c r="C15" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="D15" s="14">
         <v>1</v>
       </c>
       <c r="E15" s="15">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F15" s="14">
         <v>2</v>
       </c>
       <c r="G15" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H15" s="15">
-        <v>0</v>
+        <v>-33.333333333333</v>
       </c>
       <c r="I15" s="14">
         <v>22</v>
       </c>
       <c r="J15" s="14">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K15" s="15">
-        <v>266.666666666667</v>
+        <v>175</v>
       </c>
       <c r="L15" s="15">
         <v>266.666666666667</v>
@@ -955,34 +955,34 @@
         <v>23</v>
       </c>
       <c r="C16" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16" s="14">
         <v>2</v>
       </c>
       <c r="E16" s="15">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="F16" s="14">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G16" s="14">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H16" s="15">
-        <v>0</v>
+        <v>-16.666666666666</v>
       </c>
       <c r="I16" s="14">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="J16" s="14">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K16" s="15">
-        <v>-29.629629629629</v>
+        <v>-26.785714285714</v>
       </c>
       <c r="L16" s="15">
-        <v>-26.923076923076</v>
+        <v>-28.070175438596</v>
       </c>
       <c r="M16" s="13" t="s">
         <v>21</v>
@@ -996,34 +996,34 @@
         <v>24</v>
       </c>
       <c r="C17" s="14">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D17" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E17" s="15">
-        <v>500</v>
+        <v>-33.333333333333</v>
       </c>
       <c r="F17" s="14">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G17" s="14">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H17" s="15">
-        <v>46.153846153846</v>
+        <v>133.333333333333</v>
       </c>
       <c r="I17" s="14">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="J17" s="14">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="K17" s="15">
-        <v>11.347517730496</v>
+        <v>16.551724137931</v>
       </c>
       <c r="L17" s="15">
-        <v>4.666666666666</v>
+        <v>4.320987654320</v>
       </c>
       <c r="M17" s="13" t="s">
         <v>21</v>
@@ -1036,35 +1036,35 @@
       <c r="A18" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="13" t="s">
-        <v>20</v>
+      <c r="C18" s="14">
+        <v>2</v>
       </c>
       <c r="D18" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E18" s="15">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F18" s="14">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G18" s="14">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H18" s="15">
-        <v>0</v>
+        <v>-16.666666666666</v>
       </c>
       <c r="I18" s="14">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J18" s="14">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K18" s="15">
-        <v>-40.816326530612</v>
+        <v>-36.538461538461</v>
       </c>
       <c r="L18" s="15">
-        <v>-39.583333333333</v>
+        <v>-32.653061224489</v>
       </c>
       <c r="M18" s="13" t="s">
         <v>21</v>
@@ -1078,34 +1078,34 @@
         <v>26</v>
       </c>
       <c r="C19" s="14">
+        <v>1</v>
+      </c>
+      <c r="D19" s="14">
         <v>4</v>
       </c>
-      <c r="D19" s="14">
-        <v>9</v>
-      </c>
       <c r="E19" s="15">
-        <v>-55.555555555555</v>
+        <v>-75</v>
       </c>
       <c r="F19" s="14">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G19" s="14">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H19" s="15">
-        <v>-62.068965517241</v>
+        <v>-48</v>
       </c>
       <c r="I19" s="14">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="J19" s="14">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="K19" s="15">
-        <v>-20.359281437125</v>
+        <v>-21.022727272727</v>
       </c>
       <c r="L19" s="15">
-        <v>-27.717391304347</v>
+        <v>-31.527093596059</v>
       </c>
       <c r="M19" s="13" t="s">
         <v>21</v>
@@ -1119,34 +1119,34 @@
         <v>27</v>
       </c>
       <c r="C20" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" s="14">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E20" s="15">
-        <v>50</v>
+        <v>-80</v>
       </c>
       <c r="F20" s="14">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G20" s="14">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H20" s="15">
-        <v>-30.769230769230</v>
+        <v>-57.894736842105</v>
       </c>
       <c r="I20" s="14">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="J20" s="14">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="K20" s="15">
-        <v>3.846153846153</v>
+        <v>-4.310344827586</v>
       </c>
       <c r="L20" s="15">
-        <v>-2.702702702702</v>
+        <v>-9.016393442622</v>
       </c>
       <c r="M20" s="13" t="s">
         <v>21</v>
@@ -1160,34 +1160,34 @@
         <v>28</v>
       </c>
       <c r="C21" s="17">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D21" s="17">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E21" s="18">
-        <v>0</v>
+        <v>-63.636363636363</v>
       </c>
       <c r="F21" s="17">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G21" s="17">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H21" s="18">
-        <v>-23.880597014925</v>
+        <v>-20.588235294117</v>
       </c>
       <c r="I21" s="17">
-        <v>487</v>
+        <v>515</v>
       </c>
       <c r="J21" s="17">
-        <v>523</v>
+        <v>555</v>
       </c>
       <c r="K21" s="18">
-        <v>-6.883365200764</v>
+        <v>-7.207207207207</v>
       </c>
       <c r="L21" s="18">
-        <v>-11.934900542495</v>
+        <v>-14.309484193011</v>
       </c>
       <c r="M21" s="19" t="s">
         <v>21</v>
@@ -1283,34 +1283,34 @@
         <v>31</v>
       </c>
       <c r="C24" s="14">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="D24" s="14">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E24" s="15">
-        <v>88.888888888888</v>
+        <v>207.142857142857</v>
       </c>
       <c r="F24" s="14">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="G24" s="14">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H24" s="15">
-        <v>73.170731707317</v>
+        <v>110</v>
       </c>
       <c r="I24" s="14">
-        <v>328</v>
+        <v>383</v>
       </c>
       <c r="J24" s="14">
-        <v>355</v>
+        <v>376</v>
       </c>
       <c r="K24" s="15">
-        <v>-7.605633802816</v>
+        <v>1.861702127659</v>
       </c>
       <c r="L24" s="15">
-        <v>-7.082152974504</v>
+        <v>3.234501347708</v>
       </c>
       <c r="M24" s="13" t="s">
         <v>21</v>
@@ -1324,34 +1324,34 @@
         <v>32</v>
       </c>
       <c r="C25" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D25" s="14">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E25" s="15">
-        <v>-50</v>
+        <v>-83.333333333333</v>
       </c>
       <c r="F25" s="14">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G25" s="14">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H25" s="15">
-        <v>-66.666666666666</v>
+        <v>-46.666666666666</v>
       </c>
       <c r="I25" s="14">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="J25" s="14">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="K25" s="15">
-        <v>-37</v>
+        <v>-35.849056603773</v>
       </c>
       <c r="L25" s="15">
-        <v>-16</v>
+        <v>-18.072289156626</v>
       </c>
       <c r="M25" s="13" t="s">
         <v>21</v>
@@ -1365,34 +1365,34 @@
         <v>33</v>
       </c>
       <c r="C26" s="14">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D26" s="14">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E26" s="15">
-        <v>366.666666666667</v>
+        <v>11.111111111111</v>
       </c>
       <c r="F26" s="14">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="G26" s="14">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H26" s="15">
-        <v>45.945945945945</v>
+        <v>24.242424242424</v>
       </c>
       <c r="I26" s="14">
-        <v>290</v>
+        <v>309</v>
       </c>
       <c r="J26" s="14">
-        <v>276</v>
+        <v>296</v>
       </c>
       <c r="K26" s="15">
-        <v>5.072463768115</v>
+        <v>4.391891891891</v>
       </c>
       <c r="L26" s="15">
-        <v>28.318584070796</v>
+        <v>28.75</v>
       </c>
       <c r="M26" s="13" t="s">
         <v>21</v>
@@ -1405,32 +1405,32 @@
       <c r="A27" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="14">
+      <c r="C27" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="14">
         <v>1</v>
       </c>
-      <c r="D27" s="14">
-        <v>2</v>
-      </c>
       <c r="E27" s="15">
-        <v>-50</v>
+        <v>-100</v>
       </c>
       <c r="F27" s="14">
         <v>2</v>
       </c>
       <c r="G27" s="14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H27" s="15">
-        <v>-50</v>
+        <v>-60</v>
       </c>
       <c r="I27" s="14">
         <v>27</v>
       </c>
       <c r="J27" s="14">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K27" s="15">
-        <v>107.692307692308</v>
+        <v>80</v>
       </c>
       <c r="L27" s="15">
         <v>107.692307692308</v>
@@ -1450,28 +1450,28 @@
         <v>20</v>
       </c>
       <c r="D28" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E28" s="15">
         <v>-100</v>
       </c>
-      <c r="F28" s="14">
-        <v>3</v>
+      <c r="F28" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="G28" s="14">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H28" s="15">
-        <v>50</v>
+        <v>-100</v>
       </c>
       <c r="I28" s="14">
         <v>12</v>
       </c>
       <c r="J28" s="14">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K28" s="15">
-        <v>9.090909090909</v>
+        <v>-14.285714285714</v>
       </c>
       <c r="L28" s="15">
         <v>-40</v>
@@ -1499,11 +1499,11 @@
       <c r="F29" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G29" s="14">
-        <v>2</v>
-      </c>
-      <c r="H29" s="15">
-        <v>-100</v>
+      <c r="G29" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H29" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="I29" s="14">
         <v>1</v>
@@ -1540,11 +1540,11 @@
       <c r="F30" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G30" s="14">
-        <v>2</v>
-      </c>
-      <c r="H30" s="15">
-        <v>-100</v>
+      <c r="G30" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H30" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="I30" s="14">
         <v>1</v>
@@ -1637,8 +1637,8 @@
       <c r="E33" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F33" s="13" t="s">
-        <v>20</v>
+      <c r="F33" s="14">
+        <v>1</v>
       </c>
       <c r="G33" s="13" t="s">
         <v>20</v>
@@ -1647,7 +1647,7 @@
         <v>21</v>
       </c>
       <c r="I33" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J33" s="13" t="s">
         <v>20</v>

--- a/data/source/weekly/cs-en-us-116pct.xlsx
+++ b/data/source/weekly/cs-en-us-116pct.xlsx
@@ -69,7 +69,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">34</t>
+      <t xml:space="preserve">35</t>
     </r>
   </si>
   <si>
@@ -95,7 +95,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">8/18/2025</t>
+      <t xml:space="preserve">8/25/2025</t>
     </r>
     <r>
       <rPr>
@@ -113,7 +113,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">8/24/2025</t>
+      <t xml:space="preserve">8/31/2025</t>
     </r>
   </si>
   <si>
@@ -916,20 +916,20 @@
       <c r="C15" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="14">
         <v>1</v>
-      </c>
-      <c r="E15" s="15">
-        <v>-100</v>
-      </c>
-      <c r="F15" s="14">
-        <v>2</v>
       </c>
       <c r="G15" s="14">
         <v>3</v>
       </c>
       <c r="H15" s="15">
-        <v>-33.333333333333</v>
+        <v>-66.666666666666</v>
       </c>
       <c r="I15" s="14">
         <v>22</v>
@@ -941,7 +941,7 @@
         <v>175</v>
       </c>
       <c r="L15" s="15">
-        <v>266.666666666667</v>
+        <v>214.285714285714</v>
       </c>
       <c r="M15" s="13" t="s">
         <v>21</v>
@@ -958,31 +958,31 @@
         <v>1</v>
       </c>
       <c r="D16" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E16" s="15">
-        <v>-50</v>
+        <v>-66.666666666666</v>
       </c>
       <c r="F16" s="14">
         <v>5</v>
       </c>
       <c r="G16" s="14">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H16" s="15">
-        <v>-16.666666666666</v>
+        <v>-28.571428571428</v>
       </c>
       <c r="I16" s="14">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J16" s="14">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K16" s="15">
-        <v>-26.785714285714</v>
+        <v>-28.813559322033</v>
       </c>
       <c r="L16" s="15">
-        <v>-28.070175438596</v>
+        <v>-30</v>
       </c>
       <c r="M16" s="13" t="s">
         <v>21</v>
@@ -996,34 +996,34 @@
         <v>24</v>
       </c>
       <c r="C17" s="14">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D17" s="14">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E17" s="15">
-        <v>-33.333333333333</v>
+        <v>0</v>
       </c>
       <c r="F17" s="14">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G17" s="14">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H17" s="15">
-        <v>133.333333333333</v>
+        <v>120</v>
       </c>
       <c r="I17" s="14">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="J17" s="14">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="K17" s="15">
-        <v>16.551724137931</v>
+        <v>16</v>
       </c>
       <c r="L17" s="15">
-        <v>4.320987654320</v>
+        <v>4.819277108433</v>
       </c>
       <c r="M17" s="13" t="s">
         <v>21</v>
@@ -1036,35 +1036,35 @@
       <c r="A18" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="14">
-        <v>2</v>
-      </c>
-      <c r="D18" s="14">
-        <v>2</v>
-      </c>
-      <c r="E18" s="15">
+      <c r="C18" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="14">
+        <v>4</v>
+      </c>
+      <c r="G18" s="14">
+        <v>4</v>
+      </c>
+      <c r="H18" s="15">
         <v>0</v>
       </c>
-      <c r="F18" s="14">
-        <v>5</v>
-      </c>
-      <c r="G18" s="14">
-        <v>6</v>
-      </c>
-      <c r="H18" s="15">
-        <v>-16.666666666666</v>
-      </c>
       <c r="I18" s="14">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J18" s="14">
         <v>52</v>
       </c>
       <c r="K18" s="15">
-        <v>-36.538461538461</v>
+        <v>-34.615384615384</v>
       </c>
       <c r="L18" s="15">
-        <v>-32.653061224489</v>
+        <v>-34.615384615384</v>
       </c>
       <c r="M18" s="13" t="s">
         <v>21</v>
@@ -1078,34 +1078,34 @@
         <v>26</v>
       </c>
       <c r="C19" s="14">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D19" s="14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E19" s="15">
-        <v>-75</v>
+        <v>20</v>
       </c>
       <c r="F19" s="14">
         <v>13</v>
       </c>
       <c r="G19" s="14">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H19" s="15">
-        <v>-48</v>
+        <v>-43.478260869565</v>
       </c>
       <c r="I19" s="14">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="J19" s="14">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="K19" s="15">
-        <v>-21.022727272727</v>
+        <v>-19.889502762430</v>
       </c>
       <c r="L19" s="15">
-        <v>-31.527093596059</v>
+        <v>-29.951690821256</v>
       </c>
       <c r="M19" s="13" t="s">
         <v>21</v>
@@ -1122,31 +1122,31 @@
         <v>2</v>
       </c>
       <c r="D20" s="14">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E20" s="15">
-        <v>-80</v>
+        <v>0</v>
       </c>
       <c r="F20" s="14">
         <v>8</v>
       </c>
       <c r="G20" s="14">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H20" s="15">
-        <v>-57.894736842105</v>
+        <v>-50</v>
       </c>
       <c r="I20" s="14">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="J20" s="14">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K20" s="15">
-        <v>-4.310344827586</v>
+        <v>-4.237288135593</v>
       </c>
       <c r="L20" s="15">
-        <v>-9.016393442622</v>
+        <v>-15.671641791044</v>
       </c>
       <c r="M20" s="13" t="s">
         <v>21</v>
@@ -1160,34 +1160,34 @@
         <v>28</v>
       </c>
       <c r="C21" s="17">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D21" s="17">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E21" s="18">
-        <v>-63.636363636363</v>
+        <v>-6.666666666666</v>
       </c>
       <c r="F21" s="17">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G21" s="17">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="H21" s="18">
-        <v>-20.588235294117</v>
+        <v>-15.873015873015</v>
       </c>
       <c r="I21" s="17">
-        <v>515</v>
+        <v>530</v>
       </c>
       <c r="J21" s="17">
-        <v>555</v>
+        <v>570</v>
       </c>
       <c r="K21" s="18">
-        <v>-7.207207207207</v>
+        <v>-7.017543859649</v>
       </c>
       <c r="L21" s="18">
-        <v>-14.309484193011</v>
+        <v>-15.605095541401</v>
       </c>
       <c r="M21" s="19" t="s">
         <v>21</v>
@@ -1283,34 +1283,34 @@
         <v>31</v>
       </c>
       <c r="C24" s="14">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="D24" s="14">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E24" s="15">
-        <v>207.142857142857</v>
+        <v>400</v>
       </c>
       <c r="F24" s="14">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="G24" s="14">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H24" s="15">
-        <v>110</v>
+        <v>179.411764705882</v>
       </c>
       <c r="I24" s="14">
-        <v>383</v>
+        <v>403</v>
       </c>
       <c r="J24" s="14">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="K24" s="15">
-        <v>1.861702127659</v>
+        <v>6.052631578947</v>
       </c>
       <c r="L24" s="15">
-        <v>3.234501347708</v>
+        <v>-0.738916256157</v>
       </c>
       <c r="M24" s="13" t="s">
         <v>21</v>
@@ -1324,34 +1324,34 @@
         <v>32</v>
       </c>
       <c r="C25" s="14">
+        <v>3</v>
+      </c>
+      <c r="D25" s="14">
         <v>1</v>
       </c>
-      <c r="D25" s="14">
-        <v>6</v>
-      </c>
       <c r="E25" s="15">
-        <v>-83.333333333333</v>
+        <v>200</v>
       </c>
       <c r="F25" s="14">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G25" s="14">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H25" s="15">
-        <v>-46.666666666666</v>
+        <v>-9.090909090909</v>
       </c>
       <c r="I25" s="14">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J25" s="14">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K25" s="15">
-        <v>-35.849056603773</v>
+        <v>-33.644859813084</v>
       </c>
       <c r="L25" s="15">
-        <v>-18.072289156626</v>
+        <v>-35.454545454545</v>
       </c>
       <c r="M25" s="13" t="s">
         <v>21</v>
@@ -1365,34 +1365,34 @@
         <v>33</v>
       </c>
       <c r="C26" s="14">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D26" s="14">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E26" s="15">
-        <v>11.111111111111</v>
+        <v>9.090909090909</v>
       </c>
       <c r="F26" s="14">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G26" s="14">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H26" s="15">
-        <v>24.242424242424</v>
+        <v>29.411764705882</v>
       </c>
       <c r="I26" s="14">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="J26" s="14">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="K26" s="15">
-        <v>4.391891891891</v>
+        <v>4.560260586319</v>
       </c>
       <c r="L26" s="15">
-        <v>28.75</v>
+        <v>32.098765432098</v>
       </c>
       <c r="M26" s="13" t="s">
         <v>21</v>
@@ -1415,25 +1415,25 @@
         <v>-100</v>
       </c>
       <c r="F27" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G27" s="14">
         <v>5</v>
       </c>
       <c r="H27" s="15">
-        <v>-60</v>
+        <v>-80</v>
       </c>
       <c r="I27" s="14">
         <v>27</v>
       </c>
       <c r="J27" s="14">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K27" s="15">
-        <v>80</v>
+        <v>68.75</v>
       </c>
       <c r="L27" s="15">
-        <v>107.692307692308</v>
+        <v>92.857142857142</v>
       </c>
       <c r="M27" s="13" t="s">
         <v>21</v>
@@ -1450,7 +1450,7 @@
         <v>20</v>
       </c>
       <c r="D28" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E28" s="15">
         <v>-100</v>
@@ -1459,7 +1459,7 @@
         <v>20</v>
       </c>
       <c r="G28" s="14">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H28" s="15">
         <v>-100</v>
@@ -1468,10 +1468,10 @@
         <v>12</v>
       </c>
       <c r="J28" s="14">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K28" s="15">
-        <v>-14.285714285714</v>
+        <v>-25</v>
       </c>
       <c r="L28" s="15">
         <v>-40</v>

--- a/data/source/weekly/cs-en-us-116pct.xlsx
+++ b/data/source/weekly/cs-en-us-116pct.xlsx
@@ -69,7 +69,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">35</t>
+      <t xml:space="preserve">36</t>
     </r>
   </si>
   <si>
@@ -95,7 +95,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">8/25/2025</t>
+      <t xml:space="preserve">9/1/2025</t>
     </r>
     <r>
       <rPr>
@@ -113,7 +113,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">8/31/2025</t>
+      <t xml:space="preserve">9/7/2025</t>
     </r>
   </si>
   <si>
@@ -922,14 +922,14 @@
       <c r="E15" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F15" s="14">
-        <v>1</v>
+      <c r="F15" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="G15" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H15" s="15">
-        <v>-66.666666666666</v>
+        <v>-100</v>
       </c>
       <c r="I15" s="14">
         <v>22</v>
@@ -941,7 +941,7 @@
         <v>175</v>
       </c>
       <c r="L15" s="15">
-        <v>214.285714285714</v>
+        <v>175</v>
       </c>
       <c r="M15" s="13" t="s">
         <v>21</v>
@@ -954,35 +954,35 @@
       <c r="A16" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="14">
-        <v>1</v>
+      <c r="C16" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="D16" s="14">
         <v>3</v>
       </c>
       <c r="E16" s="15">
-        <v>-66.666666666666</v>
+        <v>-100</v>
       </c>
       <c r="F16" s="14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G16" s="14">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H16" s="15">
-        <v>-28.571428571428</v>
+        <v>-62.5</v>
       </c>
       <c r="I16" s="14">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J16" s="14">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="K16" s="15">
-        <v>-28.813559322033</v>
+        <v>-30.645161290322</v>
       </c>
       <c r="L16" s="15">
-        <v>-30</v>
+        <v>-28.333333333333</v>
       </c>
       <c r="M16" s="13" t="s">
         <v>21</v>
@@ -996,34 +996,34 @@
         <v>24</v>
       </c>
       <c r="C17" s="14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D17" s="14">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E17" s="15">
-        <v>0</v>
+        <v>-14.285714285714</v>
       </c>
       <c r="F17" s="14">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G17" s="14">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H17" s="15">
-        <v>120</v>
+        <v>31.25</v>
       </c>
       <c r="I17" s="14">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="J17" s="14">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="K17" s="15">
-        <v>16</v>
+        <v>16.560509554140</v>
       </c>
       <c r="L17" s="15">
-        <v>4.819277108433</v>
+        <v>7.647058823529</v>
       </c>
       <c r="M17" s="13" t="s">
         <v>21</v>
@@ -1036,8 +1036,8 @@
       <c r="A18" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="13" t="s">
-        <v>20</v>
+      <c r="C18" s="14">
+        <v>1</v>
       </c>
       <c r="D18" s="13" t="s">
         <v>20</v>
@@ -1046,25 +1046,25 @@
         <v>21</v>
       </c>
       <c r="F18" s="14">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G18" s="14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H18" s="15">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I18" s="14">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="J18" s="14">
         <v>52</v>
       </c>
       <c r="K18" s="15">
-        <v>-34.615384615384</v>
+        <v>-28.846153846153</v>
       </c>
       <c r="L18" s="15">
-        <v>-34.615384615384</v>
+        <v>-31.481481481481</v>
       </c>
       <c r="M18" s="13" t="s">
         <v>21</v>
@@ -1081,31 +1081,31 @@
         <v>6</v>
       </c>
       <c r="D19" s="14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E19" s="15">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F19" s="14">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G19" s="14">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H19" s="15">
-        <v>-43.478260869565</v>
+        <v>-25</v>
       </c>
       <c r="I19" s="14">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="J19" s="14">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="K19" s="15">
-        <v>-19.889502762430</v>
+        <v>-19.251336898395</v>
       </c>
       <c r="L19" s="15">
-        <v>-29.951690821256</v>
+        <v>-30.092592592592</v>
       </c>
       <c r="M19" s="13" t="s">
         <v>21</v>
@@ -1119,34 +1119,34 @@
         <v>27</v>
       </c>
       <c r="C20" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20" s="14">
         <v>2</v>
       </c>
       <c r="E20" s="15">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="F20" s="14">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G20" s="14">
         <v>16</v>
       </c>
       <c r="H20" s="15">
-        <v>-50</v>
+        <v>-62.5</v>
       </c>
       <c r="I20" s="14">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J20" s="14">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K20" s="15">
-        <v>-4.237288135593</v>
+        <v>-3.333333333333</v>
       </c>
       <c r="L20" s="15">
-        <v>-15.671641791044</v>
+        <v>-17.142857142857</v>
       </c>
       <c r="M20" s="13" t="s">
         <v>21</v>
@@ -1163,31 +1163,31 @@
         <v>14</v>
       </c>
       <c r="D21" s="17">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E21" s="18">
-        <v>-6.666666666666</v>
+        <v>-22.222222222222</v>
       </c>
       <c r="F21" s="17">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G21" s="17">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H21" s="18">
-        <v>-15.873015873015</v>
+        <v>-21.538461538461</v>
       </c>
       <c r="I21" s="17">
-        <v>530</v>
+        <v>552</v>
       </c>
       <c r="J21" s="17">
-        <v>570</v>
+        <v>588</v>
       </c>
       <c r="K21" s="18">
-        <v>-7.017543859649</v>
+        <v>-6.122448979591</v>
       </c>
       <c r="L21" s="18">
-        <v>-15.605095541401</v>
+        <v>-15.076923076923</v>
       </c>
       <c r="M21" s="19" t="s">
         <v>21</v>
@@ -1283,34 +1283,34 @@
         <v>31</v>
       </c>
       <c r="C24" s="14">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D24" s="14">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E24" s="15">
-        <v>400</v>
+        <v>-14.285714285714</v>
       </c>
       <c r="F24" s="14">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="G24" s="14">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H24" s="15">
-        <v>179.411764705882</v>
+        <v>159.375</v>
       </c>
       <c r="I24" s="14">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="J24" s="14">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="K24" s="15">
-        <v>6.052631578947</v>
+        <v>5.167958656330</v>
       </c>
       <c r="L24" s="15">
-        <v>-0.738916256157</v>
+        <v>-3.095238095238</v>
       </c>
       <c r="M24" s="13" t="s">
         <v>21</v>
@@ -1324,34 +1324,34 @@
         <v>32</v>
       </c>
       <c r="C25" s="14">
+        <v>1</v>
+      </c>
+      <c r="D25" s="14">
         <v>3</v>
       </c>
-      <c r="D25" s="14">
-        <v>1</v>
-      </c>
       <c r="E25" s="15">
-        <v>200</v>
+        <v>-66.666666666666</v>
       </c>
       <c r="F25" s="14">
+        <v>9</v>
+      </c>
+      <c r="G25" s="14">
         <v>10</v>
       </c>
-      <c r="G25" s="14">
-        <v>11</v>
-      </c>
       <c r="H25" s="15">
-        <v>-9.090909090909</v>
+        <v>-10</v>
       </c>
       <c r="I25" s="14">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J25" s="14">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="K25" s="15">
-        <v>-33.644859813084</v>
+        <v>-34.545454545454</v>
       </c>
       <c r="L25" s="15">
-        <v>-35.454545454545</v>
+        <v>-36.283185840708</v>
       </c>
       <c r="M25" s="13" t="s">
         <v>21</v>
@@ -1365,34 +1365,34 @@
         <v>33</v>
       </c>
       <c r="C26" s="14">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D26" s="14">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E26" s="15">
-        <v>9.090909090909</v>
+        <v>100</v>
       </c>
       <c r="F26" s="14">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G26" s="14">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H26" s="15">
-        <v>29.411764705882</v>
+        <v>13.888888888888</v>
       </c>
       <c r="I26" s="14">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="J26" s="14">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="K26" s="15">
-        <v>4.560260586319</v>
+        <v>5.448717948717</v>
       </c>
       <c r="L26" s="15">
-        <v>32.098765432098</v>
+        <v>31.075697211155</v>
       </c>
       <c r="M26" s="13" t="s">
         <v>21</v>
@@ -1408,20 +1408,20 @@
       <c r="C27" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D27" s="14">
-        <v>1</v>
-      </c>
-      <c r="E27" s="15">
+      <c r="D27" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G27" s="14">
+        <v>3</v>
+      </c>
+      <c r="H27" s="15">
         <v>-100</v>
-      </c>
-      <c r="F27" s="14">
-        <v>1</v>
-      </c>
-      <c r="G27" s="14">
-        <v>5</v>
-      </c>
-      <c r="H27" s="15">
-        <v>-80</v>
       </c>
       <c r="I27" s="14">
         <v>27</v>
@@ -1433,7 +1433,7 @@
         <v>68.75</v>
       </c>
       <c r="L27" s="15">
-        <v>92.857142857142</v>
+        <v>80</v>
       </c>
       <c r="M27" s="13" t="s">
         <v>21</v>
@@ -1449,17 +1449,17 @@
       <c r="C28" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="14">
-        <v>2</v>
-      </c>
-      <c r="E28" s="15">
-        <v>-100</v>
+      <c r="D28" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="F28" s="13" t="s">
         <v>20</v>
       </c>
       <c r="G28" s="14">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H28" s="15">
         <v>-100</v>
@@ -1487,8 +1487,8 @@
       <c r="A29" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="13" t="s">
-        <v>20</v>
+      <c r="C29" s="14">
+        <v>1</v>
       </c>
       <c r="D29" s="13" t="s">
         <v>20</v>
@@ -1496,8 +1496,8 @@
       <c r="E29" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F29" s="13" t="s">
-        <v>20</v>
+      <c r="F29" s="14">
+        <v>1</v>
       </c>
       <c r="G29" s="13" t="s">
         <v>20</v>
@@ -1506,16 +1506,16 @@
         <v>21</v>
       </c>
       <c r="I29" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J29" s="14">
         <v>8</v>
       </c>
       <c r="K29" s="15">
-        <v>-87.5</v>
+        <v>-75</v>
       </c>
       <c r="L29" s="15">
-        <v>-75</v>
+        <v>-50</v>
       </c>
       <c r="M29" s="13" t="s">
         <v>21</v>
@@ -1528,8 +1528,8 @@
       <c r="A30" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="13" t="s">
-        <v>20</v>
+      <c r="C30" s="14">
+        <v>1</v>
       </c>
       <c r="D30" s="13" t="s">
         <v>20</v>
@@ -1537,8 +1537,8 @@
       <c r="E30" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F30" s="13" t="s">
-        <v>20</v>
+      <c r="F30" s="14">
+        <v>1</v>
       </c>
       <c r="G30" s="13" t="s">
         <v>20</v>
@@ -1547,16 +1547,16 @@
         <v>21</v>
       </c>
       <c r="I30" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J30" s="14">
         <v>6</v>
       </c>
       <c r="K30" s="15">
-        <v>-83.333333333333</v>
+        <v>-66.666666666666</v>
       </c>
       <c r="L30" s="15">
-        <v>-66.666666666666</v>
+        <v>-33.333333333333</v>
       </c>
       <c r="M30" s="13" t="s">
         <v>21</v>

--- a/data/source/weekly/cs-en-us-116pct.xlsx
+++ b/data/source/weekly/cs-en-us-116pct.xlsx
@@ -69,7 +69,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">36</t>
+      <t xml:space="preserve">37</t>
     </r>
   </si>
   <si>
@@ -95,7 +95,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">9/1/2025</t>
+      <t xml:space="preserve">9/8/2025</t>
     </r>
     <r>
       <rPr>
@@ -113,7 +113,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">9/7/2025</t>
+      <t xml:space="preserve">9/14/2025</t>
     </r>
   </si>
   <si>
@@ -875,26 +875,26 @@
       <c r="C14" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>21</v>
+      <c r="D14" s="14">
+        <v>1</v>
+      </c>
+      <c r="E14" s="15">
+        <v>-100</v>
       </c>
       <c r="F14" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>21</v>
+      <c r="G14" s="14">
+        <v>1</v>
+      </c>
+      <c r="H14" s="15">
+        <v>-100</v>
       </c>
       <c r="I14" s="13" t="s">
         <v>20</v>
       </c>
       <c r="J14" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K14" s="15">
         <v>-100</v>
@@ -913,35 +913,35 @@
       <c r="A15" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>20</v>
+      <c r="C15" s="14">
+        <v>1</v>
+      </c>
+      <c r="D15" s="14">
+        <v>1</v>
+      </c>
+      <c r="E15" s="15">
+        <v>0</v>
+      </c>
+      <c r="F15" s="14">
+        <v>1</v>
       </c>
       <c r="G15" s="14">
         <v>2</v>
       </c>
       <c r="H15" s="15">
-        <v>-100</v>
+        <v>-50</v>
       </c>
       <c r="I15" s="14">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J15" s="14">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K15" s="15">
-        <v>175</v>
+        <v>155.555555555556</v>
       </c>
       <c r="L15" s="15">
-        <v>175</v>
+        <v>155.555555555556</v>
       </c>
       <c r="M15" s="13" t="s">
         <v>21</v>
@@ -958,31 +958,31 @@
         <v>20</v>
       </c>
       <c r="D16" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E16" s="15">
         <v>-100</v>
       </c>
       <c r="F16" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G16" s="14">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H16" s="15">
-        <v>-62.5</v>
+        <v>-77.777777777777</v>
       </c>
       <c r="I16" s="14">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J16" s="14">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K16" s="15">
-        <v>-30.645161290322</v>
+        <v>-30.158730158730</v>
       </c>
       <c r="L16" s="15">
-        <v>-28.333333333333</v>
+        <v>-27.868852459016</v>
       </c>
       <c r="M16" s="13" t="s">
         <v>21</v>
@@ -996,34 +996,34 @@
         <v>24</v>
       </c>
       <c r="C17" s="14">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D17" s="14">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E17" s="15">
-        <v>-14.285714285714</v>
+        <v>-60</v>
       </c>
       <c r="F17" s="14">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G17" s="14">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="H17" s="15">
-        <v>31.25</v>
+        <v>-32</v>
       </c>
       <c r="I17" s="14">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="J17" s="14">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="K17" s="15">
-        <v>16.560509554140</v>
+        <v>11.976047904191</v>
       </c>
       <c r="L17" s="15">
-        <v>7.647058823529</v>
+        <v>6.857142857142</v>
       </c>
       <c r="M17" s="13" t="s">
         <v>21</v>
@@ -1037,13 +1037,13 @@
         <v>25</v>
       </c>
       <c r="C18" s="14">
+        <v>2</v>
+      </c>
+      <c r="D18" s="14">
         <v>1</v>
       </c>
-      <c r="D18" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>21</v>
+      <c r="E18" s="15">
+        <v>100</v>
       </c>
       <c r="F18" s="14">
         <v>6</v>
@@ -1055,16 +1055,16 @@
         <v>100</v>
       </c>
       <c r="I18" s="14">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="J18" s="14">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K18" s="15">
-        <v>-28.846153846153</v>
+        <v>-24.528301886792</v>
       </c>
       <c r="L18" s="15">
-        <v>-31.481481481481</v>
+        <v>-27.272727272727</v>
       </c>
       <c r="M18" s="13" t="s">
         <v>21</v>
@@ -1078,10 +1078,10 @@
         <v>26</v>
       </c>
       <c r="C19" s="14">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D19" s="14">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E19" s="15">
         <v>0</v>
@@ -1090,22 +1090,22 @@
         <v>15</v>
       </c>
       <c r="G19" s="14">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H19" s="15">
-        <v>-25</v>
+        <v>-11.764705882352</v>
       </c>
       <c r="I19" s="14">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="J19" s="14">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="K19" s="15">
-        <v>-19.251336898395</v>
+        <v>-18.518518518518</v>
       </c>
       <c r="L19" s="15">
-        <v>-30.092592592592</v>
+        <v>-30.316742081448</v>
       </c>
       <c r="M19" s="13" t="s">
         <v>21</v>
@@ -1122,31 +1122,31 @@
         <v>1</v>
       </c>
       <c r="D20" s="14">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E20" s="15">
-        <v>-50</v>
+        <v>-80</v>
       </c>
       <c r="F20" s="14">
         <v>6</v>
       </c>
       <c r="G20" s="14">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H20" s="15">
-        <v>-62.5</v>
+        <v>-68.421052631578</v>
       </c>
       <c r="I20" s="14">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J20" s="14">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="K20" s="15">
-        <v>-3.333333333333</v>
+        <v>-5.6</v>
       </c>
       <c r="L20" s="15">
-        <v>-17.142857142857</v>
+        <v>-19.178082191780</v>
       </c>
       <c r="M20" s="13" t="s">
         <v>21</v>
@@ -1160,34 +1160,34 @@
         <v>28</v>
       </c>
       <c r="C21" s="17">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D21" s="17">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E21" s="18">
-        <v>-22.222222222222</v>
+        <v>-52.380952380952</v>
       </c>
       <c r="F21" s="17">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G21" s="17">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="H21" s="18">
-        <v>-21.538461538461</v>
+        <v>-38.157894736842</v>
       </c>
       <c r="I21" s="17">
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="J21" s="17">
-        <v>588</v>
+        <v>609</v>
       </c>
       <c r="K21" s="18">
-        <v>-6.122448979591</v>
+        <v>-7.060755336617</v>
       </c>
       <c r="L21" s="18">
-        <v>-15.076923076923</v>
+        <v>-15.396113602391</v>
       </c>
       <c r="M21" s="19" t="s">
         <v>21</v>
@@ -1283,34 +1283,34 @@
         <v>31</v>
       </c>
       <c r="C24" s="14">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D24" s="14">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E24" s="15">
-        <v>-14.285714285714</v>
+        <v>0</v>
       </c>
       <c r="F24" s="14">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G24" s="14">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H24" s="15">
-        <v>159.375</v>
+        <v>113.157894736842</v>
       </c>
       <c r="I24" s="14">
-        <v>407</v>
+        <v>418</v>
       </c>
       <c r="J24" s="14">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c r="K24" s="15">
-        <v>5.167958656330</v>
+        <v>4.5</v>
       </c>
       <c r="L24" s="15">
-        <v>-3.095238095238</v>
+        <v>-3.240740740740</v>
       </c>
       <c r="M24" s="13" t="s">
         <v>21</v>
@@ -1327,31 +1327,31 @@
         <v>1</v>
       </c>
       <c r="D25" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E25" s="15">
-        <v>-66.666666666666</v>
+        <v>-50</v>
       </c>
       <c r="F25" s="14">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G25" s="14">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H25" s="15">
-        <v>-10</v>
+        <v>-50</v>
       </c>
       <c r="I25" s="14">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J25" s="14">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K25" s="15">
-        <v>-34.545454545454</v>
+        <v>-34.821428571428</v>
       </c>
       <c r="L25" s="15">
-        <v>-36.283185840708</v>
+        <v>-38.135593220339</v>
       </c>
       <c r="M25" s="13" t="s">
         <v>21</v>
@@ -1365,34 +1365,34 @@
         <v>33</v>
       </c>
       <c r="C26" s="14">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D26" s="14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E26" s="15">
-        <v>100</v>
+        <v>-16.666666666666</v>
       </c>
       <c r="F26" s="14">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G26" s="14">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H26" s="15">
-        <v>13.888888888888</v>
+        <v>19.354838709677</v>
       </c>
       <c r="I26" s="14">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="J26" s="14">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="K26" s="15">
-        <v>5.448717948717</v>
+        <v>4.716981132075</v>
       </c>
       <c r="L26" s="15">
-        <v>31.075697211155</v>
+        <v>30.588235294117</v>
       </c>
       <c r="M26" s="13" t="s">
         <v>21</v>
@@ -1405,35 +1405,35 @@
       <c r="A27" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F27" s="13" t="s">
-        <v>20</v>
+      <c r="C27" s="14">
+        <v>1</v>
+      </c>
+      <c r="D27" s="14">
+        <v>1</v>
+      </c>
+      <c r="E27" s="15">
+        <v>0</v>
+      </c>
+      <c r="F27" s="14">
+        <v>1</v>
       </c>
       <c r="G27" s="14">
         <v>3</v>
       </c>
       <c r="H27" s="15">
-        <v>-100</v>
+        <v>-66.666666666666</v>
       </c>
       <c r="I27" s="14">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J27" s="14">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K27" s="15">
-        <v>68.75</v>
+        <v>64.705882352941</v>
       </c>
       <c r="L27" s="15">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="M27" s="13" t="s">
         <v>21</v>
@@ -1487,32 +1487,32 @@
       <c r="A29" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="14">
-        <v>1</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>21</v>
+      <c r="C29" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="14">
+        <v>5</v>
+      </c>
+      <c r="E29" s="15">
+        <v>-100</v>
       </c>
       <c r="F29" s="14">
         <v>1</v>
       </c>
-      <c r="G29" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H29" s="13" t="s">
-        <v>21</v>
+      <c r="G29" s="14">
+        <v>5</v>
+      </c>
+      <c r="H29" s="15">
+        <v>-80</v>
       </c>
       <c r="I29" s="14">
         <v>2</v>
       </c>
       <c r="J29" s="14">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="K29" s="15">
-        <v>-75</v>
+        <v>-84.615384615384</v>
       </c>
       <c r="L29" s="15">
         <v>-50</v>
@@ -1528,32 +1528,32 @@
       <c r="A30" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="14">
-        <v>1</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E30" s="13" t="s">
-        <v>21</v>
+      <c r="C30" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="14">
+        <v>2</v>
+      </c>
+      <c r="E30" s="15">
+        <v>-100</v>
       </c>
       <c r="F30" s="14">
         <v>1</v>
       </c>
-      <c r="G30" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H30" s="13" t="s">
-        <v>21</v>
+      <c r="G30" s="14">
+        <v>2</v>
+      </c>
+      <c r="H30" s="15">
+        <v>-50</v>
       </c>
       <c r="I30" s="14">
         <v>2</v>
       </c>
       <c r="J30" s="14">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K30" s="15">
-        <v>-66.666666666666</v>
+        <v>-75</v>
       </c>
       <c r="L30" s="15">
         <v>-33.333333333333</v>
@@ -1637,8 +1637,8 @@
       <c r="E33" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F33" s="14">
-        <v>1</v>
+      <c r="F33" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="G33" s="13" t="s">
         <v>20</v>

--- a/data/source/weekly/cs-en-us-116pct.xlsx
+++ b/data/source/weekly/cs-en-us-116pct.xlsx
@@ -69,7 +69,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">37</t>
+      <t xml:space="preserve">38</t>
     </r>
   </si>
   <si>
@@ -95,7 +95,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">9/8/2025</t>
+      <t xml:space="preserve">9/15/2025</t>
     </r>
     <r>
       <rPr>
@@ -113,7 +113,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">9/14/2025</t>
+      <t xml:space="preserve">9/21/2025</t>
     </r>
   </si>
   <si>
@@ -875,11 +875,11 @@
       <c r="C14" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="14">
-        <v>1</v>
-      </c>
-      <c r="E14" s="15">
-        <v>-100</v>
+      <c r="D14" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="F14" s="13" t="s">
         <v>20</v>
@@ -913,23 +913,23 @@
       <c r="A15" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="14">
-        <v>1</v>
-      </c>
-      <c r="D15" s="14">
-        <v>1</v>
-      </c>
-      <c r="E15" s="15">
-        <v>0</v>
+      <c r="C15" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="F15" s="14">
         <v>1</v>
       </c>
       <c r="G15" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H15" s="15">
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="I15" s="14">
         <v>23</v>
@@ -954,35 +954,35 @@
       <c r="A16" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="14">
-        <v>1</v>
-      </c>
-      <c r="E16" s="15">
-        <v>-100</v>
+      <c r="C16" s="14">
+        <v>4</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="F16" s="14">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G16" s="14">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H16" s="15">
-        <v>-77.777777777777</v>
+        <v>-28.571428571428</v>
       </c>
       <c r="I16" s="14">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="J16" s="14">
         <v>63</v>
       </c>
       <c r="K16" s="15">
-        <v>-30.158730158730</v>
+        <v>-22.222222222222</v>
       </c>
       <c r="L16" s="15">
-        <v>-27.868852459016</v>
+        <v>-22.222222222222</v>
       </c>
       <c r="M16" s="13" t="s">
         <v>21</v>
@@ -996,34 +996,34 @@
         <v>24</v>
       </c>
       <c r="C17" s="14">
+        <v>1</v>
+      </c>
+      <c r="D17" s="14">
         <v>4</v>
       </c>
-      <c r="D17" s="14">
-        <v>10</v>
-      </c>
       <c r="E17" s="15">
-        <v>-60</v>
+        <v>-75</v>
       </c>
       <c r="F17" s="14">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G17" s="14">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H17" s="15">
-        <v>-32</v>
+        <v>-38.461538461538</v>
       </c>
       <c r="I17" s="14">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="J17" s="14">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="K17" s="15">
-        <v>11.976047904191</v>
+        <v>10.526315789473</v>
       </c>
       <c r="L17" s="15">
-        <v>6.857142857142</v>
+        <v>5</v>
       </c>
       <c r="M17" s="13" t="s">
         <v>21</v>
@@ -1039,32 +1039,32 @@
       <c r="C18" s="14">
         <v>2</v>
       </c>
-      <c r="D18" s="14">
-        <v>1</v>
-      </c>
-      <c r="E18" s="15">
-        <v>100</v>
+      <c r="D18" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="F18" s="14">
         <v>6</v>
       </c>
       <c r="G18" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H18" s="15">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="I18" s="14">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J18" s="14">
         <v>53</v>
       </c>
       <c r="K18" s="15">
-        <v>-24.528301886792</v>
+        <v>-20.754716981132</v>
       </c>
       <c r="L18" s="15">
-        <v>-27.272727272727</v>
+        <v>-25</v>
       </c>
       <c r="M18" s="13" t="s">
         <v>21</v>
@@ -1078,34 +1078,34 @@
         <v>26</v>
       </c>
       <c r="C19" s="14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D19" s="14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E19" s="15">
         <v>0</v>
       </c>
       <c r="F19" s="14">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G19" s="14">
         <v>17</v>
       </c>
       <c r="H19" s="15">
-        <v>-11.764705882352</v>
+        <v>5.882352941176</v>
       </c>
       <c r="I19" s="14">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="J19" s="14">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="K19" s="15">
-        <v>-18.518518518518</v>
+        <v>-18.134715025906</v>
       </c>
       <c r="L19" s="15">
-        <v>-30.316742081448</v>
+        <v>-31.004366812227</v>
       </c>
       <c r="M19" s="13" t="s">
         <v>21</v>
@@ -1119,34 +1119,34 @@
         <v>27</v>
       </c>
       <c r="C20" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D20" s="14">
         <v>5</v>
       </c>
       <c r="E20" s="15">
-        <v>-80</v>
+        <v>-40</v>
       </c>
       <c r="F20" s="14">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G20" s="14">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H20" s="15">
-        <v>-68.421052631578</v>
+        <v>-50</v>
       </c>
       <c r="I20" s="14">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="J20" s="14">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="K20" s="15">
-        <v>-5.6</v>
+        <v>-6.923076923076</v>
       </c>
       <c r="L20" s="15">
-        <v>-19.178082191780</v>
+        <v>-18.791946308724</v>
       </c>
       <c r="M20" s="13" t="s">
         <v>21</v>
@@ -1160,34 +1160,34 @@
         <v>28</v>
       </c>
       <c r="C21" s="17">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D21" s="17">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E21" s="18">
-        <v>-52.380952380952</v>
+        <v>7.692307692307</v>
       </c>
       <c r="F21" s="17">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G21" s="17">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="H21" s="18">
-        <v>-38.157894736842</v>
+        <v>-20.895522388059</v>
       </c>
       <c r="I21" s="17">
-        <v>566</v>
+        <v>582</v>
       </c>
       <c r="J21" s="17">
-        <v>609</v>
+        <v>622</v>
       </c>
       <c r="K21" s="18">
-        <v>-7.060755336617</v>
+        <v>-6.430868167202</v>
       </c>
       <c r="L21" s="18">
-        <v>-15.396113602391</v>
+        <v>-15.406976744186</v>
       </c>
       <c r="M21" s="19" t="s">
         <v>21</v>
@@ -1283,34 +1283,34 @@
         <v>31</v>
       </c>
       <c r="C24" s="14">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D24" s="14">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E24" s="15">
-        <v>0</v>
+        <v>-12.5</v>
       </c>
       <c r="F24" s="14">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="G24" s="14">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H24" s="15">
-        <v>113.157894736842</v>
+        <v>43.75</v>
       </c>
       <c r="I24" s="14">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="J24" s="14">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="K24" s="15">
-        <v>4.5</v>
+        <v>4.901960784313</v>
       </c>
       <c r="L24" s="15">
-        <v>-3.240740740740</v>
+        <v>-3.386004514672</v>
       </c>
       <c r="M24" s="13" t="s">
         <v>21</v>
@@ -1324,34 +1324,34 @@
         <v>32</v>
       </c>
       <c r="C25" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D25" s="14">
         <v>2</v>
       </c>
       <c r="E25" s="15">
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="F25" s="14">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G25" s="14">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H25" s="15">
-        <v>-50</v>
+        <v>-12.5</v>
       </c>
       <c r="I25" s="14">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J25" s="14">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K25" s="15">
-        <v>-34.821428571428</v>
+        <v>-34.210526315789</v>
       </c>
       <c r="L25" s="15">
-        <v>-38.135593220339</v>
+        <v>-38.524590163934</v>
       </c>
       <c r="M25" s="13" t="s">
         <v>21</v>
@@ -1365,34 +1365,34 @@
         <v>33</v>
       </c>
       <c r="C26" s="14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D26" s="14">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E26" s="15">
-        <v>-16.666666666666</v>
+        <v>-25</v>
       </c>
       <c r="F26" s="14">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G26" s="14">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H26" s="15">
-        <v>19.354838709677</v>
+        <v>10</v>
       </c>
       <c r="I26" s="14">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="J26" s="14">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="K26" s="15">
-        <v>4.716981132075</v>
+        <v>3.987730061349</v>
       </c>
       <c r="L26" s="15">
-        <v>30.588235294117</v>
+        <v>26.022304832713</v>
       </c>
       <c r="M26" s="13" t="s">
         <v>21</v>
@@ -1405,14 +1405,14 @@
       <c r="A27" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="14">
-        <v>1</v>
+      <c r="C27" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="D27" s="14">
         <v>1</v>
       </c>
       <c r="E27" s="15">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F27" s="14">
         <v>1</v>
@@ -1427,10 +1427,10 @@
         <v>28</v>
       </c>
       <c r="J27" s="14">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K27" s="15">
-        <v>64.705882352941</v>
+        <v>55.555555555555</v>
       </c>
       <c r="L27" s="15">
         <v>75</v>
@@ -1446,35 +1446,35 @@
       <c r="A28" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F28" s="13" t="s">
-        <v>20</v>
+      <c r="C28" s="14">
+        <v>1</v>
+      </c>
+      <c r="D28" s="14">
+        <v>2</v>
+      </c>
+      <c r="E28" s="15">
+        <v>-50</v>
+      </c>
+      <c r="F28" s="14">
+        <v>1</v>
       </c>
       <c r="G28" s="14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H28" s="15">
-        <v>-100</v>
+        <v>-75</v>
       </c>
       <c r="I28" s="14">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J28" s="14">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K28" s="15">
-        <v>-25</v>
+        <v>-27.777777777777</v>
       </c>
       <c r="L28" s="15">
-        <v>-40</v>
+        <v>-35</v>
       </c>
       <c r="M28" s="13" t="s">
         <v>21</v>
@@ -1490,11 +1490,11 @@
       <c r="C29" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="14">
-        <v>5</v>
-      </c>
-      <c r="E29" s="15">
-        <v>-100</v>
+      <c r="D29" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="F29" s="14">
         <v>1</v>
@@ -1531,11 +1531,11 @@
       <c r="C30" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="14">
-        <v>2</v>
-      </c>
-      <c r="E30" s="15">
-        <v>-100</v>
+      <c r="D30" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="F30" s="14">
         <v>1</v>

--- a/data/source/weekly/cs-en-us-116pct.xlsx
+++ b/data/source/weekly/cs-en-us-116pct.xlsx
@@ -69,7 +69,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">38</t>
+      <t xml:space="preserve">40</t>
     </r>
   </si>
   <si>
@@ -95,7 +95,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">9/15/2025</t>
+      <t xml:space="preserve">9/29/2025</t>
     </r>
     <r>
       <rPr>
@@ -113,7 +113,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">9/21/2025</t>
+      <t xml:space="preserve">10/5/2025</t>
     </r>
   </si>
   <si>
@@ -885,7 +885,7 @@
         <v>20</v>
       </c>
       <c r="G14" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H14" s="15">
         <v>-100</v>
@@ -894,7 +894,7 @@
         <v>20</v>
       </c>
       <c r="J14" s="14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K14" s="15">
         <v>-100</v>
@@ -913,35 +913,35 @@
       <c r="A15" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>21</v>
+      <c r="C15" s="14">
+        <v>1</v>
+      </c>
+      <c r="D15" s="14">
+        <v>1</v>
+      </c>
+      <c r="E15" s="15">
+        <v>0</v>
       </c>
       <c r="F15" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G15" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H15" s="15">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I15" s="14">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J15" s="14">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K15" s="15">
-        <v>155.555555555556</v>
+        <v>150</v>
       </c>
       <c r="L15" s="15">
-        <v>155.555555555556</v>
+        <v>150</v>
       </c>
       <c r="M15" s="13" t="s">
         <v>21</v>
@@ -955,34 +955,34 @@
         <v>23</v>
       </c>
       <c r="C16" s="14">
-        <v>4</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>21</v>
+        <v>2</v>
+      </c>
+      <c r="D16" s="14">
+        <v>2</v>
+      </c>
+      <c r="E16" s="15">
+        <v>0</v>
       </c>
       <c r="F16" s="14">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G16" s="14">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H16" s="15">
-        <v>-28.571428571428</v>
+        <v>200</v>
       </c>
       <c r="I16" s="14">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J16" s="14">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K16" s="15">
-        <v>-22.222222222222</v>
+        <v>-16.923076923076</v>
       </c>
       <c r="L16" s="15">
-        <v>-22.222222222222</v>
+        <v>-18.181818181818</v>
       </c>
       <c r="M16" s="13" t="s">
         <v>21</v>
@@ -996,34 +996,34 @@
         <v>24</v>
       </c>
       <c r="C17" s="14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D17" s="14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E17" s="15">
-        <v>-75</v>
+        <v>66.666666666666</v>
       </c>
       <c r="F17" s="14">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G17" s="14">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H17" s="15">
-        <v>-38.461538461538</v>
+        <v>-41.666666666666</v>
       </c>
       <c r="I17" s="14">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="J17" s="14">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="K17" s="15">
-        <v>10.526315789473</v>
+        <v>9.944751381215</v>
       </c>
       <c r="L17" s="15">
-        <v>5</v>
+        <v>7.567567567567</v>
       </c>
       <c r="M17" s="13" t="s">
         <v>21</v>
@@ -1036,35 +1036,35 @@
       <c r="A18" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="14">
-        <v>2</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>21</v>
+      <c r="C18" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="14">
+        <v>1</v>
+      </c>
+      <c r="E18" s="15">
+        <v>-100</v>
       </c>
       <c r="F18" s="14">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G18" s="14">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H18" s="15">
-        <v>500</v>
+        <v>25</v>
       </c>
       <c r="I18" s="14">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J18" s="14">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K18" s="15">
-        <v>-20.754716981132</v>
+        <v>-21.428571428571</v>
       </c>
       <c r="L18" s="15">
-        <v>-25</v>
+        <v>-25.423728813559</v>
       </c>
       <c r="M18" s="13" t="s">
         <v>21</v>
@@ -1078,34 +1078,34 @@
         <v>26</v>
       </c>
       <c r="C19" s="14">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D19" s="14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E19" s="15">
-        <v>0</v>
+        <v>166.666666666667</v>
       </c>
       <c r="F19" s="14">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G19" s="14">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H19" s="15">
-        <v>5.882352941176</v>
+        <v>18.75</v>
       </c>
       <c r="I19" s="14">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="J19" s="14">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="K19" s="15">
-        <v>-18.134715025906</v>
+        <v>-15.270935960591</v>
       </c>
       <c r="L19" s="15">
-        <v>-31.004366812227</v>
+        <v>-28.033472803347</v>
       </c>
       <c r="M19" s="13" t="s">
         <v>21</v>
@@ -1119,34 +1119,34 @@
         <v>27</v>
       </c>
       <c r="C20" s="14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20" s="14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E20" s="15">
-        <v>-40</v>
+        <v>-33.333333333333</v>
       </c>
       <c r="F20" s="14">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G20" s="14">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H20" s="15">
-        <v>-50</v>
+        <v>-31.25</v>
       </c>
       <c r="I20" s="14">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="J20" s="14">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="K20" s="15">
-        <v>-6.923076923076</v>
+        <v>-5.882352941176</v>
       </c>
       <c r="L20" s="15">
-        <v>-18.791946308724</v>
+        <v>-20.496894409937</v>
       </c>
       <c r="M20" s="13" t="s">
         <v>21</v>
@@ -1160,34 +1160,34 @@
         <v>28</v>
       </c>
       <c r="C21" s="17">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D21" s="17">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E21" s="18">
-        <v>7.692307692307</v>
+        <v>25</v>
       </c>
       <c r="F21" s="17">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="G21" s="17">
         <v>67</v>
       </c>
       <c r="H21" s="18">
-        <v>-20.895522388059</v>
+        <v>-8.955223880597</v>
       </c>
       <c r="I21" s="17">
-        <v>582</v>
+        <v>622</v>
       </c>
       <c r="J21" s="17">
-        <v>622</v>
+        <v>655</v>
       </c>
       <c r="K21" s="18">
-        <v>-6.430868167202</v>
+        <v>-5.038167938931</v>
       </c>
       <c r="L21" s="18">
-        <v>-15.406976744186</v>
+        <v>-13.850415512465</v>
       </c>
       <c r="M21" s="19" t="s">
         <v>21</v>
@@ -1283,34 +1283,34 @@
         <v>31</v>
       </c>
       <c r="C24" s="14">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D24" s="14">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E24" s="15">
-        <v>-12.5</v>
+        <v>0</v>
       </c>
       <c r="F24" s="14">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G24" s="14">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H24" s="15">
-        <v>43.75</v>
+        <v>0</v>
       </c>
       <c r="I24" s="14">
-        <v>428</v>
+        <v>446</v>
       </c>
       <c r="J24" s="14">
-        <v>408</v>
+        <v>426</v>
       </c>
       <c r="K24" s="15">
-        <v>4.901960784313</v>
+        <v>4.694835680751</v>
       </c>
       <c r="L24" s="15">
-        <v>-3.386004514672</v>
+        <v>-4.496788008565</v>
       </c>
       <c r="M24" s="13" t="s">
         <v>21</v>
@@ -1324,34 +1324,34 @@
         <v>32</v>
       </c>
       <c r="C25" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D25" s="14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E25" s="15">
-        <v>0</v>
+        <v>-75</v>
       </c>
       <c r="F25" s="14">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G25" s="14">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H25" s="15">
-        <v>-12.5</v>
+        <v>-27.272727272727</v>
       </c>
       <c r="I25" s="14">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J25" s="14">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="K25" s="15">
-        <v>-34.210526315789</v>
+        <v>-33.884297520661</v>
       </c>
       <c r="L25" s="15">
-        <v>-38.524590163934</v>
+        <v>-37.984496124031</v>
       </c>
       <c r="M25" s="13" t="s">
         <v>21</v>
@@ -1365,34 +1365,34 @@
         <v>33</v>
       </c>
       <c r="C26" s="14">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D26" s="14">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E26" s="15">
-        <v>-25</v>
+        <v>150</v>
       </c>
       <c r="F26" s="14">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G26" s="14">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H26" s="15">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I26" s="14">
+        <v>353</v>
+      </c>
+      <c r="J26" s="14">
         <v>339</v>
       </c>
-      <c r="J26" s="14">
-        <v>326</v>
-      </c>
       <c r="K26" s="15">
-        <v>3.987730061349</v>
+        <v>4.129793510324</v>
       </c>
       <c r="L26" s="15">
-        <v>26.022304832713</v>
+        <v>19.256756756756</v>
       </c>
       <c r="M26" s="13" t="s">
         <v>21</v>
@@ -1405,35 +1405,35 @@
       <c r="A27" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="13" t="s">
-        <v>20</v>
+      <c r="C27" s="14">
+        <v>2</v>
       </c>
       <c r="D27" s="14">
         <v>1</v>
       </c>
       <c r="E27" s="15">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F27" s="14">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G27" s="14">
         <v>3</v>
       </c>
       <c r="H27" s="15">
-        <v>-66.666666666666</v>
+        <v>33.333333333333</v>
       </c>
       <c r="I27" s="14">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="J27" s="14">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K27" s="15">
-        <v>55.555555555555</v>
+        <v>63.157894736842</v>
       </c>
       <c r="L27" s="15">
-        <v>75</v>
+        <v>82.352941176470</v>
       </c>
       <c r="M27" s="13" t="s">
         <v>21</v>
@@ -1446,35 +1446,35 @@
       <c r="A28" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="14">
+      <c r="C28" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="14">
         <v>1</v>
       </c>
-      <c r="D28" s="14">
-        <v>2</v>
-      </c>
       <c r="E28" s="15">
-        <v>-50</v>
+        <v>-100</v>
       </c>
       <c r="F28" s="14">
         <v>1</v>
       </c>
       <c r="G28" s="14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H28" s="15">
-        <v>-75</v>
+        <v>-66.666666666666</v>
       </c>
       <c r="I28" s="14">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J28" s="14">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K28" s="15">
-        <v>-27.777777777777</v>
+        <v>-26.315789473684</v>
       </c>
       <c r="L28" s="15">
-        <v>-35</v>
+        <v>-33.333333333333</v>
       </c>
       <c r="M28" s="13" t="s">
         <v>21</v>
@@ -1496,26 +1496,26 @@
       <c r="E29" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F29" s="14">
-        <v>1</v>
+      <c r="F29" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="G29" s="14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H29" s="15">
-        <v>-80</v>
+        <v>-100</v>
       </c>
       <c r="I29" s="14">
         <v>2</v>
       </c>
       <c r="J29" s="14">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K29" s="15">
-        <v>-84.615384615384</v>
+        <v>-85.714285714285</v>
       </c>
       <c r="L29" s="15">
-        <v>-50</v>
+        <v>-60</v>
       </c>
       <c r="M29" s="13" t="s">
         <v>21</v>
@@ -1537,26 +1537,26 @@
       <c r="E30" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F30" s="14">
-        <v>1</v>
+      <c r="F30" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="G30" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H30" s="15">
-        <v>-50</v>
+        <v>-100</v>
       </c>
       <c r="I30" s="14">
         <v>2</v>
       </c>
       <c r="J30" s="14">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K30" s="15">
-        <v>-75</v>
+        <v>-77.777777777777</v>
       </c>
       <c r="L30" s="15">
-        <v>-33.333333333333</v>
+        <v>-50</v>
       </c>
       <c r="M30" s="13" t="s">
         <v>21</v>

--- a/data/source/weekly/cs-en-us-116pct.xlsx
+++ b/data/source/weekly/cs-en-us-116pct.xlsx
@@ -69,7 +69,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">40</t>
+      <t xml:space="preserve">41</t>
     </r>
   </si>
   <si>
@@ -95,7 +95,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">9/29/2025</t>
+      <t xml:space="preserve">10/6/2025</t>
     </r>
     <r>
       <rPr>
@@ -113,7 +113,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">10/5/2025</t>
+      <t xml:space="preserve">10/12/2025</t>
     </r>
   </si>
   <si>
@@ -885,7 +885,7 @@
         <v>20</v>
       </c>
       <c r="G14" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H14" s="15">
         <v>-100</v>
@@ -916,32 +916,32 @@
       <c r="C15" s="14">
         <v>1</v>
       </c>
-      <c r="D15" s="14">
-        <v>1</v>
-      </c>
-      <c r="E15" s="15">
-        <v>0</v>
+      <c r="D15" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="F15" s="14">
         <v>3</v>
       </c>
       <c r="G15" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H15" s="15">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="I15" s="14">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J15" s="14">
         <v>10</v>
       </c>
       <c r="K15" s="15">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="L15" s="15">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="M15" s="13" t="s">
         <v>21</v>
@@ -955,34 +955,34 @@
         <v>23</v>
       </c>
       <c r="C16" s="14">
+        <v>1</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="14">
+        <v>10</v>
+      </c>
+      <c r="G16" s="14">
         <v>2</v>
       </c>
-      <c r="D16" s="14">
-        <v>2</v>
-      </c>
-      <c r="E16" s="15">
-        <v>0</v>
-      </c>
-      <c r="F16" s="14">
-        <v>9</v>
-      </c>
-      <c r="G16" s="14">
-        <v>3</v>
-      </c>
       <c r="H16" s="15">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="I16" s="14">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J16" s="14">
         <v>65</v>
       </c>
       <c r="K16" s="15">
-        <v>-16.923076923076</v>
+        <v>-15.384615384615</v>
       </c>
       <c r="L16" s="15">
-        <v>-18.181818181818</v>
+        <v>-17.910447761194</v>
       </c>
       <c r="M16" s="13" t="s">
         <v>21</v>
@@ -996,34 +996,34 @@
         <v>24</v>
       </c>
       <c r="C17" s="14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E17" s="15">
-        <v>66.666666666666</v>
+        <v>50</v>
       </c>
       <c r="F17" s="14">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G17" s="14">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="H17" s="15">
-        <v>-41.666666666666</v>
+        <v>-18.75</v>
       </c>
       <c r="I17" s="14">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="J17" s="14">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K17" s="15">
-        <v>9.944751381215</v>
+        <v>10.382513661202</v>
       </c>
       <c r="L17" s="15">
-        <v>7.567567567567</v>
+        <v>6.878306878306</v>
       </c>
       <c r="M17" s="13" t="s">
         <v>21</v>
@@ -1039,20 +1039,20 @@
       <c r="C18" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="14">
-        <v>1</v>
-      </c>
-      <c r="E18" s="15">
-        <v>-100</v>
+      <c r="D18" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="F18" s="14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G18" s="14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H18" s="15">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="I18" s="14">
         <v>44</v>
@@ -1064,7 +1064,7 @@
         <v>-21.428571428571</v>
       </c>
       <c r="L18" s="15">
-        <v>-25.423728813559</v>
+        <v>-29.032258064516</v>
       </c>
       <c r="M18" s="13" t="s">
         <v>21</v>
@@ -1078,34 +1078,34 @@
         <v>26</v>
       </c>
       <c r="C19" s="14">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D19" s="14">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E19" s="15">
-        <v>166.666666666667</v>
+        <v>-44.444444444444</v>
       </c>
       <c r="F19" s="14">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G19" s="14">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="H19" s="15">
-        <v>18.75</v>
+        <v>-4.347826086956</v>
       </c>
       <c r="I19" s="14">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="J19" s="14">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="K19" s="15">
-        <v>-15.270935960591</v>
+        <v>-16.509433962264</v>
       </c>
       <c r="L19" s="15">
-        <v>-28.033472803347</v>
+        <v>-28.629032258064</v>
       </c>
       <c r="M19" s="13" t="s">
         <v>21</v>
@@ -1119,34 +1119,34 @@
         <v>27</v>
       </c>
       <c r="C20" s="14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D20" s="14">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E20" s="15">
         <v>-33.333333333333</v>
       </c>
       <c r="F20" s="14">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G20" s="14">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H20" s="15">
-        <v>-31.25</v>
+        <v>-14.285714285714</v>
       </c>
       <c r="I20" s="14">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="J20" s="14">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="K20" s="15">
-        <v>-5.882352941176</v>
+        <v>-6.474820143884</v>
       </c>
       <c r="L20" s="15">
-        <v>-20.496894409937</v>
+        <v>-21.686746987951</v>
       </c>
       <c r="M20" s="13" t="s">
         <v>21</v>
@@ -1160,34 +1160,34 @@
         <v>28</v>
       </c>
       <c r="C21" s="17">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D21" s="17">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E21" s="18">
-        <v>25</v>
+        <v>-14.285714285714</v>
       </c>
       <c r="F21" s="17">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G21" s="17">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="H21" s="18">
-        <v>-8.955223880597</v>
+        <v>5</v>
       </c>
       <c r="I21" s="17">
-        <v>622</v>
+        <v>634</v>
       </c>
       <c r="J21" s="17">
-        <v>655</v>
+        <v>669</v>
       </c>
       <c r="K21" s="18">
-        <v>-5.038167938931</v>
+        <v>-5.231689088191</v>
       </c>
       <c r="L21" s="18">
-        <v>-13.850415512465</v>
+        <v>-14.784946236559</v>
       </c>
       <c r="M21" s="19" t="s">
         <v>21</v>
@@ -1283,34 +1283,34 @@
         <v>31</v>
       </c>
       <c r="C24" s="14">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" s="14">
         <v>9</v>
       </c>
       <c r="E24" s="15">
-        <v>0</v>
+        <v>11.111111111111</v>
       </c>
       <c r="F24" s="14">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G24" s="14">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H24" s="15">
-        <v>0</v>
+        <v>2.857142857142</v>
       </c>
       <c r="I24" s="14">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="J24" s="14">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="K24" s="15">
-        <v>4.694835680751</v>
+        <v>4.827586206896</v>
       </c>
       <c r="L24" s="15">
-        <v>-4.496788008565</v>
+        <v>-4.201680672268</v>
       </c>
       <c r="M24" s="13" t="s">
         <v>21</v>
@@ -1324,34 +1324,34 @@
         <v>32</v>
       </c>
       <c r="C25" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D25" s="14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E25" s="15">
-        <v>-75</v>
+        <v>0</v>
       </c>
       <c r="F25" s="14">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G25" s="14">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H25" s="15">
-        <v>-27.272727272727</v>
+        <v>-16.666666666666</v>
       </c>
       <c r="I25" s="14">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J25" s="14">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="K25" s="15">
-        <v>-33.884297520661</v>
+        <v>-33.064516129032</v>
       </c>
       <c r="L25" s="15">
-        <v>-37.984496124031</v>
+        <v>-36.641221374045</v>
       </c>
       <c r="M25" s="13" t="s">
         <v>21</v>
@@ -1365,34 +1365,34 @@
         <v>33</v>
       </c>
       <c r="C26" s="14">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D26" s="14">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E26" s="15">
-        <v>150</v>
+        <v>-38.461538461538</v>
       </c>
       <c r="F26" s="14">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G26" s="14">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="H26" s="15">
-        <v>0</v>
+        <v>-11.764705882352</v>
       </c>
       <c r="I26" s="14">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="J26" s="14">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="K26" s="15">
-        <v>4.129793510324</v>
+        <v>2.556818181818</v>
       </c>
       <c r="L26" s="15">
-        <v>19.256756756756</v>
+        <v>17.973856209150</v>
       </c>
       <c r="M26" s="13" t="s">
         <v>21</v>
@@ -1406,34 +1406,34 @@
         <v>34</v>
       </c>
       <c r="C27" s="14">
-        <v>2</v>
-      </c>
-      <c r="D27" s="14">
         <v>1</v>
       </c>
-      <c r="E27" s="15">
-        <v>100</v>
+      <c r="D27" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="F27" s="14">
         <v>4</v>
       </c>
       <c r="G27" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H27" s="15">
-        <v>33.333333333333</v>
+        <v>100</v>
       </c>
       <c r="I27" s="14">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J27" s="14">
         <v>19</v>
       </c>
       <c r="K27" s="15">
-        <v>63.157894736842</v>
+        <v>68.421052631578</v>
       </c>
       <c r="L27" s="15">
-        <v>82.352941176470</v>
+        <v>88.235294117647</v>
       </c>
       <c r="M27" s="13" t="s">
         <v>21</v>
@@ -1446,35 +1446,35 @@
       <c r="A28" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D28" s="14">
+      <c r="C28" s="14">
         <v>1</v>
       </c>
-      <c r="E28" s="15">
-        <v>-100</v>
+      <c r="D28" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="F28" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G28" s="14">
         <v>3</v>
       </c>
       <c r="H28" s="15">
-        <v>-66.666666666666</v>
+        <v>-33.333333333333</v>
       </c>
       <c r="I28" s="14">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J28" s="14">
         <v>19</v>
       </c>
       <c r="K28" s="15">
-        <v>-26.315789473684</v>
+        <v>-21.052631578947</v>
       </c>
       <c r="L28" s="15">
-        <v>-33.333333333333</v>
+        <v>-34.782608695652</v>
       </c>
       <c r="M28" s="13" t="s">
         <v>21</v>
@@ -1500,7 +1500,7 @@
         <v>20</v>
       </c>
       <c r="G29" s="14">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H29" s="15">
         <v>-100</v>
@@ -1541,7 +1541,7 @@
         <v>20</v>
       </c>
       <c r="G30" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H30" s="15">
         <v>-100</v>

--- a/data/source/weekly/cs-en-us-116pct.xlsx
+++ b/data/source/weekly/cs-en-us-116pct.xlsx
@@ -69,7 +69,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">41</t>
+      <t xml:space="preserve">42</t>
     </r>
   </si>
   <si>
@@ -95,7 +95,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">10/6/2025</t>
+      <t xml:space="preserve">10/13/2025</t>
     </r>
     <r>
       <rPr>
@@ -113,7 +113,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">10/12/2025</t>
+      <t xml:space="preserve">10/19/2025</t>
     </r>
   </si>
   <si>
@@ -913,35 +913,35 @@
       <c r="A15" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="14">
         <v>1</v>
       </c>
-      <c r="D15" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>21</v>
+      <c r="E15" s="15">
+        <v>-100</v>
       </c>
       <c r="F15" s="14">
         <v>3</v>
       </c>
       <c r="G15" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H15" s="15">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="I15" s="14">
         <v>26</v>
       </c>
       <c r="J15" s="14">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K15" s="15">
-        <v>160</v>
+        <v>136.363636363636</v>
       </c>
       <c r="L15" s="15">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="M15" s="13" t="s">
         <v>21</v>
@@ -957,32 +957,32 @@
       <c r="C16" s="14">
         <v>1</v>
       </c>
-      <c r="D16" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>21</v>
+      <c r="D16" s="14">
+        <v>1</v>
+      </c>
+      <c r="E16" s="15">
+        <v>0</v>
       </c>
       <c r="F16" s="14">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G16" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H16" s="15">
-        <v>400</v>
+        <v>166.666666666667</v>
       </c>
       <c r="I16" s="14">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="J16" s="14">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K16" s="15">
-        <v>-15.384615384615</v>
+        <v>-10.606060606060</v>
       </c>
       <c r="L16" s="15">
-        <v>-17.910447761194</v>
+        <v>-13.235294117647</v>
       </c>
       <c r="M16" s="13" t="s">
         <v>21</v>
@@ -1005,25 +1005,25 @@
         <v>50</v>
       </c>
       <c r="F17" s="14">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G17" s="14">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H17" s="15">
-        <v>-18.75</v>
+        <v>14.285714285714</v>
       </c>
       <c r="I17" s="14">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="J17" s="14">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="K17" s="15">
-        <v>10.382513661202</v>
+        <v>11.351351351351</v>
       </c>
       <c r="L17" s="15">
-        <v>6.878306878306</v>
+        <v>6.735751295336</v>
       </c>
       <c r="M17" s="13" t="s">
         <v>21</v>
@@ -1036,35 +1036,35 @@
       <c r="A18" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>21</v>
+      <c r="C18" s="14">
+        <v>2</v>
+      </c>
+      <c r="D18" s="14">
+        <v>3</v>
+      </c>
+      <c r="E18" s="15">
+        <v>-33.333333333333</v>
       </c>
       <c r="F18" s="14">
         <v>3</v>
       </c>
       <c r="G18" s="14">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H18" s="15">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="I18" s="14">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J18" s="14">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K18" s="15">
-        <v>-21.428571428571</v>
+        <v>-22.033898305084</v>
       </c>
       <c r="L18" s="15">
-        <v>-29.032258064516</v>
+        <v>-28.125</v>
       </c>
       <c r="M18" s="13" t="s">
         <v>21</v>
@@ -1078,34 +1078,34 @@
         <v>26</v>
       </c>
       <c r="C19" s="14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D19" s="14">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E19" s="15">
-        <v>-44.444444444444</v>
+        <v>-14.285714285714</v>
       </c>
       <c r="F19" s="14">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G19" s="14">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H19" s="15">
-        <v>-4.347826086956</v>
+        <v>-7.692307692307</v>
       </c>
       <c r="I19" s="14">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="J19" s="14">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="K19" s="15">
-        <v>-16.509433962264</v>
+        <v>-16.438356164383</v>
       </c>
       <c r="L19" s="15">
-        <v>-28.629032258064</v>
+        <v>-27.667984189723</v>
       </c>
       <c r="M19" s="13" t="s">
         <v>21</v>
@@ -1122,31 +1122,31 @@
         <v>2</v>
       </c>
       <c r="D20" s="14">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E20" s="15">
-        <v>-33.333333333333</v>
+        <v>-77.777777777777</v>
       </c>
       <c r="F20" s="14">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G20" s="14">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H20" s="15">
-        <v>-14.285714285714</v>
+        <v>-38.888888888888</v>
       </c>
       <c r="I20" s="14">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J20" s="14">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="K20" s="15">
-        <v>-6.474820143884</v>
+        <v>-10.810810810810</v>
       </c>
       <c r="L20" s="15">
-        <v>-21.686746987951</v>
+        <v>-20.958083832335</v>
       </c>
       <c r="M20" s="13" t="s">
         <v>21</v>
@@ -1160,34 +1160,34 @@
         <v>28</v>
       </c>
       <c r="C21" s="17">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D21" s="17">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E21" s="18">
-        <v>-14.285714285714</v>
+        <v>-39.130434782608</v>
       </c>
       <c r="F21" s="17">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G21" s="17">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="H21" s="18">
-        <v>5</v>
+        <v>-7.142857142857</v>
       </c>
       <c r="I21" s="17">
-        <v>634</v>
+        <v>652</v>
       </c>
       <c r="J21" s="17">
-        <v>669</v>
+        <v>692</v>
       </c>
       <c r="K21" s="18">
-        <v>-5.231689088191</v>
+        <v>-5.780346820809</v>
       </c>
       <c r="L21" s="18">
-        <v>-14.784946236559</v>
+        <v>-14.210526315789</v>
       </c>
       <c r="M21" s="19" t="s">
         <v>21</v>
@@ -1283,34 +1283,34 @@
         <v>31</v>
       </c>
       <c r="C24" s="14">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D24" s="14">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E24" s="15">
-        <v>11.111111111111</v>
+        <v>-38.888888888888</v>
       </c>
       <c r="F24" s="14">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G24" s="14">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H24" s="15">
-        <v>2.857142857142</v>
+        <v>-13.333333333333</v>
       </c>
       <c r="I24" s="14">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="J24" s="14">
-        <v>435</v>
+        <v>453</v>
       </c>
       <c r="K24" s="15">
-        <v>4.827586206896</v>
+        <v>2.869757174392</v>
       </c>
       <c r="L24" s="15">
-        <v>-4.201680672268</v>
+        <v>-4.897959183673</v>
       </c>
       <c r="M24" s="13" t="s">
         <v>21</v>
@@ -1324,34 +1324,34 @@
         <v>32</v>
       </c>
       <c r="C25" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" s="14">
         <v>3</v>
       </c>
       <c r="E25" s="15">
-        <v>0</v>
+        <v>-33.333333333333</v>
       </c>
       <c r="F25" s="14">
         <v>10</v>
       </c>
       <c r="G25" s="14">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H25" s="15">
-        <v>-16.666666666666</v>
+        <v>-23.076923076923</v>
       </c>
       <c r="I25" s="14">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J25" s="14">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="K25" s="15">
-        <v>-33.064516129032</v>
+        <v>-33.070866141732</v>
       </c>
       <c r="L25" s="15">
-        <v>-36.641221374045</v>
+        <v>-36.567164179104</v>
       </c>
       <c r="M25" s="13" t="s">
         <v>21</v>
@@ -1365,34 +1365,34 @@
         <v>33</v>
       </c>
       <c r="C26" s="14">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D26" s="14">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E26" s="15">
-        <v>-38.461538461538</v>
+        <v>0</v>
       </c>
       <c r="F26" s="14">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G26" s="14">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H26" s="15">
-        <v>-11.764705882352</v>
+        <v>-6.060606060606</v>
       </c>
       <c r="I26" s="14">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="J26" s="14">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="K26" s="15">
-        <v>2.556818181818</v>
+        <v>1.949860724233</v>
       </c>
       <c r="L26" s="15">
-        <v>17.973856209150</v>
+        <v>15.822784810126</v>
       </c>
       <c r="M26" s="13" t="s">
         <v>21</v>
@@ -1405,14 +1405,14 @@
       <c r="A27" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="14">
+      <c r="C27" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="14">
         <v>1</v>
       </c>
-      <c r="D27" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>21</v>
+      <c r="E27" s="15">
+        <v>-100</v>
       </c>
       <c r="F27" s="14">
         <v>4</v>
@@ -1427,13 +1427,13 @@
         <v>32</v>
       </c>
       <c r="J27" s="14">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K27" s="15">
-        <v>68.421052631578</v>
+        <v>60</v>
       </c>
       <c r="L27" s="15">
-        <v>88.235294117647</v>
+        <v>60</v>
       </c>
       <c r="M27" s="13" t="s">
         <v>21</v>
@@ -1449,32 +1449,32 @@
       <c r="C28" s="14">
         <v>1</v>
       </c>
-      <c r="D28" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>21</v>
+      <c r="D28" s="14">
+        <v>1</v>
+      </c>
+      <c r="E28" s="15">
+        <v>0</v>
       </c>
       <c r="F28" s="14">
         <v>2</v>
       </c>
       <c r="G28" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H28" s="15">
-        <v>-33.333333333333</v>
+        <v>0</v>
       </c>
       <c r="I28" s="14">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J28" s="14">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K28" s="15">
-        <v>-21.052631578947</v>
+        <v>-20</v>
       </c>
       <c r="L28" s="15">
-        <v>-34.782608695652</v>
+        <v>-30.434782608695</v>
       </c>
       <c r="M28" s="13" t="s">
         <v>21</v>

--- a/data/source/weekly/cs-en-us-116pct.xlsx
+++ b/data/source/weekly/cs-en-us-116pct.xlsx
@@ -69,7 +69,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">42</t>
+      <t xml:space="preserve">43</t>
     </r>
   </si>
   <si>
@@ -95,7 +95,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">10/13/2025</t>
+      <t xml:space="preserve">10/20/2025</t>
     </r>
     <r>
       <rPr>
@@ -113,7 +113,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">10/19/2025</t>
+      <t xml:space="preserve">10/26/2025</t>
     </r>
   </si>
   <si>
@@ -884,11 +884,11 @@
       <c r="F14" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="14">
-        <v>1</v>
-      </c>
-      <c r="H14" s="15">
-        <v>-100</v>
+      <c r="G14" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="I14" s="13" t="s">
         <v>20</v>
@@ -923,22 +923,22 @@
         <v>-100</v>
       </c>
       <c r="F15" s="14">
+        <v>2</v>
+      </c>
+      <c r="G15" s="14">
         <v>3</v>
       </c>
-      <c r="G15" s="14">
-        <v>2</v>
-      </c>
       <c r="H15" s="15">
-        <v>50</v>
+        <v>-33.333333333333</v>
       </c>
       <c r="I15" s="14">
         <v>26</v>
       </c>
       <c r="J15" s="14">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K15" s="15">
-        <v>136.363636363636</v>
+        <v>116.666666666667</v>
       </c>
       <c r="L15" s="15">
         <v>100</v>
@@ -955,10 +955,10 @@
         <v>23</v>
       </c>
       <c r="C16" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E16" s="15">
         <v>0</v>
@@ -967,22 +967,22 @@
         <v>8</v>
       </c>
       <c r="G16" s="14">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H16" s="15">
-        <v>166.666666666667</v>
+        <v>60</v>
       </c>
       <c r="I16" s="14">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J16" s="14">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K16" s="15">
-        <v>-10.606060606060</v>
+        <v>-10.294117647058</v>
       </c>
       <c r="L16" s="15">
-        <v>-13.235294117647</v>
+        <v>-14.084507042253</v>
       </c>
       <c r="M16" s="13" t="s">
         <v>21</v>
@@ -996,34 +996,34 @@
         <v>24</v>
       </c>
       <c r="C17" s="14">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D17" s="14">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E17" s="15">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F17" s="14">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G17" s="14">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H17" s="15">
-        <v>14.285714285714</v>
+        <v>41.666666666666</v>
       </c>
       <c r="I17" s="14">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="J17" s="14">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="K17" s="15">
-        <v>11.351351351351</v>
+        <v>11.578947368421</v>
       </c>
       <c r="L17" s="15">
-        <v>6.735751295336</v>
+        <v>8.163265306122</v>
       </c>
       <c r="M17" s="13" t="s">
         <v>21</v>
@@ -1037,34 +1037,34 @@
         <v>25</v>
       </c>
       <c r="C18" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E18" s="15">
-        <v>-33.333333333333</v>
+        <v>0</v>
       </c>
       <c r="F18" s="14">
         <v>3</v>
       </c>
       <c r="G18" s="14">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H18" s="15">
-        <v>-50</v>
+        <v>-40</v>
       </c>
       <c r="I18" s="14">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J18" s="14">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K18" s="15">
-        <v>-22.033898305084</v>
+        <v>-21.666666666666</v>
       </c>
       <c r="L18" s="15">
-        <v>-28.125</v>
+        <v>-28.787878787878</v>
       </c>
       <c r="M18" s="13" t="s">
         <v>21</v>
@@ -1078,34 +1078,34 @@
         <v>26</v>
       </c>
       <c r="C19" s="14">
+        <v>8</v>
+      </c>
+      <c r="D19" s="14">
         <v>6</v>
       </c>
-      <c r="D19" s="14">
-        <v>7</v>
-      </c>
       <c r="E19" s="15">
-        <v>-14.285714285714</v>
+        <v>33.333333333333</v>
       </c>
       <c r="F19" s="14">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G19" s="14">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H19" s="15">
-        <v>-7.692307692307</v>
+        <v>8</v>
       </c>
       <c r="I19" s="14">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="J19" s="14">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="K19" s="15">
-        <v>-16.438356164383</v>
+        <v>-15.111111111111</v>
       </c>
       <c r="L19" s="15">
-        <v>-27.667984189723</v>
+        <v>-25.680933852140</v>
       </c>
       <c r="M19" s="13" t="s">
         <v>21</v>
@@ -1119,34 +1119,34 @@
         <v>27</v>
       </c>
       <c r="C20" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20" s="14">
+        <v>5</v>
+      </c>
+      <c r="E20" s="15">
+        <v>-80</v>
+      </c>
+      <c r="F20" s="14">
         <v>9</v>
       </c>
-      <c r="E20" s="15">
-        <v>-77.777777777777</v>
-      </c>
-      <c r="F20" s="14">
-        <v>11</v>
-      </c>
       <c r="G20" s="14">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H20" s="15">
-        <v>-38.888888888888</v>
+        <v>-60.869565217391</v>
       </c>
       <c r="I20" s="14">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J20" s="14">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="K20" s="15">
-        <v>-10.810810810810</v>
+        <v>-13.071895424836</v>
       </c>
       <c r="L20" s="15">
-        <v>-20.958083832335</v>
+        <v>-20.833333333333</v>
       </c>
       <c r="M20" s="13" t="s">
         <v>21</v>
@@ -1160,34 +1160,34 @@
         <v>28</v>
       </c>
       <c r="C21" s="17">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D21" s="17">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E21" s="18">
-        <v>-39.130434782608</v>
+        <v>-15</v>
       </c>
       <c r="F21" s="17">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G21" s="17">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H21" s="18">
-        <v>-7.142857142857</v>
+        <v>-9.589041095890</v>
       </c>
       <c r="I21" s="17">
-        <v>652</v>
+        <v>670</v>
       </c>
       <c r="J21" s="17">
-        <v>692</v>
+        <v>712</v>
       </c>
       <c r="K21" s="18">
-        <v>-5.780346820809</v>
+        <v>-5.898876404494</v>
       </c>
       <c r="L21" s="18">
-        <v>-14.210526315789</v>
+        <v>-13.324708926261</v>
       </c>
       <c r="M21" s="19" t="s">
         <v>21</v>
@@ -1283,34 +1283,34 @@
         <v>31</v>
       </c>
       <c r="C24" s="14">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D24" s="14">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E24" s="15">
-        <v>-38.888888888888</v>
+        <v>-42.857142857142</v>
       </c>
       <c r="F24" s="14">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G24" s="14">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H24" s="15">
-        <v>-13.333333333333</v>
+        <v>-28</v>
       </c>
       <c r="I24" s="14">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="J24" s="14">
-        <v>453</v>
+        <v>467</v>
       </c>
       <c r="K24" s="15">
-        <v>2.869757174392</v>
+        <v>1.284796573875</v>
       </c>
       <c r="L24" s="15">
-        <v>-4.897959183673</v>
+        <v>-5.210420841683</v>
       </c>
       <c r="M24" s="13" t="s">
         <v>21</v>
@@ -1327,31 +1327,31 @@
         <v>2</v>
       </c>
       <c r="D25" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E25" s="15">
+        <v>0</v>
+      </c>
+      <c r="F25" s="14">
+        <v>8</v>
+      </c>
+      <c r="G25" s="14">
+        <v>12</v>
+      </c>
+      <c r="H25" s="15">
         <v>-33.333333333333</v>
       </c>
-      <c r="F25" s="14">
-        <v>10</v>
-      </c>
-      <c r="G25" s="14">
-        <v>13</v>
-      </c>
-      <c r="H25" s="15">
-        <v>-23.076923076923</v>
-      </c>
       <c r="I25" s="14">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J25" s="14">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K25" s="15">
-        <v>-33.070866141732</v>
+        <v>-32.558139534883</v>
       </c>
       <c r="L25" s="15">
-        <v>-36.567164179104</v>
+        <v>-36.956521739130</v>
       </c>
       <c r="M25" s="13" t="s">
         <v>21</v>
@@ -1365,34 +1365,34 @@
         <v>33</v>
       </c>
       <c r="C26" s="14">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D26" s="14">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E26" s="15">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="F26" s="14">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G26" s="14">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H26" s="15">
-        <v>-6.060606060606</v>
+        <v>9.375</v>
       </c>
       <c r="I26" s="14">
-        <v>366</v>
+        <v>377</v>
       </c>
       <c r="J26" s="14">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="K26" s="15">
-        <v>1.949860724233</v>
+        <v>2.724795640326</v>
       </c>
       <c r="L26" s="15">
-        <v>15.822784810126</v>
+        <v>15.290519877675</v>
       </c>
       <c r="M26" s="13" t="s">
         <v>21</v>
@@ -1415,25 +1415,25 @@
         <v>-100</v>
       </c>
       <c r="F27" s="14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G27" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H27" s="15">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I27" s="14">
         <v>32</v>
       </c>
       <c r="J27" s="14">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K27" s="15">
-        <v>60</v>
+        <v>52.380952380952</v>
       </c>
       <c r="L27" s="15">
-        <v>60</v>
+        <v>52.380952380952</v>
       </c>
       <c r="M27" s="13" t="s">
         <v>21</v>
@@ -1446,32 +1446,32 @@
       <c r="A28" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="14">
-        <v>1</v>
+      <c r="C28" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="D28" s="14">
         <v>1</v>
       </c>
       <c r="E28" s="15">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F28" s="14">
         <v>2</v>
       </c>
       <c r="G28" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H28" s="15">
-        <v>0</v>
+        <v>-33.333333333333</v>
       </c>
       <c r="I28" s="14">
         <v>16</v>
       </c>
       <c r="J28" s="14">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K28" s="15">
-        <v>-20</v>
+        <v>-23.809523809523</v>
       </c>
       <c r="L28" s="15">
         <v>-30.434782608695</v>
@@ -1490,11 +1490,11 @@
       <c r="C29" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>21</v>
+      <c r="D29" s="14">
+        <v>1</v>
+      </c>
+      <c r="E29" s="15">
+        <v>-100</v>
       </c>
       <c r="F29" s="13" t="s">
         <v>20</v>
@@ -1509,10 +1509,10 @@
         <v>2</v>
       </c>
       <c r="J29" s="14">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K29" s="15">
-        <v>-85.714285714285</v>
+        <v>-86.666666666666</v>
       </c>
       <c r="L29" s="15">
         <v>-60</v>
@@ -1531,11 +1531,11 @@
       <c r="C30" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E30" s="13" t="s">
-        <v>21</v>
+      <c r="D30" s="14">
+        <v>1</v>
+      </c>
+      <c r="E30" s="15">
+        <v>-100</v>
       </c>
       <c r="F30" s="13" t="s">
         <v>20</v>
@@ -1550,10 +1550,10 @@
         <v>2</v>
       </c>
       <c r="J30" s="14">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K30" s="15">
-        <v>-77.777777777777</v>
+        <v>-80</v>
       </c>
       <c r="L30" s="15">
         <v>-50</v>

--- a/data/source/weekly/cs-en-us-116pct.xlsx
+++ b/data/source/weekly/cs-en-us-116pct.xlsx
@@ -69,7 +69,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">43</t>
+      <t xml:space="preserve">45</t>
     </r>
   </si>
   <si>
@@ -95,7 +95,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">10/20/2025</t>
+      <t xml:space="preserve">11/3/2025</t>
     </r>
     <r>
       <rPr>
@@ -113,7 +113,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">10/26/2025</t>
+      <t xml:space="preserve">11/9/2025</t>
     </r>
   </si>
   <si>
@@ -916,32 +916,32 @@
       <c r="C15" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="14">
         <v>1</v>
       </c>
-      <c r="E15" s="15">
-        <v>-100</v>
-      </c>
-      <c r="F15" s="14">
+      <c r="G15" s="14">
         <v>2</v>
       </c>
-      <c r="G15" s="14">
-        <v>3</v>
-      </c>
       <c r="H15" s="15">
-        <v>-33.333333333333</v>
+        <v>-50</v>
       </c>
       <c r="I15" s="14">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J15" s="14">
         <v>12</v>
       </c>
       <c r="K15" s="15">
-        <v>116.666666666667</v>
+        <v>125</v>
       </c>
       <c r="L15" s="15">
-        <v>100</v>
+        <v>107.692307692308</v>
       </c>
       <c r="M15" s="13" t="s">
         <v>21</v>
@@ -955,34 +955,34 @@
         <v>23</v>
       </c>
       <c r="C16" s="14">
-        <v>2</v>
-      </c>
-      <c r="D16" s="14">
-        <v>2</v>
-      </c>
-      <c r="E16" s="15">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="F16" s="14">
         <v>8</v>
       </c>
       <c r="G16" s="14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H16" s="15">
-        <v>60</v>
+        <v>33.333333333333</v>
       </c>
       <c r="I16" s="14">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="J16" s="14">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K16" s="15">
-        <v>-10.294117647058</v>
+        <v>-7.042253521126</v>
       </c>
       <c r="L16" s="15">
-        <v>-14.084507042253</v>
+        <v>-9.589041095890</v>
       </c>
       <c r="M16" s="13" t="s">
         <v>21</v>
@@ -996,34 +996,34 @@
         <v>24</v>
       </c>
       <c r="C17" s="14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D17" s="14">
         <v>5</v>
       </c>
       <c r="E17" s="15">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F17" s="14">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G17" s="14">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H17" s="15">
-        <v>41.666666666666</v>
+        <v>20</v>
       </c>
       <c r="I17" s="14">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="J17" s="14">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="K17" s="15">
-        <v>11.578947368421</v>
+        <v>12.626262626262</v>
       </c>
       <c r="L17" s="15">
-        <v>8.163265306122</v>
+        <v>11.5</v>
       </c>
       <c r="M17" s="13" t="s">
         <v>21</v>
@@ -1037,34 +1037,34 @@
         <v>25</v>
       </c>
       <c r="C18" s="14">
-        <v>1</v>
-      </c>
-      <c r="D18" s="14">
-        <v>1</v>
-      </c>
-      <c r="E18" s="15">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="F18" s="14">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G18" s="14">
         <v>5</v>
       </c>
       <c r="H18" s="15">
-        <v>-40</v>
+        <v>20</v>
       </c>
       <c r="I18" s="14">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J18" s="14">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K18" s="15">
-        <v>-21.666666666666</v>
+        <v>-18.032786885245</v>
       </c>
       <c r="L18" s="15">
-        <v>-28.787878787878</v>
+        <v>-27.536231884058</v>
       </c>
       <c r="M18" s="13" t="s">
         <v>21</v>
@@ -1081,31 +1081,31 @@
         <v>8</v>
       </c>
       <c r="D19" s="14">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E19" s="15">
-        <v>33.333333333333</v>
+        <v>0</v>
       </c>
       <c r="F19" s="14">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G19" s="14">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H19" s="15">
-        <v>8</v>
+        <v>-20</v>
       </c>
       <c r="I19" s="14">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="J19" s="14">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="K19" s="15">
-        <v>-15.111111111111</v>
+        <v>-16.115702479338</v>
       </c>
       <c r="L19" s="15">
-        <v>-25.680933852140</v>
+        <v>-23.106060606060</v>
       </c>
       <c r="M19" s="13" t="s">
         <v>21</v>
@@ -1119,34 +1119,34 @@
         <v>27</v>
       </c>
       <c r="C20" s="14">
-        <v>1</v>
-      </c>
-      <c r="D20" s="14">
-        <v>5</v>
-      </c>
-      <c r="E20" s="15">
-        <v>-80</v>
+        <v>3</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="F20" s="14">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G20" s="14">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H20" s="15">
-        <v>-60.869565217391</v>
+        <v>-42.105263157894</v>
       </c>
       <c r="I20" s="14">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="J20" s="14">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="K20" s="15">
-        <v>-13.071895424836</v>
+        <v>-10.759493670886</v>
       </c>
       <c r="L20" s="15">
-        <v>-20.833333333333</v>
+        <v>-21.229050279329</v>
       </c>
       <c r="M20" s="13" t="s">
         <v>21</v>
@@ -1160,34 +1160,34 @@
         <v>28</v>
       </c>
       <c r="C21" s="17">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D21" s="17">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E21" s="18">
-        <v>-15</v>
+        <v>69.230769230769</v>
       </c>
       <c r="F21" s="17">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G21" s="17">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H21" s="18">
-        <v>-9.589041095890</v>
+        <v>-11.688311688311</v>
       </c>
       <c r="I21" s="17">
-        <v>670</v>
+        <v>710</v>
       </c>
       <c r="J21" s="17">
-        <v>712</v>
+        <v>746</v>
       </c>
       <c r="K21" s="18">
-        <v>-5.898876404494</v>
+        <v>-4.825737265415</v>
       </c>
       <c r="L21" s="18">
-        <v>-13.324708926261</v>
+        <v>-11.25</v>
       </c>
       <c r="M21" s="19" t="s">
         <v>21</v>
@@ -1283,34 +1283,34 @@
         <v>31</v>
       </c>
       <c r="C24" s="14">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D24" s="14">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E24" s="15">
-        <v>-42.857142857142</v>
+        <v>31.25</v>
       </c>
       <c r="F24" s="14">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="G24" s="14">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="H24" s="15">
-        <v>-28</v>
+        <v>-15.517241379310</v>
       </c>
       <c r="I24" s="14">
-        <v>473</v>
+        <v>503</v>
       </c>
       <c r="J24" s="14">
-        <v>467</v>
+        <v>493</v>
       </c>
       <c r="K24" s="15">
-        <v>1.284796573875</v>
+        <v>2.028397565922</v>
       </c>
       <c r="L24" s="15">
-        <v>-5.210420841683</v>
+        <v>-3.269230769230</v>
       </c>
       <c r="M24" s="13" t="s">
         <v>21</v>
@@ -1327,31 +1327,31 @@
         <v>2</v>
       </c>
       <c r="D25" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E25" s="15">
-        <v>0</v>
+        <v>-33.333333333333</v>
       </c>
       <c r="F25" s="14">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G25" s="14">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H25" s="15">
-        <v>-33.333333333333</v>
+        <v>-18.181818181818</v>
       </c>
       <c r="I25" s="14">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="J25" s="14">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="K25" s="15">
-        <v>-32.558139534883</v>
+        <v>-31.851851851851</v>
       </c>
       <c r="L25" s="15">
-        <v>-36.956521739130</v>
+        <v>-36.111111111111</v>
       </c>
       <c r="M25" s="13" t="s">
         <v>21</v>
@@ -1365,34 +1365,34 @@
         <v>33</v>
       </c>
       <c r="C26" s="14">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D26" s="14">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E26" s="15">
-        <v>37.5</v>
+        <v>75</v>
       </c>
       <c r="F26" s="14">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G26" s="14">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H26" s="15">
-        <v>9.375</v>
+        <v>23.333333333333</v>
       </c>
       <c r="I26" s="14">
-        <v>377</v>
+        <v>396</v>
       </c>
       <c r="J26" s="14">
-        <v>367</v>
+        <v>382</v>
       </c>
       <c r="K26" s="15">
-        <v>2.724795640326</v>
+        <v>3.664921465968</v>
       </c>
       <c r="L26" s="15">
-        <v>15.290519877675</v>
+        <v>13.467048710601</v>
       </c>
       <c r="M26" s="13" t="s">
         <v>21</v>
@@ -1408,32 +1408,32 @@
       <c r="C27" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D27" s="14">
+      <c r="D27" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" s="14">
         <v>1</v>
       </c>
-      <c r="E27" s="15">
-        <v>-100</v>
-      </c>
-      <c r="F27" s="14">
-        <v>3</v>
-      </c>
       <c r="G27" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H27" s="15">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="I27" s="14">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J27" s="14">
         <v>21</v>
       </c>
       <c r="K27" s="15">
-        <v>52.380952380952</v>
+        <v>57.142857142857</v>
       </c>
       <c r="L27" s="15">
-        <v>52.380952380952</v>
+        <v>57.142857142857</v>
       </c>
       <c r="M27" s="13" t="s">
         <v>21</v>
@@ -1446,14 +1446,14 @@
       <c r="A28" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="13" t="s">
-        <v>20</v>
+      <c r="C28" s="14">
+        <v>1</v>
       </c>
       <c r="D28" s="14">
         <v>1</v>
       </c>
       <c r="E28" s="15">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F28" s="14">
         <v>2</v>
@@ -1465,16 +1465,16 @@
         <v>-33.333333333333</v>
       </c>
       <c r="I28" s="14">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J28" s="14">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K28" s="15">
-        <v>-23.809523809523</v>
+        <v>-22.727272727272</v>
       </c>
       <c r="L28" s="15">
-        <v>-30.434782608695</v>
+        <v>-26.086956521739</v>
       </c>
       <c r="M28" s="13" t="s">
         <v>21</v>
@@ -1490,11 +1490,11 @@
       <c r="C29" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="14">
-        <v>1</v>
-      </c>
-      <c r="E29" s="15">
-        <v>-100</v>
+      <c r="D29" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="F29" s="13" t="s">
         <v>20</v>
@@ -1531,11 +1531,11 @@
       <c r="C30" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="14">
-        <v>1</v>
-      </c>
-      <c r="E30" s="15">
-        <v>-100</v>
+      <c r="D30" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="F30" s="13" t="s">
         <v>20</v>
@@ -1581,17 +1581,17 @@
       <c r="F31" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G31" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H31" s="13" t="s">
-        <v>21</v>
+      <c r="G31" s="14">
+        <v>1</v>
+      </c>
+      <c r="H31" s="15">
+        <v>-100</v>
       </c>
       <c r="I31" s="13" t="s">
         <v>20</v>
       </c>
       <c r="J31" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K31" s="15">
         <v>-100</v>

--- a/data/source/weekly/cs-en-us-116pct.xlsx
+++ b/data/source/weekly/cs-en-us-116pct.xlsx
@@ -69,7 +69,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">45</t>
+      <t xml:space="preserve">46</t>
     </r>
   </si>
   <si>
@@ -95,7 +95,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">11/3/2025</t>
+      <t xml:space="preserve">11/10/2025</t>
     </r>
     <r>
       <rPr>
@@ -113,7 +113,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">11/9/2025</t>
+      <t xml:space="preserve">11/16/2025</t>
     </r>
   </si>
   <si>
@@ -916,11 +916,11 @@
       <c r="C15" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>21</v>
+      <c r="D15" s="14">
+        <v>1</v>
+      </c>
+      <c r="E15" s="15">
+        <v>-100</v>
       </c>
       <c r="F15" s="14">
         <v>1</v>
@@ -935,10 +935,10 @@
         <v>27</v>
       </c>
       <c r="J15" s="14">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K15" s="15">
-        <v>125</v>
+        <v>107.692307692308</v>
       </c>
       <c r="L15" s="15">
         <v>107.692307692308</v>
@@ -955,34 +955,34 @@
         <v>23</v>
       </c>
       <c r="C16" s="14">
-        <v>3</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>21</v>
+        <v>4</v>
+      </c>
+      <c r="D16" s="14">
+        <v>1</v>
+      </c>
+      <c r="E16" s="15">
+        <v>300</v>
       </c>
       <c r="F16" s="14">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G16" s="14">
         <v>6</v>
       </c>
       <c r="H16" s="15">
-        <v>33.333333333333</v>
+        <v>100</v>
       </c>
       <c r="I16" s="14">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="J16" s="14">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K16" s="15">
-        <v>-7.042253521126</v>
+        <v>-1.388888888888</v>
       </c>
       <c r="L16" s="15">
-        <v>-9.589041095890</v>
+        <v>-6.578947368421</v>
       </c>
       <c r="M16" s="13" t="s">
         <v>21</v>
@@ -996,34 +996,34 @@
         <v>24</v>
       </c>
       <c r="C17" s="14">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D17" s="14">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E17" s="15">
-        <v>20</v>
+        <v>800</v>
       </c>
       <c r="F17" s="14">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="G17" s="14">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H17" s="15">
-        <v>20</v>
+        <v>71.428571428571</v>
       </c>
       <c r="I17" s="14">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="J17" s="14">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K17" s="15">
-        <v>12.626262626262</v>
+        <v>16.582914572864</v>
       </c>
       <c r="L17" s="15">
-        <v>11.5</v>
+        <v>14.851485148514</v>
       </c>
       <c r="M17" s="13" t="s">
         <v>21</v>
@@ -1037,34 +1037,34 @@
         <v>25</v>
       </c>
       <c r="C18" s="14">
+        <v>3</v>
+      </c>
+      <c r="D18" s="14">
         <v>2</v>
       </c>
-      <c r="D18" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>21</v>
+      <c r="E18" s="15">
+        <v>50</v>
       </c>
       <c r="F18" s="14">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G18" s="14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H18" s="15">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="I18" s="14">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="J18" s="14">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K18" s="15">
-        <v>-18.032786885245</v>
+        <v>-15.873015873015</v>
       </c>
       <c r="L18" s="15">
-        <v>-27.536231884058</v>
+        <v>-23.188405797101</v>
       </c>
       <c r="M18" s="13" t="s">
         <v>21</v>
@@ -1078,10 +1078,10 @@
         <v>26</v>
       </c>
       <c r="C19" s="14">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D19" s="14">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E19" s="15">
         <v>0</v>
@@ -1090,22 +1090,22 @@
         <v>24</v>
       </c>
       <c r="G19" s="14">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H19" s="15">
-        <v>-20</v>
+        <v>-14.285714285714</v>
       </c>
       <c r="I19" s="14">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="J19" s="14">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="K19" s="15">
-        <v>-16.115702479338</v>
+        <v>-14.979757085020</v>
       </c>
       <c r="L19" s="15">
-        <v>-23.106060606060</v>
+        <v>-21.933085501858</v>
       </c>
       <c r="M19" s="13" t="s">
         <v>21</v>
@@ -1119,34 +1119,34 @@
         <v>27</v>
       </c>
       <c r="C20" s="14">
-        <v>3</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>21</v>
+        <v>7</v>
+      </c>
+      <c r="D20" s="14">
+        <v>5</v>
+      </c>
+      <c r="E20" s="15">
+        <v>40</v>
       </c>
       <c r="F20" s="14">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G20" s="14">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H20" s="15">
-        <v>-42.105263157894</v>
+        <v>6.666666666666</v>
       </c>
       <c r="I20" s="14">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="J20" s="14">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="K20" s="15">
-        <v>-10.759493670886</v>
+        <v>-9.202453987730</v>
       </c>
       <c r="L20" s="15">
-        <v>-21.229050279329</v>
+        <v>-18.681318681318</v>
       </c>
       <c r="M20" s="13" t="s">
         <v>21</v>
@@ -1160,34 +1160,34 @@
         <v>28</v>
       </c>
       <c r="C21" s="17">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D21" s="17">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E21" s="18">
-        <v>69.230769230769</v>
+        <v>86.666666666666</v>
       </c>
       <c r="F21" s="17">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="G21" s="17">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="H21" s="18">
-        <v>-11.688311688311</v>
+        <v>21.739130434782</v>
       </c>
       <c r="I21" s="17">
-        <v>710</v>
+        <v>741</v>
       </c>
       <c r="J21" s="17">
-        <v>746</v>
+        <v>761</v>
       </c>
       <c r="K21" s="18">
-        <v>-4.825737265415</v>
+        <v>-2.628120893561</v>
       </c>
       <c r="L21" s="18">
-        <v>-11.25</v>
+        <v>-8.856088560885</v>
       </c>
       <c r="M21" s="19" t="s">
         <v>21</v>
@@ -1283,13 +1283,13 @@
         <v>31</v>
       </c>
       <c r="C24" s="14">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D24" s="14">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E24" s="15">
-        <v>31.25</v>
+        <v>-38.888888888888</v>
       </c>
       <c r="F24" s="14">
         <v>49</v>
@@ -1301,16 +1301,16 @@
         <v>-15.517241379310</v>
       </c>
       <c r="I24" s="14">
-        <v>503</v>
+        <v>513</v>
       </c>
       <c r="J24" s="14">
-        <v>493</v>
+        <v>511</v>
       </c>
       <c r="K24" s="15">
-        <v>2.028397565922</v>
+        <v>0.391389432485</v>
       </c>
       <c r="L24" s="15">
-        <v>-3.269230769230</v>
+        <v>-3.389830508474</v>
       </c>
       <c r="M24" s="13" t="s">
         <v>21</v>
@@ -1324,34 +1324,34 @@
         <v>32</v>
       </c>
       <c r="C25" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25" s="14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E25" s="15">
-        <v>-33.333333333333</v>
+        <v>-25</v>
       </c>
       <c r="F25" s="14">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G25" s="14">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H25" s="15">
-        <v>-18.181818181818</v>
+        <v>-16.666666666666</v>
       </c>
       <c r="I25" s="14">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="J25" s="14">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K25" s="15">
-        <v>-31.851851851851</v>
+        <v>-31.654676258992</v>
       </c>
       <c r="L25" s="15">
-        <v>-36.111111111111</v>
+        <v>-34.482758620689</v>
       </c>
       <c r="M25" s="13" t="s">
         <v>21</v>
@@ -1365,34 +1365,34 @@
         <v>33</v>
       </c>
       <c r="C26" s="14">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D26" s="14">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E26" s="15">
-        <v>75</v>
+        <v>133.333333333333</v>
       </c>
       <c r="F26" s="14">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G26" s="14">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H26" s="15">
-        <v>23.333333333333</v>
+        <v>48.275862068965</v>
       </c>
       <c r="I26" s="14">
-        <v>396</v>
+        <v>409</v>
       </c>
       <c r="J26" s="14">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="K26" s="15">
-        <v>3.664921465968</v>
+        <v>5.412371134020</v>
       </c>
       <c r="L26" s="15">
-        <v>13.467048710601</v>
+        <v>14.887640449438</v>
       </c>
       <c r="M26" s="13" t="s">
         <v>21</v>
@@ -1408,11 +1408,11 @@
       <c r="C27" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D27" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>21</v>
+      <c r="D27" s="14">
+        <v>1</v>
+      </c>
+      <c r="E27" s="15">
+        <v>-100</v>
       </c>
       <c r="F27" s="14">
         <v>1</v>
@@ -1427,10 +1427,10 @@
         <v>33</v>
       </c>
       <c r="J27" s="14">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K27" s="15">
-        <v>57.142857142857</v>
+        <v>50</v>
       </c>
       <c r="L27" s="15">
         <v>57.142857142857</v>
@@ -1447,34 +1447,34 @@
         <v>35</v>
       </c>
       <c r="C28" s="14">
-        <v>1</v>
-      </c>
-      <c r="D28" s="14">
-        <v>1</v>
-      </c>
-      <c r="E28" s="15">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="F28" s="14">
+        <v>4</v>
+      </c>
+      <c r="G28" s="14">
         <v>2</v>
       </c>
-      <c r="G28" s="14">
-        <v>3</v>
-      </c>
       <c r="H28" s="15">
-        <v>-33.333333333333</v>
+        <v>100</v>
       </c>
       <c r="I28" s="14">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J28" s="14">
         <v>22</v>
       </c>
       <c r="K28" s="15">
-        <v>-22.727272727272</v>
+        <v>-9.090909090909</v>
       </c>
       <c r="L28" s="15">
-        <v>-26.086956521739</v>
+        <v>-16.666666666666</v>
       </c>
       <c r="M28" s="13" t="s">
         <v>21</v>

--- a/data/source/weekly/cs-en-us-116pct.xlsx
+++ b/data/source/weekly/cs-en-us-116pct.xlsx
@@ -69,7 +69,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">46</t>
+      <t xml:space="preserve">47</t>
     </r>
   </si>
   <si>
@@ -95,7 +95,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">11/10/2025</t>
+      <t xml:space="preserve">11/17/2025</t>
     </r>
     <r>
       <rPr>
@@ -113,7 +113,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">11/16/2025</t>
+      <t xml:space="preserve">11/23/2025</t>
     </r>
   </si>
   <si>
@@ -916,20 +916,20 @@
       <c r="C15" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="14">
-        <v>1</v>
-      </c>
-      <c r="E15" s="15">
-        <v>-100</v>
+      <c r="D15" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="F15" s="14">
         <v>1</v>
       </c>
       <c r="G15" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H15" s="15">
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="I15" s="14">
         <v>27</v>
@@ -955,34 +955,34 @@
         <v>23</v>
       </c>
       <c r="C16" s="14">
+        <v>1</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="14">
+        <v>11</v>
+      </c>
+      <c r="G16" s="14">
         <v>4</v>
       </c>
-      <c r="D16" s="14">
-        <v>1</v>
-      </c>
-      <c r="E16" s="15">
-        <v>300</v>
-      </c>
-      <c r="F16" s="14">
-        <v>12</v>
-      </c>
-      <c r="G16" s="14">
-        <v>6</v>
-      </c>
       <c r="H16" s="15">
-        <v>100</v>
+        <v>175</v>
       </c>
       <c r="I16" s="14">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J16" s="14">
         <v>72</v>
       </c>
       <c r="K16" s="15">
-        <v>-1.388888888888</v>
+        <v>0</v>
       </c>
       <c r="L16" s="15">
-        <v>-6.578947368421</v>
+        <v>-6.493506493506</v>
       </c>
       <c r="M16" s="13" t="s">
         <v>21</v>
@@ -996,34 +996,34 @@
         <v>24</v>
       </c>
       <c r="C17" s="14">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D17" s="14">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E17" s="15">
-        <v>800</v>
+        <v>-75</v>
       </c>
       <c r="F17" s="14">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G17" s="14">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H17" s="15">
-        <v>71.428571428571</v>
+        <v>23.529411764705</v>
       </c>
       <c r="I17" s="14">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="J17" s="14">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="K17" s="15">
-        <v>16.582914572864</v>
+        <v>13.043478260869</v>
       </c>
       <c r="L17" s="15">
-        <v>14.851485148514</v>
+        <v>12.5</v>
       </c>
       <c r="M17" s="13" t="s">
         <v>21</v>
@@ -1036,35 +1036,35 @@
       <c r="A18" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="14">
-        <v>3</v>
+      <c r="C18" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="D18" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E18" s="15">
-        <v>50</v>
+        <v>-100</v>
       </c>
       <c r="F18" s="14">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G18" s="14">
         <v>4</v>
       </c>
       <c r="H18" s="15">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="I18" s="14">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J18" s="14">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K18" s="15">
-        <v>-15.873015873015</v>
+        <v>-15.625</v>
       </c>
       <c r="L18" s="15">
-        <v>-23.188405797101</v>
+        <v>-21.739130434782</v>
       </c>
       <c r="M18" s="13" t="s">
         <v>21</v>
@@ -1078,34 +1078,34 @@
         <v>26</v>
       </c>
       <c r="C19" s="14">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D19" s="14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E19" s="15">
-        <v>0</v>
+        <v>266.666666666667</v>
       </c>
       <c r="F19" s="14">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G19" s="14">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H19" s="15">
-        <v>-14.285714285714</v>
+        <v>8</v>
       </c>
       <c r="I19" s="14">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="J19" s="14">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="K19" s="15">
-        <v>-14.979757085020</v>
+        <v>-11.6</v>
       </c>
       <c r="L19" s="15">
-        <v>-21.933085501858</v>
+        <v>-19.927536231884</v>
       </c>
       <c r="M19" s="13" t="s">
         <v>21</v>
@@ -1119,34 +1119,34 @@
         <v>27</v>
       </c>
       <c r="C20" s="14">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D20" s="14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E20" s="15">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="F20" s="14">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G20" s="14">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H20" s="15">
-        <v>6.666666666666</v>
+        <v>61.538461538461</v>
       </c>
       <c r="I20" s="14">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="J20" s="14">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="K20" s="15">
-        <v>-9.202453987730</v>
+        <v>-7.228915662650</v>
       </c>
       <c r="L20" s="15">
-        <v>-18.681318681318</v>
+        <v>-17.647058823529</v>
       </c>
       <c r="M20" s="13" t="s">
         <v>21</v>
@@ -1160,34 +1160,34 @@
         <v>28</v>
       </c>
       <c r="C21" s="17">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D21" s="17">
         <v>15</v>
       </c>
       <c r="E21" s="18">
-        <v>86.666666666666</v>
+        <v>33.333333333333</v>
       </c>
       <c r="F21" s="17">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G21" s="17">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H21" s="18">
-        <v>21.739130434782</v>
+        <v>35.9375</v>
       </c>
       <c r="I21" s="17">
-        <v>741</v>
+        <v>762</v>
       </c>
       <c r="J21" s="17">
-        <v>761</v>
+        <v>776</v>
       </c>
       <c r="K21" s="18">
-        <v>-2.628120893561</v>
+        <v>-1.804123711340</v>
       </c>
       <c r="L21" s="18">
-        <v>-8.856088560885</v>
+        <v>-8.413461538461</v>
       </c>
       <c r="M21" s="19" t="s">
         <v>21</v>
@@ -1283,34 +1283,34 @@
         <v>31</v>
       </c>
       <c r="C24" s="14">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D24" s="14">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E24" s="15">
-        <v>-38.888888888888</v>
+        <v>110</v>
       </c>
       <c r="F24" s="14">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="G24" s="14">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H24" s="15">
-        <v>-15.517241379310</v>
+        <v>14.814814814814</v>
       </c>
       <c r="I24" s="14">
-        <v>513</v>
+        <v>534</v>
       </c>
       <c r="J24" s="14">
-        <v>511</v>
+        <v>521</v>
       </c>
       <c r="K24" s="15">
-        <v>0.391389432485</v>
+        <v>2.495201535508</v>
       </c>
       <c r="L24" s="15">
-        <v>-3.389830508474</v>
+        <v>-1.293900184842</v>
       </c>
       <c r="M24" s="13" t="s">
         <v>21</v>
@@ -1324,34 +1324,34 @@
         <v>32</v>
       </c>
       <c r="C25" s="14">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D25" s="14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E25" s="15">
-        <v>-25</v>
+        <v>20</v>
       </c>
       <c r="F25" s="14">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G25" s="14">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H25" s="15">
-        <v>-16.666666666666</v>
+        <v>-6.666666666666</v>
       </c>
       <c r="I25" s="14">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="J25" s="14">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="K25" s="15">
-        <v>-31.654676258992</v>
+        <v>-30.555555555555</v>
       </c>
       <c r="L25" s="15">
-        <v>-34.482758620689</v>
+        <v>-32.432432432432</v>
       </c>
       <c r="M25" s="13" t="s">
         <v>21</v>
@@ -1365,34 +1365,34 @@
         <v>33</v>
       </c>
       <c r="C26" s="14">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D26" s="14">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E26" s="15">
-        <v>133.333333333333</v>
+        <v>-53.846153846153</v>
       </c>
       <c r="F26" s="14">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G26" s="14">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H26" s="15">
-        <v>48.275862068965</v>
+        <v>11.764705882352</v>
       </c>
       <c r="I26" s="14">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="J26" s="14">
-        <v>388</v>
+        <v>401</v>
       </c>
       <c r="K26" s="15">
-        <v>5.412371134020</v>
+        <v>3.491271820448</v>
       </c>
       <c r="L26" s="15">
-        <v>14.887640449438</v>
+        <v>14.958448753462</v>
       </c>
       <c r="M26" s="13" t="s">
         <v>21</v>
@@ -1408,20 +1408,20 @@
       <c r="C27" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D27" s="14">
-        <v>1</v>
-      </c>
-      <c r="E27" s="15">
-        <v>-100</v>
+      <c r="D27" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="F27" s="14">
         <v>1</v>
       </c>
       <c r="G27" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H27" s="15">
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="I27" s="14">
         <v>33</v>
@@ -1447,34 +1447,34 @@
         <v>35</v>
       </c>
       <c r="C28" s="14">
-        <v>3</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>21</v>
+        <v>1</v>
+      </c>
+      <c r="D28" s="14">
+        <v>1</v>
+      </c>
+      <c r="E28" s="15">
+        <v>0</v>
       </c>
       <c r="F28" s="14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G28" s="14">
         <v>2</v>
       </c>
       <c r="H28" s="15">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="I28" s="14">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J28" s="14">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K28" s="15">
-        <v>-9.090909090909</v>
+        <v>-8.695652173913</v>
       </c>
       <c r="L28" s="15">
-        <v>-16.666666666666</v>
+        <v>-12.5</v>
       </c>
       <c r="M28" s="13" t="s">
         <v>21</v>
@@ -1499,11 +1499,11 @@
       <c r="F29" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G29" s="14">
-        <v>1</v>
-      </c>
-      <c r="H29" s="15">
-        <v>-100</v>
+      <c r="G29" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H29" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="I29" s="14">
         <v>2</v>
@@ -1540,11 +1540,11 @@
       <c r="F30" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G30" s="14">
-        <v>1</v>
-      </c>
-      <c r="H30" s="15">
-        <v>-100</v>
+      <c r="G30" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H30" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="I30" s="14">
         <v>2</v>

--- a/data/source/weekly/cs-en-us-116pct.xlsx
+++ b/data/source/weekly/cs-en-us-116pct.xlsx
@@ -69,7 +69,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">47</t>
+      <t xml:space="preserve">48</t>
     </r>
   </si>
   <si>
@@ -95,7 +95,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">11/17/2025</t>
+      <t xml:space="preserve">11/24/2025</t>
     </r>
     <r>
       <rPr>
@@ -113,7 +113,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">11/23/2025</t>
+      <t xml:space="preserve">11/30/2025</t>
     </r>
   </si>
   <si>
@@ -922,14 +922,14 @@
       <c r="E15" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F15" s="14">
-        <v>1</v>
+      <c r="F15" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="G15" s="14">
         <v>1</v>
       </c>
       <c r="H15" s="15">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I15" s="14">
         <v>27</v>
@@ -955,34 +955,34 @@
         <v>23</v>
       </c>
       <c r="C16" s="14">
+        <v>2</v>
+      </c>
+      <c r="D16" s="14">
         <v>1</v>
       </c>
-      <c r="D16" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>21</v>
+      <c r="E16" s="15">
+        <v>100</v>
       </c>
       <c r="F16" s="14">
         <v>11</v>
       </c>
       <c r="G16" s="14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H16" s="15">
-        <v>175</v>
+        <v>450</v>
       </c>
       <c r="I16" s="14">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J16" s="14">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K16" s="15">
-        <v>0</v>
+        <v>1.369863013698</v>
       </c>
       <c r="L16" s="15">
-        <v>-6.493506493506</v>
+        <v>-6.329113924050</v>
       </c>
       <c r="M16" s="13" t="s">
         <v>21</v>
@@ -996,13 +996,13 @@
         <v>24</v>
       </c>
       <c r="C17" s="14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17" s="14">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E17" s="15">
-        <v>-75</v>
+        <v>33.333333333333</v>
       </c>
       <c r="F17" s="14">
         <v>21</v>
@@ -1014,16 +1014,16 @@
         <v>23.529411764705</v>
       </c>
       <c r="I17" s="14">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="J17" s="14">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="K17" s="15">
-        <v>13.043478260869</v>
+        <v>13.333333333333</v>
       </c>
       <c r="L17" s="15">
-        <v>12.5</v>
+        <v>11.737089201877</v>
       </c>
       <c r="M17" s="13" t="s">
         <v>21</v>
@@ -1040,28 +1040,28 @@
         <v>20</v>
       </c>
       <c r="D18" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E18" s="15">
         <v>-100</v>
       </c>
       <c r="F18" s="14">
+        <v>5</v>
+      </c>
+      <c r="G18" s="14">
         <v>6</v>
       </c>
-      <c r="G18" s="14">
-        <v>4</v>
-      </c>
       <c r="H18" s="15">
-        <v>50</v>
+        <v>-16.666666666666</v>
       </c>
       <c r="I18" s="14">
         <v>54</v>
       </c>
       <c r="J18" s="14">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K18" s="15">
-        <v>-15.625</v>
+        <v>-19.402985074626</v>
       </c>
       <c r="L18" s="15">
         <v>-21.739130434782</v>
@@ -1078,34 +1078,34 @@
         <v>26</v>
       </c>
       <c r="C19" s="14">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D19" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E19" s="15">
-        <v>266.666666666667</v>
+        <v>-50</v>
       </c>
       <c r="F19" s="14">
         <v>27</v>
       </c>
       <c r="G19" s="14">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="H19" s="15">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="I19" s="14">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="J19" s="14">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="K19" s="15">
-        <v>-11.6</v>
+        <v>-11.111111111111</v>
       </c>
       <c r="L19" s="15">
-        <v>-19.927536231884</v>
+        <v>-20.848056537102</v>
       </c>
       <c r="M19" s="13" t="s">
         <v>21</v>
@@ -1119,34 +1119,34 @@
         <v>27</v>
       </c>
       <c r="C20" s="14">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D20" s="14">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E20" s="15">
-        <v>100</v>
+        <v>-80</v>
       </c>
       <c r="F20" s="14">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G20" s="14">
         <v>13</v>
       </c>
       <c r="H20" s="15">
-        <v>61.538461538461</v>
+        <v>30.769230769230</v>
       </c>
       <c r="I20" s="14">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J20" s="14">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="K20" s="15">
-        <v>-7.228915662650</v>
+        <v>-9.356725146198</v>
       </c>
       <c r="L20" s="15">
-        <v>-17.647058823529</v>
+        <v>-22.110552763819</v>
       </c>
       <c r="M20" s="13" t="s">
         <v>21</v>
@@ -1160,34 +1160,34 @@
         <v>28</v>
       </c>
       <c r="C21" s="17">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D21" s="17">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E21" s="18">
-        <v>33.333333333333</v>
+        <v>-42.857142857142</v>
       </c>
       <c r="F21" s="17">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="G21" s="17">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="H21" s="18">
-        <v>35.9375</v>
+        <v>42.105263157894</v>
       </c>
       <c r="I21" s="17">
-        <v>762</v>
+        <v>772</v>
       </c>
       <c r="J21" s="17">
-        <v>776</v>
+        <v>790</v>
       </c>
       <c r="K21" s="18">
-        <v>-1.804123711340</v>
+        <v>-2.278481012658</v>
       </c>
       <c r="L21" s="18">
-        <v>-8.413461538461</v>
+        <v>-10.02331002331</v>
       </c>
       <c r="M21" s="19" t="s">
         <v>21</v>
@@ -1283,34 +1283,34 @@
         <v>31</v>
       </c>
       <c r="C24" s="14">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D24" s="14">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E24" s="15">
-        <v>110</v>
+        <v>6.25</v>
       </c>
       <c r="F24" s="14">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="G24" s="14">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="H24" s="15">
-        <v>14.814814814814</v>
+        <v>16.666666666666</v>
       </c>
       <c r="I24" s="14">
-        <v>534</v>
+        <v>551</v>
       </c>
       <c r="J24" s="14">
-        <v>521</v>
+        <v>537</v>
       </c>
       <c r="K24" s="15">
-        <v>2.495201535508</v>
+        <v>2.607076350093</v>
       </c>
       <c r="L24" s="15">
-        <v>-1.293900184842</v>
+        <v>-0.541516245487</v>
       </c>
       <c r="M24" s="13" t="s">
         <v>21</v>
@@ -1324,34 +1324,34 @@
         <v>32</v>
       </c>
       <c r="C25" s="14">
+        <v>8</v>
+      </c>
+      <c r="D25" s="14">
         <v>6</v>
       </c>
-      <c r="D25" s="14">
-        <v>5</v>
-      </c>
       <c r="E25" s="15">
-        <v>20</v>
+        <v>33.333333333333</v>
       </c>
       <c r="F25" s="14">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G25" s="14">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H25" s="15">
-        <v>-6.666666666666</v>
+        <v>11.111111111111</v>
       </c>
       <c r="I25" s="14">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="J25" s="14">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="K25" s="15">
-        <v>-30.555555555555</v>
+        <v>-27.333333333333</v>
       </c>
       <c r="L25" s="15">
-        <v>-32.432432432432</v>
+        <v>-27.814569536423</v>
       </c>
       <c r="M25" s="13" t="s">
         <v>21</v>
@@ -1365,34 +1365,34 @@
         <v>33</v>
       </c>
       <c r="C26" s="14">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D26" s="14">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E26" s="15">
-        <v>-53.846153846153</v>
+        <v>-40</v>
       </c>
       <c r="F26" s="14">
+        <v>35</v>
+      </c>
+      <c r="G26" s="14">
         <v>38</v>
       </c>
-      <c r="G26" s="14">
-        <v>34</v>
-      </c>
       <c r="H26" s="15">
-        <v>11.764705882352</v>
+        <v>-7.894736842105</v>
       </c>
       <c r="I26" s="14">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="J26" s="14">
-        <v>401</v>
+        <v>416</v>
       </c>
       <c r="K26" s="15">
-        <v>3.491271820448</v>
+        <v>1.923076923076</v>
       </c>
       <c r="L26" s="15">
-        <v>14.958448753462</v>
+        <v>14.905149051490</v>
       </c>
       <c r="M26" s="13" t="s">
         <v>21</v>
@@ -1414,14 +1414,14 @@
       <c r="E27" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F27" s="14">
-        <v>1</v>
+      <c r="F27" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="G27" s="14">
         <v>1</v>
       </c>
       <c r="H27" s="15">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I27" s="14">
         <v>33</v>
@@ -1449,32 +1449,32 @@
       <c r="C28" s="14">
         <v>1</v>
       </c>
-      <c r="D28" s="14">
-        <v>1</v>
-      </c>
-      <c r="E28" s="15">
-        <v>0</v>
+      <c r="D28" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="F28" s="14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G28" s="14">
         <v>2</v>
       </c>
       <c r="H28" s="15">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="I28" s="14">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J28" s="14">
         <v>23</v>
       </c>
       <c r="K28" s="15">
-        <v>-8.695652173913</v>
+        <v>-4.347826086956</v>
       </c>
       <c r="L28" s="15">
-        <v>-12.5</v>
+        <v>-8.333333333333</v>
       </c>
       <c r="M28" s="13" t="s">
         <v>21</v>
@@ -1581,11 +1581,11 @@
       <c r="F31" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G31" s="14">
-        <v>1</v>
-      </c>
-      <c r="H31" s="15">
-        <v>-100</v>
+      <c r="G31" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H31" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="I31" s="13" t="s">
         <v>20</v>

--- a/data/source/weekly/cs-en-us-116pct.xlsx
+++ b/data/source/weekly/cs-en-us-116pct.xlsx
@@ -69,7 +69,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">48</t>
+      <t xml:space="preserve">49</t>
     </r>
   </si>
   <si>
@@ -95,7 +95,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">11/24/2025</t>
+      <t xml:space="preserve">12/1/2025</t>
     </r>
     <r>
       <rPr>
@@ -113,7 +113,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">11/30/2025</t>
+      <t xml:space="preserve">12/7/2025</t>
     </r>
   </si>
   <si>
@@ -955,34 +955,34 @@
         <v>23</v>
       </c>
       <c r="C16" s="14">
+        <v>1</v>
+      </c>
+      <c r="D16" s="14">
         <v>2</v>
       </c>
-      <c r="D16" s="14">
-        <v>1</v>
-      </c>
       <c r="E16" s="15">
+        <v>-50</v>
+      </c>
+      <c r="F16" s="14">
+        <v>8</v>
+      </c>
+      <c r="G16" s="14">
+        <v>4</v>
+      </c>
+      <c r="H16" s="15">
         <v>100</v>
       </c>
-      <c r="F16" s="14">
-        <v>11</v>
-      </c>
-      <c r="G16" s="14">
-        <v>2</v>
-      </c>
-      <c r="H16" s="15">
-        <v>450</v>
-      </c>
       <c r="I16" s="14">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J16" s="14">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K16" s="15">
-        <v>1.369863013698</v>
+        <v>0</v>
       </c>
       <c r="L16" s="15">
-        <v>-6.329113924050</v>
+        <v>-6.25</v>
       </c>
       <c r="M16" s="13" t="s">
         <v>21</v>
@@ -999,31 +999,31 @@
         <v>4</v>
       </c>
       <c r="D17" s="14">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E17" s="15">
-        <v>33.333333333333</v>
+        <v>-42.857142857142</v>
       </c>
       <c r="F17" s="14">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G17" s="14">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H17" s="15">
-        <v>23.529411764705</v>
+        <v>0</v>
       </c>
       <c r="I17" s="14">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="J17" s="14">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="K17" s="15">
-        <v>13.333333333333</v>
+        <v>11.520737327188</v>
       </c>
       <c r="L17" s="15">
-        <v>11.737089201877</v>
+        <v>12.558139534883</v>
       </c>
       <c r="M17" s="13" t="s">
         <v>21</v>
@@ -1036,35 +1036,35 @@
       <c r="A18" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="14">
-        <v>3</v>
-      </c>
-      <c r="E18" s="15">
-        <v>-100</v>
+      <c r="C18" s="14">
+        <v>1</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="F18" s="14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G18" s="14">
         <v>6</v>
       </c>
       <c r="H18" s="15">
-        <v>-16.666666666666</v>
+        <v>-33.333333333333</v>
       </c>
       <c r="I18" s="14">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J18" s="14">
         <v>67</v>
       </c>
       <c r="K18" s="15">
-        <v>-19.402985074626</v>
+        <v>-17.910447761194</v>
       </c>
       <c r="L18" s="15">
-        <v>-21.739130434782</v>
+        <v>-20.289855072463</v>
       </c>
       <c r="M18" s="13" t="s">
         <v>21</v>
@@ -1078,34 +1078,34 @@
         <v>26</v>
       </c>
       <c r="C19" s="14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D19" s="14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E19" s="15">
-        <v>-50</v>
+        <v>25</v>
       </c>
       <c r="F19" s="14">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G19" s="14">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H19" s="15">
-        <v>50</v>
+        <v>64.285714285714</v>
       </c>
       <c r="I19" s="14">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="J19" s="14">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="K19" s="15">
-        <v>-11.111111111111</v>
+        <v>-10.546875</v>
       </c>
       <c r="L19" s="15">
-        <v>-20.848056537102</v>
+        <v>-20.761245674740</v>
       </c>
       <c r="M19" s="13" t="s">
         <v>21</v>
@@ -1118,35 +1118,35 @@
       <c r="A20" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="14">
-        <v>1</v>
+      <c r="C20" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="D20" s="14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E20" s="15">
-        <v>-80</v>
+        <v>-100</v>
       </c>
       <c r="F20" s="14">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G20" s="14">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H20" s="15">
-        <v>30.769230769230</v>
+        <v>-26.315789473684</v>
       </c>
       <c r="I20" s="14">
         <v>155</v>
       </c>
       <c r="J20" s="14">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="K20" s="15">
-        <v>-9.356725146198</v>
+        <v>-12.429378531073</v>
       </c>
       <c r="L20" s="15">
-        <v>-22.110552763819</v>
+        <v>-23.267326732673</v>
       </c>
       <c r="M20" s="13" t="s">
         <v>21</v>
@@ -1160,34 +1160,34 @@
         <v>28</v>
       </c>
       <c r="C21" s="17">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D21" s="17">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E21" s="18">
-        <v>-42.857142857142</v>
+        <v>-42.105263157894</v>
       </c>
       <c r="F21" s="17">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="G21" s="17">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="H21" s="18">
-        <v>42.105263157894</v>
+        <v>7.936507936507</v>
       </c>
       <c r="I21" s="17">
-        <v>772</v>
+        <v>783</v>
       </c>
       <c r="J21" s="17">
-        <v>790</v>
+        <v>809</v>
       </c>
       <c r="K21" s="18">
-        <v>-2.278481012658</v>
+        <v>-3.213844252163</v>
       </c>
       <c r="L21" s="18">
-        <v>-10.02331002331</v>
+        <v>-10</v>
       </c>
       <c r="M21" s="19" t="s">
         <v>21</v>
@@ -1283,34 +1283,34 @@
         <v>31</v>
       </c>
       <c r="C24" s="14">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D24" s="14">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E24" s="15">
-        <v>6.25</v>
+        <v>71.428571428571</v>
       </c>
       <c r="F24" s="14">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="G24" s="14">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="H24" s="15">
-        <v>16.666666666666</v>
+        <v>19.607843137254</v>
       </c>
       <c r="I24" s="14">
-        <v>551</v>
+        <v>562</v>
       </c>
       <c r="J24" s="14">
-        <v>537</v>
+        <v>544</v>
       </c>
       <c r="K24" s="15">
-        <v>2.607076350093</v>
+        <v>3.308823529411</v>
       </c>
       <c r="L24" s="15">
-        <v>-0.541516245487</v>
+        <v>-0.706713780918</v>
       </c>
       <c r="M24" s="13" t="s">
         <v>21</v>
@@ -1324,34 +1324,34 @@
         <v>32</v>
       </c>
       <c r="C25" s="14">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D25" s="14">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E25" s="15">
-        <v>33.333333333333</v>
+        <v>100</v>
       </c>
       <c r="F25" s="14">
         <v>20</v>
       </c>
       <c r="G25" s="14">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H25" s="15">
-        <v>11.111111111111</v>
+        <v>25</v>
       </c>
       <c r="I25" s="14">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="J25" s="14">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K25" s="15">
-        <v>-27.333333333333</v>
+        <v>-26.490066225165</v>
       </c>
       <c r="L25" s="15">
-        <v>-27.814569536423</v>
+        <v>-27.922077922077</v>
       </c>
       <c r="M25" s="13" t="s">
         <v>21</v>
@@ -1365,34 +1365,34 @@
         <v>33</v>
       </c>
       <c r="C26" s="14">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D26" s="14">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E26" s="15">
-        <v>-40</v>
+        <v>-42.857142857142</v>
       </c>
       <c r="F26" s="14">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G26" s="14">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H26" s="15">
-        <v>-7.894736842105</v>
+        <v>-25</v>
       </c>
       <c r="I26" s="14">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="J26" s="14">
-        <v>416</v>
+        <v>430</v>
       </c>
       <c r="K26" s="15">
-        <v>1.923076923076</v>
+        <v>0.232558139534</v>
       </c>
       <c r="L26" s="15">
-        <v>14.905149051490</v>
+        <v>14.933333333333</v>
       </c>
       <c r="M26" s="13" t="s">
         <v>21</v>
@@ -1446,23 +1446,23 @@
       <c r="A28" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="14">
+      <c r="C28" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F28" s="14">
+        <v>5</v>
+      </c>
+      <c r="G28" s="14">
         <v>1</v>
       </c>
-      <c r="D28" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F28" s="14">
-        <v>6</v>
-      </c>
-      <c r="G28" s="14">
-        <v>2</v>
-      </c>
       <c r="H28" s="15">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="I28" s="14">
         <v>22</v>
@@ -1474,7 +1474,7 @@
         <v>-4.347826086956</v>
       </c>
       <c r="L28" s="15">
-        <v>-8.333333333333</v>
+        <v>-12</v>
       </c>
       <c r="M28" s="13" t="s">
         <v>21</v>
@@ -1490,29 +1490,29 @@
       <c r="C29" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>21</v>
+      <c r="D29" s="14">
+        <v>2</v>
+      </c>
+      <c r="E29" s="15">
+        <v>-100</v>
       </c>
       <c r="F29" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G29" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H29" s="13" t="s">
-        <v>21</v>
+      <c r="G29" s="14">
+        <v>2</v>
+      </c>
+      <c r="H29" s="15">
+        <v>-100</v>
       </c>
       <c r="I29" s="14">
         <v>2</v>
       </c>
       <c r="J29" s="14">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K29" s="15">
-        <v>-86.666666666666</v>
+        <v>-88.235294117647</v>
       </c>
       <c r="L29" s="15">
         <v>-60</v>
@@ -1531,29 +1531,29 @@
       <c r="C30" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E30" s="13" t="s">
-        <v>21</v>
+      <c r="D30" s="14">
+        <v>2</v>
+      </c>
+      <c r="E30" s="15">
+        <v>-100</v>
       </c>
       <c r="F30" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G30" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H30" s="13" t="s">
-        <v>21</v>
+      <c r="G30" s="14">
+        <v>2</v>
+      </c>
+      <c r="H30" s="15">
+        <v>-100</v>
       </c>
       <c r="I30" s="14">
         <v>2</v>
       </c>
       <c r="J30" s="14">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K30" s="15">
-        <v>-80</v>
+        <v>-83.333333333333</v>
       </c>
       <c r="L30" s="15">
         <v>-50</v>

--- a/data/source/weekly/cs-en-us-116pct.xlsx
+++ b/data/source/weekly/cs-en-us-116pct.xlsx
@@ -69,7 +69,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">49</t>
+      <t xml:space="preserve">50</t>
     </r>
   </si>
   <si>
@@ -95,7 +95,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">12/1/2025</t>
+      <t xml:space="preserve">12/8/2025</t>
     </r>
     <r>
       <rPr>
@@ -113,7 +113,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">12/7/2025</t>
+      <t xml:space="preserve">12/14/2025</t>
     </r>
   </si>
   <si>
@@ -925,11 +925,11 @@
       <c r="F15" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G15" s="14">
-        <v>1</v>
-      </c>
-      <c r="H15" s="15">
-        <v>-100</v>
+      <c r="G15" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="I15" s="14">
         <v>27</v>
@@ -954,35 +954,35 @@
       <c r="A16" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="14">
-        <v>1</v>
+      <c r="C16" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="D16" s="14">
         <v>2</v>
       </c>
       <c r="E16" s="15">
-        <v>-50</v>
+        <v>-100</v>
       </c>
       <c r="F16" s="14">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G16" s="14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H16" s="15">
-        <v>100</v>
+        <v>-20</v>
       </c>
       <c r="I16" s="14">
         <v>75</v>
       </c>
       <c r="J16" s="14">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K16" s="15">
-        <v>0</v>
+        <v>-2.597402597402</v>
       </c>
       <c r="L16" s="15">
-        <v>-6.25</v>
+        <v>-7.407407407407</v>
       </c>
       <c r="M16" s="13" t="s">
         <v>21</v>
@@ -999,31 +999,31 @@
         <v>4</v>
       </c>
       <c r="D17" s="14">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E17" s="15">
-        <v>-42.857142857142</v>
+        <v>33.333333333333</v>
       </c>
       <c r="F17" s="14">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G17" s="14">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H17" s="15">
-        <v>0</v>
+        <v>-33.333333333333</v>
       </c>
       <c r="I17" s="14">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="J17" s="14">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="K17" s="15">
-        <v>11.520737327188</v>
+        <v>11.818181818181</v>
       </c>
       <c r="L17" s="15">
-        <v>12.558139534883</v>
+        <v>14.418604651162</v>
       </c>
       <c r="M17" s="13" t="s">
         <v>21</v>
@@ -1037,34 +1037,34 @@
         <v>25</v>
       </c>
       <c r="C18" s="14">
+        <v>2</v>
+      </c>
+      <c r="D18" s="14">
         <v>1</v>
       </c>
-      <c r="D18" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>21</v>
+      <c r="E18" s="15">
+        <v>100</v>
       </c>
       <c r="F18" s="14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G18" s="14">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H18" s="15">
-        <v>-33.333333333333</v>
+        <v>-40</v>
       </c>
       <c r="I18" s="14">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J18" s="14">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K18" s="15">
-        <v>-17.910447761194</v>
+        <v>-16.176470588235</v>
       </c>
       <c r="L18" s="15">
-        <v>-20.289855072463</v>
+        <v>-20.833333333333</v>
       </c>
       <c r="M18" s="13" t="s">
         <v>21</v>
@@ -1078,34 +1078,34 @@
         <v>26</v>
       </c>
       <c r="C19" s="14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D19" s="14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E19" s="15">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="F19" s="14">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G19" s="14">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H19" s="15">
-        <v>64.285714285714</v>
+        <v>100</v>
       </c>
       <c r="I19" s="14">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="J19" s="14">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="K19" s="15">
-        <v>-10.546875</v>
+        <v>-8.494208494208</v>
       </c>
       <c r="L19" s="15">
-        <v>-20.761245674740</v>
+        <v>-19.112627986348</v>
       </c>
       <c r="M19" s="13" t="s">
         <v>21</v>
@@ -1118,35 +1118,35 @@
       <c r="A20" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="13" t="s">
-        <v>20</v>
+      <c r="C20" s="14">
+        <v>10</v>
       </c>
       <c r="D20" s="14">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E20" s="15">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F20" s="14">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G20" s="14">
         <v>19</v>
       </c>
       <c r="H20" s="15">
-        <v>-26.315789473684</v>
+        <v>-10.526315789473</v>
       </c>
       <c r="I20" s="14">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="J20" s="14">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="K20" s="15">
-        <v>-12.429378531073</v>
+        <v>-9.340659340659</v>
       </c>
       <c r="L20" s="15">
-        <v>-23.267326732673</v>
+        <v>-19.512195121951</v>
       </c>
       <c r="M20" s="13" t="s">
         <v>21</v>
@@ -1160,34 +1160,34 @@
         <v>28</v>
       </c>
       <c r="C21" s="17">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D21" s="17">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E21" s="18">
-        <v>-42.105263157894</v>
+        <v>57.142857142857</v>
       </c>
       <c r="F21" s="17">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="G21" s="17">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H21" s="18">
-        <v>7.936507936507</v>
+        <v>0</v>
       </c>
       <c r="I21" s="17">
-        <v>783</v>
+        <v>807</v>
       </c>
       <c r="J21" s="17">
-        <v>809</v>
+        <v>823</v>
       </c>
       <c r="K21" s="18">
-        <v>-3.213844252163</v>
+        <v>-1.944106925880</v>
       </c>
       <c r="L21" s="18">
-        <v>-10</v>
+        <v>-8.399545970488</v>
       </c>
       <c r="M21" s="19" t="s">
         <v>21</v>
@@ -1286,31 +1286,31 @@
         <v>12</v>
       </c>
       <c r="D24" s="14">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E24" s="15">
-        <v>71.428571428571</v>
+        <v>-29.411764705882</v>
       </c>
       <c r="F24" s="14">
         <v>61</v>
       </c>
       <c r="G24" s="14">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H24" s="15">
-        <v>19.607843137254</v>
+        <v>22</v>
       </c>
       <c r="I24" s="14">
-        <v>562</v>
+        <v>574</v>
       </c>
       <c r="J24" s="14">
-        <v>544</v>
+        <v>561</v>
       </c>
       <c r="K24" s="15">
-        <v>3.308823529411</v>
+        <v>2.317290552584</v>
       </c>
       <c r="L24" s="15">
-        <v>-0.706713780918</v>
+        <v>-1.204819277108</v>
       </c>
       <c r="M24" s="13" t="s">
         <v>21</v>
@@ -1323,35 +1323,35 @@
       <c r="A25" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="14">
-        <v>2</v>
+      <c r="C25" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="D25" s="14">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E25" s="15">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="F25" s="14">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G25" s="14">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H25" s="15">
-        <v>25</v>
+        <v>-5.555555555555</v>
       </c>
       <c r="I25" s="14">
         <v>111</v>
       </c>
       <c r="J25" s="14">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="K25" s="15">
-        <v>-26.490066225165</v>
+        <v>-29.299363057324</v>
       </c>
       <c r="L25" s="15">
-        <v>-27.922077922077</v>
+        <v>-29.299363057324</v>
       </c>
       <c r="M25" s="13" t="s">
         <v>21</v>
@@ -1365,34 +1365,34 @@
         <v>33</v>
       </c>
       <c r="C26" s="14">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D26" s="14">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E26" s="15">
-        <v>-42.857142857142</v>
+        <v>0</v>
       </c>
       <c r="F26" s="14">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="G26" s="14">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H26" s="15">
-        <v>-25</v>
+        <v>-41.304347826087</v>
       </c>
       <c r="I26" s="14">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="J26" s="14">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="K26" s="15">
-        <v>0.232558139534</v>
+        <v>0.460829493087</v>
       </c>
       <c r="L26" s="15">
-        <v>14.933333333333</v>
+        <v>14.736842105263</v>
       </c>
       <c r="M26" s="13" t="s">
         <v>21</v>
@@ -1417,11 +1417,11 @@
       <c r="F27" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G27" s="14">
-        <v>1</v>
-      </c>
-      <c r="H27" s="15">
-        <v>-100</v>
+      <c r="G27" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H27" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="I27" s="14">
         <v>33</v>
@@ -1449,32 +1449,32 @@
       <c r="C28" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>21</v>
+      <c r="D28" s="14">
+        <v>1</v>
+      </c>
+      <c r="E28" s="15">
+        <v>-100</v>
       </c>
       <c r="F28" s="14">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G28" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H28" s="15">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="I28" s="14">
         <v>22</v>
       </c>
       <c r="J28" s="14">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K28" s="15">
-        <v>-4.347826086956</v>
+        <v>-8.333333333333</v>
       </c>
       <c r="L28" s="15">
-        <v>-12</v>
+        <v>-15.384615384615</v>
       </c>
       <c r="M28" s="13" t="s">
         <v>21</v>
@@ -1490,11 +1490,11 @@
       <c r="C29" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="14">
-        <v>2</v>
-      </c>
-      <c r="E29" s="15">
-        <v>-100</v>
+      <c r="D29" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="F29" s="13" t="s">
         <v>20</v>
@@ -1531,11 +1531,11 @@
       <c r="C30" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="14">
-        <v>2</v>
-      </c>
-      <c r="E30" s="15">
-        <v>-100</v>
+      <c r="D30" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="F30" s="13" t="s">
         <v>20</v>
@@ -1647,7 +1647,7 @@
         <v>21</v>
       </c>
       <c r="I33" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J33" s="13" t="s">
         <v>20</v>

--- a/data/source/weekly/cs-en-us-116pct.xlsx
+++ b/data/source/weekly/cs-en-us-116pct.xlsx
@@ -69,7 +69,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">50</t>
+      <t xml:space="preserve">51</t>
     </r>
   </si>
   <si>
@@ -95,7 +95,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">12/8/2025</t>
+      <t xml:space="preserve">12/15/2025</t>
     </r>
     <r>
       <rPr>
@@ -113,7 +113,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">12/14/2025</t>
+      <t xml:space="preserve">12/21/2025</t>
     </r>
   </si>
   <si>
@@ -954,35 +954,35 @@
       <c r="A16" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="13" t="s">
-        <v>20</v>
+      <c r="C16" s="14">
+        <v>2</v>
       </c>
       <c r="D16" s="14">
         <v>2</v>
       </c>
       <c r="E16" s="15">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F16" s="14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G16" s="14">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H16" s="15">
-        <v>-20</v>
+        <v>-28.571428571428</v>
       </c>
       <c r="I16" s="14">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J16" s="14">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K16" s="15">
-        <v>-2.597402597402</v>
+        <v>-2.531645569620</v>
       </c>
       <c r="L16" s="15">
-        <v>-7.407407407407</v>
+        <v>-7.228915662650</v>
       </c>
       <c r="M16" s="13" t="s">
         <v>21</v>
@@ -996,34 +996,34 @@
         <v>24</v>
       </c>
       <c r="C17" s="14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D17" s="14">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E17" s="15">
-        <v>33.333333333333</v>
+        <v>-83.333333333333</v>
       </c>
       <c r="F17" s="14">
         <v>14</v>
       </c>
       <c r="G17" s="14">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H17" s="15">
-        <v>-33.333333333333</v>
+        <v>-44</v>
       </c>
       <c r="I17" s="14">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="J17" s="14">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="K17" s="15">
-        <v>11.818181818181</v>
+        <v>6.896551724137</v>
       </c>
       <c r="L17" s="15">
-        <v>14.418604651162</v>
+        <v>14.285714285714</v>
       </c>
       <c r="M17" s="13" t="s">
         <v>21</v>
@@ -1036,23 +1036,23 @@
       <c r="A18" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="14">
-        <v>2</v>
-      </c>
-      <c r="D18" s="14">
-        <v>1</v>
-      </c>
-      <c r="E18" s="15">
-        <v>100</v>
+      <c r="C18" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="F18" s="14">
         <v>3</v>
       </c>
       <c r="G18" s="14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H18" s="15">
-        <v>-40</v>
+        <v>-25</v>
       </c>
       <c r="I18" s="14">
         <v>57</v>
@@ -1064,7 +1064,7 @@
         <v>-16.176470588235</v>
       </c>
       <c r="L18" s="15">
-        <v>-20.833333333333</v>
+        <v>-21.917808219178</v>
       </c>
       <c r="M18" s="13" t="s">
         <v>21</v>
@@ -1081,31 +1081,31 @@
         <v>6</v>
       </c>
       <c r="D19" s="14">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E19" s="15">
-        <v>100</v>
+        <v>-25</v>
       </c>
       <c r="F19" s="14">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="G19" s="14">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H19" s="15">
-        <v>100</v>
+        <v>5.882352941176</v>
       </c>
       <c r="I19" s="14">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="J19" s="14">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="K19" s="15">
-        <v>-8.494208494208</v>
+        <v>-8.614232209737</v>
       </c>
       <c r="L19" s="15">
-        <v>-19.112627986348</v>
+        <v>-18.394648829431</v>
       </c>
       <c r="M19" s="13" t="s">
         <v>21</v>
@@ -1119,34 +1119,34 @@
         <v>27</v>
       </c>
       <c r="C20" s="14">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D20" s="14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E20" s="15">
-        <v>100</v>
+        <v>33.333333333333</v>
       </c>
       <c r="F20" s="14">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G20" s="14">
         <v>19</v>
       </c>
       <c r="H20" s="15">
-        <v>-10.526315789473</v>
+        <v>-26.315789473684</v>
       </c>
       <c r="I20" s="14">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="J20" s="14">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="K20" s="15">
-        <v>-9.340659340659</v>
+        <v>-9.189189189189</v>
       </c>
       <c r="L20" s="15">
-        <v>-19.512195121951</v>
+        <v>-19.617224880382</v>
       </c>
       <c r="M20" s="13" t="s">
         <v>21</v>
@@ -1160,34 +1160,34 @@
         <v>28</v>
       </c>
       <c r="C21" s="17">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D21" s="17">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E21" s="18">
-        <v>57.142857142857</v>
+        <v>-44</v>
       </c>
       <c r="F21" s="17">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="G21" s="17">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="H21" s="18">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="I21" s="17">
-        <v>807</v>
+        <v>821</v>
       </c>
       <c r="J21" s="17">
-        <v>823</v>
+        <v>848</v>
       </c>
       <c r="K21" s="18">
-        <v>-1.944106925880</v>
+        <v>-3.183962264150</v>
       </c>
       <c r="L21" s="18">
-        <v>-8.399545970488</v>
+        <v>-8.370535714285</v>
       </c>
       <c r="M21" s="19" t="s">
         <v>21</v>
@@ -1283,34 +1283,34 @@
         <v>31</v>
       </c>
       <c r="C24" s="14">
+        <v>5</v>
+      </c>
+      <c r="D24" s="14">
         <v>12</v>
       </c>
-      <c r="D24" s="14">
-        <v>17</v>
-      </c>
       <c r="E24" s="15">
-        <v>-29.411764705882</v>
+        <v>-58.333333333333</v>
       </c>
       <c r="F24" s="14">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="G24" s="14">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H24" s="15">
-        <v>22</v>
+        <v>-17.307692307692</v>
       </c>
       <c r="I24" s="14">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="J24" s="14">
-        <v>561</v>
+        <v>573</v>
       </c>
       <c r="K24" s="15">
-        <v>2.317290552584</v>
+        <v>0.698080279232</v>
       </c>
       <c r="L24" s="15">
-        <v>-1.204819277108</v>
+        <v>-2.368866328257</v>
       </c>
       <c r="M24" s="13" t="s">
         <v>21</v>
@@ -1327,31 +1327,31 @@
         <v>20</v>
       </c>
       <c r="D25" s="14">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E25" s="15">
         <v>-100</v>
       </c>
       <c r="F25" s="14">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G25" s="14">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H25" s="15">
-        <v>-5.555555555555</v>
+        <v>-37.5</v>
       </c>
       <c r="I25" s="14">
         <v>111</v>
       </c>
       <c r="J25" s="14">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K25" s="15">
-        <v>-29.299363057324</v>
+        <v>-30.625</v>
       </c>
       <c r="L25" s="15">
-        <v>-29.299363057324</v>
+        <v>-31.055900621118</v>
       </c>
       <c r="M25" s="13" t="s">
         <v>21</v>
@@ -1364,35 +1364,35 @@
       <c r="A26" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="14">
-        <v>4</v>
+      <c r="C26" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="D26" s="14">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E26" s="15">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F26" s="14">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G26" s="14">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H26" s="15">
-        <v>-41.304347826087</v>
+        <v>-51.219512195122</v>
       </c>
       <c r="I26" s="14">
         <v>436</v>
       </c>
       <c r="J26" s="14">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="K26" s="15">
-        <v>0.460829493087</v>
+        <v>-1.357466063348</v>
       </c>
       <c r="L26" s="15">
-        <v>14.736842105263</v>
+        <v>12.371134020618</v>
       </c>
       <c r="M26" s="13" t="s">
         <v>21</v>
@@ -1449,17 +1449,17 @@
       <c r="C28" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="14">
+      <c r="D28" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F28" s="14">
         <v>1</v>
       </c>
-      <c r="E28" s="15">
-        <v>-100</v>
-      </c>
-      <c r="F28" s="14">
-        <v>2</v>
-      </c>
       <c r="G28" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H28" s="15">
         <v>0</v>
@@ -1474,7 +1474,7 @@
         <v>-8.333333333333</v>
       </c>
       <c r="L28" s="15">
-        <v>-15.384615384615</v>
+        <v>-18.518518518518</v>
       </c>
       <c r="M28" s="13" t="s">
         <v>21</v>

--- a/data/source/weekly/cs-en-us-116pct.xlsx
+++ b/data/source/weekly/cs-en-us-116pct.xlsx
@@ -69,7 +69,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">51</t>
+      <t xml:space="preserve">52</t>
     </r>
   </si>
   <si>
@@ -95,7 +95,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">12/15/2025</t>
+      <t xml:space="preserve">12/22/2025</t>
     </r>
     <r>
       <rPr>
@@ -113,7 +113,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">12/21/2025</t>
+      <t xml:space="preserve">12/28/2025</t>
     </r>
   </si>
   <si>
@@ -916,29 +916,29 @@
       <c r="C15" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>21</v>
+      <c r="D15" s="14">
+        <v>1</v>
+      </c>
+      <c r="E15" s="15">
+        <v>-100</v>
       </c>
       <c r="F15" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G15" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>21</v>
+      <c r="G15" s="14">
+        <v>1</v>
+      </c>
+      <c r="H15" s="15">
+        <v>-100</v>
       </c>
       <c r="I15" s="14">
         <v>27</v>
       </c>
       <c r="J15" s="14">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K15" s="15">
-        <v>107.692307692308</v>
+        <v>92.857142857142</v>
       </c>
       <c r="L15" s="15">
         <v>107.692307692308</v>
@@ -954,32 +954,32 @@
       <c r="A16" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="14">
-        <v>2</v>
+      <c r="C16" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="D16" s="14">
         <v>2</v>
       </c>
       <c r="E16" s="15">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F16" s="14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G16" s="14">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H16" s="15">
-        <v>-28.571428571428</v>
+        <v>-62.5</v>
       </c>
       <c r="I16" s="14">
         <v>77</v>
       </c>
       <c r="J16" s="14">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K16" s="15">
-        <v>-2.531645569620</v>
+        <v>-4.938271604938</v>
       </c>
       <c r="L16" s="15">
         <v>-7.228915662650</v>
@@ -996,34 +996,34 @@
         <v>24</v>
       </c>
       <c r="C17" s="14">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D17" s="14">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E17" s="15">
-        <v>-83.333333333333</v>
+        <v>100</v>
       </c>
       <c r="F17" s="14">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G17" s="14">
         <v>25</v>
       </c>
       <c r="H17" s="15">
-        <v>-44</v>
+        <v>-36</v>
       </c>
       <c r="I17" s="14">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="J17" s="14">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="K17" s="15">
-        <v>6.896551724137</v>
+        <v>8.085106382978</v>
       </c>
       <c r="L17" s="15">
-        <v>14.285714285714</v>
+        <v>16.513761467889</v>
       </c>
       <c r="M17" s="13" t="s">
         <v>21</v>
@@ -1036,35 +1036,35 @@
       <c r="A18" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>21</v>
+      <c r="C18" s="14">
+        <v>4</v>
+      </c>
+      <c r="D18" s="14">
+        <v>1</v>
+      </c>
+      <c r="E18" s="15">
+        <v>300</v>
       </c>
       <c r="F18" s="14">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G18" s="14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H18" s="15">
-        <v>-25</v>
+        <v>250</v>
       </c>
       <c r="I18" s="14">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="J18" s="14">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K18" s="15">
-        <v>-16.176470588235</v>
+        <v>-10.144927536231</v>
       </c>
       <c r="L18" s="15">
-        <v>-21.917808219178</v>
+        <v>-18.421052631578</v>
       </c>
       <c r="M18" s="13" t="s">
         <v>21</v>
@@ -1078,34 +1078,34 @@
         <v>26</v>
       </c>
       <c r="C19" s="14">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D19" s="14">
         <v>8</v>
       </c>
       <c r="E19" s="15">
-        <v>-25</v>
+        <v>-75</v>
       </c>
       <c r="F19" s="14">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G19" s="14">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="H19" s="15">
-        <v>5.882352941176</v>
+        <v>-13.043478260869</v>
       </c>
       <c r="I19" s="14">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="J19" s="14">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="K19" s="15">
-        <v>-8.614232209737</v>
+        <v>-10.181818181818</v>
       </c>
       <c r="L19" s="15">
-        <v>-18.394648829431</v>
+        <v>-18.481848184818</v>
       </c>
       <c r="M19" s="13" t="s">
         <v>21</v>
@@ -1119,34 +1119,34 @@
         <v>27</v>
       </c>
       <c r="C20" s="14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E20" s="15">
-        <v>33.333333333333</v>
+        <v>50</v>
       </c>
       <c r="F20" s="14">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G20" s="14">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H20" s="15">
-        <v>-26.315789473684</v>
+        <v>0</v>
       </c>
       <c r="I20" s="14">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="J20" s="14">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="K20" s="15">
-        <v>-9.189189189189</v>
+        <v>-8.556149732620</v>
       </c>
       <c r="L20" s="15">
-        <v>-19.617224880382</v>
+        <v>-19.718309859154</v>
       </c>
       <c r="M20" s="13" t="s">
         <v>21</v>
@@ -1160,34 +1160,34 @@
         <v>28</v>
       </c>
       <c r="C21" s="17">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D21" s="17">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E21" s="18">
-        <v>-44</v>
+        <v>-11.764705882352</v>
       </c>
       <c r="F21" s="17">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="G21" s="17">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H21" s="18">
-        <v>-25</v>
+        <v>-17.333333333333</v>
       </c>
       <c r="I21" s="17">
-        <v>821</v>
+        <v>838</v>
       </c>
       <c r="J21" s="17">
-        <v>848</v>
+        <v>865</v>
       </c>
       <c r="K21" s="18">
-        <v>-3.183962264150</v>
+        <v>-3.121387283236</v>
       </c>
       <c r="L21" s="18">
-        <v>-8.370535714285</v>
+        <v>-7.709251101321</v>
       </c>
       <c r="M21" s="19" t="s">
         <v>21</v>
@@ -1283,34 +1283,34 @@
         <v>31</v>
       </c>
       <c r="C24" s="14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24" s="14">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E24" s="15">
-        <v>-58.333333333333</v>
+        <v>-55.555555555555</v>
       </c>
       <c r="F24" s="14">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G24" s="14">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="H24" s="15">
-        <v>-17.307692307692</v>
+        <v>-33.333333333333</v>
       </c>
       <c r="I24" s="14">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="J24" s="14">
-        <v>573</v>
+        <v>582</v>
       </c>
       <c r="K24" s="15">
-        <v>0.698080279232</v>
+        <v>-0.343642611683</v>
       </c>
       <c r="L24" s="15">
-        <v>-2.368866328257</v>
+        <v>-3.171953255425</v>
       </c>
       <c r="M24" s="13" t="s">
         <v>21</v>
@@ -1323,35 +1323,35 @@
       <c r="A25" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="13" t="s">
-        <v>20</v>
+      <c r="C25" s="14">
+        <v>2</v>
       </c>
       <c r="D25" s="14">
         <v>3</v>
       </c>
       <c r="E25" s="15">
-        <v>-100</v>
+        <v>-33.333333333333</v>
       </c>
       <c r="F25" s="14">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G25" s="14">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H25" s="15">
-        <v>-37.5</v>
+        <v>-69.230769230769</v>
       </c>
       <c r="I25" s="14">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="J25" s="14">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="K25" s="15">
-        <v>-30.625</v>
+        <v>-30.674846625766</v>
       </c>
       <c r="L25" s="15">
-        <v>-31.055900621118</v>
+        <v>-30.246913580246</v>
       </c>
       <c r="M25" s="13" t="s">
         <v>21</v>
@@ -1364,35 +1364,35 @@
       <c r="A26" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="13" t="s">
-        <v>20</v>
+      <c r="C26" s="14">
+        <v>9</v>
       </c>
       <c r="D26" s="14">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E26" s="15">
-        <v>-100</v>
+        <v>-25</v>
       </c>
       <c r="F26" s="14">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G26" s="14">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H26" s="15">
-        <v>-51.219512195122</v>
+        <v>-42.105263157894</v>
       </c>
       <c r="I26" s="14">
-        <v>436</v>
+        <v>445</v>
       </c>
       <c r="J26" s="14">
-        <v>442</v>
+        <v>454</v>
       </c>
       <c r="K26" s="15">
-        <v>-1.357466063348</v>
+        <v>-1.982378854625</v>
       </c>
       <c r="L26" s="15">
-        <v>12.371134020618</v>
+        <v>14.102564102564</v>
       </c>
       <c r="M26" s="13" t="s">
         <v>21</v>
@@ -1408,29 +1408,29 @@
       <c r="C27" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D27" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>21</v>
+      <c r="D27" s="14">
+        <v>1</v>
+      </c>
+      <c r="E27" s="15">
+        <v>-100</v>
       </c>
       <c r="F27" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G27" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H27" s="13" t="s">
-        <v>21</v>
+      <c r="G27" s="14">
+        <v>1</v>
+      </c>
+      <c r="H27" s="15">
+        <v>-100</v>
       </c>
       <c r="I27" s="14">
         <v>33</v>
       </c>
       <c r="J27" s="14">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K27" s="15">
-        <v>50</v>
+        <v>43.478260869565</v>
       </c>
       <c r="L27" s="15">
         <v>57.142857142857</v>
@@ -1455,14 +1455,14 @@
       <c r="E28" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F28" s="14">
-        <v>1</v>
+      <c r="F28" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="G28" s="14">
         <v>1</v>
       </c>
       <c r="H28" s="15">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I28" s="14">
         <v>22</v>
@@ -1474,7 +1474,7 @@
         <v>-8.333333333333</v>
       </c>
       <c r="L28" s="15">
-        <v>-18.518518518518</v>
+        <v>-21.428571428571</v>
       </c>
       <c r="M28" s="13" t="s">
         <v>21</v>
@@ -1631,29 +1631,29 @@
       <c r="C33" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D33" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E33" s="13" t="s">
-        <v>21</v>
+      <c r="D33" s="14">
+        <v>1</v>
+      </c>
+      <c r="E33" s="15">
+        <v>-100</v>
       </c>
       <c r="F33" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G33" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H33" s="13" t="s">
-        <v>21</v>
+      <c r="G33" s="14">
+        <v>1</v>
+      </c>
+      <c r="H33" s="15">
+        <v>-100</v>
       </c>
       <c r="I33" s="14">
         <v>2</v>
       </c>
-      <c r="J33" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="K33" s="13" t="s">
-        <v>21</v>
+      <c r="J33" s="14">
+        <v>1</v>
+      </c>
+      <c r="K33" s="15">
+        <v>100</v>
       </c>
       <c r="L33" s="13" t="s">
         <v>21</v>

--- a/data/source/weekly/cs-en-us-116pct.xlsx
+++ b/data/source/weekly/cs-en-us-116pct.xlsx
@@ -20,7 +20,7 @@
     <t>Police Department</t>
   </si>
   <si>
-    <t>Eric L. Adams</t>
+    <t>Zohran K. Mamdani</t>
   </si>
   <si>
     <t>City of New York</t>
@@ -51,7 +51,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">32</t>
+      <t xml:space="preserve">33</t>
     </r>
     <r>
       <rPr>
@@ -69,7 +69,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">52</t>
+      <t xml:space="preserve">1</t>
     </r>
   </si>
   <si>
@@ -95,7 +95,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">12/22/2025</t>
+      <t xml:space="preserve">12/29/2025</t>
     </r>
     <r>
       <rPr>
@@ -113,7 +113,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">12/28/2025</t>
+      <t xml:space="preserve">1/4/2026</t>
     </r>
   </si>
   <si>
@@ -139,7 +139,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">15</t>
+      <t xml:space="preserve">16</t>
     </r>
     <r>
       <rPr>
@@ -168,7 +168,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">32</t>
+      <t xml:space="preserve">33</t>
     </r>
     <r>
       <rPr>
@@ -283,16 +283,16 @@
     <t>%Chg  </t>
   </si>
   <si>
-    <t>'24 vs '01</t>
-  </si>
-  <si>
-    <t>'24 vs '98</t>
-  </si>
-  <si>
-    <t>'24 vs '93</t>
-  </si>
-  <si>
-    <t>'24 vs '90</t>
+    <t>'25 vs '01</t>
+  </si>
+  <si>
+    <t>'25 vs '98</t>
+  </si>
+  <si>
+    <t>'25 vs '93</t>
+  </si>
+  <si>
+    <t>'25 vs '90</t>
   </si>
   <si>
     <t>Figures are preliminary and subject to further analysis and revision.</t>
@@ -832,28 +832,28 @@
         <v>17</v>
       </c>
       <c r="C13" s="11">
+        <v>2026</v>
+      </c>
+      <c r="D13" s="11">
         <v>2025</v>
-      </c>
-      <c r="D13" s="11">
-        <v>2024</v>
       </c>
       <c r="E13" s="12" t="s">
         <v>18</v>
       </c>
       <c r="F13" s="11">
+        <v>2026</v>
+      </c>
+      <c r="G13" s="11">
         <v>2025</v>
-      </c>
-      <c r="G13" s="11">
-        <v>2024</v>
       </c>
       <c r="H13" s="12" t="s">
         <v>18</v>
       </c>
       <c r="I13" s="11">
+        <v>2026</v>
+      </c>
+      <c r="J13" s="11">
         <v>2025</v>
-      </c>
-      <c r="J13" s="11">
-        <v>2024</v>
       </c>
       <c r="K13" s="12" t="s">
         <v>18</v>
@@ -893,14 +893,14 @@
       <c r="I14" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="14">
-        <v>4</v>
-      </c>
-      <c r="K14" s="15">
-        <v>-100</v>
-      </c>
-      <c r="L14" s="15">
-        <v>-100</v>
+      <c r="J14" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="L14" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="M14" s="13" t="s">
         <v>21</v>
@@ -916,11 +916,11 @@
       <c r="C15" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="14">
-        <v>1</v>
-      </c>
-      <c r="E15" s="15">
-        <v>-100</v>
+      <c r="D15" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="F15" s="13" t="s">
         <v>20</v>
@@ -931,17 +931,17 @@
       <c r="H15" s="15">
         <v>-100</v>
       </c>
-      <c r="I15" s="14">
-        <v>27</v>
-      </c>
-      <c r="J15" s="14">
-        <v>14</v>
-      </c>
-      <c r="K15" s="15">
-        <v>92.857142857142</v>
-      </c>
-      <c r="L15" s="15">
-        <v>107.692307692308</v>
+      <c r="I15" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="L15" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="M15" s="13" t="s">
         <v>21</v>
@@ -954,14 +954,14 @@
       <c r="A16" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="13" t="s">
-        <v>20</v>
+      <c r="C16" s="14">
+        <v>1</v>
       </c>
       <c r="D16" s="14">
         <v>2</v>
       </c>
       <c r="E16" s="15">
-        <v>-100</v>
+        <v>-50</v>
       </c>
       <c r="F16" s="14">
         <v>3</v>
@@ -973,16 +973,16 @@
         <v>-62.5</v>
       </c>
       <c r="I16" s="14">
-        <v>77</v>
+        <v>1</v>
       </c>
       <c r="J16" s="14">
-        <v>81</v>
+        <v>2</v>
       </c>
       <c r="K16" s="15">
-        <v>-4.938271604938</v>
+        <v>-50</v>
       </c>
       <c r="L16" s="15">
-        <v>-7.228915662650</v>
+        <v>0</v>
       </c>
       <c r="M16" s="13" t="s">
         <v>21</v>
@@ -996,34 +996,34 @@
         <v>24</v>
       </c>
       <c r="C17" s="14">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D17" s="14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E17" s="15">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F17" s="14">
         <v>16</v>
       </c>
       <c r="G17" s="14">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H17" s="15">
-        <v>-36</v>
+        <v>-27.272727272727</v>
       </c>
       <c r="I17" s="14">
-        <v>254</v>
+        <v>4</v>
       </c>
       <c r="J17" s="14">
-        <v>235</v>
+        <v>4</v>
       </c>
       <c r="K17" s="15">
-        <v>8.085106382978</v>
+        <v>0</v>
       </c>
       <c r="L17" s="15">
-        <v>16.513761467889</v>
+        <v>33.333333333333</v>
       </c>
       <c r="M17" s="13" t="s">
         <v>21</v>
@@ -1037,34 +1037,34 @@
         <v>25</v>
       </c>
       <c r="C18" s="14">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D18" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E18" s="15">
-        <v>300</v>
+        <v>-50</v>
       </c>
       <c r="F18" s="14">
         <v>7</v>
       </c>
       <c r="G18" s="14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H18" s="15">
-        <v>250</v>
-      </c>
-      <c r="I18" s="14">
-        <v>62</v>
+        <v>75</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="J18" s="14">
-        <v>69</v>
+        <v>1</v>
       </c>
       <c r="K18" s="15">
-        <v>-10.144927536231</v>
+        <v>-100</v>
       </c>
       <c r="L18" s="15">
-        <v>-18.421052631578</v>
+        <v>-100</v>
       </c>
       <c r="M18" s="13" t="s">
         <v>21</v>
@@ -1078,34 +1078,34 @@
         <v>26</v>
       </c>
       <c r="C19" s="14">
+        <v>3</v>
+      </c>
+      <c r="D19" s="14">
         <v>2</v>
       </c>
-      <c r="D19" s="14">
-        <v>8</v>
-      </c>
       <c r="E19" s="15">
-        <v>-75</v>
+        <v>50</v>
       </c>
       <c r="F19" s="14">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G19" s="14">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H19" s="15">
-        <v>-13.043478260869</v>
+        <v>-19.047619047619</v>
       </c>
       <c r="I19" s="14">
-        <v>247</v>
+        <v>3</v>
       </c>
       <c r="J19" s="14">
-        <v>275</v>
+        <v>1</v>
       </c>
       <c r="K19" s="15">
-        <v>-10.181818181818</v>
+        <v>200</v>
       </c>
       <c r="L19" s="15">
-        <v>-18.481848184818</v>
+        <v>-25</v>
       </c>
       <c r="M19" s="13" t="s">
         <v>21</v>
@@ -1119,34 +1119,34 @@
         <v>27</v>
       </c>
       <c r="C20" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D20" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E20" s="15">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F20" s="14">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G20" s="14">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H20" s="15">
-        <v>0</v>
-      </c>
-      <c r="I20" s="14">
-        <v>171</v>
+        <v>54.545454545454</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="J20" s="14">
-        <v>187</v>
+        <v>1</v>
       </c>
       <c r="K20" s="15">
-        <v>-8.556149732620</v>
+        <v>-100</v>
       </c>
       <c r="L20" s="15">
-        <v>-19.718309859154</v>
+        <v>-100</v>
       </c>
       <c r="M20" s="13" t="s">
         <v>21</v>
@@ -1160,34 +1160,34 @@
         <v>28</v>
       </c>
       <c r="C21" s="17">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D21" s="17">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E21" s="18">
-        <v>-11.764705882352</v>
+        <v>-9.090909090909</v>
       </c>
       <c r="F21" s="17">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G21" s="17">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="H21" s="18">
-        <v>-17.333333333333</v>
+        <v>-10.447761194029</v>
       </c>
       <c r="I21" s="17">
-        <v>838</v>
+        <v>8</v>
       </c>
       <c r="J21" s="17">
-        <v>865</v>
+        <v>9</v>
       </c>
       <c r="K21" s="18">
-        <v>-3.121387283236</v>
+        <v>-11.111111111111</v>
       </c>
       <c r="L21" s="18">
-        <v>-7.709251101321</v>
+        <v>-33.333333333333</v>
       </c>
       <c r="M21" s="19" t="s">
         <v>21</v>
@@ -1283,34 +1283,34 @@
         <v>31</v>
       </c>
       <c r="C24" s="14">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D24" s="14">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E24" s="15">
-        <v>-55.555555555555</v>
+        <v>37.5</v>
       </c>
       <c r="F24" s="14">
         <v>30</v>
       </c>
       <c r="G24" s="14">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H24" s="15">
-        <v>-33.333333333333</v>
+        <v>-34.782608695652</v>
       </c>
       <c r="I24" s="14">
-        <v>580</v>
+        <v>3</v>
       </c>
       <c r="J24" s="14">
-        <v>582</v>
+        <v>3</v>
       </c>
       <c r="K24" s="15">
-        <v>-0.343642611683</v>
+        <v>0</v>
       </c>
       <c r="L24" s="15">
-        <v>-3.171953255425</v>
+        <v>-40</v>
       </c>
       <c r="M24" s="13" t="s">
         <v>21</v>
@@ -1324,34 +1324,34 @@
         <v>32</v>
       </c>
       <c r="C25" s="14">
+        <v>5</v>
+      </c>
+      <c r="D25" s="14">
         <v>2</v>
       </c>
-      <c r="D25" s="14">
-        <v>3</v>
-      </c>
       <c r="E25" s="15">
-        <v>-33.333333333333</v>
+        <v>150</v>
       </c>
       <c r="F25" s="14">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G25" s="14">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H25" s="15">
-        <v>-69.230769230769</v>
+        <v>-50</v>
       </c>
       <c r="I25" s="14">
-        <v>113</v>
+        <v>1</v>
       </c>
       <c r="J25" s="14">
-        <v>163</v>
+        <v>2</v>
       </c>
       <c r="K25" s="15">
-        <v>-30.674846625766</v>
-      </c>
-      <c r="L25" s="15">
-        <v>-30.246913580246</v>
+        <v>-50</v>
+      </c>
+      <c r="L25" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="M25" s="13" t="s">
         <v>21</v>
@@ -1365,34 +1365,34 @@
         <v>33</v>
       </c>
       <c r="C26" s="14">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D26" s="14">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E26" s="15">
+        <v>-14.285714285714</v>
+      </c>
+      <c r="F26" s="14">
+        <v>20</v>
+      </c>
+      <c r="G26" s="14">
+        <v>31</v>
+      </c>
+      <c r="H26" s="15">
+        <v>-35.483870967741</v>
+      </c>
+      <c r="I26" s="14">
+        <v>3</v>
+      </c>
+      <c r="J26" s="14">
+        <v>4</v>
+      </c>
+      <c r="K26" s="15">
         <v>-25</v>
       </c>
-      <c r="F26" s="14">
-        <v>22</v>
-      </c>
-      <c r="G26" s="14">
-        <v>38</v>
-      </c>
-      <c r="H26" s="15">
-        <v>-42.105263157894</v>
-      </c>
-      <c r="I26" s="14">
-        <v>445</v>
-      </c>
-      <c r="J26" s="14">
-        <v>454</v>
-      </c>
-      <c r="K26" s="15">
-        <v>-1.982378854625</v>
-      </c>
       <c r="L26" s="15">
-        <v>14.102564102564</v>
+        <v>50</v>
       </c>
       <c r="M26" s="13" t="s">
         <v>21</v>
@@ -1408,11 +1408,11 @@
       <c r="C27" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D27" s="14">
-        <v>1</v>
-      </c>
-      <c r="E27" s="15">
-        <v>-100</v>
+      <c r="D27" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="F27" s="13" t="s">
         <v>20</v>
@@ -1423,17 +1423,17 @@
       <c r="H27" s="15">
         <v>-100</v>
       </c>
-      <c r="I27" s="14">
-        <v>33</v>
-      </c>
-      <c r="J27" s="14">
-        <v>23</v>
-      </c>
-      <c r="K27" s="15">
-        <v>43.478260869565</v>
-      </c>
-      <c r="L27" s="15">
-        <v>57.142857142857</v>
+      <c r="I27" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J27" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K27" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="L27" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="M27" s="13" t="s">
         <v>21</v>
@@ -1464,17 +1464,17 @@
       <c r="H28" s="15">
         <v>-100</v>
       </c>
-      <c r="I28" s="14">
-        <v>22</v>
-      </c>
-      <c r="J28" s="14">
-        <v>24</v>
-      </c>
-      <c r="K28" s="15">
-        <v>-8.333333333333</v>
-      </c>
-      <c r="L28" s="15">
-        <v>-21.428571428571</v>
+      <c r="I28" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J28" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K28" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="L28" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="M28" s="13" t="s">
         <v>21</v>
@@ -1499,23 +1499,23 @@
       <c r="F29" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G29" s="14">
-        <v>2</v>
-      </c>
-      <c r="H29" s="15">
-        <v>-100</v>
-      </c>
-      <c r="I29" s="14">
-        <v>2</v>
-      </c>
-      <c r="J29" s="14">
-        <v>17</v>
-      </c>
-      <c r="K29" s="15">
-        <v>-88.235294117647</v>
-      </c>
-      <c r="L29" s="15">
-        <v>-60</v>
+      <c r="G29" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H29" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I29" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J29" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K29" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="L29" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="M29" s="13" t="s">
         <v>21</v>
@@ -1540,23 +1540,23 @@
       <c r="F30" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G30" s="14">
-        <v>2</v>
-      </c>
-      <c r="H30" s="15">
-        <v>-100</v>
-      </c>
-      <c r="I30" s="14">
-        <v>2</v>
-      </c>
-      <c r="J30" s="14">
-        <v>12</v>
-      </c>
-      <c r="K30" s="15">
-        <v>-83.333333333333</v>
-      </c>
-      <c r="L30" s="15">
-        <v>-50</v>
+      <c r="G30" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H30" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I30" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J30" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K30" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="L30" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="M30" s="13" t="s">
         <v>21</v>
@@ -1590,11 +1590,11 @@
       <c r="I31" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="J31" s="14">
-        <v>2</v>
-      </c>
-      <c r="K31" s="15">
-        <v>-100</v>
+      <c r="J31" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K31" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="L31" s="13" t="s">
         <v>21</v>
@@ -1631,11 +1631,11 @@
       <c r="C33" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D33" s="14">
-        <v>1</v>
-      </c>
-      <c r="E33" s="15">
-        <v>-100</v>
+      <c r="D33" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="F33" s="13" t="s">
         <v>20</v>
@@ -1646,14 +1646,14 @@
       <c r="H33" s="15">
         <v>-100</v>
       </c>
-      <c r="I33" s="14">
-        <v>2</v>
-      </c>
-      <c r="J33" s="14">
-        <v>1</v>
-      </c>
-      <c r="K33" s="15">
-        <v>100</v>
+      <c r="I33" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J33" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K33" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="L33" s="13" t="s">
         <v>21</v>
@@ -1744,7 +1744,7 @@
         <v>46</v>
       </c>
       <c r="J38" s="23">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="K38" s="22" t="s">
         <v>48</v>
@@ -1763,9 +1763,6 @@
       <c r="A39" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="J39" s="14">
-        <v>4</v>
-      </c>
       <c r="K39" s="13" t="s">
         <v>21</v>
       </c>
@@ -1784,7 +1781,7 @@
         <v>22</v>
       </c>
       <c r="J40" s="14">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="K40" s="13" t="s">
         <v>21</v>
@@ -1804,7 +1801,7 @@
         <v>23</v>
       </c>
       <c r="J41" s="14">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="K41" s="13" t="s">
         <v>21</v>
@@ -1824,7 +1821,7 @@
         <v>24</v>
       </c>
       <c r="J42" s="14">
-        <v>233</v>
+        <v>255</v>
       </c>
       <c r="K42" s="13" t="s">
         <v>21</v>
@@ -1844,7 +1841,7 @@
         <v>25</v>
       </c>
       <c r="J43" s="14">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="K43" s="13" t="s">
         <v>21</v>
@@ -1864,7 +1861,7 @@
         <v>26</v>
       </c>
       <c r="J44" s="14">
-        <v>274</v>
+        <v>247</v>
       </c>
       <c r="K44" s="13" t="s">
         <v>21</v>
@@ -1884,7 +1881,7 @@
         <v>27</v>
       </c>
       <c r="J45" s="14">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="K45" s="13" t="s">
         <v>21</v>
@@ -1904,7 +1901,7 @@
         <v>28</v>
       </c>
       <c r="J46" s="17">
-        <v>860</v>
+        <v>841</v>
       </c>
       <c r="K46" s="19" t="s">
         <v>21</v>

--- a/data/source/weekly/cs-en-us-116pct.xlsx
+++ b/data/source/weekly/cs-en-us-116pct.xlsx
@@ -69,7 +69,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">1</t>
+      <t xml:space="preserve">2</t>
     </r>
   </si>
   <si>
@@ -95,7 +95,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">12/29/2025</t>
+      <t xml:space="preserve">1/5/2026</t>
     </r>
     <r>
       <rPr>
@@ -113,7 +113,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">1/4/2026</t>
+      <t xml:space="preserve">1/11/2026</t>
     </r>
   </si>
   <si>
@@ -913,32 +913,32 @@
       <c r="A15" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>20</v>
+      <c r="C15" s="14">
+        <v>1</v>
+      </c>
+      <c r="D15" s="14">
+        <v>1</v>
+      </c>
+      <c r="E15" s="15">
+        <v>0</v>
+      </c>
+      <c r="F15" s="14">
+        <v>1</v>
       </c>
       <c r="G15" s="14">
+        <v>2</v>
+      </c>
+      <c r="H15" s="15">
+        <v>-50</v>
+      </c>
+      <c r="I15" s="14">
         <v>1</v>
       </c>
-      <c r="H15" s="15">
-        <v>-100</v>
-      </c>
-      <c r="I15" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="J15" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="K15" s="13" t="s">
-        <v>21</v>
+      <c r="J15" s="14">
+        <v>1</v>
+      </c>
+      <c r="K15" s="15">
+        <v>0</v>
       </c>
       <c r="L15" s="13" t="s">
         <v>21</v>
@@ -955,31 +955,31 @@
         <v>23</v>
       </c>
       <c r="C16" s="14">
-        <v>1</v>
-      </c>
-      <c r="D16" s="14">
-        <v>2</v>
-      </c>
-      <c r="E16" s="15">
-        <v>-50</v>
+        <v>3</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="F16" s="14">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G16" s="14">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H16" s="15">
-        <v>-62.5</v>
+        <v>0</v>
       </c>
       <c r="I16" s="14">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J16" s="14">
         <v>2</v>
       </c>
       <c r="K16" s="15">
-        <v>-50</v>
+        <v>100</v>
       </c>
       <c r="L16" s="15">
         <v>0</v>
@@ -999,28 +999,28 @@
         <v>4</v>
       </c>
       <c r="D17" s="14">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E17" s="15">
-        <v>0</v>
+        <v>-33.333333333333</v>
       </c>
       <c r="F17" s="14">
         <v>16</v>
       </c>
       <c r="G17" s="14">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H17" s="15">
-        <v>-27.272727272727</v>
+        <v>-36</v>
       </c>
       <c r="I17" s="14">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J17" s="14">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K17" s="15">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L17" s="15">
         <v>33.333333333333</v>
@@ -1036,29 +1036,29 @@
       <c r="A18" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C18" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="14">
         <v>1</v>
       </c>
-      <c r="D18" s="14">
-        <v>2</v>
-      </c>
       <c r="E18" s="15">
-        <v>-50</v>
+        <v>-100</v>
       </c>
       <c r="F18" s="14">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G18" s="14">
         <v>4</v>
       </c>
       <c r="H18" s="15">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="I18" s="13" t="s">
         <v>20</v>
       </c>
       <c r="J18" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K18" s="15">
         <v>-100</v>
@@ -1078,34 +1078,34 @@
         <v>26</v>
       </c>
       <c r="C19" s="14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19" s="14">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E19" s="15">
-        <v>50</v>
+        <v>-42.857142857142</v>
       </c>
       <c r="F19" s="14">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G19" s="14">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H19" s="15">
-        <v>-19.047619047619</v>
+        <v>-40</v>
       </c>
       <c r="I19" s="14">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J19" s="14">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K19" s="15">
-        <v>200</v>
+        <v>-12.5</v>
       </c>
       <c r="L19" s="15">
-        <v>-25</v>
+        <v>-41.666666666666</v>
       </c>
       <c r="M19" s="13" t="s">
         <v>21</v>
@@ -1119,34 +1119,34 @@
         <v>27</v>
       </c>
       <c r="C20" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20" s="14">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E20" s="15">
-        <v>0</v>
+        <v>-66.666666666666</v>
       </c>
       <c r="F20" s="14">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G20" s="14">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H20" s="15">
-        <v>54.545454545454</v>
-      </c>
-      <c r="I20" s="13" t="s">
-        <v>20</v>
+        <v>-16.666666666666</v>
+      </c>
+      <c r="I20" s="14">
+        <v>2</v>
       </c>
       <c r="J20" s="14">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K20" s="15">
-        <v>-100</v>
+        <v>-71.428571428571</v>
       </c>
       <c r="L20" s="15">
-        <v>-100</v>
+        <v>-60</v>
       </c>
       <c r="M20" s="13" t="s">
         <v>21</v>
@@ -1160,34 +1160,34 @@
         <v>28</v>
       </c>
       <c r="C21" s="17">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D21" s="17">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E21" s="18">
-        <v>-9.090909090909</v>
+        <v>-33.333333333333</v>
       </c>
       <c r="F21" s="17">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="G21" s="17">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="H21" s="18">
-        <v>-10.447761194029</v>
+        <v>-28.378378378378</v>
       </c>
       <c r="I21" s="17">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="J21" s="17">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="K21" s="18">
-        <v>-11.111111111111</v>
+        <v>-26.666666666666</v>
       </c>
       <c r="L21" s="18">
-        <v>-33.333333333333</v>
+        <v>-24.137931034482</v>
       </c>
       <c r="M21" s="19" t="s">
         <v>21</v>
@@ -1283,34 +1283,34 @@
         <v>31</v>
       </c>
       <c r="C24" s="14">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D24" s="14">
+        <v>7</v>
+      </c>
+      <c r="E24" s="15">
+        <v>-28.571428571428</v>
+      </c>
+      <c r="F24" s="14">
+        <v>25</v>
+      </c>
+      <c r="G24" s="14">
+        <v>36</v>
+      </c>
+      <c r="H24" s="15">
+        <v>-30.555555555555</v>
+      </c>
+      <c r="I24" s="14">
         <v>8</v>
       </c>
-      <c r="E24" s="15">
-        <v>37.5</v>
-      </c>
-      <c r="F24" s="14">
-        <v>30</v>
-      </c>
-      <c r="G24" s="14">
-        <v>46</v>
-      </c>
-      <c r="H24" s="15">
-        <v>-34.782608695652</v>
-      </c>
-      <c r="I24" s="14">
-        <v>3</v>
-      </c>
       <c r="J24" s="14">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="K24" s="15">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L24" s="15">
-        <v>-40</v>
+        <v>-33.333333333333</v>
       </c>
       <c r="M24" s="13" t="s">
         <v>21</v>
@@ -1324,34 +1324,34 @@
         <v>32</v>
       </c>
       <c r="C25" s="14">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D25" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E25" s="15">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="F25" s="14">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G25" s="14">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H25" s="15">
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="I25" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J25" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K25" s="15">
-        <v>-50</v>
-      </c>
-      <c r="L25" s="13" t="s">
-        <v>21</v>
+        <v>0</v>
+      </c>
+      <c r="L25" s="15">
+        <v>200</v>
       </c>
       <c r="M25" s="13" t="s">
         <v>21</v>
@@ -1365,34 +1365,34 @@
         <v>33</v>
       </c>
       <c r="C26" s="14">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D26" s="14">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E26" s="15">
-        <v>-14.285714285714</v>
+        <v>75</v>
       </c>
       <c r="F26" s="14">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G26" s="14">
         <v>31</v>
       </c>
       <c r="H26" s="15">
-        <v>-35.483870967741</v>
+        <v>-25.806451612903</v>
       </c>
       <c r="I26" s="14">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J26" s="14">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K26" s="15">
-        <v>-25</v>
+        <v>25</v>
       </c>
       <c r="L26" s="15">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="M26" s="13" t="s">
         <v>21</v>
@@ -1405,32 +1405,32 @@
       <c r="A27" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F27" s="13" t="s">
-        <v>20</v>
+      <c r="C27" s="14">
+        <v>1</v>
+      </c>
+      <c r="D27" s="14">
+        <v>1</v>
+      </c>
+      <c r="E27" s="15">
+        <v>0</v>
+      </c>
+      <c r="F27" s="14">
+        <v>1</v>
       </c>
       <c r="G27" s="14">
+        <v>2</v>
+      </c>
+      <c r="H27" s="15">
+        <v>-50</v>
+      </c>
+      <c r="I27" s="14">
         <v>1</v>
       </c>
-      <c r="H27" s="15">
-        <v>-100</v>
-      </c>
-      <c r="I27" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="J27" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="K27" s="13" t="s">
-        <v>21</v>
+      <c r="J27" s="14">
+        <v>1</v>
+      </c>
+      <c r="K27" s="15">
+        <v>0</v>
       </c>
       <c r="L27" s="13" t="s">
         <v>21</v>
@@ -1458,11 +1458,11 @@
       <c r="F28" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G28" s="14">
-        <v>1</v>
-      </c>
-      <c r="H28" s="15">
-        <v>-100</v>
+      <c r="G28" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H28" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="I28" s="13" t="s">
         <v>20</v>

--- a/data/source/weekly/cs-en-us-116pct.xlsx
+++ b/data/source/weekly/cs-en-us-116pct.xlsx
@@ -69,7 +69,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">2</t>
+      <t xml:space="preserve">3</t>
     </r>
   </si>
   <si>
@@ -95,7 +95,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">1/5/2026</t>
+      <t xml:space="preserve">1/12/2026</t>
     </r>
     <r>
       <rPr>
@@ -113,7 +113,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">1/11/2026</t>
+      <t xml:space="preserve">1/18/2026</t>
     </r>
   </si>
   <si>
@@ -913,32 +913,32 @@
       <c r="A15" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="14">
-        <v>1</v>
+      <c r="C15" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="D15" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15" s="15">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F15" s="14">
         <v>1</v>
       </c>
       <c r="G15" s="14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H15" s="15">
-        <v>-50</v>
+        <v>-75</v>
       </c>
       <c r="I15" s="14">
         <v>1</v>
       </c>
       <c r="J15" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K15" s="15">
-        <v>0</v>
+        <v>-66.666666666666</v>
       </c>
       <c r="L15" s="13" t="s">
         <v>21</v>
@@ -955,34 +955,34 @@
         <v>23</v>
       </c>
       <c r="C16" s="14">
-        <v>3</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>21</v>
+        <v>1</v>
+      </c>
+      <c r="D16" s="14">
+        <v>2</v>
+      </c>
+      <c r="E16" s="15">
+        <v>-50</v>
       </c>
       <c r="F16" s="14">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G16" s="14">
         <v>6</v>
       </c>
       <c r="H16" s="15">
-        <v>0</v>
+        <v>-16.666666666666</v>
       </c>
       <c r="I16" s="14">
+        <v>5</v>
+      </c>
+      <c r="J16" s="14">
         <v>4</v>
       </c>
-      <c r="J16" s="14">
-        <v>2</v>
-      </c>
       <c r="K16" s="15">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="L16" s="15">
-        <v>0</v>
+        <v>-16.666666666666</v>
       </c>
       <c r="M16" s="13" t="s">
         <v>21</v>
@@ -996,34 +996,34 @@
         <v>24</v>
       </c>
       <c r="C17" s="14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" s="14">
         <v>6</v>
       </c>
       <c r="E17" s="15">
-        <v>-33.333333333333</v>
+        <v>-50</v>
       </c>
       <c r="F17" s="14">
+        <v>17</v>
+      </c>
+      <c r="G17" s="14">
+        <v>19</v>
+      </c>
+      <c r="H17" s="15">
+        <v>-10.526315789473</v>
+      </c>
+      <c r="I17" s="14">
+        <v>11</v>
+      </c>
+      <c r="J17" s="14">
         <v>16</v>
       </c>
-      <c r="G17" s="14">
-        <v>25</v>
-      </c>
-      <c r="H17" s="15">
-        <v>-36</v>
-      </c>
-      <c r="I17" s="14">
-        <v>8</v>
-      </c>
-      <c r="J17" s="14">
+      <c r="K17" s="15">
+        <v>-31.25</v>
+      </c>
+      <c r="L17" s="15">
         <v>10</v>
-      </c>
-      <c r="K17" s="15">
-        <v>-20</v>
-      </c>
-      <c r="L17" s="15">
-        <v>33.333333333333</v>
       </c>
       <c r="M17" s="13" t="s">
         <v>21</v>
@@ -1049,16 +1049,16 @@
         <v>5</v>
       </c>
       <c r="G18" s="14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H18" s="15">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="I18" s="13" t="s">
         <v>20</v>
       </c>
       <c r="J18" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K18" s="15">
         <v>-100</v>
@@ -1078,34 +1078,34 @@
         <v>26</v>
       </c>
       <c r="C19" s="14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D19" s="14">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E19" s="15">
-        <v>-42.857142857142</v>
+        <v>0</v>
       </c>
       <c r="F19" s="14">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G19" s="14">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H19" s="15">
-        <v>-40</v>
+        <v>-42.105263157894</v>
       </c>
       <c r="I19" s="14">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J19" s="14">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K19" s="15">
-        <v>-12.5</v>
+        <v>-10</v>
       </c>
       <c r="L19" s="15">
-        <v>-41.666666666666</v>
+        <v>-52.631578947368</v>
       </c>
       <c r="M19" s="13" t="s">
         <v>21</v>
@@ -1122,31 +1122,31 @@
         <v>2</v>
       </c>
       <c r="D20" s="14">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E20" s="15">
-        <v>-66.666666666666</v>
+        <v>-33.333333333333</v>
       </c>
       <c r="F20" s="14">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G20" s="14">
         <v>12</v>
       </c>
       <c r="H20" s="15">
-        <v>-16.666666666666</v>
+        <v>-33.333333333333</v>
       </c>
       <c r="I20" s="14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J20" s="14">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="K20" s="15">
-        <v>-71.428571428571</v>
+        <v>-60</v>
       </c>
       <c r="L20" s="15">
-        <v>-60</v>
+        <v>-50</v>
       </c>
       <c r="M20" s="13" t="s">
         <v>21</v>
@@ -1160,34 +1160,34 @@
         <v>28</v>
       </c>
       <c r="C21" s="17">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D21" s="17">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E21" s="18">
-        <v>-33.333333333333</v>
+        <v>-50</v>
       </c>
       <c r="F21" s="17">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="G21" s="17">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="H21" s="18">
-        <v>-28.378378378378</v>
+        <v>-27.692307692307</v>
       </c>
       <c r="I21" s="17">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="J21" s="17">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="K21" s="18">
-        <v>-26.666666666666</v>
+        <v>-34.782608695652</v>
       </c>
       <c r="L21" s="18">
-        <v>-24.137931034482</v>
+        <v>-36.170212765957</v>
       </c>
       <c r="M21" s="19" t="s">
         <v>21</v>
@@ -1283,34 +1283,34 @@
         <v>31</v>
       </c>
       <c r="C24" s="14">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D24" s="14">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E24" s="15">
-        <v>-28.571428571428</v>
+        <v>-52.631578947368</v>
       </c>
       <c r="F24" s="14">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G24" s="14">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H24" s="15">
-        <v>-30.555555555555</v>
+        <v>-30.232558139534</v>
       </c>
       <c r="I24" s="14">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="J24" s="14">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="K24" s="15">
-        <v>-20</v>
+        <v>-37.931034482758</v>
       </c>
       <c r="L24" s="15">
-        <v>-33.333333333333</v>
+        <v>-10</v>
       </c>
       <c r="M24" s="13" t="s">
         <v>21</v>
@@ -1324,34 +1324,34 @@
         <v>32</v>
       </c>
       <c r="C25" s="14">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D25" s="14">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E25" s="15">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="F25" s="14">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G25" s="14">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H25" s="15">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="I25" s="14">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J25" s="14">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K25" s="15">
-        <v>0</v>
+        <v>14.285714285714</v>
       </c>
       <c r="L25" s="15">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M25" s="13" t="s">
         <v>21</v>
@@ -1365,34 +1365,34 @@
         <v>33</v>
       </c>
       <c r="C26" s="14">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D26" s="14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E26" s="15">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="F26" s="14">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G26" s="14">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H26" s="15">
-        <v>-25.806451612903</v>
+        <v>7.142857142857</v>
       </c>
       <c r="I26" s="14">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="J26" s="14">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="K26" s="15">
-        <v>25</v>
+        <v>38.461538461538</v>
       </c>
       <c r="L26" s="15">
-        <v>100</v>
+        <v>63.636363636363</v>
       </c>
       <c r="M26" s="13" t="s">
         <v>21</v>
@@ -1405,32 +1405,32 @@
       <c r="A27" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="14">
-        <v>1</v>
+      <c r="C27" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="D27" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E27" s="15">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F27" s="14">
         <v>1</v>
       </c>
       <c r="G27" s="14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H27" s="15">
-        <v>-50</v>
+        <v>-75</v>
       </c>
       <c r="I27" s="14">
         <v>1</v>
       </c>
       <c r="J27" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K27" s="15">
-        <v>0</v>
+        <v>-66.666666666666</v>
       </c>
       <c r="L27" s="13" t="s">
         <v>21</v>
@@ -1446,8 +1446,8 @@
       <c r="A28" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="13" t="s">
-        <v>20</v>
+      <c r="C28" s="14">
+        <v>1</v>
       </c>
       <c r="D28" s="13" t="s">
         <v>20</v>
@@ -1455,8 +1455,8 @@
       <c r="E28" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F28" s="13" t="s">
-        <v>20</v>
+      <c r="F28" s="14">
+        <v>1</v>
       </c>
       <c r="G28" s="13" t="s">
         <v>20</v>
@@ -1464,8 +1464,8 @@
       <c r="H28" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="I28" s="13" t="s">
-        <v>20</v>
+      <c r="I28" s="14">
+        <v>1</v>
       </c>
       <c r="J28" s="13" t="s">
         <v>20</v>

--- a/data/source/weekly/cs-en-us-116pct.xlsx
+++ b/data/source/weekly/cs-en-us-116pct.xlsx
@@ -69,7 +69,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">3</t>
+      <t xml:space="preserve">4</t>
     </r>
   </si>
   <si>
@@ -95,7 +95,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">1/12/2026</t>
+      <t xml:space="preserve">1/19/2026</t>
     </r>
     <r>
       <rPr>
@@ -113,7 +113,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">1/18/2026</t>
+      <t xml:space="preserve">1/25/2026</t>
     </r>
   </si>
   <si>
@@ -332,8 +332,8 @@
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="#0"/>
     <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
-    <numFmt numFmtId="166" formatCode="#,##0"/>
-    <numFmt numFmtId="167" formatCode="#,##0.0;&quot;-&quot;#,##0.0"/>
+    <numFmt numFmtId="166" formatCode="#,##0.0;&quot;-&quot;#,##0.0"/>
+    <numFmt numFmtId="167" formatCode="#,##0"/>
     <numFmt numFmtId="168" formatCode="#,##0.00;&quot;-&quot;#,##0.00"/>
   </numFmts>
   <fonts count="13">
@@ -556,7 +556,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="168" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -899,8 +899,8 @@
       <c r="K14" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="L14" s="13" t="s">
-        <v>21</v>
+      <c r="L14" s="14">
+        <v>-100</v>
       </c>
       <c r="M14" s="13" t="s">
         <v>21</v>
@@ -913,32 +913,32 @@
       <c r="A15" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="14">
+      <c r="C15" s="15">
         <v>2</v>
       </c>
-      <c r="E15" s="15">
-        <v>-100</v>
-      </c>
-      <c r="F15" s="14">
-        <v>1</v>
-      </c>
-      <c r="G15" s="14">
-        <v>4</v>
-      </c>
-      <c r="H15" s="15">
-        <v>-75</v>
-      </c>
-      <c r="I15" s="14">
-        <v>1</v>
-      </c>
-      <c r="J15" s="14">
+      <c r="D15" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="15">
         <v>3</v>
       </c>
-      <c r="K15" s="15">
-        <v>-66.666666666666</v>
+      <c r="G15" s="15">
+        <v>3</v>
+      </c>
+      <c r="H15" s="14">
+        <v>0</v>
+      </c>
+      <c r="I15" s="15">
+        <v>3</v>
+      </c>
+      <c r="J15" s="15">
+        <v>3</v>
+      </c>
+      <c r="K15" s="14">
+        <v>0</v>
       </c>
       <c r="L15" s="13" t="s">
         <v>21</v>
@@ -954,35 +954,35 @@
       <c r="A16" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="14">
-        <v>1</v>
-      </c>
-      <c r="D16" s="14">
-        <v>2</v>
-      </c>
-      <c r="E16" s="15">
-        <v>-50</v>
-      </c>
-      <c r="F16" s="14">
+      <c r="C16" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="15">
         <v>5</v>
       </c>
-      <c r="G16" s="14">
-        <v>6</v>
-      </c>
-      <c r="H16" s="15">
-        <v>-16.666666666666</v>
-      </c>
-      <c r="I16" s="14">
+      <c r="G16" s="15">
+        <v>4</v>
+      </c>
+      <c r="H16" s="14">
+        <v>25</v>
+      </c>
+      <c r="I16" s="15">
         <v>5</v>
       </c>
-      <c r="J16" s="14">
+      <c r="J16" s="15">
         <v>4</v>
       </c>
-      <c r="K16" s="15">
+      <c r="K16" s="14">
         <v>25</v>
       </c>
-      <c r="L16" s="15">
-        <v>-16.666666666666</v>
+      <c r="L16" s="14">
+        <v>-28.571428571428</v>
       </c>
       <c r="M16" s="13" t="s">
         <v>21</v>
@@ -995,35 +995,35 @@
       <c r="A17" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17" s="15">
+        <v>4</v>
+      </c>
+      <c r="D17" s="15">
         <v>3</v>
       </c>
-      <c r="D17" s="14">
-        <v>6</v>
-      </c>
-      <c r="E17" s="15">
-        <v>-50</v>
-      </c>
-      <c r="F17" s="14">
-        <v>17</v>
-      </c>
-      <c r="G17" s="14">
+      <c r="E17" s="14">
+        <v>33.333333333333</v>
+      </c>
+      <c r="F17" s="15">
+        <v>15</v>
+      </c>
+      <c r="G17" s="15">
         <v>19</v>
       </c>
-      <c r="H17" s="15">
-        <v>-10.526315789473</v>
-      </c>
-      <c r="I17" s="14">
-        <v>11</v>
-      </c>
-      <c r="J17" s="14">
-        <v>16</v>
-      </c>
-      <c r="K17" s="15">
-        <v>-31.25</v>
-      </c>
-      <c r="L17" s="15">
-        <v>10</v>
+      <c r="H17" s="14">
+        <v>-21.052631578947</v>
+      </c>
+      <c r="I17" s="15">
+        <v>15</v>
+      </c>
+      <c r="J17" s="15">
+        <v>19</v>
+      </c>
+      <c r="K17" s="14">
+        <v>-21.052631578947</v>
+      </c>
+      <c r="L17" s="14">
+        <v>15.384615384615</v>
       </c>
       <c r="M17" s="13" t="s">
         <v>21</v>
@@ -1039,31 +1039,31 @@
       <c r="C18" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D18" s="15">
+        <v>3</v>
+      </c>
+      <c r="E18" s="14">
+        <v>-100</v>
+      </c>
+      <c r="F18" s="15">
         <v>1</v>
       </c>
-      <c r="E18" s="15">
+      <c r="G18" s="15">
+        <v>7</v>
+      </c>
+      <c r="H18" s="14">
+        <v>-85.714285714285</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J18" s="15">
+        <v>6</v>
+      </c>
+      <c r="K18" s="14">
         <v>-100</v>
       </c>
-      <c r="F18" s="14">
-        <v>5</v>
-      </c>
-      <c r="G18" s="14">
-        <v>5</v>
-      </c>
-      <c r="H18" s="15">
-        <v>0</v>
-      </c>
-      <c r="I18" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="J18" s="14">
-        <v>3</v>
-      </c>
-      <c r="K18" s="15">
-        <v>-100</v>
-      </c>
-      <c r="L18" s="15">
+      <c r="L18" s="14">
         <v>-100</v>
       </c>
       <c r="M18" s="13" t="s">
@@ -1077,35 +1077,35 @@
       <c r="A19" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="14">
+      <c r="C19" s="15">
         <v>2</v>
       </c>
-      <c r="D19" s="14">
-        <v>2</v>
-      </c>
-      <c r="E19" s="15">
-        <v>0</v>
-      </c>
-      <c r="F19" s="14">
-        <v>11</v>
-      </c>
-      <c r="G19" s="14">
-        <v>19</v>
-      </c>
-      <c r="H19" s="15">
-        <v>-42.105263157894</v>
-      </c>
-      <c r="I19" s="14">
-        <v>9</v>
-      </c>
-      <c r="J19" s="14">
-        <v>10</v>
-      </c>
-      <c r="K19" s="15">
-        <v>-10</v>
-      </c>
-      <c r="L19" s="15">
-        <v>-52.631578947368</v>
+      <c r="D19" s="15">
+        <v>6</v>
+      </c>
+      <c r="E19" s="14">
+        <v>-66.666666666666</v>
+      </c>
+      <c r="F19" s="15">
+        <v>12</v>
+      </c>
+      <c r="G19" s="15">
+        <v>17</v>
+      </c>
+      <c r="H19" s="14">
+        <v>-29.411764705882</v>
+      </c>
+      <c r="I19" s="15">
+        <v>12</v>
+      </c>
+      <c r="J19" s="15">
+        <v>16</v>
+      </c>
+      <c r="K19" s="14">
+        <v>-25</v>
+      </c>
+      <c r="L19" s="14">
+        <v>-57.142857142857</v>
       </c>
       <c r="M19" s="13" t="s">
         <v>21</v>
@@ -1118,35 +1118,35 @@
       <c r="A20" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="14">
-        <v>2</v>
-      </c>
-      <c r="D20" s="14">
+      <c r="C20" s="15">
         <v>3</v>
       </c>
-      <c r="E20" s="15">
-        <v>-33.333333333333</v>
-      </c>
-      <c r="F20" s="14">
+      <c r="D20" s="15">
+        <v>3</v>
+      </c>
+      <c r="E20" s="14">
+        <v>0</v>
+      </c>
+      <c r="F20" s="15">
         <v>8</v>
       </c>
-      <c r="G20" s="14">
-        <v>12</v>
-      </c>
-      <c r="H20" s="15">
-        <v>-33.333333333333</v>
-      </c>
-      <c r="I20" s="14">
-        <v>4</v>
-      </c>
-      <c r="J20" s="14">
-        <v>10</v>
-      </c>
-      <c r="K20" s="15">
-        <v>-60</v>
-      </c>
-      <c r="L20" s="15">
-        <v>-50</v>
+      <c r="G20" s="15">
+        <v>13</v>
+      </c>
+      <c r="H20" s="14">
+        <v>-38.461538461538</v>
+      </c>
+      <c r="I20" s="15">
+        <v>7</v>
+      </c>
+      <c r="J20" s="15">
+        <v>13</v>
+      </c>
+      <c r="K20" s="14">
+        <v>-46.153846153846</v>
+      </c>
+      <c r="L20" s="14">
+        <v>-41.666666666666</v>
       </c>
       <c r="M20" s="13" t="s">
         <v>21</v>
@@ -1160,34 +1160,34 @@
         <v>28</v>
       </c>
       <c r="C21" s="17">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D21" s="17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E21" s="18">
-        <v>-50</v>
+        <v>-26.666666666666</v>
       </c>
       <c r="F21" s="17">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G21" s="17">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H21" s="18">
-        <v>-27.692307692307</v>
+        <v>-30.158730158730</v>
       </c>
       <c r="I21" s="17">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="J21" s="17">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="K21" s="18">
-        <v>-34.782608695652</v>
+        <v>-31.147540983606</v>
       </c>
       <c r="L21" s="18">
-        <v>-36.170212765957</v>
+        <v>-35.384615384615</v>
       </c>
       <c r="M21" s="19" t="s">
         <v>21</v>
@@ -1282,35 +1282,35 @@
       <c r="A24" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="14">
-        <v>9</v>
-      </c>
-      <c r="D24" s="14">
-        <v>19</v>
-      </c>
-      <c r="E24" s="15">
-        <v>-52.631578947368</v>
-      </c>
-      <c r="F24" s="14">
-        <v>30</v>
-      </c>
-      <c r="G24" s="14">
-        <v>43</v>
-      </c>
-      <c r="H24" s="15">
-        <v>-30.232558139534</v>
-      </c>
-      <c r="I24" s="14">
-        <v>18</v>
-      </c>
-      <c r="J24" s="14">
+      <c r="C24" s="15">
+        <v>11</v>
+      </c>
+      <c r="D24" s="15">
+        <v>13</v>
+      </c>
+      <c r="E24" s="14">
+        <v>-15.384615384615</v>
+      </c>
+      <c r="F24" s="15">
+        <v>37</v>
+      </c>
+      <c r="G24" s="15">
+        <v>47</v>
+      </c>
+      <c r="H24" s="14">
+        <v>-21.276595744680</v>
+      </c>
+      <c r="I24" s="15">
         <v>29</v>
       </c>
-      <c r="K24" s="15">
-        <v>-37.931034482758</v>
-      </c>
-      <c r="L24" s="15">
-        <v>-10</v>
+      <c r="J24" s="15">
+        <v>42</v>
+      </c>
+      <c r="K24" s="14">
+        <v>-30.952380952381</v>
+      </c>
+      <c r="L24" s="14">
+        <v>7.407407407407</v>
       </c>
       <c r="M24" s="13" t="s">
         <v>21</v>
@@ -1323,35 +1323,35 @@
       <c r="A25" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="14">
-        <v>5</v>
-      </c>
-      <c r="D25" s="14">
+      <c r="C25" s="15">
         <v>4</v>
       </c>
-      <c r="E25" s="15">
-        <v>25</v>
-      </c>
-      <c r="F25" s="14">
-        <v>14</v>
-      </c>
-      <c r="G25" s="14">
+      <c r="D25" s="15">
+        <v>3</v>
+      </c>
+      <c r="E25" s="14">
+        <v>33.333333333333</v>
+      </c>
+      <c r="F25" s="15">
+        <v>16</v>
+      </c>
+      <c r="G25" s="15">
         <v>10</v>
       </c>
-      <c r="H25" s="15">
-        <v>40</v>
-      </c>
-      <c r="I25" s="14">
-        <v>8</v>
-      </c>
-      <c r="J25" s="14">
-        <v>7</v>
-      </c>
-      <c r="K25" s="15">
-        <v>14.285714285714</v>
-      </c>
-      <c r="L25" s="15">
-        <v>300</v>
+      <c r="H25" s="14">
+        <v>60</v>
+      </c>
+      <c r="I25" s="15">
+        <v>12</v>
+      </c>
+      <c r="J25" s="15">
+        <v>10</v>
+      </c>
+      <c r="K25" s="14">
+        <v>20</v>
+      </c>
+      <c r="L25" s="14">
+        <v>140</v>
       </c>
       <c r="M25" s="13" t="s">
         <v>21</v>
@@ -1364,35 +1364,35 @@
       <c r="A26" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="14">
-        <v>8</v>
-      </c>
-      <c r="D26" s="14">
-        <v>5</v>
-      </c>
-      <c r="E26" s="15">
-        <v>60</v>
-      </c>
-      <c r="F26" s="14">
+      <c r="C26" s="15">
+        <v>9</v>
+      </c>
+      <c r="D26" s="15">
+        <v>6</v>
+      </c>
+      <c r="E26" s="14">
+        <v>50</v>
+      </c>
+      <c r="F26" s="15">
         <v>30</v>
       </c>
-      <c r="G26" s="14">
-        <v>28</v>
-      </c>
-      <c r="H26" s="15">
-        <v>7.142857142857</v>
-      </c>
-      <c r="I26" s="14">
-        <v>18</v>
-      </c>
-      <c r="J26" s="14">
-        <v>13</v>
-      </c>
-      <c r="K26" s="15">
-        <v>38.461538461538</v>
-      </c>
-      <c r="L26" s="15">
-        <v>63.636363636363</v>
+      <c r="G26" s="15">
+        <v>22</v>
+      </c>
+      <c r="H26" s="14">
+        <v>36.363636363636</v>
+      </c>
+      <c r="I26" s="15">
+        <v>27</v>
+      </c>
+      <c r="J26" s="15">
+        <v>19</v>
+      </c>
+      <c r="K26" s="14">
+        <v>42.105263157894</v>
+      </c>
+      <c r="L26" s="14">
+        <v>80</v>
       </c>
       <c r="M26" s="13" t="s">
         <v>21</v>
@@ -1405,32 +1405,32 @@
       <c r="A27" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D27" s="14">
+      <c r="C27" s="15">
         <v>2</v>
       </c>
-      <c r="E27" s="15">
-        <v>-100</v>
-      </c>
-      <c r="F27" s="14">
-        <v>1</v>
-      </c>
-      <c r="G27" s="14">
-        <v>4</v>
-      </c>
-      <c r="H27" s="15">
-        <v>-75</v>
-      </c>
-      <c r="I27" s="14">
-        <v>1</v>
-      </c>
-      <c r="J27" s="14">
+      <c r="D27" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" s="15">
         <v>3</v>
       </c>
-      <c r="K27" s="15">
-        <v>-66.666666666666</v>
+      <c r="G27" s="15">
+        <v>3</v>
+      </c>
+      <c r="H27" s="14">
+        <v>0</v>
+      </c>
+      <c r="I27" s="15">
+        <v>3</v>
+      </c>
+      <c r="J27" s="15">
+        <v>3</v>
+      </c>
+      <c r="K27" s="14">
+        <v>0</v>
       </c>
       <c r="L27" s="13" t="s">
         <v>21</v>
@@ -1446,35 +1446,35 @@
       <c r="A28" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="14">
+      <c r="C28" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="15">
         <v>1</v>
       </c>
-      <c r="D28" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F28" s="14">
+      <c r="E28" s="14">
+        <v>-100</v>
+      </c>
+      <c r="F28" s="15">
         <v>1</v>
       </c>
-      <c r="G28" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H28" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="I28" s="14">
+      <c r="G28" s="15">
         <v>1</v>
       </c>
-      <c r="J28" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="K28" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="L28" s="13" t="s">
-        <v>21</v>
+      <c r="H28" s="14">
+        <v>0</v>
+      </c>
+      <c r="I28" s="15">
+        <v>1</v>
+      </c>
+      <c r="J28" s="15">
+        <v>1</v>
+      </c>
+      <c r="K28" s="14">
+        <v>0</v>
+      </c>
+      <c r="L28" s="14">
+        <v>0</v>
       </c>
       <c r="M28" s="13" t="s">
         <v>21</v>
@@ -1640,11 +1640,11 @@
       <c r="F33" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G33" s="14">
-        <v>1</v>
-      </c>
-      <c r="H33" s="15">
-        <v>-100</v>
+      <c r="G33" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H33" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="I33" s="13" t="s">
         <v>20</v>
@@ -1780,7 +1780,7 @@
       <c r="A40" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="J40" s="14">
+      <c r="J40" s="15">
         <v>27</v>
       </c>
       <c r="K40" s="13" t="s">
@@ -1800,7 +1800,7 @@
       <c r="A41" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="J41" s="14">
+      <c r="J41" s="15">
         <v>77</v>
       </c>
       <c r="K41" s="13" t="s">
@@ -1820,7 +1820,7 @@
       <c r="A42" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="J42" s="14">
+      <c r="J42" s="15">
         <v>255</v>
       </c>
       <c r="K42" s="13" t="s">
@@ -1840,7 +1840,7 @@
       <c r="A43" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="J43" s="14">
+      <c r="J43" s="15">
         <v>63</v>
       </c>
       <c r="K43" s="13" t="s">
@@ -1860,7 +1860,7 @@
       <c r="A44" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="J44" s="14">
+      <c r="J44" s="15">
         <v>247</v>
       </c>
       <c r="K44" s="13" t="s">
@@ -1880,7 +1880,7 @@
       <c r="A45" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="J45" s="14">
+      <c r="J45" s="15">
         <v>172</v>
       </c>
       <c r="K45" s="13" t="s">

--- a/data/source/weekly/cs-en-us-116pct.xlsx
+++ b/data/source/weekly/cs-en-us-116pct.xlsx
@@ -69,7 +69,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">4</t>
+      <t xml:space="preserve">5</t>
     </r>
   </si>
   <si>
@@ -95,7 +95,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">1/19/2026</t>
+      <t xml:space="preserve">1/26/2026</t>
     </r>
     <r>
       <rPr>
@@ -113,7 +113,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">1/25/2026</t>
+      <t xml:space="preserve">2/1/2026</t>
     </r>
   </si>
   <si>
@@ -913,32 +913,32 @@
       <c r="A15" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="15">
         <v>2</v>
       </c>
-      <c r="D15" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>21</v>
+      <c r="E15" s="14">
+        <v>-100</v>
       </c>
       <c r="F15" s="15">
         <v>3</v>
       </c>
       <c r="G15" s="15">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H15" s="14">
-        <v>0</v>
+        <v>-40</v>
       </c>
       <c r="I15" s="15">
         <v>3</v>
       </c>
       <c r="J15" s="15">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K15" s="14">
-        <v>0</v>
+        <v>-40</v>
       </c>
       <c r="L15" s="13" t="s">
         <v>21</v>
@@ -957,32 +957,32 @@
       <c r="C16" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>21</v>
+      <c r="D16" s="15">
+        <v>1</v>
+      </c>
+      <c r="E16" s="14">
+        <v>-100</v>
       </c>
       <c r="F16" s="15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G16" s="15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H16" s="14">
-        <v>25</v>
+        <v>33.333333333333</v>
       </c>
       <c r="I16" s="15">
         <v>5</v>
       </c>
       <c r="J16" s="15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K16" s="14">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L16" s="14">
-        <v>-28.571428571428</v>
+        <v>-54.545454545454</v>
       </c>
       <c r="M16" s="13" t="s">
         <v>21</v>
@@ -996,34 +996,34 @@
         <v>24</v>
       </c>
       <c r="C17" s="15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D17" s="15">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E17" s="14">
-        <v>33.333333333333</v>
+        <v>0</v>
       </c>
       <c r="F17" s="15">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G17" s="15">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H17" s="14">
-        <v>-21.052631578947</v>
+        <v>-20</v>
       </c>
       <c r="I17" s="15">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J17" s="15">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="K17" s="14">
-        <v>-21.052631578947</v>
+        <v>-16.666666666666</v>
       </c>
       <c r="L17" s="14">
-        <v>15.384615384615</v>
+        <v>11.111111111111</v>
       </c>
       <c r="M17" s="13" t="s">
         <v>21</v>
@@ -1039,20 +1039,20 @@
       <c r="C18" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="15">
-        <v>3</v>
-      </c>
-      <c r="E18" s="14">
+      <c r="D18" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" s="15">
+        <v>5</v>
+      </c>
+      <c r="H18" s="14">
         <v>-100</v>
-      </c>
-      <c r="F18" s="15">
-        <v>1</v>
-      </c>
-      <c r="G18" s="15">
-        <v>7</v>
-      </c>
-      <c r="H18" s="14">
-        <v>-85.714285714285</v>
       </c>
       <c r="I18" s="13" t="s">
         <v>20</v>
@@ -1078,34 +1078,34 @@
         <v>26</v>
       </c>
       <c r="C19" s="15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D19" s="15">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E19" s="14">
-        <v>-66.666666666666</v>
+        <v>0</v>
       </c>
       <c r="F19" s="15">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G19" s="15">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H19" s="14">
-        <v>-29.411764705882</v>
+        <v>-31.578947368421</v>
       </c>
       <c r="I19" s="15">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J19" s="15">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="K19" s="14">
-        <v>-25</v>
+        <v>-20</v>
       </c>
       <c r="L19" s="14">
-        <v>-57.142857142857</v>
+        <v>-55.555555555555</v>
       </c>
       <c r="M19" s="13" t="s">
         <v>21</v>
@@ -1118,35 +1118,35 @@
       <c r="A20" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="15">
-        <v>3</v>
+      <c r="C20" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="D20" s="15">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E20" s="14">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F20" s="15">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G20" s="15">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="H20" s="14">
-        <v>-38.461538461538</v>
+        <v>-68.181818181818</v>
       </c>
       <c r="I20" s="15">
         <v>7</v>
       </c>
       <c r="J20" s="15">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="K20" s="14">
-        <v>-46.153846153846</v>
+        <v>-69.565217391304</v>
       </c>
       <c r="L20" s="14">
-        <v>-41.666666666666</v>
+        <v>-53.333333333333</v>
       </c>
       <c r="M20" s="13" t="s">
         <v>21</v>
@@ -1160,34 +1160,34 @@
         <v>28</v>
       </c>
       <c r="C21" s="17">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D21" s="17">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E21" s="18">
-        <v>-26.666666666666</v>
+        <v>-59.090909090909</v>
       </c>
       <c r="F21" s="17">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G21" s="17">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="H21" s="18">
-        <v>-30.158730158730</v>
+        <v>-41.891891891891</v>
       </c>
       <c r="I21" s="17">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J21" s="17">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="K21" s="18">
-        <v>-31.147540983606</v>
+        <v>-38.554216867469</v>
       </c>
       <c r="L21" s="18">
-        <v>-35.384615384615</v>
+        <v>-40</v>
       </c>
       <c r="M21" s="19" t="s">
         <v>21</v>
@@ -1283,34 +1283,34 @@
         <v>31</v>
       </c>
       <c r="C24" s="15">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D24" s="15">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E24" s="14">
-        <v>-15.384615384615</v>
+        <v>16.666666666666</v>
       </c>
       <c r="F24" s="15">
+        <v>34</v>
+      </c>
+      <c r="G24" s="15">
+        <v>45</v>
+      </c>
+      <c r="H24" s="14">
+        <v>-24.444444444444</v>
+      </c>
+      <c r="I24" s="15">
         <v>37</v>
       </c>
-      <c r="G24" s="15">
-        <v>47</v>
-      </c>
-      <c r="H24" s="14">
-        <v>-21.276595744680</v>
-      </c>
-      <c r="I24" s="15">
-        <v>29</v>
-      </c>
       <c r="J24" s="15">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="K24" s="14">
-        <v>-30.952380952381</v>
+        <v>-22.916666666666</v>
       </c>
       <c r="L24" s="14">
-        <v>7.407407407407</v>
+        <v>-11.904761904761</v>
       </c>
       <c r="M24" s="13" t="s">
         <v>21</v>
@@ -1324,34 +1324,34 @@
         <v>32</v>
       </c>
       <c r="C25" s="15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D25" s="15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E25" s="14">
-        <v>33.333333333333</v>
+        <v>100</v>
       </c>
       <c r="F25" s="15">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G25" s="15">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H25" s="14">
-        <v>60</v>
+        <v>44.444444444444</v>
       </c>
       <c r="I25" s="15">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J25" s="15">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K25" s="14">
-        <v>20</v>
+        <v>27.272727272727</v>
       </c>
       <c r="L25" s="14">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="M25" s="13" t="s">
         <v>21</v>
@@ -1365,34 +1365,34 @@
         <v>33</v>
       </c>
       <c r="C26" s="15">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D26" s="15">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E26" s="14">
-        <v>50</v>
+        <v>-40</v>
       </c>
       <c r="F26" s="15">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G26" s="15">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H26" s="14">
-        <v>36.363636363636</v>
+        <v>24</v>
       </c>
       <c r="I26" s="15">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="J26" s="15">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="K26" s="14">
-        <v>42.105263157894</v>
+        <v>17.241379310344</v>
       </c>
       <c r="L26" s="14">
-        <v>80</v>
+        <v>41.666666666666</v>
       </c>
       <c r="M26" s="13" t="s">
         <v>21</v>
@@ -1405,32 +1405,32 @@
       <c r="A27" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="15">
+      <c r="C27" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="15">
         <v>2</v>
       </c>
-      <c r="D27" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>21</v>
+      <c r="E27" s="14">
+        <v>-100</v>
       </c>
       <c r="F27" s="15">
         <v>3</v>
       </c>
       <c r="G27" s="15">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H27" s="14">
-        <v>0</v>
+        <v>-40</v>
       </c>
       <c r="I27" s="15">
         <v>3</v>
       </c>
       <c r="J27" s="15">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K27" s="14">
-        <v>0</v>
+        <v>-40</v>
       </c>
       <c r="L27" s="13" t="s">
         <v>21</v>
@@ -1449,11 +1449,11 @@
       <c r="C28" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="15">
-        <v>1</v>
-      </c>
-      <c r="E28" s="14">
-        <v>-100</v>
+      <c r="D28" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="F28" s="15">
         <v>1</v>
@@ -1487,8 +1487,8 @@
       <c r="A29" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="13" t="s">
-        <v>20</v>
+      <c r="C29" s="15">
+        <v>2</v>
       </c>
       <c r="D29" s="13" t="s">
         <v>20</v>
@@ -1496,8 +1496,8 @@
       <c r="E29" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F29" s="13" t="s">
-        <v>20</v>
+      <c r="F29" s="15">
+        <v>2</v>
       </c>
       <c r="G29" s="13" t="s">
         <v>20</v>
@@ -1505,8 +1505,8 @@
       <c r="H29" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="I29" s="13" t="s">
-        <v>20</v>
+      <c r="I29" s="15">
+        <v>2</v>
       </c>
       <c r="J29" s="13" t="s">
         <v>20</v>
@@ -1528,8 +1528,8 @@
       <c r="A30" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="13" t="s">
-        <v>20</v>
+      <c r="C30" s="15">
+        <v>2</v>
       </c>
       <c r="D30" s="13" t="s">
         <v>20</v>
@@ -1537,8 +1537,8 @@
       <c r="E30" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F30" s="13" t="s">
-        <v>20</v>
+      <c r="F30" s="15">
+        <v>2</v>
       </c>
       <c r="G30" s="13" t="s">
         <v>20</v>
@@ -1546,8 +1546,8 @@
       <c r="H30" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="I30" s="13" t="s">
-        <v>20</v>
+      <c r="I30" s="15">
+        <v>2</v>
       </c>
       <c r="J30" s="13" t="s">
         <v>20</v>

--- a/data/source/weekly/cs-en-us-116pct.xlsx
+++ b/data/source/weekly/cs-en-us-116pct.xlsx
@@ -69,7 +69,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">5</t>
+      <t xml:space="preserve">6</t>
     </r>
   </si>
   <si>
@@ -95,7 +95,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">1/26/2026</t>
+      <t xml:space="preserve">2/2/2026</t>
     </r>
     <r>
       <rPr>
@@ -113,7 +113,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">2/1/2026</t>
+      <t xml:space="preserve">2/8/2026</t>
     </r>
   </si>
   <si>
@@ -332,8 +332,8 @@
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="#0"/>
     <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
-    <numFmt numFmtId="166" formatCode="#,##0.0;&quot;-&quot;#,##0.0"/>
-    <numFmt numFmtId="167" formatCode="#,##0"/>
+    <numFmt numFmtId="166" formatCode="#,##0"/>
+    <numFmt numFmtId="167" formatCode="#,##0.0;&quot;-&quot;#,##0.0"/>
     <numFmt numFmtId="168" formatCode="#,##0.00;&quot;-&quot;#,##0.00"/>
   </numFmts>
   <fonts count="13">
@@ -556,7 +556,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="168" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -872,8 +872,8 @@
       <c r="A14" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="13" t="s">
-        <v>20</v>
+      <c r="C14" s="14">
+        <v>1</v>
       </c>
       <c r="D14" s="13" t="s">
         <v>20</v>
@@ -881,8 +881,8 @@
       <c r="E14" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="13" t="s">
-        <v>20</v>
+      <c r="F14" s="14">
+        <v>1</v>
       </c>
       <c r="G14" s="13" t="s">
         <v>20</v>
@@ -890,8 +890,8 @@
       <c r="H14" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="I14" s="13" t="s">
-        <v>20</v>
+      <c r="I14" s="14">
+        <v>1</v>
       </c>
       <c r="J14" s="13" t="s">
         <v>20</v>
@@ -899,8 +899,8 @@
       <c r="K14" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="L14" s="14">
-        <v>-100</v>
+      <c r="L14" s="15">
+        <v>0</v>
       </c>
       <c r="M14" s="13" t="s">
         <v>21</v>
@@ -916,29 +916,29 @@
       <c r="C15" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="14">
+        <v>1</v>
+      </c>
+      <c r="E15" s="15">
+        <v>-100</v>
+      </c>
+      <c r="F15" s="14">
         <v>2</v>
       </c>
-      <c r="E15" s="14">
-        <v>-100</v>
-      </c>
-      <c r="F15" s="15">
+      <c r="G15" s="14">
+        <v>5</v>
+      </c>
+      <c r="H15" s="15">
+        <v>-60</v>
+      </c>
+      <c r="I15" s="14">
         <v>3</v>
       </c>
-      <c r="G15" s="15">
-        <v>5</v>
-      </c>
-      <c r="H15" s="14">
-        <v>-40</v>
-      </c>
-      <c r="I15" s="15">
-        <v>3</v>
-      </c>
-      <c r="J15" s="15">
-        <v>5</v>
-      </c>
-      <c r="K15" s="14">
-        <v>-40</v>
+      <c r="J15" s="14">
+        <v>6</v>
+      </c>
+      <c r="K15" s="15">
+        <v>-50</v>
       </c>
       <c r="L15" s="13" t="s">
         <v>21</v>
@@ -954,35 +954,35 @@
       <c r="A16" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="15">
+      <c r="C16" s="14">
+        <v>2</v>
+      </c>
+      <c r="D16" s="14">
         <v>1</v>
       </c>
-      <c r="E16" s="14">
-        <v>-100</v>
-      </c>
-      <c r="F16" s="15">
+      <c r="E16" s="15">
+        <v>100</v>
+      </c>
+      <c r="F16" s="14">
+        <v>3</v>
+      </c>
+      <c r="G16" s="14">
         <v>4</v>
       </c>
-      <c r="G16" s="15">
-        <v>3</v>
-      </c>
-      <c r="H16" s="14">
-        <v>33.333333333333</v>
-      </c>
-      <c r="I16" s="15">
-        <v>5</v>
-      </c>
-      <c r="J16" s="15">
-        <v>5</v>
-      </c>
-      <c r="K16" s="14">
-        <v>0</v>
-      </c>
-      <c r="L16" s="14">
-        <v>-54.545454545454</v>
+      <c r="H16" s="15">
+        <v>-25</v>
+      </c>
+      <c r="I16" s="14">
+        <v>7</v>
+      </c>
+      <c r="J16" s="14">
+        <v>6</v>
+      </c>
+      <c r="K16" s="15">
+        <v>16.666666666666</v>
+      </c>
+      <c r="L16" s="15">
+        <v>-53.333333333333</v>
       </c>
       <c r="M16" s="13" t="s">
         <v>21</v>
@@ -995,35 +995,35 @@
       <c r="A17" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C17" s="14">
         <v>5</v>
       </c>
-      <c r="D17" s="15">
-        <v>5</v>
-      </c>
-      <c r="E17" s="14">
-        <v>0</v>
-      </c>
-      <c r="F17" s="15">
-        <v>16</v>
-      </c>
-      <c r="G17" s="15">
-        <v>20</v>
-      </c>
-      <c r="H17" s="14">
-        <v>-20</v>
-      </c>
-      <c r="I17" s="15">
-        <v>20</v>
-      </c>
-      <c r="J17" s="15">
-        <v>24</v>
-      </c>
-      <c r="K17" s="14">
-        <v>-16.666666666666</v>
-      </c>
-      <c r="L17" s="14">
-        <v>11.111111111111</v>
+      <c r="D17" s="14">
+        <v>7</v>
+      </c>
+      <c r="E17" s="15">
+        <v>-28.571428571428</v>
+      </c>
+      <c r="F17" s="14">
+        <v>18</v>
+      </c>
+      <c r="G17" s="14">
+        <v>21</v>
+      </c>
+      <c r="H17" s="15">
+        <v>-14.285714285714</v>
+      </c>
+      <c r="I17" s="14">
+        <v>26</v>
+      </c>
+      <c r="J17" s="14">
+        <v>31</v>
+      </c>
+      <c r="K17" s="15">
+        <v>-16.129032258064</v>
+      </c>
+      <c r="L17" s="15">
+        <v>18.181818181818</v>
       </c>
       <c r="M17" s="13" t="s">
         <v>21</v>
@@ -1036,8 +1036,8 @@
       <c r="A18" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="13" t="s">
-        <v>20</v>
+      <c r="C18" s="14">
+        <v>1</v>
       </c>
       <c r="D18" s="13" t="s">
         <v>20</v>
@@ -1045,26 +1045,26 @@
       <c r="E18" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F18" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G18" s="15">
-        <v>5</v>
-      </c>
-      <c r="H18" s="14">
-        <v>-100</v>
-      </c>
-      <c r="I18" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="J18" s="15">
+      <c r="F18" s="14">
+        <v>1</v>
+      </c>
+      <c r="G18" s="14">
+        <v>4</v>
+      </c>
+      <c r="H18" s="15">
+        <v>-75</v>
+      </c>
+      <c r="I18" s="14">
+        <v>1</v>
+      </c>
+      <c r="J18" s="14">
         <v>6</v>
       </c>
-      <c r="K18" s="14">
-        <v>-100</v>
-      </c>
-      <c r="L18" s="14">
-        <v>-100</v>
+      <c r="K18" s="15">
+        <v>-83.333333333333</v>
+      </c>
+      <c r="L18" s="15">
+        <v>-80</v>
       </c>
       <c r="M18" s="13" t="s">
         <v>21</v>
@@ -1077,35 +1077,35 @@
       <c r="A19" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="14">
+        <v>3</v>
+      </c>
+      <c r="D19" s="14">
         <v>4</v>
       </c>
-      <c r="D19" s="15">
-        <v>4</v>
-      </c>
-      <c r="E19" s="14">
-        <v>0</v>
-      </c>
-      <c r="F19" s="15">
-        <v>13</v>
-      </c>
-      <c r="G19" s="15">
-        <v>19</v>
-      </c>
-      <c r="H19" s="14">
-        <v>-31.578947368421</v>
-      </c>
-      <c r="I19" s="15">
+      <c r="E19" s="15">
+        <v>-25</v>
+      </c>
+      <c r="F19" s="14">
+        <v>11</v>
+      </c>
+      <c r="G19" s="14">
         <v>16</v>
       </c>
-      <c r="J19" s="15">
-        <v>20</v>
-      </c>
-      <c r="K19" s="14">
-        <v>-20</v>
-      </c>
-      <c r="L19" s="14">
-        <v>-55.555555555555</v>
+      <c r="H19" s="15">
+        <v>-31.25</v>
+      </c>
+      <c r="I19" s="14">
+        <v>18</v>
+      </c>
+      <c r="J19" s="14">
+        <v>24</v>
+      </c>
+      <c r="K19" s="15">
+        <v>-25</v>
+      </c>
+      <c r="L19" s="15">
+        <v>-56.097560975609</v>
       </c>
       <c r="M19" s="13" t="s">
         <v>21</v>
@@ -1118,35 +1118,35 @@
       <c r="A20" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="15">
-        <v>10</v>
-      </c>
-      <c r="E20" s="14">
-        <v>-100</v>
-      </c>
-      <c r="F20" s="15">
+      <c r="C20" s="14">
         <v>7</v>
       </c>
-      <c r="G20" s="15">
-        <v>22</v>
-      </c>
-      <c r="H20" s="14">
-        <v>-68.181818181818</v>
-      </c>
-      <c r="I20" s="15">
-        <v>7</v>
-      </c>
-      <c r="J20" s="15">
-        <v>23</v>
-      </c>
-      <c r="K20" s="14">
-        <v>-69.565217391304</v>
-      </c>
-      <c r="L20" s="14">
-        <v>-53.333333333333</v>
+      <c r="D20" s="14">
+        <v>4</v>
+      </c>
+      <c r="E20" s="15">
+        <v>75</v>
+      </c>
+      <c r="F20" s="14">
+        <v>12</v>
+      </c>
+      <c r="G20" s="14">
+        <v>20</v>
+      </c>
+      <c r="H20" s="15">
+        <v>-40</v>
+      </c>
+      <c r="I20" s="14">
+        <v>14</v>
+      </c>
+      <c r="J20" s="14">
+        <v>27</v>
+      </c>
+      <c r="K20" s="15">
+        <v>-48.148148148148</v>
+      </c>
+      <c r="L20" s="15">
+        <v>-26.315789473684</v>
       </c>
       <c r="M20" s="13" t="s">
         <v>21</v>
@@ -1160,34 +1160,34 @@
         <v>28</v>
       </c>
       <c r="C21" s="17">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D21" s="17">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E21" s="18">
-        <v>-59.090909090909</v>
+        <v>11.764705882352</v>
       </c>
       <c r="F21" s="17">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G21" s="17">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H21" s="18">
-        <v>-41.891891891891</v>
+        <v>-31.428571428571</v>
       </c>
       <c r="I21" s="17">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="J21" s="17">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="K21" s="18">
-        <v>-38.554216867469</v>
+        <v>-30</v>
       </c>
       <c r="L21" s="18">
-        <v>-40</v>
+        <v>-32.038834951456</v>
       </c>
       <c r="M21" s="19" t="s">
         <v>21</v>
@@ -1282,35 +1282,35 @@
       <c r="A24" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="15">
-        <v>7</v>
-      </c>
-      <c r="D24" s="15">
-        <v>6</v>
-      </c>
-      <c r="E24" s="14">
-        <v>16.666666666666</v>
-      </c>
-      <c r="F24" s="15">
-        <v>34</v>
-      </c>
-      <c r="G24" s="15">
-        <v>45</v>
-      </c>
-      <c r="H24" s="14">
-        <v>-24.444444444444</v>
-      </c>
-      <c r="I24" s="15">
-        <v>37</v>
-      </c>
-      <c r="J24" s="15">
+      <c r="C24" s="14">
+        <v>11</v>
+      </c>
+      <c r="D24" s="14">
+        <v>10</v>
+      </c>
+      <c r="E24" s="15">
+        <v>10</v>
+      </c>
+      <c r="F24" s="14">
+        <v>40</v>
+      </c>
+      <c r="G24" s="14">
         <v>48</v>
       </c>
-      <c r="K24" s="14">
-        <v>-22.916666666666</v>
-      </c>
-      <c r="L24" s="14">
-        <v>-11.904761904761</v>
+      <c r="H24" s="15">
+        <v>-16.666666666666</v>
+      </c>
+      <c r="I24" s="14">
+        <v>49</v>
+      </c>
+      <c r="J24" s="14">
+        <v>58</v>
+      </c>
+      <c r="K24" s="15">
+        <v>-15.517241379310</v>
+      </c>
+      <c r="L24" s="15">
+        <v>-9.259259259259</v>
       </c>
       <c r="M24" s="13" t="s">
         <v>21</v>
@@ -1323,35 +1323,35 @@
       <c r="A25" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="15">
-        <v>2</v>
-      </c>
-      <c r="D25" s="15">
-        <v>1</v>
-      </c>
-      <c r="E25" s="14">
-        <v>100</v>
-      </c>
-      <c r="F25" s="15">
-        <v>13</v>
-      </c>
-      <c r="G25" s="15">
-        <v>9</v>
-      </c>
-      <c r="H25" s="14">
-        <v>44.444444444444</v>
-      </c>
-      <c r="I25" s="15">
+      <c r="C25" s="14">
+        <v>7</v>
+      </c>
+      <c r="D25" s="14">
+        <v>3</v>
+      </c>
+      <c r="E25" s="15">
+        <v>133.333333333333</v>
+      </c>
+      <c r="F25" s="14">
+        <v>18</v>
+      </c>
+      <c r="G25" s="14">
+        <v>11</v>
+      </c>
+      <c r="H25" s="15">
+        <v>63.636363636363</v>
+      </c>
+      <c r="I25" s="14">
+        <v>21</v>
+      </c>
+      <c r="J25" s="14">
         <v>14</v>
       </c>
-      <c r="J25" s="15">
-        <v>11</v>
-      </c>
-      <c r="K25" s="14">
-        <v>27.272727272727</v>
-      </c>
-      <c r="L25" s="14">
-        <v>100</v>
+      <c r="K25" s="15">
+        <v>50</v>
+      </c>
+      <c r="L25" s="15">
+        <v>162.5</v>
       </c>
       <c r="M25" s="13" t="s">
         <v>21</v>
@@ -1364,35 +1364,35 @@
       <c r="A26" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="15">
+      <c r="C26" s="14">
         <v>6</v>
       </c>
-      <c r="D26" s="15">
-        <v>10</v>
-      </c>
-      <c r="E26" s="14">
-        <v>-40</v>
-      </c>
-      <c r="F26" s="15">
-        <v>31</v>
-      </c>
-      <c r="G26" s="15">
+      <c r="D26" s="14">
+        <v>4</v>
+      </c>
+      <c r="E26" s="15">
+        <v>50</v>
+      </c>
+      <c r="F26" s="14">
+        <v>29</v>
+      </c>
+      <c r="G26" s="14">
         <v>25</v>
       </c>
-      <c r="H26" s="14">
-        <v>24</v>
-      </c>
-      <c r="I26" s="15">
-        <v>34</v>
-      </c>
-      <c r="J26" s="15">
-        <v>29</v>
-      </c>
-      <c r="K26" s="14">
-        <v>17.241379310344</v>
-      </c>
-      <c r="L26" s="14">
-        <v>41.666666666666</v>
+      <c r="H26" s="15">
+        <v>16</v>
+      </c>
+      <c r="I26" s="14">
+        <v>39</v>
+      </c>
+      <c r="J26" s="14">
+        <v>33</v>
+      </c>
+      <c r="K26" s="15">
+        <v>18.181818181818</v>
+      </c>
+      <c r="L26" s="15">
+        <v>14.705882352941</v>
       </c>
       <c r="M26" s="13" t="s">
         <v>21</v>
@@ -1408,29 +1408,29 @@
       <c r="C27" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D27" s="15">
+      <c r="D27" s="14">
+        <v>1</v>
+      </c>
+      <c r="E27" s="15">
+        <v>-100</v>
+      </c>
+      <c r="F27" s="14">
         <v>2</v>
       </c>
-      <c r="E27" s="14">
-        <v>-100</v>
-      </c>
-      <c r="F27" s="15">
+      <c r="G27" s="14">
+        <v>5</v>
+      </c>
+      <c r="H27" s="15">
+        <v>-60</v>
+      </c>
+      <c r="I27" s="14">
         <v>3</v>
       </c>
-      <c r="G27" s="15">
-        <v>5</v>
-      </c>
-      <c r="H27" s="14">
-        <v>-40</v>
-      </c>
-      <c r="I27" s="15">
-        <v>3</v>
-      </c>
-      <c r="J27" s="15">
-        <v>5</v>
-      </c>
-      <c r="K27" s="14">
-        <v>-40</v>
+      <c r="J27" s="14">
+        <v>6</v>
+      </c>
+      <c r="K27" s="15">
+        <v>-50</v>
       </c>
       <c r="L27" s="13" t="s">
         <v>21</v>
@@ -1449,31 +1449,31 @@
       <c r="C28" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F28" s="15">
+      <c r="D28" s="14">
         <v>1</v>
       </c>
-      <c r="G28" s="15">
+      <c r="E28" s="15">
+        <v>-100</v>
+      </c>
+      <c r="F28" s="14">
         <v>1</v>
       </c>
-      <c r="H28" s="14">
-        <v>0</v>
-      </c>
-      <c r="I28" s="15">
+      <c r="G28" s="14">
+        <v>2</v>
+      </c>
+      <c r="H28" s="15">
+        <v>-50</v>
+      </c>
+      <c r="I28" s="14">
         <v>1</v>
       </c>
-      <c r="J28" s="15">
-        <v>1</v>
-      </c>
-      <c r="K28" s="14">
-        <v>0</v>
-      </c>
-      <c r="L28" s="14">
+      <c r="J28" s="14">
+        <v>2</v>
+      </c>
+      <c r="K28" s="15">
+        <v>-50</v>
+      </c>
+      <c r="L28" s="15">
         <v>0</v>
       </c>
       <c r="M28" s="13" t="s">
@@ -1487,25 +1487,25 @@
       <c r="A29" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="15">
+      <c r="C29" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F29" s="14">
         <v>2</v>
       </c>
-      <c r="D29" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F29" s="15">
-        <v>2</v>
-      </c>
       <c r="G29" s="13" t="s">
         <v>20</v>
       </c>
       <c r="H29" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="I29" s="15">
+      <c r="I29" s="14">
         <v>2</v>
       </c>
       <c r="J29" s="13" t="s">
@@ -1528,25 +1528,25 @@
       <c r="A30" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="15">
+      <c r="C30" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F30" s="14">
         <v>2</v>
       </c>
-      <c r="D30" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E30" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F30" s="15">
-        <v>2</v>
-      </c>
       <c r="G30" s="13" t="s">
         <v>20</v>
       </c>
       <c r="H30" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="I30" s="15">
+      <c r="I30" s="14">
         <v>2</v>
       </c>
       <c r="J30" s="13" t="s">
@@ -1631,29 +1631,29 @@
       <c r="C33" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D33" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E33" s="13" t="s">
-        <v>21</v>
+      <c r="D33" s="14">
+        <v>1</v>
+      </c>
+      <c r="E33" s="15">
+        <v>-100</v>
       </c>
       <c r="F33" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G33" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H33" s="13" t="s">
-        <v>21</v>
+      <c r="G33" s="14">
+        <v>1</v>
+      </c>
+      <c r="H33" s="15">
+        <v>-100</v>
       </c>
       <c r="I33" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="J33" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="K33" s="13" t="s">
-        <v>21</v>
+      <c r="J33" s="14">
+        <v>1</v>
+      </c>
+      <c r="K33" s="15">
+        <v>-100</v>
       </c>
       <c r="L33" s="13" t="s">
         <v>21</v>
@@ -1780,7 +1780,7 @@
       <c r="A40" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="J40" s="15">
+      <c r="J40" s="14">
         <v>27</v>
       </c>
       <c r="K40" s="13" t="s">
@@ -1800,7 +1800,7 @@
       <c r="A41" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="J41" s="15">
+      <c r="J41" s="14">
         <v>77</v>
       </c>
       <c r="K41" s="13" t="s">
@@ -1820,7 +1820,7 @@
       <c r="A42" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="J42" s="15">
+      <c r="J42" s="14">
         <v>255</v>
       </c>
       <c r="K42" s="13" t="s">
@@ -1840,7 +1840,7 @@
       <c r="A43" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="J43" s="15">
+      <c r="J43" s="14">
         <v>63</v>
       </c>
       <c r="K43" s="13" t="s">
@@ -1860,7 +1860,7 @@
       <c r="A44" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="J44" s="15">
+      <c r="J44" s="14">
         <v>247</v>
       </c>
       <c r="K44" s="13" t="s">
@@ -1880,7 +1880,7 @@
       <c r="A45" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="J45" s="15">
+      <c r="J45" s="14">
         <v>172</v>
       </c>
       <c r="K45" s="13" t="s">
